--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012009138</v>
+        <v>2013000058</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1955,54 +1955,40 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012009138</v>
+        <v>2013000058</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>25.08185695446736</v>
+        <v>36.71694586054121</v>
       </c>
       <c r="E2" t="n">
-        <v>26.60326128292291</v>
+        <v>38.20025751270781</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012009138</v>
+        <v>2013000058</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>121</v>
       </c>
       <c r="D3" t="n">
-        <v>28.89277408</v>
+        <v>37.264122</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2012009138</v>
-      </c>
-      <c r="B4" t="n">
-        <v>64</v>
-      </c>
-      <c r="C4" t="n">
-        <v>117</v>
-      </c>
-      <c r="D4" t="n">
-        <v>25.57109632</v>
-      </c>
-      <c r="E4" t="n">
-        <v>30</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n"/>

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013000058</v>
+        <v>2014001068</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1901,6 +1901,348 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2013009009</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2016001192</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>75</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2012007246</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2013006681</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2013004781</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>24</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2013008821</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2015006377</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2015001233</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2014003227</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1955,70 +2297,224 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013000058</v>
+        <v>2014001068</v>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C2" t="n">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>36.71694586054121</v>
+        <v>52.30830598327788</v>
       </c>
       <c r="E2" t="n">
-        <v>38.20025751270781</v>
+        <v>74.17639104940011</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013000058</v>
+        <v>2013009009</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>37.264122</v>
+        <v>71.91006718327789</v>
       </c>
       <c r="E3" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2016001192</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>120</v>
+      </c>
+      <c r="D4" t="n">
+        <v>69.5926176</v>
+      </c>
+      <c r="E4" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2016001192</v>
+      </c>
+      <c r="B5" t="n">
+        <v>124</v>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.45503360000002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2012007246</v>
+      </c>
+      <c r="B6" t="n">
+        <v>33</v>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40.07732198327787</v>
+      </c>
+      <c r="E6" t="n">
+        <v>46.58932198327786</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2012007246</v>
+      </c>
+      <c r="B7" t="n">
+        <v>58</v>
+      </c>
+      <c r="C7" t="n">
+        <v>120</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.88563078327788</v>
+      </c>
+      <c r="E7" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2013006681</v>
+      </c>
+      <c r="B8" t="n">
+        <v>39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>105</v>
+      </c>
+      <c r="D8" t="n">
+        <v>32.75796946054121</v>
+      </c>
+      <c r="E8" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
     <row r="9">
-      <c r="A9" s="7" t="n"/>
+      <c r="A9" s="7" t="n">
+        <v>2013004781</v>
+      </c>
+      <c r="B9" t="n">
+        <v>36</v>
+      </c>
+      <c r="C9" t="n">
+        <v>116</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.28201497824407</v>
+      </c>
+      <c r="E9" t="n">
+        <v>23.99999999824407</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n"/>
+      <c r="A10" s="7" t="n">
+        <v>2013008821</v>
+      </c>
+      <c r="B10" t="n">
+        <v>12</v>
+      </c>
+      <c r="C10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D10" t="n">
+        <v>28.20075787446736</v>
+      </c>
+      <c r="E10" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n"/>
+      <c r="A11" s="7" t="n">
+        <v>2013008821</v>
+      </c>
+      <c r="B11" t="n">
+        <v>24</v>
+      </c>
+      <c r="C11" t="n">
+        <v>110</v>
+      </c>
+      <c r="D11" t="n">
+        <v>28.33916112</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="A12" s="7" t="n">
+        <v>2015006377</v>
+      </c>
+      <c r="B12" t="n">
+        <v>60</v>
+      </c>
+      <c r="C12" t="n">
+        <v>112</v>
+      </c>
+      <c r="D12" t="n">
+        <v>34.5282434605412</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n"/>
+      <c r="A13" s="7" t="n">
+        <v>2015001233</v>
+      </c>
+      <c r="B13" t="n">
+        <v>40</v>
+      </c>
+      <c r="C13" t="n">
+        <v>117</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.91006718327789</v>
+      </c>
+      <c r="E13" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="A14" s="7" t="n">
+        <v>2014003227</v>
+      </c>
+      <c r="B14" t="n">
+        <v>108</v>
+      </c>
+      <c r="C14" t="n">
+        <v>143</v>
+      </c>
+      <c r="D14" t="n">
+        <v>71.13758399999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n"/>
@@ -2421,7 +2917,7 @@
         </is>
       </c>
       <c r="C20" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D20" s="4" t="n"/>
       <c r="E20" s="4" t="n"/>
@@ -2438,7 +2934,7 @@
         </is>
       </c>
       <c r="C21" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D21" s="4" t="n"/>
       <c r="E21" s="4" t="n"/>
@@ -2489,7 +2985,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -2506,7 +3002,7 @@
         </is>
       </c>
       <c r="C25" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D25" s="4" t="n"/>
       <c r="E25" s="4" t="n"/>
@@ -2591,7 +3087,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -2999,7 +3495,7 @@
         </is>
       </c>
       <c r="C54" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D54" s="4" t="n"/>
       <c r="E54" s="4" t="n"/>
@@ -3016,7 +3512,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3033,7 +3529,7 @@
         </is>
       </c>
       <c r="C56" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D56" s="4" t="n"/>
       <c r="E56" s="4" t="n"/>
@@ -3050,7 +3546,7 @@
         </is>
       </c>
       <c r="C57" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D57" s="4" t="n"/>
       <c r="E57" s="4" t="n"/>
@@ -3067,7 +3563,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -3084,7 +3580,7 @@
         </is>
       </c>
       <c r="C59" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D59" s="4" t="n"/>
       <c r="E59" s="4" t="n"/>
@@ -3118,7 +3614,7 @@
         </is>
       </c>
       <c r="C61" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D61" s="4" t="n"/>
       <c r="E61" s="4" t="n"/>
@@ -3135,7 +3631,7 @@
         </is>
       </c>
       <c r="C62" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D62" s="4" t="n"/>
       <c r="E62" s="4" t="n"/>
@@ -3152,7 +3648,7 @@
         </is>
       </c>
       <c r="C63" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D63" s="4" t="n"/>
       <c r="E63" s="4" t="n"/>
@@ -3985,7 +4481,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -4053,7 +4549,7 @@
         </is>
       </c>
       <c r="C116" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D116" s="4" t="n"/>
       <c r="E116" s="4" t="n"/>
@@ -4070,7 +4566,7 @@
         </is>
       </c>
       <c r="C117" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D117" s="4" t="n"/>
       <c r="E117" s="4" t="n"/>
@@ -4087,7 +4583,7 @@
         </is>
       </c>
       <c r="C118" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D118" s="4" t="n"/>
       <c r="E118" s="4" t="n"/>
@@ -4138,7 +4634,7 @@
         </is>
       </c>
       <c r="C121" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D121" s="4" t="n"/>
       <c r="E121" s="4" t="n"/>
@@ -4172,7 +4668,7 @@
         </is>
       </c>
       <c r="C123" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D123" s="4" t="n"/>
       <c r="E123" s="4" t="n"/>
@@ -4189,7 +4685,7 @@
         </is>
       </c>
       <c r="C124" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D124" s="4" t="n"/>
       <c r="E124" s="4" t="n"/>
@@ -4206,7 +4702,7 @@
         </is>
       </c>
       <c r="C125" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D125" s="4" t="n"/>
       <c r="E125" s="4" t="n"/>
@@ -4223,7 +4719,7 @@
         </is>
       </c>
       <c r="C126" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D126" s="4" t="n"/>
       <c r="E126" s="4" t="n"/>
@@ -4240,7 +4736,7 @@
         </is>
       </c>
       <c r="C127" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D127" s="4" t="n"/>
       <c r="E127" s="4" t="n"/>
@@ -4257,7 +4753,7 @@
         </is>
       </c>
       <c r="C128" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D128" s="4" t="n"/>
       <c r="E128" s="4" t="n"/>
@@ -4274,7 +4770,7 @@
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D129" s="4" t="n"/>
       <c r="E129" s="4" t="n"/>
@@ -4308,7 +4804,7 @@
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D131" s="4" t="n"/>
       <c r="E131" s="4" t="n"/>
@@ -4325,7 +4821,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D132" s="4" t="n"/>
       <c r="E132" s="4" t="n"/>
@@ -5665,7 +6161,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3.417778823849838</v>
+        <v>12.4134007854379</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5674,7 +6170,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>4.655285455192876</v>
+        <v>11.25115924142932</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5683,7 +6179,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>4.613117518197227</v>
+        <v>11.9162707236587</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5692,7 +6188,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3.590393694628405</v>
+        <v>9.986758027928804</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5701,7 +6197,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>1.899620055927064</v>
+        <v>13.42903627982093</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5710,7 +6206,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>3.386046074005912</v>
+        <v>10.12457488950765</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5719,7 +6215,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>4.491826359148846</v>
+        <v>10.81094503814908</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5728,7 +6224,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2.141853349899658</v>
+        <v>11.29447618682635</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5737,7 +6233,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>4.413171233247388</v>
+        <v>10.42823129124842</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5746,7 +6242,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.10046675172269</v>
+        <v>12.66335391266756</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5755,7 +6251,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>1.977361381449383</v>
+        <v>8.519349489165862</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5764,7 +6260,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>3.327296418495051</v>
+        <v>5.51354536970735</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5773,7 +6269,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.032305355063758</v>
+        <v>5.948561061464833</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5782,7 +6278,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>2.401169162758007</v>
+        <v>4.778718053444881</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5791,7 +6287,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>2.979423202133649</v>
+        <v>4.720689988177964</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5800,7 +6296,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3.174220137678316</v>
+        <v>4.194002594463226</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5809,7 +6305,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.8220127604764979</v>
+        <v>5.32211086583703</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5818,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>1.747192058284909</v>
+        <v>4.412646228119195</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5827,7 +6323,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0</v>
+        <v>6.361487148964551</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5836,7 +6332,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>0</v>
+        <v>5.813133146935946</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5845,7 +6341,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.782189805205844</v>
+        <v>7.182678599449456</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5854,7 +6350,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.240269406493186</v>
+        <v>5.803150684342467</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5863,7 +6359,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>4.526686051494873</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5872,7 +6368,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>0</v>
+        <v>2.657703608642355</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5917,7 +6413,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>0.05914957206058868</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6133,7 +6629,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0</v>
+        <v>0.5264319146138625</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6142,7 +6638,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>0.2897942837334158</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6151,7 +6647,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0</v>
+        <v>0.9535485340248949</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6160,7 +6656,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>0</v>
+        <v>1.64213075419306</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6169,7 +6665,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>3.579530531459622</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6178,7 +6674,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>0</v>
+        <v>3.945511122536369</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6187,7 +6683,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>0.5346750068660661</v>
+        <v>6.851083639696078</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6196,7 +6692,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>0</v>
+        <v>8.942664763082336</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6205,7 +6701,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>0</v>
+        <v>9.497976420502468</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6214,7 +6710,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>0</v>
+        <v>9.687594834129591</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6223,7 +6719,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>0.6807475928148964</v>
+        <v>10.55948441598177</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6232,7 +6728,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>0.6304091404498575</v>
+        <v>10.42227451511382</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6241,7 +6737,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.890670955574277</v>
+        <v>12.14547763776928</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6250,7 +6746,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.973996433636435</v>
+        <v>12.19500709150189</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6259,7 +6755,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>5.46458956992424</v>
+        <v>12.628032185486</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6268,7 +6764,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>6.531634200126426</v>
+        <v>13.59534851289612</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6277,7 +6773,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>5.421752492139301</v>
+        <v>12.36305716437007</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6286,7 +6782,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>5.653206280046618</v>
+        <v>14.60052705121944</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6295,7 +6791,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>6.784804300477762</v>
+        <v>15.48665883321097</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6304,7 +6800,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>5.886894342800716</v>
+        <v>15.7195831851205</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6313,7 +6809,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>7.924672362302829</v>
+        <v>15.37967226691816</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6322,7 +6818,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>6.973704335500432</v>
+        <v>15.20029426136706</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6331,7 +6827,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>4.921837183160116</v>
+        <v>14.57649749872019</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6340,7 +6836,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>5.99909471149501</v>
+        <v>13.91237332299365</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6349,7 +6845,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>7.873401939847227</v>
+        <v>12.9076393636525</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6358,7 +6854,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>8.053263875018128</v>
+        <v>13.99790907037033</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6367,7 +6863,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>9.604861733162332</v>
+        <v>12.04681466408305</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6376,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>10.25410594275376</v>
+        <v>11.66181742691968</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6385,7 +6881,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>10.44712892396732</v>
+        <v>12.0716940977928</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6394,7 +6890,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>9.444190614540915</v>
+        <v>13.08229748302041</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6403,7 +6899,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>9.469426932936651</v>
+        <v>13.71534717453471</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6412,7 +6908,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>7.458013697586588</v>
+        <v>13.4330732238215</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6421,7 +6917,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>8.354194102275738</v>
+        <v>12.0264011341729</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6430,7 +6926,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>8.756177888095745</v>
+        <v>12.56934390712034</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6439,7 +6935,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>8.617013832498859</v>
+        <v>11.61884161994159</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6448,7 +6944,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>8.761628888533355</v>
+        <v>12.56182788389634</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6457,7 +6953,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>9.443803346431462</v>
+        <v>10.02422795173509</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6466,7 +6962,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>7.854754040404131</v>
+        <v>7.987718054346506</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6475,7 +6971,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>6.645863539778624</v>
+        <v>10.13904560581095</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6484,7 +6980,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>6.306590996232226</v>
+        <v>9.69186364827412</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6493,7 +6989,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>5.880749503636777</v>
+        <v>11.21641513838306</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6502,7 +6998,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>6.059450905764875</v>
+        <v>11.42589086408038</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6511,7 +7007,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>5.178467491071885</v>
+        <v>6.250534420615038</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6520,7 +7016,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>4.131448286000936</v>
+        <v>7.972001970842436</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6529,7 +7025,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>5.01625912159817</v>
+        <v>7.380420115342837</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6538,7 +7034,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>6.303413240016774</v>
+        <v>4.154543376025701</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6547,7 +7043,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>5.533719892423697</v>
+        <v>4.939770954793564</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6556,7 +7052,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>7.550640743596633</v>
+        <v>6.87500127005675</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6565,7 +7061,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>5.026929340346356</v>
+        <v>3.481395654593977</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6574,7 +7070,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>1.014130281886276</v>
+        <v>6.234109420511338</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6583,7 +7079,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>2.978706467313115</v>
+        <v>8.091587828424924</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6592,7 +7088,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>4.884481325415291</v>
+        <v>4.224861097124099</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6601,7 +7097,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>6.723831404365622</v>
+        <v>4.567559485404765</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6610,7 +7106,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>8.500441698229691</v>
+        <v>4.913729271916418</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6619,7 +7115,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>4.962518454442799</v>
+        <v>3.975907519010032</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6628,7 +7124,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>2.735311623904102</v>
+        <v>4.285980370719889</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6637,7 +7133,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>2.527259302529183</v>
+        <v>4.909036658375094</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6646,7 +7142,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>1.372636705985011</v>
+        <v>2.810772662013517</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6655,7 +7151,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0.9067402111807754</v>
+        <v>0</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6691,7 +7187,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0</v>
+        <v>0.3542572945505983</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6700,7 +7196,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0</v>
+        <v>0.3809797207733588</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6709,7 +7205,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0</v>
+        <v>0.3844022608625227</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6736,7 +7232,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0</v>
+        <v>0.2774205942867</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6754,7 +7250,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>0</v>
+        <v>3.267973908474852</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6763,7 +7259,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>0</v>
+        <v>4.202090358078244</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6772,7 +7268,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>0</v>
+        <v>4.068755308647835</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6781,7 +7277,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>0</v>
+        <v>4.265308037577333</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6790,7 +7286,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>0</v>
+        <v>6.856967769636913</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6799,7 +7295,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>0</v>
+        <v>5.277755248930287</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6808,7 +7304,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>0</v>
+        <v>5.785423879027631</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6817,7 +7313,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>0.5227137804959421</v>
+        <v>9.072875555390725</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6826,7 +7322,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>0</v>
+        <v>8.909642348841222</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6835,7 +7331,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>0</v>
+        <v>9.160690723532566</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6844,7 +7340,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>0.5712057574558391</v>
+        <v>11.30769478170014</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6853,7 +7349,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>0.7750866403617538</v>
+        <v>11.96330635656728</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6862,7 +7358,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>0.3919943063481233</v>
+        <v>13.44664858350634</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6871,7 +7367,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>1.437577991619104</v>
+        <v>12.50216262979192</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6880,7 +7376,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>1.959210168453964</v>
+        <v>10.62540535747266</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6889,7 +7385,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>0.9059159512067072</v>
+        <v>8.946336135156066</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6898,7 +7394,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>3.721075719931958</v>
+        <v>9.64527323313707</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6907,7 +7403,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>3.112667254573749</v>
+        <v>11.31282873785997</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6916,7 +7412,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>3.460269281878975</v>
+        <v>12.2026741293541</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6925,7 +7421,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>3.560213203664893</v>
+        <v>11.88053414400986</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6934,7 +7430,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>3.79652809840977</v>
+        <v>12.35708661099782</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6943,7 +7439,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>3.21166039998581</v>
+        <v>11.10624641723938</v>
       </c>
     </row>
     <row r="145">
@@ -6951,7 +7447,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>1.753027985413109</v>
+        <v>12.34741349362544</v>
       </c>
     </row>
     <row r="146">
@@ -6998,7 +7494,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-25.67596270170484</v>
+        <v>-27.67016807192309</v>
       </c>
     </row>
     <row r="3">
@@ -7006,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-24.95514859679698</v>
+        <v>-32.85736378502116</v>
       </c>
     </row>
     <row r="4">
@@ -7014,7 +7510,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-25.72845293265884</v>
+        <v>-33.26059798714799</v>
       </c>
     </row>
     <row r="5">
@@ -7022,7 +7518,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-25.00763780110944</v>
+        <v>-30.72880967643824</v>
       </c>
     </row>
     <row r="6">
@@ -7030,7 +7526,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-25.2103052177244</v>
+        <v>-33.39240054290385</v>
       </c>
     </row>
     <row r="7">
@@ -7038,7 +7534,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-24.45636205454704</v>
+        <v>-33.28995671554298</v>
       </c>
     </row>
     <row r="8">
@@ -7046,7 +7542,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-25.05532596845799</v>
+        <v>-30.73079630953507</v>
       </c>
     </row>
     <row r="9">
@@ -7054,7 +7550,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-24.56214836923794</v>
+        <v>-32.9455124568171</v>
       </c>
     </row>
     <row r="10">
@@ -7062,7 +7558,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-24.17093492240118</v>
+        <v>-28.84310928925203</v>
       </c>
     </row>
     <row r="11">
@@ -7070,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-23.94163655351052</v>
+        <v>-32.97177993580126</v>
       </c>
     </row>
     <row r="12">
@@ -7078,7 +7574,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-24.57042568261905</v>
+        <v>-34.48967695500172</v>
       </c>
     </row>
     <row r="13">
@@ -7086,7 +7582,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-25.87105764897905</v>
+        <v>-36.14860262552944</v>
       </c>
     </row>
     <row r="14">
@@ -7094,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-25.87613470348957</v>
+        <v>-36.53851777330883</v>
       </c>
     </row>
     <row r="15">
@@ -7102,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-26.01351196901413</v>
+        <v>-35.87210490360078</v>
       </c>
     </row>
     <row r="16">
@@ -7110,7 +7606,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-25.82085112083958</v>
+        <v>-38.31508949173681</v>
       </c>
     </row>
     <row r="17">
@@ -7118,7 +7614,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-26.83285393412605</v>
+        <v>-36.67331683243044</v>
       </c>
     </row>
     <row r="18">
@@ -7126,7 +7622,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-28.35793276341641</v>
+        <v>-38.95659694945688</v>
       </c>
     </row>
     <row r="19">
@@ -7134,7 +7630,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-27.64126015593207</v>
+        <v>-39.09500208873555</v>
       </c>
     </row>
     <row r="20">
@@ -7142,7 +7638,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-26.54239157386004</v>
+        <v>-37.10623935469886</v>
       </c>
     </row>
     <row r="21">
@@ -7150,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-26.49765709164249</v>
+        <v>-35.38982034737415</v>
       </c>
     </row>
     <row r="22">
@@ -7158,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-26.40932394265397</v>
+        <v>-36.90403932126566</v>
       </c>
     </row>
     <row r="23">
@@ -7166,7 +7662,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-27.63086450228019</v>
+        <v>-38.11890701949499</v>
       </c>
     </row>
     <row r="24">
@@ -7174,7 +7670,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-29.22672171830116</v>
+        <v>-41.76803507395746</v>
       </c>
     </row>
     <row r="25">
@@ -7182,7 +7678,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-29.16819417708394</v>
+        <v>-42.06306065759549</v>
       </c>
     </row>
     <row r="26">
@@ -7190,7 +7686,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-30.5859126382033</v>
+        <v>-41.02975304310536</v>
       </c>
     </row>
     <row r="27">
@@ -7198,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-30.24139908155233</v>
+        <v>-42.71263837093597</v>
       </c>
     </row>
     <row r="28">
@@ -7206,7 +7702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-29.25542265180329</v>
+        <v>-46.1512085334497</v>
       </c>
     </row>
     <row r="29">
@@ -7214,7 +7710,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-29.66506614782571</v>
+        <v>-46.18663309042236</v>
       </c>
     </row>
     <row r="30">
@@ -7222,7 +7718,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-31.08714551189435</v>
+        <v>-46.51786497623891</v>
       </c>
     </row>
     <row r="31">
@@ -7230,7 +7726,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-32.28636462158945</v>
+        <v>-47.02512389834423</v>
       </c>
     </row>
     <row r="32">
@@ -7238,7 +7734,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-32.01593383439374</v>
+        <v>-48.53546347320995</v>
       </c>
     </row>
     <row r="33">
@@ -7246,7 +7742,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-33.24320550602538</v>
+        <v>-47.5949361301023</v>
       </c>
     </row>
     <row r="34">
@@ -7254,7 +7750,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-32.31081044643855</v>
+        <v>-46.15259394807163</v>
       </c>
     </row>
     <row r="35">
@@ -7262,7 +7758,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-32.87967678521687</v>
+        <v>-47.38253718452998</v>
       </c>
     </row>
     <row r="36">
@@ -7270,7 +7766,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-34.23224523012409</v>
+        <v>-48.26380403830259</v>
       </c>
     </row>
     <row r="37">
@@ -7278,7 +7774,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-33.98504473651822</v>
+        <v>-48.64207007535204</v>
       </c>
     </row>
     <row r="38">
@@ -7286,7 +7782,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-33.13511668191607</v>
+        <v>-48.40622205874291</v>
       </c>
     </row>
     <row r="39">
@@ -7294,7 +7790,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-34.18017152906275</v>
+        <v>-49.49142631458747</v>
       </c>
     </row>
     <row r="40">
@@ -7302,7 +7798,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-34.45087268092523</v>
+        <v>-49.79789405683023</v>
       </c>
     </row>
     <row r="41">
@@ -7310,7 +7806,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-34.71403595636836</v>
+        <v>-49.21703989182012</v>
       </c>
     </row>
     <row r="42">
@@ -7318,7 +7814,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-35.18866524896099</v>
+        <v>-48.90244327095952</v>
       </c>
     </row>
     <row r="43">
@@ -7326,7 +7822,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-34.37897371912991</v>
+        <v>-48.97365954454735</v>
       </c>
     </row>
     <row r="44">
@@ -7334,7 +7830,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-35.05428771065514</v>
+        <v>-46.45627396489667</v>
       </c>
     </row>
     <row r="45">
@@ -7342,7 +7838,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-34.02713796878803</v>
+        <v>-47.51458867442637</v>
       </c>
     </row>
     <row r="46">
@@ -7350,7 +7846,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-33.52954974959012</v>
+        <v>-47.90710760201239</v>
       </c>
     </row>
     <row r="47">
@@ -7358,7 +7854,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-34.04171249831309</v>
+        <v>-46.8726044483845</v>
       </c>
     </row>
     <row r="48">
@@ -7366,7 +7862,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-32.67755636724619</v>
+        <v>-46.44186922259748</v>
       </c>
     </row>
     <row r="49">
@@ -7374,7 +7870,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-32.3010812508743</v>
+        <v>-47.03967934669386</v>
       </c>
     </row>
     <row r="50">
@@ -7382,7 +7878,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-33.00551905205532</v>
+        <v>-45.91513214012063</v>
       </c>
     </row>
     <row r="51">
@@ -7390,7 +7886,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-33.17070865890294</v>
+        <v>-45.07245757888954</v>
       </c>
     </row>
     <row r="52">
@@ -7398,7 +7894,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-32.9054851280069</v>
+        <v>-47.18040882704967</v>
       </c>
     </row>
     <row r="53">
@@ -7406,7 +7902,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-33.13394363006567</v>
+        <v>-47.31856872139032</v>
       </c>
     </row>
     <row r="54">
@@ -7414,7 +7910,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-33.29826708112984</v>
+        <v>-46.17682425386683</v>
       </c>
     </row>
     <row r="55">
@@ -7422,7 +7918,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-32.5645143970733</v>
+        <v>-43.21643363674076</v>
       </c>
     </row>
     <row r="56">
@@ -7430,7 +7926,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-32.70178549947671</v>
+        <v>-43.967430529685</v>
       </c>
     </row>
     <row r="57">
@@ -7438,7 +7934,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-32.51162306406535</v>
+        <v>-45.55156937609371</v>
       </c>
     </row>
     <row r="58">
@@ -7446,7 +7942,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-32.28050350102423</v>
+        <v>-44.53876128760498</v>
       </c>
     </row>
     <row r="59">
@@ -7454,7 +7950,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-32.6548903345428</v>
+        <v>-42.02628505988812</v>
       </c>
     </row>
     <row r="60">
@@ -7462,7 +7958,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-31.63556678238011</v>
+        <v>-42.11644919888505</v>
       </c>
     </row>
     <row r="61">
@@ -7470,7 +7966,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-32.01623691386919</v>
+        <v>-39.98699208434683</v>
       </c>
     </row>
     <row r="62">
@@ -7478,7 +7974,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-32.72742756397253</v>
+        <v>-38.42172225381068</v>
       </c>
     </row>
     <row r="63">
@@ -7486,7 +7982,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-32.39536384624714</v>
+        <v>-38.35165385055198</v>
       </c>
     </row>
     <row r="64">
@@ -7494,7 +7990,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-31.76067659351868</v>
+        <v>-38.16951833321846</v>
       </c>
     </row>
     <row r="65">
@@ -7502,7 +7998,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-31.30835772612277</v>
+        <v>-38.47150353260013</v>
       </c>
     </row>
     <row r="66">
@@ -7510,7 +8006,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-28.81337807246629</v>
+        <v>-38.31563630215493</v>
       </c>
     </row>
     <row r="67">
@@ -7518,7 +8014,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-28.18113152923524</v>
+        <v>-36.91632852862561</v>
       </c>
     </row>
     <row r="68">
@@ -7526,7 +8022,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-27.79776308133701</v>
+        <v>-36.1711341844608</v>
       </c>
     </row>
     <row r="69">
@@ -7534,7 +8030,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-27.39211835600921</v>
+        <v>-35.80187519727249</v>
       </c>
     </row>
     <row r="70">
@@ -7542,7 +8038,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-27.67166379814516</v>
+        <v>-35.37388416764328</v>
       </c>
     </row>
     <row r="71">
@@ -7550,7 +8046,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-27.42663718974975</v>
+        <v>-35.44397677208556</v>
       </c>
     </row>
     <row r="72">
@@ -7558,7 +8054,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-26.63196886753643</v>
+        <v>-35.42834638201014</v>
       </c>
     </row>
     <row r="73">
@@ -7566,7 +8062,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-26.3067321215032</v>
+        <v>-35.20703027926449</v>
       </c>
     </row>
     <row r="74">
@@ -7574,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-26.63081582574803</v>
+        <v>-35.80559189048549</v>
       </c>
     </row>
     <row r="75">
@@ -7582,7 +8078,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-26.61877076699223</v>
+        <v>-33.96692918373518</v>
       </c>
     </row>
     <row r="76">
@@ -7590,7 +8086,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-27.81809174574522</v>
+        <v>-36.30066037197243</v>
       </c>
     </row>
     <row r="77">
@@ -7598,7 +8094,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-26.72960750042783</v>
+        <v>-35.12089572583898</v>
       </c>
     </row>
     <row r="78">
@@ -7606,7 +8102,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-25.45469625807713</v>
+        <v>-35.09801967977639</v>
       </c>
     </row>
     <row r="79">
@@ -7614,7 +8110,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-24.80319071012126</v>
+        <v>-35.05117524089471</v>
       </c>
     </row>
     <row r="80">
@@ -7622,7 +8118,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-24.87492047090658</v>
+        <v>-36.47519334788088</v>
       </c>
     </row>
     <row r="81">
@@ -7630,7 +8126,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-23.88395128560942</v>
+        <v>-35.20695011090483</v>
       </c>
     </row>
     <row r="82">
@@ -7638,7 +8134,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-23.68083956087576</v>
+        <v>-35.69061945954718</v>
       </c>
     </row>
     <row r="83">
@@ -7646,7 +8142,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-23.88698248244147</v>
+        <v>-36.65073369460413</v>
       </c>
     </row>
     <row r="84">
@@ -7654,7 +8150,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-24.60638937599692</v>
+        <v>-36.76732003856679</v>
       </c>
     </row>
     <row r="85">
@@ -7662,7 +8158,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-25.38963198558027</v>
+        <v>-35.16733477435201</v>
       </c>
     </row>
     <row r="86">
@@ -7670,7 +8166,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-25.0192182316587</v>
+        <v>-36.48639549029993</v>
       </c>
     </row>
     <row r="87">
@@ -7678,7 +8174,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-24.50407029163922</v>
+        <v>-36.2792436309072</v>
       </c>
     </row>
     <row r="88">
@@ -7686,7 +8182,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-24.71886977620302</v>
+        <v>-36.35551672852866</v>
       </c>
     </row>
     <row r="89">
@@ -7694,7 +8190,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-24.91141564791219</v>
+        <v>-36.71556574586307</v>
       </c>
     </row>
     <row r="90">
@@ -7702,7 +8198,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-24.90114018635585</v>
+        <v>-37.09256172887716</v>
       </c>
     </row>
     <row r="91">
@@ -7710,7 +8206,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-26.28168542171059</v>
+        <v>-38.55208495816605</v>
       </c>
     </row>
     <row r="92">
@@ -7718,7 +8214,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-27.31437881131594</v>
+        <v>-37.56118881097687</v>
       </c>
     </row>
     <row r="93">
@@ -7726,7 +8222,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-27.40068092564893</v>
+        <v>-36.57688222003827</v>
       </c>
     </row>
     <row r="94">
@@ -7734,7 +8230,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-27.71780735125156</v>
+        <v>-36.30101802073806</v>
       </c>
     </row>
     <row r="95">
@@ -7742,7 +8238,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-26.76424965422069</v>
+        <v>-35.53379205026353</v>
       </c>
     </row>
     <row r="96">
@@ -7750,7 +8246,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-25.97687178829464</v>
+        <v>-39.09483371393024</v>
       </c>
     </row>
     <row r="97">
@@ -7758,7 +8254,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-27.77761468510959</v>
+        <v>-38.7735248446115</v>
       </c>
     </row>
     <row r="98">
@@ -7766,7 +8262,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-27.80248086471791</v>
+        <v>-39.23105086150681</v>
       </c>
     </row>
     <row r="99">
@@ -7774,7 +8270,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-24.96986715619696</v>
+        <v>-39.99115234742334</v>
       </c>
     </row>
     <row r="100">
@@ -7782,7 +8278,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-24.7945906445719</v>
+        <v>-39.63566849381817</v>
       </c>
     </row>
     <row r="101">
@@ -7790,7 +8286,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-24.78610760117156</v>
+        <v>-40.48055431792314</v>
       </c>
     </row>
     <row r="102">
@@ -7798,7 +8294,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-27.24732460606442</v>
+        <v>-40.5124458255049</v>
       </c>
     </row>
     <row r="103">
@@ -7806,7 +8302,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-30.38299195753844</v>
+        <v>-41.03439359610087</v>
       </c>
     </row>
     <row r="104">
@@ -7814,7 +8310,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-27.58472866764014</v>
+        <v>-40.54348302848535</v>
       </c>
     </row>
     <row r="105">
@@ -7822,7 +8318,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-24.73177624448</v>
+        <v>-39.74273122061791</v>
       </c>
     </row>
     <row r="106">
@@ -7830,7 +8326,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-24.37090674818695</v>
+        <v>-41.16884720188415</v>
       </c>
     </row>
     <row r="107">
@@ -7838,7 +8334,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-24.77621857138175</v>
+        <v>-41.45302736912798</v>
       </c>
     </row>
     <row r="108">
@@ -7846,7 +8342,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-26.80507922154288</v>
+        <v>-39.67402785731655</v>
       </c>
     </row>
     <row r="109">
@@ -7854,7 +8350,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-29.55689849492776</v>
+        <v>-39.77266464423786</v>
       </c>
     </row>
     <row r="110">
@@ -7862,7 +8358,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-30.52920446349767</v>
+        <v>-40.05574885069639</v>
       </c>
     </row>
     <row r="111">
@@ -7870,7 +8366,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-31.39918230311873</v>
+        <v>-41.994404259966</v>
       </c>
     </row>
     <row r="112">
@@ -7878,7 +8374,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-30.88564895105478</v>
+        <v>-44.43332391850662</v>
       </c>
     </row>
     <row r="113">
@@ -7886,7 +8382,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-31.69246444438851</v>
+        <v>-44.79224980255711</v>
       </c>
     </row>
     <row r="114">
@@ -7894,7 +8390,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-32.4362866722802</v>
+        <v>-47.34694285907409</v>
       </c>
     </row>
     <row r="115">
@@ -7902,7 +8398,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-33.07772584035519</v>
+        <v>-47.78538736655052</v>
       </c>
     </row>
     <row r="116">
@@ -7910,7 +8406,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-32.75482520468348</v>
+        <v>-46.13641502482145</v>
       </c>
     </row>
     <row r="117">
@@ -7918,7 +8414,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-33.75311885659331</v>
+        <v>-45.12172761798918</v>
       </c>
     </row>
     <row r="118">
@@ -7926,7 +8422,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-33.37265060179438</v>
+        <v>-42.97609463340994</v>
       </c>
     </row>
     <row r="119">
@@ -7934,7 +8430,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-33.5699303646852</v>
+        <v>-43.14608244810081</v>
       </c>
     </row>
     <row r="120">
@@ -7942,7 +8438,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-33.40593699447602</v>
+        <v>-44.3557202185094</v>
       </c>
     </row>
     <row r="121">
@@ -7950,7 +8446,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-32.96201622216153</v>
+        <v>-47.18364187447403</v>
       </c>
     </row>
     <row r="122">
@@ -7958,7 +8454,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-32.26018495785859</v>
+        <v>-45.4088683138252</v>
       </c>
     </row>
     <row r="123">
@@ -7966,7 +8462,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-32.1703539762015</v>
+        <v>-43.82540894812294</v>
       </c>
     </row>
     <row r="124">
@@ -7974,7 +8470,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-31.53476417257564</v>
+        <v>-43.01671205735857</v>
       </c>
     </row>
     <row r="125">
@@ -7982,7 +8478,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-31.02768519562808</v>
+        <v>-41.99454566345599</v>
       </c>
     </row>
     <row r="126">
@@ -7990,7 +8486,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-30.37734853891519</v>
+        <v>-40.40636446382017</v>
       </c>
     </row>
     <row r="127">
@@ -7998,7 +8494,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-29.52891655318657</v>
+        <v>-40.73218655745124</v>
       </c>
     </row>
     <row r="128">
@@ -8006,7 +8502,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-29.46167657344589</v>
+        <v>-38.53335928852173</v>
       </c>
     </row>
     <row r="129">
@@ -8014,7 +8510,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-29.69646605184723</v>
+        <v>-37.51369182111833</v>
       </c>
     </row>
     <row r="130">
@@ -8022,7 +8518,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-29.03494026940333</v>
+        <v>-37.73851444331118</v>
       </c>
     </row>
     <row r="131">
@@ -8030,7 +8526,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-29.62496818484049</v>
+        <v>-37.06661424877042</v>
       </c>
     </row>
     <row r="132">
@@ -8038,7 +8534,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-29.27284090088806</v>
+        <v>-36.50007769769957</v>
       </c>
     </row>
     <row r="133">
@@ -8046,7 +8542,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-29.35879816562941</v>
+        <v>-35.22411782111544</v>
       </c>
     </row>
     <row r="134">
@@ -8054,7 +8550,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-27.96164899644823</v>
+        <v>-35.44503723927713</v>
       </c>
     </row>
     <row r="135">
@@ -8062,7 +8558,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-27.95034357630664</v>
+        <v>-33.70954108677815</v>
       </c>
     </row>
     <row r="136">
@@ -8070,7 +8566,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-26.77755162948843</v>
+        <v>-34.12824691711951</v>
       </c>
     </row>
     <row r="137">
@@ -8078,7 +8574,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-26.52925823956737</v>
+        <v>-34.7625115140904</v>
       </c>
     </row>
     <row r="138">
@@ -8086,7 +8582,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-26.35676773135852</v>
+        <v>-32.46595137525787</v>
       </c>
     </row>
     <row r="139">
@@ -8094,7 +8590,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-25.90591563105782</v>
+        <v>-27.43123332482838</v>
       </c>
     </row>
     <row r="140">
@@ -8102,7 +8598,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-25.50671846704904</v>
+        <v>-27.44179916278941</v>
       </c>
     </row>
     <row r="141">
@@ -8110,7 +8606,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-25.28424754329088</v>
+        <v>-27.10879762166484</v>
       </c>
     </row>
     <row r="142">
@@ -8118,7 +8614,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-25.16553651943173</v>
+        <v>-29.38850044008602</v>
       </c>
     </row>
     <row r="143">
@@ -8126,7 +8622,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-25.01363625445676</v>
+        <v>-27.00043305605604</v>
       </c>
     </row>
     <row r="144">
@@ -8134,7 +8630,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-25.67841931364777</v>
+        <v>-27.58095086281457</v>
       </c>
     </row>
     <row r="145">
@@ -8142,7 +8638,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-25.51335836147288</v>
+        <v>-28.0910437593265</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1792,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2014001068</v>
+        <v>2013008775</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013009009</v>
+        <v>2014002466</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2016001192</v>
+        <v>2012004053</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012007246</v>
+        <v>2012009752</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2013006681</v>
+        <v>2015000773</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013004781</v>
+        <v>2013005510</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2073,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013008821</v>
+        <v>2013001414</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2134,7 +2134,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2015006377</v>
+        <v>2014006921</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015001233</v>
+        <v>2015001760</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2014003227</v>
+        <v>2013002039</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2225,7 +2225,7 @@
         <v>7.4</v>
       </c>
       <c r="F11" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G11" t="n">
         <v>250</v>
@@ -2243,6 +2243,196 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2014002186</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>60</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2016002884</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>60</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2015004822</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2016002140</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>40</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2014006786</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>75</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2297,118 +2487,118 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2014001068</v>
+        <v>2013008775</v>
       </c>
       <c r="B2" t="n">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>52.30830598327788</v>
+        <v>5.341312038244062</v>
       </c>
       <c r="E2" t="n">
-        <v>74.17639104940011</v>
+        <v>23.99999999824407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013009009</v>
+        <v>2014002466</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>71.91006718327789</v>
+        <v>28.6159676</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2016001192</v>
+        <v>2014002466</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="C4" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>69.5926176</v>
+        <v>28.1090255</v>
       </c>
       <c r="E4" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2016001192</v>
+        <v>2012004053</v>
       </c>
       <c r="B5" t="n">
-        <v>124</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
-        <v>73.45503360000002</v>
+        <v>16.88671719824405</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>23.45733333157739</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012007246</v>
+        <v>2012009752</v>
       </c>
       <c r="B6" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>40.07732198327787</v>
+        <v>19.62259519824406</v>
       </c>
       <c r="E6" t="n">
-        <v>46.58932198327786</v>
+        <v>23.54811214111697</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012007246</v>
+        <v>2015000773</v>
       </c>
       <c r="B7" t="n">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>43.88563078327788</v>
+        <v>18.92774079446736</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013006681</v>
+        <v>2013005510</v>
       </c>
       <c r="B8" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>32.75796946054121</v>
+        <v>36.71694586054119</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
@@ -2416,129 +2606,241 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013004781</v>
+        <v>2013001414</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" t="n">
-        <v>18.28201497824407</v>
+        <v>11.35354301846736</v>
       </c>
       <c r="E9" t="n">
-        <v>23.99999999824407</v>
+        <v>29.99999999446737</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013008821</v>
+        <v>2014006921</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D10" t="n">
-        <v>28.20075787446736</v>
+        <v>36.16977026054121</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2013008821</v>
+        <v>2014006921</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="C11" t="n">
-        <v>110</v>
+        <v>143</v>
       </c>
       <c r="D11" t="n">
-        <v>28.33916112</v>
+        <v>38.632061</v>
       </c>
       <c r="E11" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015006377</v>
+        <v>2015001760</v>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C12" t="n">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>34.5282434605412</v>
+        <v>73.84127518327789</v>
       </c>
       <c r="E12" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2015001233</v>
+        <v>2013002039</v>
       </c>
       <c r="B13" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C13" t="n">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>71.91006718327789</v>
+        <v>20.1697708</v>
       </c>
       <c r="E13" t="n">
-        <v>75</v>
+        <v>23.58256477836197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2014003227</v>
+        <v>2013002039</v>
       </c>
       <c r="B14" t="n">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C14" t="n">
+        <v>56</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.17923660000001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2013002039</v>
+      </c>
+      <c r="B15" t="n">
+        <v>58</v>
+      </c>
+      <c r="C15" t="n">
+        <v>114</v>
+      </c>
+      <c r="D15" t="n">
+        <v>23.17923660000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>2014002186</v>
+      </c>
+      <c r="B16" t="n">
+        <v>24</v>
+      </c>
+      <c r="C16" t="n">
+        <v>121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>57.7791108</v>
+      </c>
+      <c r="E16" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>2014002186</v>
+      </c>
+      <c r="B17" t="n">
+        <v>138</v>
+      </c>
+      <c r="C17" t="n">
         <v>143</v>
       </c>
-      <c r="D14" t="n">
-        <v>71.13758399999999</v>
-      </c>
-      <c r="E14" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
+      <c r="D17" t="n">
+        <v>54.81792520000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>57.40755359179983</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n"/>
+      <c r="A18" s="7" t="n">
+        <v>2016002884</v>
+      </c>
+      <c r="B18" t="n">
+        <v>14</v>
+      </c>
+      <c r="C18" t="n">
+        <v>143</v>
+      </c>
+      <c r="D18" t="n">
+        <v>48.2840047956624</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n"/>
+      <c r="A19" s="7" t="n">
+        <v>2015004822</v>
+      </c>
+      <c r="B19" t="n">
+        <v>24</v>
+      </c>
+      <c r="C19" t="n">
+        <v>143</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4.675</v>
+      </c>
+      <c r="E19" t="n">
+        <v>23.99999999824409</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n"/>
+      <c r="A20" s="7" t="n">
+        <v>2016002140</v>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="n">
+        <v>15</v>
+      </c>
+      <c r="D20" t="n">
+        <v>26.5459170605412</v>
+      </c>
+      <c r="E20" t="n">
+        <v>31.97258372720786</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n"/>
+      <c r="A21" s="7" t="n">
+        <v>2016002140</v>
+      </c>
+      <c r="B21" t="n">
+        <v>21</v>
+      </c>
+      <c r="C21" t="n">
+        <v>133</v>
+      </c>
+      <c r="D21" t="n">
+        <v>28.41594232720786</v>
+      </c>
+      <c r="E21" t="n">
+        <v>39.99999946054117</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n"/>
+      <c r="A22" s="7" t="n">
+        <v>2014006786</v>
+      </c>
+      <c r="B22" t="n">
+        <v>36</v>
+      </c>
+      <c r="C22" t="n">
+        <v>110</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.28369798327788</v>
+      </c>
+      <c r="E22" t="n">
+        <v>74.61935514830037</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="n"/>
@@ -3019,7 +3321,7 @@
         </is>
       </c>
       <c r="C26" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D26" s="4" t="n"/>
       <c r="E26" s="4" t="n"/>
@@ -3036,7 +3338,7 @@
         </is>
       </c>
       <c r="C27" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D27" s="4" t="n"/>
       <c r="E27" s="4" t="n"/>
@@ -3053,7 +3355,7 @@
         </is>
       </c>
       <c r="C28" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D28" s="4" t="n"/>
       <c r="E28" s="4" t="n"/>
@@ -3087,7 +3389,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3104,7 +3406,7 @@
         </is>
       </c>
       <c r="C31" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D31" s="4" t="n"/>
       <c r="E31" s="4" t="n"/>
@@ -3155,7 +3457,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -3172,7 +3474,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -3206,7 +3508,7 @@
         </is>
       </c>
       <c r="C37" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D37" s="4" t="n"/>
       <c r="E37" s="4" t="n"/>
@@ -3223,7 +3525,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -3512,7 +3814,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3563,7 +3865,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -4481,7 +4783,7 @@
         </is>
       </c>
       <c r="C112" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D112" s="4" t="n"/>
       <c r="E112" s="4" t="n"/>
@@ -4498,7 +4800,7 @@
         </is>
       </c>
       <c r="C113" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D113" s="4" t="n"/>
       <c r="E113" s="4" t="n"/>
@@ -4515,7 +4817,7 @@
         </is>
       </c>
       <c r="C114" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D114" s="4" t="n"/>
       <c r="E114" s="4" t="n"/>
@@ -4532,7 +4834,7 @@
         </is>
       </c>
       <c r="C115" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D115" s="4" t="n"/>
       <c r="E115" s="4" t="n"/>
@@ -4600,7 +4902,7 @@
         </is>
       </c>
       <c r="C119" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D119" s="4" t="n"/>
       <c r="E119" s="4" t="n"/>
@@ -4617,7 +4919,7 @@
         </is>
       </c>
       <c r="C120" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D120" s="4" t="n"/>
       <c r="E120" s="4" t="n"/>
@@ -4651,7 +4953,7 @@
         </is>
       </c>
       <c r="C122" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D122" s="4" t="n"/>
       <c r="E122" s="4" t="n"/>
@@ -6161,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>12.4134007854379</v>
+        <v>10.22066649859171</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6170,7 +6472,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>11.25115924142932</v>
+        <v>9.849397403545471</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6179,7 +6481,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>11.9162707236587</v>
+        <v>10.25892335798966</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6188,7 +6490,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>9.986758027928804</v>
+        <v>11.22410817040364</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6197,7 +6499,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>13.42903627982093</v>
+        <v>9.449021150636824</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6206,7 +6508,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>10.12457488950765</v>
+        <v>11.8753852857028</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6215,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>10.81094503814908</v>
+        <v>12.02292477785432</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6224,7 +6526,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>11.29447618682635</v>
+        <v>11.99119843814328</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6233,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>10.42823129124842</v>
+        <v>13.39930385379778</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6242,7 +6544,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>12.66335391266756</v>
+        <v>11.79619892851434</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6251,7 +6553,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>8.519349489165862</v>
+        <v>11.520527197755</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6260,7 +6562,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5.51354536970735</v>
+        <v>9.591794254874381</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6269,7 +6571,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>5.948561061464833</v>
+        <v>11.40419462160698</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6278,7 +6580,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.778718053444881</v>
+        <v>9.828932361357296</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6287,7 +6589,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4.720689988177964</v>
+        <v>8.650985236786685</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6296,7 +6598,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4.194002594463226</v>
+        <v>9.542393394233022</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6305,7 +6607,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.32211086583703</v>
+        <v>5.228689217687473</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6314,7 +6616,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>4.412646228119195</v>
+        <v>6.421694918938087</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6323,7 +6625,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.361487148964551</v>
+        <v>6.26094233604827</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6332,7 +6634,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.813133146935946</v>
+        <v>7.125367835444974</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6341,7 +6643,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>7.182678599449456</v>
+        <v>2.796553047737032</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6350,7 +6652,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>5.803150684342467</v>
+        <v>1.663365557795145</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6359,7 +6661,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.526686051494873</v>
+        <v>5.299532200337703</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6368,7 +6670,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.657703608642355</v>
+        <v>2.495861201362874</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6377,7 +6679,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>0</v>
+        <v>3.08591606956248</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6386,7 +6688,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>0</v>
+        <v>1.228584426251756</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6395,7 +6697,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>0</v>
+        <v>1.439041976171172</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6413,7 +6715,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0.05914957206058868</v>
+        <v>0</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6422,7 +6724,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>0</v>
+        <v>1.020709182189212</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6449,7 +6751,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0</v>
+        <v>0.4454295918356278</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6458,7 +6760,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0</v>
+        <v>0.1219274831996345</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6476,7 +6778,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>0</v>
+        <v>1.11648264078493</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6485,7 +6787,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0</v>
+        <v>0.1267913530321279</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6629,7 +6931,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.5264319146138625</v>
+        <v>0.4359801900712646</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6638,7 +6940,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0.2897942837334158</v>
+        <v>0</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6647,7 +6949,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>0.9535485340248949</v>
+        <v>2.410397612960094</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6656,7 +6958,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.64213075419306</v>
+        <v>1.612673810690805</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6665,7 +6967,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>3.579530531459622</v>
+        <v>0</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6674,7 +6976,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.945511122536369</v>
+        <v>3.630865858232884</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6683,7 +6985,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.851083639696078</v>
+        <v>2.473377092045995</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6692,7 +6994,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.942664763082336</v>
+        <v>5.561692888680033</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6701,7 +7003,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>9.497976420502468</v>
+        <v>5.314259771512084</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6710,7 +7012,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>9.687594834129591</v>
+        <v>6.301823606467746</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6719,7 +7021,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>10.55948441598177</v>
+        <v>9.7280145829191</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6728,7 +7030,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>10.42227451511382</v>
+        <v>14.10401090023031</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6737,7 +7039,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>12.14547763776928</v>
+        <v>17.22469129336548</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6746,7 +7048,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>12.19500709150189</v>
+        <v>15.66734271700002</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6755,7 +7057,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>12.628032185486</v>
+        <v>18.41267252356126</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6764,7 +7066,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>13.59534851289612</v>
+        <v>18.47194716156637</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6773,7 +7075,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>12.36305716437007</v>
+        <v>19.54307226457754</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6782,7 +7084,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>14.60052705121944</v>
+        <v>17.74329371742692</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6791,7 +7093,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.48665883321097</v>
+        <v>15.25731977688374</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6800,7 +7102,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>15.7195831851205</v>
+        <v>16.66518262120869</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6809,7 +7111,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>15.37967226691816</v>
+        <v>15.130403281453</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6818,7 +7120,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>15.20029426136706</v>
+        <v>11.83007521616378</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6827,7 +7129,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>14.57649749872019</v>
+        <v>13.61108264877889</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6836,7 +7138,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>13.91237332299365</v>
+        <v>16.49678895897681</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6845,7 +7147,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>12.9076393636525</v>
+        <v>16.74557358906214</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6854,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>13.99790907037033</v>
+        <v>16.35347345238672</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6863,7 +7165,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>12.04681466408305</v>
+        <v>15.5852017722764</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6872,7 +7174,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>11.66181742691968</v>
+        <v>21.10219271348438</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6881,7 +7183,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>12.0716940977928</v>
+        <v>20.54244658665938</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6890,7 +7192,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>13.08229748302041</v>
+        <v>19.33936877946249</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6899,7 +7201,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>13.71534717453471</v>
+        <v>22.69713538845947</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6908,7 +7210,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>13.4330732238215</v>
+        <v>20.95184010629559</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6917,7 +7219,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.0264011341729</v>
+        <v>23.72612706295562</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6926,7 +7228,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>12.56934390712034</v>
+        <v>23.44973223313617</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6935,7 +7237,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>11.61884161994159</v>
+        <v>21.63640166115866</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6944,7 +7246,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>12.56182788389634</v>
+        <v>24.20193759444582</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6953,7 +7255,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>10.02422795173509</v>
+        <v>21.80813544560549</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6962,7 +7264,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>7.987718054346506</v>
+        <v>22.5189286056964</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6971,7 +7273,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>10.13904560581095</v>
+        <v>21.62342491226408</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6980,7 +7282,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>9.69186364827412</v>
+        <v>20.52866551920755</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6989,7 +7291,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>11.21641513838306</v>
+        <v>20.91633100091545</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6998,7 +7300,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>11.42589086408038</v>
+        <v>22.30802806202316</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7007,7 +7309,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>6.250534420615038</v>
+        <v>20.66451672436911</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7016,7 +7318,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>7.972001970842436</v>
+        <v>17.56886303930024</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7025,7 +7327,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>7.380420115342837</v>
+        <v>17.33296331233459</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7034,7 +7336,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>4.154543376025701</v>
+        <v>19.72581909515298</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7043,7 +7345,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>4.939770954793564</v>
+        <v>19.55520679293345</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7052,7 +7354,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>6.87500127005675</v>
+        <v>19.92798770258085</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7061,7 +7363,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>3.481395654593977</v>
+        <v>21.21957280310426</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7070,7 +7372,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>6.234109420511338</v>
+        <v>21.59035696508853</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7079,7 +7381,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>8.091587828424924</v>
+        <v>20.85008178962229</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7088,7 +7390,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>4.224861097124099</v>
+        <v>21.01186524202202</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7097,7 +7399,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>4.567559485404765</v>
+        <v>21.59388410648944</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7106,7 +7408,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>4.913729271916418</v>
+        <v>19.5548626101404</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7115,7 +7417,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>3.975907519010032</v>
+        <v>17.20487169222274</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7124,7 +7426,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>4.285980370719889</v>
+        <v>12.47424935433964</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7133,7 +7435,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>4.909036658375094</v>
+        <v>11.2341549076711</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7142,7 +7444,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>2.810772662013517</v>
+        <v>12.50295206118197</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7151,7 +7453,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>0</v>
+        <v>5.025652438391593</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7160,7 +7462,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>0</v>
+        <v>3.60703309105046</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7169,7 +7471,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>0</v>
+        <v>3.437644764044648</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7178,7 +7480,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>0</v>
+        <v>4.569243631295099</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7187,7 +7489,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>0.3542572945505983</v>
+        <v>2.797417041934639</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7196,7 +7498,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0.3809797207733588</v>
+        <v>0.9251378853352797</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7205,7 +7507,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0.3844022608625227</v>
+        <v>0.2570460458662734</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7214,7 +7516,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>0</v>
+        <v>3.711563786386001</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7223,7 +7525,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>0</v>
+        <v>1.20676060552435</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7232,7 +7534,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>0.2774205942867</v>
+        <v>2.299732228020791</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7241,7 +7543,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0</v>
+        <v>0.8214367667074995</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7250,7 +7552,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3.267973908474852</v>
+        <v>3.739147337156305</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7259,7 +7561,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>4.202090358078244</v>
+        <v>6.974753857019878</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7268,7 +7570,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.068755308647835</v>
+        <v>7.38266940352056</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7277,7 +7579,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>4.265308037577333</v>
+        <v>8.069971453196473</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7286,7 +7588,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>6.856967769636913</v>
+        <v>8.196561887233379</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7295,7 +7597,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>5.277755248930287</v>
+        <v>11.36217954479713</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7304,7 +7606,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>5.785423879027631</v>
+        <v>10.17576415942769</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7313,7 +7615,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>9.072875555390725</v>
+        <v>11.20622878780333</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7322,7 +7624,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>8.909642348841222</v>
+        <v>10.89776666951356</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7331,7 +7633,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>9.160690723532566</v>
+        <v>10.21182678989361</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7340,7 +7642,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>11.30769478170014</v>
+        <v>12.33456068104956</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7349,7 +7651,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>11.96330635656728</v>
+        <v>12.03802257215328</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7358,7 +7660,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>13.44664858350634</v>
+        <v>9.289193987903586</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7367,7 +7669,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>12.50216262979192</v>
+        <v>12.86787718688208</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7376,7 +7678,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>10.62540535747266</v>
+        <v>12.88296821757218</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7385,7 +7687,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>8.946336135156066</v>
+        <v>10.7142488971533</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7394,7 +7696,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>9.64527323313707</v>
+        <v>12.84427659597155</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7403,7 +7705,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>11.31282873785997</v>
+        <v>10.99452937595446</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7412,7 +7714,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>12.2026741293541</v>
+        <v>10.3051179929273</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7421,7 +7723,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>11.88053414400986</v>
+        <v>6.748404010437257</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7430,7 +7732,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>12.35708661099782</v>
+        <v>12.22874919559978</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7439,7 +7741,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>11.10624641723938</v>
+        <v>10.92108771229886</v>
       </c>
     </row>
     <row r="145">
@@ -7447,7 +7749,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>12.34741349362544</v>
+        <v>7.495433704078575</v>
       </c>
     </row>
     <row r="146">
@@ -7494,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-27.67016807192309</v>
+        <v>-59.64574064493931</v>
       </c>
     </row>
     <row r="3">
@@ -7502,7 +7804,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-32.85736378502116</v>
+        <v>-61.10100268438575</v>
       </c>
     </row>
     <row r="4">
@@ -7510,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-33.26059798714799</v>
+        <v>-59.25173759485956</v>
       </c>
     </row>
     <row r="5">
@@ -7518,7 +7820,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-30.72880967643824</v>
+        <v>-57.84436958132347</v>
       </c>
     </row>
     <row r="6">
@@ -7526,7 +7828,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-33.39240054290385</v>
+        <v>-58.47534511943738</v>
       </c>
     </row>
     <row r="7">
@@ -7534,7 +7836,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-33.28995671554298</v>
+        <v>-56.87288946581401</v>
       </c>
     </row>
     <row r="8">
@@ -7542,7 +7844,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-30.73079630953507</v>
+        <v>-57.37385306706418</v>
       </c>
     </row>
     <row r="9">
@@ -7550,7 +7852,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-32.9455124568171</v>
+        <v>-57.58232430508305</v>
       </c>
     </row>
     <row r="10">
@@ -7558,7 +7860,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-28.84310928925203</v>
+        <v>-56.66625367981757</v>
       </c>
     </row>
     <row r="11">
@@ -7566,7 +7868,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-32.97177993580126</v>
+        <v>-58.84506603812719</v>
       </c>
     </row>
     <row r="12">
@@ -7574,7 +7876,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-34.48967695500172</v>
+        <v>-58.16865750596142</v>
       </c>
     </row>
     <row r="13">
@@ -7582,7 +7884,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-36.14860262552944</v>
+        <v>-59.12819941863722</v>
       </c>
     </row>
     <row r="14">
@@ -7590,7 +7892,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-36.53851777330883</v>
+        <v>-58.97212756248545</v>
       </c>
     </row>
     <row r="15">
@@ -7598,7 +7900,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-35.87210490360078</v>
+        <v>-59.66906435403803</v>
       </c>
     </row>
     <row r="16">
@@ -7606,7 +7908,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-38.31508949173681</v>
+        <v>-60.98290211323466</v>
       </c>
     </row>
     <row r="17">
@@ -7614,7 +7916,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-36.67331683243044</v>
+        <v>-60.84665658480566</v>
       </c>
     </row>
     <row r="18">
@@ -7622,7 +7924,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-38.95659694945688</v>
+        <v>-62.93089167952878</v>
       </c>
     </row>
     <row r="19">
@@ -7630,7 +7932,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-39.09500208873555</v>
+        <v>-64.04072571959334</v>
       </c>
     </row>
     <row r="20">
@@ -7638,7 +7940,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-37.10623935469886</v>
+        <v>-64.28477309355438</v>
       </c>
     </row>
     <row r="21">
@@ -7646,7 +7948,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-35.38982034737415</v>
+        <v>-61.73623716664082</v>
       </c>
     </row>
     <row r="22">
@@ -7654,7 +7956,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-36.90403932126566</v>
+        <v>-66.60101808007667</v>
       </c>
     </row>
     <row r="23">
@@ -7662,7 +7964,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-38.11890701949499</v>
+        <v>-64.16316102265944</v>
       </c>
     </row>
     <row r="24">
@@ -7670,7 +7972,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-41.76803507395746</v>
+        <v>-64.61120557762217</v>
       </c>
     </row>
     <row r="25">
@@ -7678,7 +7980,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-42.06306065759549</v>
+        <v>-66.64725282912212</v>
       </c>
     </row>
     <row r="26">
@@ -7686,7 +7988,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-41.02975304310536</v>
+        <v>-64.68322670561298</v>
       </c>
     </row>
     <row r="27">
@@ -7694,7 +7996,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-42.71263837093597</v>
+        <v>-67.54334737601937</v>
       </c>
     </row>
     <row r="28">
@@ -7702,7 +8004,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-46.1512085334497</v>
+        <v>-67.4606505200848</v>
       </c>
     </row>
     <row r="29">
@@ -7710,7 +8012,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-46.18663309042236</v>
+        <v>-69.1262446883415</v>
       </c>
     </row>
     <row r="30">
@@ -7718,7 +8020,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-46.51786497623891</v>
+        <v>-70.22191430280313</v>
       </c>
     </row>
     <row r="31">
@@ -7726,7 +8028,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-47.02512389834423</v>
+        <v>-66.96535727474347</v>
       </c>
     </row>
     <row r="32">
@@ -7734,7 +8036,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-48.53546347320995</v>
+        <v>-67.61764818101534</v>
       </c>
     </row>
     <row r="33">
@@ -7742,7 +8044,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-47.5949361301023</v>
+        <v>-69.56490881939985</v>
       </c>
     </row>
     <row r="34">
@@ -7750,7 +8052,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-46.15259394807163</v>
+        <v>-68.63793077056421</v>
       </c>
     </row>
     <row r="35">
@@ -7758,7 +8060,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-47.38253718452998</v>
+        <v>-69.1129118356024</v>
       </c>
     </row>
     <row r="36">
@@ -7766,7 +8068,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-48.26380403830259</v>
+        <v>-71.16265188111089</v>
       </c>
     </row>
     <row r="37">
@@ -7774,7 +8076,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-48.64207007535204</v>
+        <v>-70.30132631572721</v>
       </c>
     </row>
     <row r="38">
@@ -7782,7 +8084,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-48.40622205874291</v>
+        <v>-72.95839063317231</v>
       </c>
     </row>
     <row r="39">
@@ -7790,7 +8092,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-49.49142631458747</v>
+        <v>-71.94170229621817</v>
       </c>
     </row>
     <row r="40">
@@ -7798,7 +8100,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-49.79789405683023</v>
+        <v>-69.76789358613712</v>
       </c>
     </row>
     <row r="41">
@@ -7806,7 +8108,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-49.21703989182012</v>
+        <v>-70.25740945730142</v>
       </c>
     </row>
     <row r="42">
@@ -7814,7 +8116,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-48.90244327095952</v>
+        <v>-69.97406228111798</v>
       </c>
     </row>
     <row r="43">
@@ -7822,7 +8124,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-48.97365954454735</v>
+        <v>-69.53963777295868</v>
       </c>
     </row>
     <row r="44">
@@ -7830,7 +8132,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-46.45627396489667</v>
+        <v>-69.49538954963251</v>
       </c>
     </row>
     <row r="45">
@@ -7838,7 +8140,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-47.51458867442637</v>
+        <v>-68.82522270003784</v>
       </c>
     </row>
     <row r="46">
@@ -7846,7 +8148,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-47.90710760201239</v>
+        <v>-68.70418455713877</v>
       </c>
     </row>
     <row r="47">
@@ -7854,7 +8156,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-46.8726044483845</v>
+        <v>-68.37862058472724</v>
       </c>
     </row>
     <row r="48">
@@ -7862,7 +8164,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-46.44186922259748</v>
+        <v>-71.5180834175023</v>
       </c>
     </row>
     <row r="49">
@@ -7870,7 +8172,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-47.03967934669386</v>
+        <v>-67.21396348560019</v>
       </c>
     </row>
     <row r="50">
@@ -7878,7 +8180,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-45.91513214012063</v>
+        <v>-69.11213940905641</v>
       </c>
     </row>
     <row r="51">
@@ -7886,7 +8188,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-45.07245757888954</v>
+        <v>-67.36104396924169</v>
       </c>
     </row>
     <row r="52">
@@ -7894,7 +8196,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-47.18040882704967</v>
+        <v>-69.63633240095551</v>
       </c>
     </row>
     <row r="53">
@@ -7902,7 +8204,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-47.31856872139032</v>
+        <v>-69.62028782577869</v>
       </c>
     </row>
     <row r="54">
@@ -7910,7 +8212,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-46.17682425386683</v>
+        <v>-68.79434476863847</v>
       </c>
     </row>
     <row r="55">
@@ -7918,7 +8220,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-43.21643363674076</v>
+        <v>-68.67175672051854</v>
       </c>
     </row>
     <row r="56">
@@ -7926,7 +8228,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-43.967430529685</v>
+        <v>-67.06805039466192</v>
       </c>
     </row>
     <row r="57">
@@ -7934,7 +8236,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-45.55156937609371</v>
+        <v>-68.50832853007387</v>
       </c>
     </row>
     <row r="58">
@@ -7942,7 +8244,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-44.53876128760498</v>
+        <v>-67.31929980331306</v>
       </c>
     </row>
     <row r="59">
@@ -7950,7 +8252,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-42.02628505988812</v>
+        <v>-67.1512915916459</v>
       </c>
     </row>
     <row r="60">
@@ -7958,7 +8260,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-42.11644919888505</v>
+        <v>-64.4666887841305</v>
       </c>
     </row>
     <row r="61">
@@ -7966,7 +8268,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-39.98699208434683</v>
+        <v>-64.63732473071127</v>
       </c>
     </row>
     <row r="62">
@@ -7974,7 +8276,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-38.42172225381068</v>
+        <v>-63.88689597369292</v>
       </c>
     </row>
     <row r="63">
@@ -7982,7 +8284,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-38.35165385055198</v>
+        <v>-61.66631767502497</v>
       </c>
     </row>
     <row r="64">
@@ -7990,7 +8292,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-38.16951833321846</v>
+        <v>-59.06247122630818</v>
       </c>
     </row>
     <row r="65">
@@ -7998,7 +8300,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-38.47150353260013</v>
+        <v>-60.42787941068872</v>
       </c>
     </row>
     <row r="66">
@@ -8006,7 +8308,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-38.31563630215493</v>
+        <v>-59.69195274627378</v>
       </c>
     </row>
     <row r="67">
@@ -8014,7 +8316,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-36.91632852862561</v>
+        <v>-57.18647251561903</v>
       </c>
     </row>
     <row r="68">
@@ -8022,7 +8324,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-36.1711341844608</v>
+        <v>-55.86345986220823</v>
       </c>
     </row>
     <row r="69">
@@ -8030,7 +8332,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-35.80187519727249</v>
+        <v>-57.18754092796731</v>
       </c>
     </row>
     <row r="70">
@@ -8038,7 +8340,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-35.37388416764328</v>
+        <v>-55.63435672946432</v>
       </c>
     </row>
     <row r="71">
@@ -8046,7 +8348,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-35.44397677208556</v>
+        <v>-56.32058870263729</v>
       </c>
     </row>
     <row r="72">
@@ -8054,7 +8356,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-35.42834638201014</v>
+        <v>-54.50938452450261</v>
       </c>
     </row>
     <row r="73">
@@ -8062,7 +8364,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-35.20703027926449</v>
+        <v>-56.32766599456087</v>
       </c>
     </row>
     <row r="74">
@@ -8070,7 +8372,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-35.80559189048549</v>
+        <v>-57.81490950941155</v>
       </c>
     </row>
     <row r="75">
@@ -8078,7 +8380,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-33.96692918373518</v>
+        <v>-58.86456617485642</v>
       </c>
     </row>
     <row r="76">
@@ -8086,7 +8388,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-36.30066037197243</v>
+        <v>-58.34634987286269</v>
       </c>
     </row>
     <row r="77">
@@ -8094,7 +8396,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-35.12089572583898</v>
+        <v>-58.49996304424222</v>
       </c>
     </row>
     <row r="78">
@@ -8102,7 +8404,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-35.09801967977639</v>
+        <v>-58.35017336716565</v>
       </c>
     </row>
     <row r="79">
@@ -8110,7 +8412,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-35.05117524089471</v>
+        <v>-58.18064655039053</v>
       </c>
     </row>
     <row r="80">
@@ -8118,7 +8420,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-36.47519334788088</v>
+        <v>-57.02446513404364</v>
       </c>
     </row>
     <row r="81">
@@ -8126,7 +8428,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-35.20695011090483</v>
+        <v>-53.31419166667003</v>
       </c>
     </row>
     <row r="82">
@@ -8134,7 +8436,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-35.69061945954718</v>
+        <v>-53.12633234762228</v>
       </c>
     </row>
     <row r="83">
@@ -8142,7 +8444,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-36.65073369460413</v>
+        <v>-52.49997744341637</v>
       </c>
     </row>
     <row r="84">
@@ -8150,7 +8452,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-36.76732003856679</v>
+        <v>-51.27260912448594</v>
       </c>
     </row>
     <row r="85">
@@ -8158,7 +8460,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-35.16733477435201</v>
+        <v>-51.25231200407106</v>
       </c>
     </row>
     <row r="86">
@@ -8166,7 +8468,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-36.48639549029993</v>
+        <v>-52.18086550226025</v>
       </c>
     </row>
     <row r="87">
@@ -8174,7 +8476,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-36.2792436309072</v>
+        <v>-51.19342517170666</v>
       </c>
     </row>
     <row r="88">
@@ -8182,7 +8484,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-36.35551672852866</v>
+        <v>-51.75505726373288</v>
       </c>
     </row>
     <row r="89">
@@ -8190,7 +8492,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-36.71556574586307</v>
+        <v>-52.4878284586969</v>
       </c>
     </row>
     <row r="90">
@@ -8198,7 +8500,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-37.09256172887716</v>
+        <v>-51.4231028038699</v>
       </c>
     </row>
     <row r="91">
@@ -8206,7 +8508,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-38.55208495816605</v>
+        <v>-50.67337843154875</v>
       </c>
     </row>
     <row r="92">
@@ -8214,7 +8516,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-37.56118881097687</v>
+        <v>-50.52199689791428</v>
       </c>
     </row>
     <row r="93">
@@ -8222,7 +8524,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-36.57688222003827</v>
+        <v>-51.32160924258739</v>
       </c>
     </row>
     <row r="94">
@@ -8230,7 +8532,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-36.30101802073806</v>
+        <v>-52.4328093473241</v>
       </c>
     </row>
     <row r="95">
@@ -8238,7 +8540,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-35.53379205026353</v>
+        <v>-52.27858618095212</v>
       </c>
     </row>
     <row r="96">
@@ -8246,7 +8548,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-39.09483371393024</v>
+        <v>-51.53377639086966</v>
       </c>
     </row>
     <row r="97">
@@ -8254,7 +8556,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-38.7735248446115</v>
+        <v>-55.22131088458459</v>
       </c>
     </row>
     <row r="98">
@@ -8262,7 +8564,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-39.23105086150681</v>
+        <v>-54.47160222926456</v>
       </c>
     </row>
     <row r="99">
@@ -8270,7 +8572,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-39.99115234742334</v>
+        <v>-52.36547818212544</v>
       </c>
     </row>
     <row r="100">
@@ -8278,7 +8580,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-39.63566849381817</v>
+        <v>-52.12654742464029</v>
       </c>
     </row>
     <row r="101">
@@ -8286,7 +8588,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-40.48055431792314</v>
+        <v>-52.28059011439242</v>
       </c>
     </row>
     <row r="102">
@@ -8294,7 +8596,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-40.5124458255049</v>
+        <v>-51.62280962278118</v>
       </c>
     </row>
     <row r="103">
@@ -8302,7 +8604,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-41.03439359610087</v>
+        <v>-51.53576724804957</v>
       </c>
     </row>
     <row r="104">
@@ -8310,7 +8612,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-40.54348302848535</v>
+        <v>-50.98107078207694</v>
       </c>
     </row>
     <row r="105">
@@ -8318,7 +8620,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-39.74273122061791</v>
+        <v>-52.12878999771988</v>
       </c>
     </row>
     <row r="106">
@@ -8326,7 +8628,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-41.16884720188415</v>
+        <v>-51.5372378265116</v>
       </c>
     </row>
     <row r="107">
@@ -8334,7 +8636,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-41.45302736912798</v>
+        <v>-51.91615502246867</v>
       </c>
     </row>
     <row r="108">
@@ -8342,7 +8644,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-39.67402785731655</v>
+        <v>-54.32638202870082</v>
       </c>
     </row>
     <row r="109">
@@ -8350,7 +8652,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-39.77266464423786</v>
+        <v>-57.54450546053417</v>
       </c>
     </row>
     <row r="110">
@@ -8358,7 +8660,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-40.05574885069639</v>
+        <v>-56.32039050562358</v>
       </c>
     </row>
     <row r="111">
@@ -8366,7 +8668,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-41.994404259966</v>
+        <v>-53.57067728798256</v>
       </c>
     </row>
     <row r="112">
@@ -8374,7 +8676,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-44.43332391850662</v>
+        <v>-60.04721849324805</v>
       </c>
     </row>
     <row r="113">
@@ -8382,7 +8684,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-44.79224980255711</v>
+        <v>-62.91796067064453</v>
       </c>
     </row>
     <row r="114">
@@ -8390,7 +8692,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-47.34694285907409</v>
+        <v>-64.87018846344931</v>
       </c>
     </row>
     <row r="115">
@@ -8398,7 +8700,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-47.78538736655052</v>
+        <v>-64.87097304079219</v>
       </c>
     </row>
     <row r="116">
@@ -8406,7 +8708,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-46.13641502482145</v>
+        <v>-61.85593422535474</v>
       </c>
     </row>
     <row r="117">
@@ -8414,7 +8716,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-45.12172761798918</v>
+        <v>-61.36851671263627</v>
       </c>
     </row>
     <row r="118">
@@ -8422,7 +8724,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-42.97609463340994</v>
+        <v>-63.90946509467356</v>
       </c>
     </row>
     <row r="119">
@@ -8430,7 +8732,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-43.14608244810081</v>
+        <v>-63.25254557874793</v>
       </c>
     </row>
     <row r="120">
@@ -8438,7 +8740,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-44.3557202185094</v>
+        <v>-62.96232188368285</v>
       </c>
     </row>
     <row r="121">
@@ -8446,7 +8748,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-47.18364187447403</v>
+        <v>-62.94578947128107</v>
       </c>
     </row>
     <row r="122">
@@ -8454,7 +8756,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-45.4088683138252</v>
+        <v>-64.63054325884337</v>
       </c>
     </row>
     <row r="123">
@@ -8462,7 +8764,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-43.82540894812294</v>
+        <v>-64.10706401363315</v>
       </c>
     </row>
     <row r="124">
@@ -8470,7 +8772,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-43.01671205735857</v>
+        <v>-62.49968280331607</v>
       </c>
     </row>
     <row r="125">
@@ -8478,7 +8780,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-41.99454566345599</v>
+        <v>-62.2044199314348</v>
       </c>
     </row>
     <row r="126">
@@ -8486,7 +8788,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-40.40636446382017</v>
+        <v>-59.81949879431103</v>
       </c>
     </row>
     <row r="127">
@@ -8494,7 +8796,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-40.73218655745124</v>
+        <v>-61.46557755176566</v>
       </c>
     </row>
     <row r="128">
@@ -8502,7 +8804,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-38.53335928852173</v>
+        <v>-61.33339345645044</v>
       </c>
     </row>
     <row r="129">
@@ -8510,7 +8812,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-37.51369182111833</v>
+        <v>-59.72272582629301</v>
       </c>
     </row>
     <row r="130">
@@ -8518,7 +8820,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-37.73851444331118</v>
+        <v>-59.13597970015303</v>
       </c>
     </row>
     <row r="131">
@@ -8526,7 +8828,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-37.06661424877042</v>
+        <v>-59.86593888724305</v>
       </c>
     </row>
     <row r="132">
@@ -8534,7 +8836,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-36.50007769769957</v>
+        <v>-61.20293057719656</v>
       </c>
     </row>
     <row r="133">
@@ -8542,7 +8844,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-35.22411782111544</v>
+        <v>-60.80315713998618</v>
       </c>
     </row>
     <row r="134">
@@ -8550,7 +8852,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-35.44503723927713</v>
+        <v>-59.24298190804531</v>
       </c>
     </row>
     <row r="135">
@@ -8558,7 +8860,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-33.70954108677815</v>
+        <v>-59.2737332187168</v>
       </c>
     </row>
     <row r="136">
@@ -8566,7 +8868,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-34.12824691711951</v>
+        <v>-59.30175453726912</v>
       </c>
     </row>
     <row r="137">
@@ -8574,7 +8876,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-34.7625115140904</v>
+        <v>-58.6784444972596</v>
       </c>
     </row>
     <row r="138">
@@ -8582,7 +8884,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-32.46595137525787</v>
+        <v>-59.55224885232155</v>
       </c>
     </row>
     <row r="139">
@@ -8590,7 +8892,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-27.43123332482838</v>
+        <v>-60.33503402234334</v>
       </c>
     </row>
     <row r="140">
@@ -8598,7 +8900,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-27.44179916278941</v>
+        <v>-58.86274849244579</v>
       </c>
     </row>
     <row r="141">
@@ -8606,7 +8908,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-27.10879762166484</v>
+        <v>-58.91484279583642</v>
       </c>
     </row>
     <row r="142">
@@ -8614,7 +8916,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-29.38850044008602</v>
+        <v>-58.43455237726756</v>
       </c>
     </row>
     <row r="143">
@@ -8622,7 +8924,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-27.00043305605604</v>
+        <v>-60.07175187395164</v>
       </c>
     </row>
     <row r="144">
@@ -8630,7 +8932,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-27.58095086281457</v>
+        <v>-58.33045905463531</v>
       </c>
     </row>
     <row r="145">
@@ -8638,7 +8940,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-28.0910437593265</v>
+        <v>-57.85588382158043</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="0.0" numFmtId="164"/>
-    <numFmt formatCode="0.000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,101 +125,33 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -599,7 +531,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1782,7 +1714,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1792,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1732,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="5" width="12.85546875"/>
+    <col width="12.85546875" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1868,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013008775</v>
+        <v>2015005584</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1883,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1906,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014002466</v>
+        <v>2013004091</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1921,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1944,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2012004053</v>
+        <v>2014002800</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1959,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1982,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012009752</v>
+        <v>2012000112</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1997,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -2020,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015000773</v>
+        <v>2014002942</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -2035,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -2058,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2013005510</v>
+        <v>2015009290</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2096,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013001414</v>
+        <v>2013007561</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2111,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2134,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014006921</v>
+        <v>2014002513</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2172,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015001760</v>
+        <v>2015005982</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2210,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013002039</v>
+        <v>2013008171</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2248,7 +2180,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2014002186</v>
+        <v>2015004708</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -2263,7 +2195,7 @@
         <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>250</v>
@@ -2286,7 +2218,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2016002884</v>
+        <v>2014008871</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -2301,7 +2233,7 @@
         <v>7.4</v>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G13" t="n">
         <v>250</v>
@@ -2324,7 +2256,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2015004822</v>
+        <v>2014000015</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2339,7 +2271,7 @@
         <v>7.4</v>
       </c>
       <c r="F14" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G14" t="n">
         <v>250</v>
@@ -2362,7 +2294,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2016002140</v>
+        <v>2013001604</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -2377,7 +2309,7 @@
         <v>7.4</v>
       </c>
       <c r="F15" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>250</v>
@@ -2400,7 +2332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2014006786</v>
+        <v>2013000471</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -2415,7 +2347,7 @@
         <v>7.4</v>
       </c>
       <c r="F16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G16" t="n">
         <v>250</v>
@@ -2436,8 +2368,236 @@
         <v>150</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2013007003</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2014002775</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2014004625</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>60</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2014000677</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>24</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2015002119</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>60</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2016006268</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>40</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2455,7 +2615,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="15.85546875"/>
+    <col width="15.85546875" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2487,50 +2647,50 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013008775</v>
+        <v>2015005584</v>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>5.341312038244062</v>
+        <v>17.82051487446736</v>
       </c>
       <c r="E2" t="n">
-        <v>23.99999999824407</v>
+        <v>29.891466661134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014002466</v>
+        <v>2013004091</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>28.6159676</v>
+        <v>29.55128719566242</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>59.99999999566239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014002466</v>
+        <v>2014002800</v>
       </c>
       <c r="B4" t="n">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>28.1090255</v>
+        <v>27.50874168</v>
       </c>
       <c r="E4" t="n">
         <v>30</v>
@@ -2538,135 +2698,135 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2012004053</v>
+        <v>2014002800</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D5" t="n">
-        <v>16.88671719824405</v>
+        <v>28.89277408</v>
       </c>
       <c r="E5" t="n">
-        <v>23.45733333157739</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012009752</v>
+        <v>2012000112</v>
       </c>
       <c r="B6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C6" t="n">
         <v>114</v>
       </c>
       <c r="D6" t="n">
-        <v>19.62259519824406</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E6" t="n">
-        <v>23.54811214111697</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2015000773</v>
+        <v>2014002942</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D7" t="n">
-        <v>18.92774079446736</v>
+        <v>49.6358504</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013005510</v>
+        <v>2014002942</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>118</v>
       </c>
       <c r="C8" t="n">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>36.71694586054119</v>
+        <v>59.25970359999999</v>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2013001414</v>
+        <v>2015009290</v>
       </c>
       <c r="B9" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D9" t="n">
-        <v>11.35354301846736</v>
+        <v>26.86778506054121</v>
       </c>
       <c r="E9" t="n">
-        <v>29.99999999446737</v>
+        <v>39.99952961625854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2014006921</v>
+        <v>2013007561</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D10" t="n">
-        <v>36.16977026054121</v>
+        <v>67.67267496327788</v>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014006921</v>
+        <v>2014002513</v>
       </c>
       <c r="B11" t="n">
-        <v>134</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D11" t="n">
-        <v>38.632061</v>
+        <v>21.8707843605412</v>
       </c>
       <c r="E11" t="n">
-        <v>40</v>
+        <v>39.99987339891391</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015001760</v>
+        <v>2015005982</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D12" t="n">
-        <v>73.84127518327789</v>
+        <v>72.9142953432779</v>
       </c>
       <c r="E12" t="n">
         <v>75</v>
@@ -2674,101 +2834,101 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2013002039</v>
+        <v>2013008171</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="D13" t="n">
-        <v>20.1697708</v>
+        <v>23.01508391824407</v>
       </c>
       <c r="E13" t="n">
-        <v>23.58256477836197</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>2013002039</v>
+        <v>2015004708</v>
       </c>
       <c r="B14" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="D14" t="n">
-        <v>23.17923660000001</v>
+        <v>4.675</v>
       </c>
       <c r="E14" t="n">
-        <v>24</v>
+        <v>23.89146666491075</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>2013002039</v>
+        <v>2014008871</v>
       </c>
       <c r="B15" t="n">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="C15" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15" t="n">
-        <v>23.17923660000001</v>
+        <v>70.26854039999999</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>2014002186</v>
+        <v>2014000015</v>
       </c>
       <c r="B16" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7791108</v>
+        <v>59.45377558327787</v>
       </c>
       <c r="E16" t="n">
-        <v>60</v>
+        <v>74.97909135847736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>2014002186</v>
+        <v>2013001604</v>
       </c>
       <c r="B17" t="n">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="C17" t="n">
         <v>143</v>
       </c>
       <c r="D17" t="n">
-        <v>54.81792520000001</v>
+        <v>23.91025743446736</v>
       </c>
       <c r="E17" t="n">
-        <v>57.40755359179983</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>2016002884</v>
+        <v>2013000471</v>
       </c>
       <c r="B18" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C18" t="n">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D18" t="n">
-        <v>48.2840047956624</v>
+        <v>48.895554</v>
       </c>
       <c r="E18" t="n">
         <v>60</v>
@@ -2776,80 +2936,122 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>2015004822</v>
+        <v>2013000471</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="C19" t="n">
         <v>143</v>
       </c>
       <c r="D19" t="n">
-        <v>4.675</v>
+        <v>54.33512320000001</v>
       </c>
       <c r="E19" t="n">
-        <v>23.99999999824409</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>2016002140</v>
+        <v>2013007003</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D20" t="n">
-        <v>26.5459170605412</v>
+        <v>23.57390537446737</v>
       </c>
       <c r="E20" t="n">
-        <v>31.97258372720786</v>
+        <v>27.57396081277274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>2016002140</v>
+        <v>2014002775</v>
       </c>
       <c r="B21" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D21" t="n">
-        <v>28.41594232720786</v>
+        <v>22.80303151446736</v>
       </c>
       <c r="E21" t="n">
-        <v>39.99999946054117</v>
+        <v>29.4573333278007</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>2014006786</v>
+        <v>2014004625</v>
       </c>
       <c r="B22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C22" t="n">
+        <v>122</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.5244699956624</v>
+      </c>
+      <c r="E22" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>2014000677</v>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>114</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.675</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23.99999999824409</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>2015002119</v>
+      </c>
+      <c r="B24" t="n">
+        <v>27</v>
+      </c>
+      <c r="C24" t="n">
         <v>110</v>
       </c>
-      <c r="D22" t="n">
-        <v>34.28369798327788</v>
-      </c>
-      <c r="E22" t="n">
-        <v>74.61935514830037</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
+      <c r="D24" t="n">
+        <v>42.29725999566239</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n"/>
+      <c r="A25" s="7" t="n">
+        <v>2016006268</v>
+      </c>
+      <c r="B25" t="n">
+        <v>28</v>
+      </c>
+      <c r="C25" t="n">
+        <v>143</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="E25" t="n">
+        <v>39.99999484277685</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n"/>
@@ -2864,7 +3066,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2882,8 +3084,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="11.7109375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
+    <col width="11.7109375" customWidth="1" min="2" max="2"/>
+    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3372,7 +3574,7 @@
         </is>
       </c>
       <c r="C29" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D29" s="4" t="n"/>
       <c r="E29" s="4" t="n"/>
@@ -3389,7 +3591,7 @@
         </is>
       </c>
       <c r="C30" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D30" s="4" t="n"/>
       <c r="E30" s="4" t="n"/>
@@ -3423,7 +3625,7 @@
         </is>
       </c>
       <c r="C32" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D32" s="4" t="n"/>
       <c r="E32" s="4" t="n"/>
@@ -3440,7 +3642,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -3491,7 +3693,7 @@
         </is>
       </c>
       <c r="C36" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D36" s="4" t="n"/>
       <c r="E36" s="4" t="n"/>
@@ -3542,7 +3744,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -3559,7 +3761,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -3576,7 +3778,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3593,7 +3795,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3610,7 +3812,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.311</v>
+        <v>0.136</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3627,7 +3829,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3644,7 +3846,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3661,7 +3863,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3678,7 +3880,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3695,7 +3897,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3712,7 +3914,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3729,7 +3931,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3746,7 +3948,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -3763,7 +3965,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3780,7 +3982,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -3814,7 +4016,7 @@
         </is>
       </c>
       <c r="C55" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D55" s="4" t="n"/>
       <c r="E55" s="4" t="n"/>
@@ -3865,7 +4067,7 @@
         </is>
       </c>
       <c r="C58" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D58" s="4" t="n"/>
       <c r="E58" s="4" t="n"/>
@@ -5784,7 +5986,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5859,7 +6061,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5945,7 +6147,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6056,7 +6258,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6102,7 +6304,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6421,7 +6623,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6439,10 +6641,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6463,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>10.22066649859171</v>
+        <v>14.02239393561416</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6472,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>9.849397403545471</v>
+        <v>14.61790543314903</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6481,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>10.25892335798966</v>
+        <v>12.91196496393156</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6490,7 +6692,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>11.22410817040364</v>
+        <v>12.7211160834819</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6499,7 +6701,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>9.449021150636824</v>
+        <v>13.17079186566248</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6508,7 +6710,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>11.8753852857028</v>
+        <v>13.23141093365627</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6517,7 +6719,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>12.02292477785432</v>
+        <v>13.73757223590615</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6526,7 +6728,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>11.99119843814328</v>
+        <v>14.10947127760683</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6535,7 +6737,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>13.39930385379778</v>
+        <v>12.86889123407261</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6544,7 +6746,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>11.79619892851434</v>
+        <v>13.25650761368802</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6553,7 +6755,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>11.520527197755</v>
+        <v>13.98182599312154</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6562,7 +6764,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>9.591794254874381</v>
+        <v>13.38608840858104</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6571,7 +6773,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>11.40419462160698</v>
+        <v>13.34897616721052</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6580,7 +6782,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>9.828932361357296</v>
+        <v>12.53778616349243</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6589,7 +6791,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>8.650985236786685</v>
+        <v>14.38067575256507</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6598,7 +6800,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>9.542393394233022</v>
+        <v>12.80717981781117</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6607,7 +6809,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>5.228689217687473</v>
+        <v>15.40159914033108</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6616,7 +6818,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.421694918938087</v>
+        <v>13.92079278505251</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6625,7 +6827,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.26094233604827</v>
+        <v>12.85509420053776</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6634,7 +6836,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>7.125367835444974</v>
+        <v>14.31508041168286</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6643,7 +6845,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>2.796553047737032</v>
+        <v>14.19476990025722</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6652,7 +6854,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>1.663365557795145</v>
+        <v>13.38311500704231</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6661,7 +6863,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>5.299532200337703</v>
+        <v>12.28869490428164</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6670,7 +6872,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.495861201362874</v>
+        <v>10.81924256170982</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6679,7 +6881,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>3.08591606956248</v>
+        <v>11.80972419371816</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6688,7 +6890,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.228584426251756</v>
+        <v>10.82316568398362</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6697,7 +6899,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.439041976171172</v>
+        <v>11.48323328536136</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6706,7 +6908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>0</v>
+        <v>10.10806679137698</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6715,7 +6917,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>0</v>
+        <v>9.368197124492337</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6724,7 +6926,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>1.020709182189212</v>
+        <v>9.122961949386088</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6733,7 +6935,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>0</v>
+        <v>7.924734633787546</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6742,7 +6944,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0</v>
+        <v>6.899506051241517</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6751,7 +6953,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>0.4454295918356278</v>
+        <v>7.731954790922667</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6760,7 +6962,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>0.1219274831996345</v>
+        <v>7.319058911596025</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6769,7 +6971,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>0</v>
+        <v>8.936733088712256</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6778,7 +6980,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.11648264078493</v>
+        <v>8.03388007735694</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6787,7 +6989,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>0.1267913530321279</v>
+        <v>7.43307598978868</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6796,7 +6998,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>0</v>
+        <v>8.554117793523925</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6805,7 +7007,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>0</v>
+        <v>8.83531501382455</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6814,7 +7016,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0</v>
+        <v>8.476281292234683</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6823,7 +7025,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0</v>
+        <v>7.977818371381764</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6832,7 +7034,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0</v>
+        <v>8.678248307917944</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6841,7 +7043,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0</v>
+        <v>9.141563212851537</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6850,7 +7052,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>0</v>
+        <v>9.217105409753234</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6859,7 +7061,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>0</v>
+        <v>9.862484008763058</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6868,7 +7070,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>0</v>
+        <v>8.724712397384501</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6877,7 +7079,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>0</v>
+        <v>10.50317033621049</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6886,7 +7088,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>0</v>
+        <v>10.82021316006572</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6895,7 +7097,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>0</v>
+        <v>11.12083042924923</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6904,7 +7106,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>0</v>
+        <v>11.258027357442</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6913,7 +7115,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>0</v>
+        <v>12.32850752765568</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6922,7 +7124,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>0</v>
+        <v>12.35241318113825</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6931,7 +7133,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>0.4359801900712646</v>
+        <v>11.53028370682432</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6940,7 +7142,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>0</v>
+        <v>12.01557985373955</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6949,7 +7151,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.410397612960094</v>
+        <v>11.81690393923422</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6958,7 +7160,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>1.612673810690805</v>
+        <v>11.06827728916169</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6967,7 +7169,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>0</v>
+        <v>12.43936469685623</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6976,7 +7178,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>3.630865858232884</v>
+        <v>12.32727866085628</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6985,7 +7187,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.473377092045995</v>
+        <v>13.59977336364367</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6994,7 +7196,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>5.561692888680033</v>
+        <v>13.03851576268574</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7003,7 +7205,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.314259771512084</v>
+        <v>13.23562610939532</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7012,7 +7214,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.301823606467746</v>
+        <v>14.93695500777006</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7021,7 +7223,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>9.7280145829191</v>
+        <v>15.20540086593097</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7030,7 +7232,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>14.10401090023031</v>
+        <v>13.80864122145453</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7039,7 +7241,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>17.22469129336548</v>
+        <v>16.6293122308033</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7048,7 +7250,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>15.66734271700002</v>
+        <v>16.81288548597661</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7057,7 +7259,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>18.41267252356126</v>
+        <v>14.93170498888389</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7066,7 +7268,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>18.47194716156637</v>
+        <v>16.94114440831971</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7075,7 +7277,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>19.54307226457754</v>
+        <v>14.95212102873389</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7084,7 +7286,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>17.74329371742692</v>
+        <v>15.00872194953415</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7093,7 +7295,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>15.25731977688374</v>
+        <v>17.10691723716098</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7102,7 +7304,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>16.66518262120869</v>
+        <v>17.95647140877105</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7111,7 +7313,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>15.130403281453</v>
+        <v>17.81155207208394</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7120,7 +7322,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>11.83007521616378</v>
+        <v>19.02531029841299</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7129,7 +7331,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>13.61108264877889</v>
+        <v>19.18078750666544</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7138,7 +7340,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>16.49678895897681</v>
+        <v>19.40370307681911</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7147,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>16.74557358906214</v>
+        <v>20.49885306100406</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7156,7 +7358,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>16.35347345238672</v>
+        <v>19.93967853366565</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7165,7 +7367,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>15.5852017722764</v>
+        <v>20.09255406885317</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7174,7 +7376,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>21.10219271348438</v>
+        <v>21.13006942561127</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7183,7 +7385,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>20.54244658665938</v>
+        <v>20.72039079116544</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7192,7 +7394,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>19.33936877946249</v>
+        <v>20.71023305156516</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7201,7 +7403,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>22.69713538845947</v>
+        <v>22.4147529544729</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7210,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>20.95184010629559</v>
+        <v>20.39031286622802</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7219,7 +7421,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>23.72612706295562</v>
+        <v>20.21783231641943</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7228,7 +7430,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>23.44973223313617</v>
+        <v>21.38317092145995</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7237,7 +7439,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>21.63640166115866</v>
+        <v>20.89888110701871</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7246,7 +7448,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>24.20193759444582</v>
+        <v>21.18951155032213</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7255,7 +7457,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>21.80813544560549</v>
+        <v>21.02368052428379</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7264,7 +7466,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>22.5189286056964</v>
+        <v>18.14117101259535</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7273,7 +7475,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>21.62342491226408</v>
+        <v>19.17847239680491</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7282,7 +7484,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>20.52866551920755</v>
+        <v>21.16441132268382</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7291,7 +7493,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>20.91633100091545</v>
+        <v>22.14686401999121</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7300,7 +7502,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>22.30802806202316</v>
+        <v>20.81985761785084</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7309,7 +7511,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>20.66451672436911</v>
+        <v>21.76396402705532</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7318,7 +7520,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>17.56886303930024</v>
+        <v>22.41163041610476</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7327,7 +7529,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>17.33296331233459</v>
+        <v>21.51515884331679</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7336,7 +7538,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>19.72581909515298</v>
+        <v>20.50063927876799</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7345,7 +7547,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>19.55520679293345</v>
+        <v>20.96791948847777</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7354,7 +7556,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>19.92798770258085</v>
+        <v>21.03568751226446</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7363,7 +7565,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>21.21957280310426</v>
+        <v>20.91244365150671</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7372,7 +7574,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>21.59035696508853</v>
+        <v>21.74995768185321</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7381,7 +7583,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>20.85008178962229</v>
+        <v>21.57381169025122</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7390,7 +7592,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>21.01186524202202</v>
+        <v>21.77077099581394</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7399,7 +7601,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>21.59388410648944</v>
+        <v>21.57391609341709</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7408,7 +7610,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>19.5548626101404</v>
+        <v>21.45821603812885</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7417,7 +7619,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>17.20487169222274</v>
+        <v>18.89073318360581</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7426,7 +7628,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>12.47424935433964</v>
+        <v>17.74971720048079</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7435,7 +7637,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>11.2341549076711</v>
+        <v>16.8370348702668</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7444,7 +7646,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>12.50295206118197</v>
+        <v>15.46302925837165</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7453,7 +7655,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>5.025652438391593</v>
+        <v>14.75890796782107</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7462,7 +7664,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>3.60703309105046</v>
+        <v>15.47983600729607</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7471,7 +7673,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>3.437644764044648</v>
+        <v>15.96412373931648</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7480,7 +7682,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>4.569243631295099</v>
+        <v>15.95827190676713</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7489,7 +7691,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>2.797417041934639</v>
+        <v>16.01493320545651</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7498,7 +7700,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>0.9251378853352797</v>
+        <v>16.27071474601576</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7507,7 +7709,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>0.2570460458662734</v>
+        <v>16.30387976285459</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7516,7 +7718,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>3.711563786386001</v>
+        <v>16.25760130812664</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7525,7 +7727,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>1.20676060552435</v>
+        <v>15.46611657269398</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7534,7 +7736,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>2.299732228020791</v>
+        <v>15.51028574206606</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7543,7 +7745,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>0.8214367667074995</v>
+        <v>15.28174371529595</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7552,7 +7754,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>3.739147337156305</v>
+        <v>14.05610288701674</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7561,7 +7763,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>6.974753857019878</v>
+        <v>13.61423504418255</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7570,7 +7772,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>7.38266940352056</v>
+        <v>14.6701437828623</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7579,7 +7781,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>8.069971453196473</v>
+        <v>14.51647907153847</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7588,7 +7790,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>8.196561887233379</v>
+        <v>14.31326729178379</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7597,7 +7799,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>11.36217954479713</v>
+        <v>15.68515875422608</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7606,7 +7808,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>10.17576415942769</v>
+        <v>13.248859152241</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7615,7 +7817,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>11.20622878780333</v>
+        <v>14.30372327950271</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7624,7 +7826,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>10.89776666951356</v>
+        <v>15.19188875738979</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7633,7 +7835,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>10.21182678989361</v>
+        <v>13.71081059204559</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7642,7 +7844,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>12.33456068104956</v>
+        <v>13.09127264859441</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7651,7 +7853,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>12.03802257215328</v>
+        <v>13.64333893908364</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7660,7 +7862,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>9.289193987903586</v>
+        <v>13.7082918414817</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7669,7 +7871,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>12.86787718688208</v>
+        <v>13.98138707508724</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7678,7 +7880,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>12.88296821757218</v>
+        <v>13.4101412509816</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7687,7 +7889,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>10.7142488971533</v>
+        <v>12.54662040552702</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7696,7 +7898,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>12.84427659597155</v>
+        <v>12.96155891618673</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7705,7 +7907,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>10.99452937595446</v>
+        <v>13.25919974123626</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7714,7 +7916,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>10.3051179929273</v>
+        <v>14.16767860291836</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7723,7 +7925,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>6.748404010437257</v>
+        <v>13.87208328404773</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7732,7 +7934,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>12.22874919559978</v>
+        <v>12.88868520229592</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7741,7 +7943,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>10.92108771229886</v>
+        <v>13.77443265094424</v>
       </c>
     </row>
     <row r="145">
@@ -7749,14 +7951,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>7.495433704078575</v>
+        <v>14.76257250025429</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -7774,8 +7976,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7796,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-59.64574064493931</v>
+        <v>-38.66103156395496</v>
       </c>
     </row>
     <row r="3">
@@ -7804,7 +8006,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-61.10100268438575</v>
+        <v>-38.43605387197604</v>
       </c>
     </row>
     <row r="4">
@@ -7812,7 +8014,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-59.25173759485956</v>
+        <v>-38.58294921408108</v>
       </c>
     </row>
     <row r="5">
@@ -7820,7 +8022,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-57.84436958132347</v>
+        <v>-38.72669202885839</v>
       </c>
     </row>
     <row r="6">
@@ -7828,7 +8030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-58.47534511943738</v>
+        <v>-38.91773009884893</v>
       </c>
     </row>
     <row r="7">
@@ -7836,7 +8038,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-56.87288946581401</v>
+        <v>-38.9740088719336</v>
       </c>
     </row>
     <row r="8">
@@ -7844,7 +8046,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-57.37385306706418</v>
+        <v>-38.92762579334769</v>
       </c>
     </row>
     <row r="9">
@@ -7852,7 +8054,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-57.58232430508305</v>
+        <v>-39.03092604169093</v>
       </c>
     </row>
     <row r="10">
@@ -7860,7 +8062,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-56.66625367981757</v>
+        <v>-39.2985177583917</v>
       </c>
     </row>
     <row r="11">
@@ -7868,7 +8070,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-58.84506603812719</v>
+        <v>-39.21463141198379</v>
       </c>
     </row>
     <row r="12">
@@ -7876,7 +8078,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-58.16865750596142</v>
+        <v>-40.0004916226985</v>
       </c>
     </row>
     <row r="13">
@@ -7884,7 +8086,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-59.12819941863722</v>
+        <v>-39.02052816657606</v>
       </c>
     </row>
     <row r="14">
@@ -7892,7 +8094,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-58.97212756248545</v>
+        <v>-39.50505236565562</v>
       </c>
     </row>
     <row r="15">
@@ -7900,7 +8102,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-59.66906435403803</v>
+        <v>-38.92126345578508</v>
       </c>
     </row>
     <row r="16">
@@ -7908,7 +8110,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-60.98290211323466</v>
+        <v>-39.33186464184196</v>
       </c>
     </row>
     <row r="17">
@@ -7916,7 +8118,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-60.84665658480566</v>
+        <v>-39.2272912521835</v>
       </c>
     </row>
     <row r="18">
@@ -7924,7 +8126,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-62.93089167952878</v>
+        <v>-39.42716067420668</v>
       </c>
     </row>
     <row r="19">
@@ -7932,7 +8134,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-64.04072571959334</v>
+        <v>-39.99878727469436</v>
       </c>
     </row>
     <row r="20">
@@ -7940,7 +8142,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-64.28477309355438</v>
+        <v>-40.62171085733414</v>
       </c>
     </row>
     <row r="21">
@@ -7948,7 +8150,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-61.73623716664082</v>
+        <v>-40.1095704482245</v>
       </c>
     </row>
     <row r="22">
@@ -7956,7 +8158,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-66.60101808007667</v>
+        <v>-40.11784279431818</v>
       </c>
     </row>
     <row r="23">
@@ -7964,7 +8166,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-64.16316102265944</v>
+        <v>-40.26428534629569</v>
       </c>
     </row>
     <row r="24">
@@ -7972,7 +8174,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-64.61120557762217</v>
+        <v>-40.58135828535984</v>
       </c>
     </row>
     <row r="25">
@@ -7980,7 +8182,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-66.64725282912212</v>
+        <v>-40.86897462597608</v>
       </c>
     </row>
     <row r="26">
@@ -7988,7 +8190,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-64.68322670561298</v>
+        <v>-40.56093640231885</v>
       </c>
     </row>
     <row r="27">
@@ -7996,7 +8198,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-67.54334737601937</v>
+        <v>-41.67603748266739</v>
       </c>
     </row>
     <row r="28">
@@ -8004,7 +8206,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-67.4606505200848</v>
+        <v>-42.05068293900445</v>
       </c>
     </row>
     <row r="29">
@@ -8012,7 +8214,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-69.1262446883415</v>
+        <v>-41.69294012723473</v>
       </c>
     </row>
     <row r="30">
@@ -8020,7 +8222,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-70.22191430280313</v>
+        <v>-43.45815464652105</v>
       </c>
     </row>
     <row r="31">
@@ -8028,7 +8230,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-66.96535727474347</v>
+        <v>-43.50301090920232</v>
       </c>
     </row>
     <row r="32">
@@ -8036,7 +8238,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-67.61764818101534</v>
+        <v>-44.12215057591527</v>
       </c>
     </row>
     <row r="33">
@@ -8044,7 +8246,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-69.56490881939985</v>
+        <v>-44.47738527672978</v>
       </c>
     </row>
     <row r="34">
@@ -8052,7 +8254,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-68.63793077056421</v>
+        <v>-44.08222698438004</v>
       </c>
     </row>
     <row r="35">
@@ -8060,7 +8262,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-69.1129118356024</v>
+        <v>-45.64493675347141</v>
       </c>
     </row>
     <row r="36">
@@ -8068,7 +8270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-71.16265188111089</v>
+        <v>-44.61575248840255</v>
       </c>
     </row>
     <row r="37">
@@ -8076,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-70.30132631572721</v>
+        <v>-44.78741615681943</v>
       </c>
     </row>
     <row r="38">
@@ -8084,7 +8286,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-72.95839063317231</v>
+        <v>-44.96450740052619</v>
       </c>
     </row>
     <row r="39">
@@ -8092,7 +8294,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-71.94170229621817</v>
+        <v>-44.34573148941389</v>
       </c>
     </row>
     <row r="40">
@@ -8100,7 +8302,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-69.76789358613712</v>
+        <v>-44.94568133765898</v>
       </c>
     </row>
     <row r="41">
@@ -8108,7 +8310,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-70.25740945730142</v>
+        <v>-45.6678970705612</v>
       </c>
     </row>
     <row r="42">
@@ -8116,7 +8318,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-69.97406228111798</v>
+        <v>-45.14908322330793</v>
       </c>
     </row>
     <row r="43">
@@ -8124,7 +8326,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-69.53963777295868</v>
+        <v>-45.10141043398096</v>
       </c>
     </row>
     <row r="44">
@@ -8132,7 +8334,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-69.49538954963251</v>
+        <v>-44.57786752797289</v>
       </c>
     </row>
     <row r="45">
@@ -8140,7 +8342,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-68.82522270003784</v>
+        <v>-44.38453195048059</v>
       </c>
     </row>
     <row r="46">
@@ -8148,7 +8350,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-68.70418455713877</v>
+        <v>-44.60705367734354</v>
       </c>
     </row>
     <row r="47">
@@ -8156,7 +8358,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-68.37862058472724</v>
+        <v>-44.51154089555751</v>
       </c>
     </row>
     <row r="48">
@@ -8164,7 +8366,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-71.5180834175023</v>
+        <v>-44.26664774505743</v>
       </c>
     </row>
     <row r="49">
@@ -8172,7 +8374,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-67.21396348560019</v>
+        <v>-43.69241622267125</v>
       </c>
     </row>
     <row r="50">
@@ -8180,7 +8382,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-69.11213940905641</v>
+        <v>-43.18644163496995</v>
       </c>
     </row>
     <row r="51">
@@ -8188,7 +8390,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-67.36104396924169</v>
+        <v>-43.3325356080552</v>
       </c>
     </row>
     <row r="52">
@@ -8196,7 +8398,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-69.63633240095551</v>
+        <v>-43.55336628870576</v>
       </c>
     </row>
     <row r="53">
@@ -8204,7 +8406,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-69.62028782577869</v>
+        <v>-43.64544504511973</v>
       </c>
     </row>
     <row r="54">
@@ -8212,7 +8414,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-68.79434476863847</v>
+        <v>-43.04687603175059</v>
       </c>
     </row>
     <row r="55">
@@ -8220,7 +8422,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-68.67175672051854</v>
+        <v>-43.39751963967337</v>
       </c>
     </row>
     <row r="56">
@@ -8228,7 +8430,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-67.06805039466192</v>
+        <v>-42.79945540093846</v>
       </c>
     </row>
     <row r="57">
@@ -8236,7 +8438,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-68.50832853007387</v>
+        <v>-42.71683477806265</v>
       </c>
     </row>
     <row r="58">
@@ -8244,7 +8446,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-67.31929980331306</v>
+        <v>-42.68539964883618</v>
       </c>
     </row>
     <row r="59">
@@ -8252,7 +8454,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-67.1512915916459</v>
+        <v>-42.68825001461585</v>
       </c>
     </row>
     <row r="60">
@@ -8260,7 +8462,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-64.4666887841305</v>
+        <v>-42.02489767561373</v>
       </c>
     </row>
     <row r="61">
@@ -8268,7 +8470,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-64.63732473071127</v>
+        <v>-41.72933137703864</v>
       </c>
     </row>
     <row r="62">
@@ -8276,7 +8478,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-63.88689597369292</v>
+        <v>-41.97437140891358</v>
       </c>
     </row>
     <row r="63">
@@ -8284,7 +8486,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-61.66631767502497</v>
+        <v>-41.9249228296631</v>
       </c>
     </row>
     <row r="64">
@@ -8292,7 +8494,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-59.06247122630818</v>
+        <v>-41.01855666652686</v>
       </c>
     </row>
     <row r="65">
@@ -8300,7 +8502,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-60.42787941068872</v>
+        <v>-40.54467061635148</v>
       </c>
     </row>
     <row r="66">
@@ -8308,7 +8510,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-59.69195274627378</v>
+        <v>-40.41649382408863</v>
       </c>
     </row>
     <row r="67">
@@ -8316,7 +8518,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-57.18647251561903</v>
+        <v>-40.20513732208327</v>
       </c>
     </row>
     <row r="68">
@@ -8324,7 +8526,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-55.86345986220823</v>
+        <v>-40.13748102436509</v>
       </c>
     </row>
     <row r="69">
@@ -8332,7 +8534,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-57.18754092796731</v>
+        <v>-38.98639482369673</v>
       </c>
     </row>
     <row r="70">
@@ -8340,7 +8542,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-55.63435672946432</v>
+        <v>-38.81065716945048</v>
       </c>
     </row>
     <row r="71">
@@ -8348,7 +8550,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-56.32058870263729</v>
+        <v>-39.26243170989459</v>
       </c>
     </row>
     <row r="72">
@@ -8356,7 +8558,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-54.50938452450261</v>
+        <v>-37.75481834837423</v>
       </c>
     </row>
     <row r="73">
@@ -8364,7 +8566,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-56.32766599456087</v>
+        <v>-38.03246950443246</v>
       </c>
     </row>
     <row r="74">
@@ -8372,7 +8574,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-57.81490950941155</v>
+        <v>-38.31133710490429</v>
       </c>
     </row>
     <row r="75">
@@ -8380,7 +8582,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-58.86456617485642</v>
+        <v>-37.52273923021868</v>
       </c>
     </row>
     <row r="76">
@@ -8388,7 +8590,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-58.34634987286269</v>
+        <v>-37.45266922768708</v>
       </c>
     </row>
     <row r="77">
@@ -8396,7 +8598,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-58.49996304424222</v>
+        <v>-37.33465845410967</v>
       </c>
     </row>
     <row r="78">
@@ -8404,7 +8606,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-58.35017336716565</v>
+        <v>-36.6294715366587</v>
       </c>
     </row>
     <row r="79">
@@ -8412,7 +8614,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-58.18064655039053</v>
+        <v>-36.47422216198608</v>
       </c>
     </row>
     <row r="80">
@@ -8420,7 +8622,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-57.02446513404364</v>
+        <v>-36.12827475987695</v>
       </c>
     </row>
     <row r="81">
@@ -8428,7 +8630,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-53.31419166667003</v>
+        <v>-36.03452200250035</v>
       </c>
     </row>
     <row r="82">
@@ -8436,7 +8638,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-53.12633234762228</v>
+        <v>-36.2041498961541</v>
       </c>
     </row>
     <row r="83">
@@ -8444,7 +8646,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-52.49997744341637</v>
+        <v>-36.26714612201172</v>
       </c>
     </row>
     <row r="84">
@@ -8452,7 +8654,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-51.27260912448594</v>
+        <v>-36.23185652230855</v>
       </c>
     </row>
     <row r="85">
@@ -8460,7 +8662,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-51.25231200407106</v>
+        <v>-36.6590148730791</v>
       </c>
     </row>
     <row r="86">
@@ -8468,7 +8670,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-52.18086550226025</v>
+        <v>-36.77199069353632</v>
       </c>
     </row>
     <row r="87">
@@ -8476,7 +8678,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-51.19342517170666</v>
+        <v>-36.21486882270149</v>
       </c>
     </row>
     <row r="88">
@@ -8484,7 +8686,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-51.75505726373288</v>
+        <v>-35.8383821580255</v>
       </c>
     </row>
     <row r="89">
@@ -8492,7 +8694,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-52.4878284586969</v>
+        <v>-35.99189139059911</v>
       </c>
     </row>
     <row r="90">
@@ -8500,7 +8702,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-51.4231028038699</v>
+        <v>-36.90182477586847</v>
       </c>
     </row>
     <row r="91">
@@ -8508,7 +8710,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-50.67337843154875</v>
+        <v>-39.1942933083288</v>
       </c>
     </row>
     <row r="92">
@@ -8516,7 +8718,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-50.52199689791428</v>
+        <v>-38.48469100347</v>
       </c>
     </row>
     <row r="93">
@@ -8524,7 +8726,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-51.32160924258739</v>
+        <v>-35.63707471146351</v>
       </c>
     </row>
     <row r="94">
@@ -8532,7 +8734,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-52.4328093473241</v>
+        <v>-35.33428010236023</v>
       </c>
     </row>
     <row r="95">
@@ -8540,7 +8742,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-52.27858618095212</v>
+        <v>-35.54405000337388</v>
       </c>
     </row>
     <row r="96">
@@ -8548,7 +8750,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-51.53377639086966</v>
+        <v>-35.33970722512714</v>
       </c>
     </row>
     <row r="97">
@@ -8556,7 +8758,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-55.22131088458459</v>
+        <v>-35.37270351700793</v>
       </c>
     </row>
     <row r="98">
@@ -8564,7 +8766,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-54.47160222926456</v>
+        <v>-35.62084494856057</v>
       </c>
     </row>
     <row r="99">
@@ -8572,7 +8774,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-52.36547818212544</v>
+        <v>-35.49201383111068</v>
       </c>
     </row>
     <row r="100">
@@ -8580,7 +8782,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-52.12654742464029</v>
+        <v>-35.46550803302915</v>
       </c>
     </row>
     <row r="101">
@@ -8588,7 +8790,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-52.28059011439242</v>
+        <v>-35.2320807755484</v>
       </c>
     </row>
     <row r="102">
@@ -8596,7 +8798,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-51.62280962278118</v>
+        <v>-35.93931573899953</v>
       </c>
     </row>
     <row r="103">
@@ -8604,7 +8806,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-51.53576724804957</v>
+        <v>-35.57138779860816</v>
       </c>
     </row>
     <row r="104">
@@ -8612,7 +8814,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-50.98107078207694</v>
+        <v>-35.33386759858379</v>
       </c>
     </row>
     <row r="105">
@@ -8620,7 +8822,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-52.12878999771988</v>
+        <v>-35.76655095419824</v>
       </c>
     </row>
     <row r="106">
@@ -8628,7 +8830,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-51.5372378265116</v>
+        <v>-35.32912316989368</v>
       </c>
     </row>
     <row r="107">
@@ -8636,7 +8838,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-51.91615502246867</v>
+        <v>-35.59617956434154</v>
       </c>
     </row>
     <row r="108">
@@ -8644,7 +8846,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-54.32638202870082</v>
+        <v>-36.46809492214887</v>
       </c>
     </row>
     <row r="109">
@@ -8652,7 +8854,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-57.54450546053417</v>
+        <v>-36.64248472367773</v>
       </c>
     </row>
     <row r="110">
@@ -8660,7 +8862,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-56.32039050562358</v>
+        <v>-36.71537562784857</v>
       </c>
     </row>
     <row r="111">
@@ -8668,7 +8870,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-53.57067728798256</v>
+        <v>-37.55714698133664</v>
       </c>
     </row>
     <row r="112">
@@ -8676,7 +8878,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-60.04721849324805</v>
+        <v>-37.45624549167119</v>
       </c>
     </row>
     <row r="113">
@@ -8684,7 +8886,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-62.91796067064453</v>
+        <v>-38.01161876346303</v>
       </c>
     </row>
     <row r="114">
@@ -8692,7 +8894,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-64.87018846344931</v>
+        <v>-39.31035041517329</v>
       </c>
     </row>
     <row r="115">
@@ -8700,7 +8902,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-64.87097304079219</v>
+        <v>-38.36140934303085</v>
       </c>
     </row>
     <row r="116">
@@ -8708,7 +8910,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-61.85593422535474</v>
+        <v>-38.86635151722654</v>
       </c>
     </row>
     <row r="117">
@@ -8716,7 +8918,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-61.36851671263627</v>
+        <v>-39.2129781624898</v>
       </c>
     </row>
     <row r="118">
@@ -8724,7 +8926,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-63.90946509467356</v>
+        <v>-38.75182615252639</v>
       </c>
     </row>
     <row r="119">
@@ -8732,7 +8934,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-63.25254557874793</v>
+        <v>-38.95561645191513</v>
       </c>
     </row>
     <row r="120">
@@ -8740,7 +8942,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-62.96232188368285</v>
+        <v>-40.06463297279434</v>
       </c>
     </row>
     <row r="121">
@@ -8748,7 +8950,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-62.94578947128107</v>
+        <v>-39.98527481532247</v>
       </c>
     </row>
     <row r="122">
@@ -8756,7 +8958,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-64.63054325884337</v>
+        <v>-39.44636213592282</v>
       </c>
     </row>
     <row r="123">
@@ -8764,7 +8966,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-64.10706401363315</v>
+        <v>-40.36340657286115</v>
       </c>
     </row>
     <row r="124">
@@ -8772,7 +8974,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-62.49968280331607</v>
+        <v>-40.05265128516812</v>
       </c>
     </row>
     <row r="125">
@@ -8780,7 +8982,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-62.2044199314348</v>
+        <v>-39.36389305923063</v>
       </c>
     </row>
     <row r="126">
@@ -8788,7 +8990,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-59.81949879431103</v>
+        <v>-39.47499439810915</v>
       </c>
     </row>
     <row r="127">
@@ -8796,7 +8998,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-61.46557755176566</v>
+        <v>-39.59746814916262</v>
       </c>
     </row>
     <row r="128">
@@ -8804,7 +9006,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-61.33339345645044</v>
+        <v>-39.33509508793964</v>
       </c>
     </row>
     <row r="129">
@@ -8812,7 +9014,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-59.72272582629301</v>
+        <v>-39.03687693251565</v>
       </c>
     </row>
     <row r="130">
@@ -8820,7 +9022,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-59.13597970015303</v>
+        <v>-39.35981982037151</v>
       </c>
     </row>
     <row r="131">
@@ -8828,7 +9030,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-59.86593888724305</v>
+        <v>-39.04012807378157</v>
       </c>
     </row>
     <row r="132">
@@ -8836,7 +9038,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-61.20293057719656</v>
+        <v>-39.60686277655305</v>
       </c>
     </row>
     <row r="133">
@@ -8844,7 +9046,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-60.80315713998618</v>
+        <v>-39.07383922249082</v>
       </c>
     </row>
     <row r="134">
@@ -8852,7 +9054,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-59.24298190804531</v>
+        <v>-39.98036973667045</v>
       </c>
     </row>
     <row r="135">
@@ -8860,7 +9062,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-59.2737332187168</v>
+        <v>-39.92558590746706</v>
       </c>
     </row>
     <row r="136">
@@ -8868,7 +9070,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-59.30175453726912</v>
+        <v>-38.64962530854032</v>
       </c>
     </row>
     <row r="137">
@@ -8876,7 +9078,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-58.6784444972596</v>
+        <v>-39.70658747313302</v>
       </c>
     </row>
     <row r="138">
@@ -8884,7 +9086,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-59.55224885232155</v>
+        <v>-39.74122519599176</v>
       </c>
     </row>
     <row r="139">
@@ -8892,7 +9094,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-60.33503402234334</v>
+        <v>-39.2788315096432</v>
       </c>
     </row>
     <row r="140">
@@ -8900,7 +9102,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-58.86274849244579</v>
+        <v>-39.02336790594049</v>
       </c>
     </row>
     <row r="141">
@@ -8908,7 +9110,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-58.91484279583642</v>
+        <v>-38.98613291681144</v>
       </c>
     </row>
     <row r="142">
@@ -8916,7 +9118,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-58.43455237726756</v>
+        <v>-39.21734301934073</v>
       </c>
     </row>
     <row r="143">
@@ -8924,7 +9126,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-60.07175187395164</v>
+        <v>-38.96641025972622</v>
       </c>
     </row>
     <row r="144">
@@ -8932,7 +9134,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-58.33045905463531</v>
+        <v>-38.63530003024698</v>
       </c>
     </row>
     <row r="145">
@@ -8940,14 +9142,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-57.85588382158043</v>
+        <v>-38.20706977179428</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -8978,6 +9180,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015005584</v>
+        <v>2012005308</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013004091</v>
+        <v>2016000970</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014002800</v>
+        <v>2013000898</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2012000112</v>
+        <v>2013006367</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2014002942</v>
+        <v>2012009561</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2015009290</v>
+        <v>2014006186</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2013007561</v>
+        <v>2012000520</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2066,7 +2066,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2014002513</v>
+        <v>2015007694</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -2081,7 +2081,7 @@
         <v>7.4</v>
       </c>
       <c r="F9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G9" t="n">
         <v>250</v>
@@ -2104,7 +2104,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2015005982</v>
+        <v>2015009278</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>7.4</v>
       </c>
       <c r="F10" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G10" t="n">
         <v>250</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2013008171</v>
+        <v>2016004733</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -2175,424 +2175,6 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2015004708</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2014008871</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2014000015</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>75</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2013001604</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>30</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2013000471</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>60</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2013007003</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2014002775</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2014004625</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>60</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2014000677</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>24</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2015002119</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>60</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2016006268</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>40</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2647,67 +2229,67 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015005584</v>
+        <v>2012005308</v>
       </c>
       <c r="B2" t="n">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C2" t="n">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="D2" t="n">
-        <v>17.82051487446736</v>
+        <v>22.6191274605412</v>
       </c>
       <c r="E2" t="n">
-        <v>29.891466661134</v>
+        <v>39.82929208736402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013004091</v>
+        <v>2016000970</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D3" t="n">
-        <v>29.55128719566242</v>
+        <v>27.23193519446736</v>
       </c>
       <c r="E3" t="n">
-        <v>59.99999999566239</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014002800</v>
+        <v>2013000898</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="D4" t="n">
-        <v>27.50874168</v>
+        <v>22.90564879824407</v>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2014002800</v>
+        <v>2013006367</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>123</v>
+        <v>38</v>
       </c>
       <c r="D5" t="n">
-        <v>28.89277408</v>
+        <v>29.44638703446735</v>
       </c>
       <c r="E5" t="n">
         <v>30</v>
@@ -2715,50 +2297,50 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2012000112</v>
+        <v>2013006367</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C6" t="n">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D6" t="n">
-        <v>38.90564879999999</v>
+        <v>29.44638704</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014002942</v>
+        <v>2012009561</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C7" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>49.6358504</v>
+        <v>17.46473052720787</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>39.99992664723267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014002942</v>
+        <v>2014006186</v>
       </c>
       <c r="B8" t="n">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="D8" t="n">
-        <v>59.25970359999999</v>
+        <v>55.18807339566239</v>
       </c>
       <c r="E8" t="n">
         <v>60</v>
@@ -2766,292 +2348,124 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015009290</v>
+        <v>2012000520</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D9" t="n">
-        <v>26.86778506054121</v>
+        <v>4.675</v>
       </c>
       <c r="E9" t="n">
-        <v>39.99952961625854</v>
+        <v>23.45733333157742</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2013007561</v>
+        <v>2015007694</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" t="n">
-        <v>67.67267496327788</v>
+        <v>7.412913094467356</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2014002513</v>
+        <v>2015009278</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D11" t="n">
-        <v>21.8707843605412</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E11" t="n">
-        <v>39.99987339891391</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2015005982</v>
+        <v>2015009278</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>126</v>
       </c>
       <c r="C12" t="n">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D12" t="n">
-        <v>72.9142953432779</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E12" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>2013008171</v>
+        <v>2016004733</v>
       </c>
       <c r="B13" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="D13" t="n">
-        <v>23.01508391824407</v>
+        <v>19.40372495824407</v>
       </c>
       <c r="E13" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2015004708</v>
-      </c>
-      <c r="B14" t="n">
-        <v>52</v>
-      </c>
-      <c r="C14" t="n">
-        <v>112</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="E14" t="n">
-        <v>23.89146666491075</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2014008871</v>
-      </c>
-      <c r="B15" t="n">
-        <v>36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>116</v>
-      </c>
-      <c r="D15" t="n">
-        <v>70.26854039999999</v>
-      </c>
-      <c r="E15" t="n">
-        <v>75</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2014000015</v>
-      </c>
-      <c r="B16" t="n">
-        <v>36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>120</v>
-      </c>
-      <c r="D16" t="n">
-        <v>59.45377558327787</v>
-      </c>
-      <c r="E16" t="n">
-        <v>74.97909135847736</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2013001604</v>
-      </c>
-      <c r="B17" t="n">
-        <v>64</v>
-      </c>
-      <c r="C17" t="n">
-        <v>143</v>
-      </c>
-      <c r="D17" t="n">
-        <v>23.91025743446736</v>
-      </c>
-      <c r="E17" t="n">
-        <v>30</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2013000471</v>
-      </c>
-      <c r="B18" t="n">
-        <v>42</v>
-      </c>
-      <c r="C18" t="n">
-        <v>115</v>
-      </c>
-      <c r="D18" t="n">
-        <v>48.895554</v>
-      </c>
-      <c r="E18" t="n">
-        <v>60</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2013000471</v>
-      </c>
-      <c r="B19" t="n">
-        <v>119</v>
-      </c>
-      <c r="C19" t="n">
-        <v>143</v>
-      </c>
-      <c r="D19" t="n">
-        <v>54.33512320000001</v>
-      </c>
-      <c r="E19" t="n">
-        <v>60</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2013007003</v>
-      </c>
-      <c r="B20" t="n">
-        <v>138</v>
-      </c>
-      <c r="C20" t="n">
-        <v>143</v>
-      </c>
-      <c r="D20" t="n">
-        <v>23.57390537446737</v>
-      </c>
-      <c r="E20" t="n">
-        <v>27.57396081277274</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2014002775</v>
-      </c>
-      <c r="B21" t="n">
-        <v>36</v>
-      </c>
-      <c r="C21" t="n">
-        <v>115</v>
-      </c>
-      <c r="D21" t="n">
-        <v>22.80303151446736</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.4573333278007</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2014004625</v>
-      </c>
-      <c r="B22" t="n">
-        <v>32</v>
-      </c>
-      <c r="C22" t="n">
-        <v>122</v>
-      </c>
-      <c r="D22" t="n">
-        <v>12.5244699956624</v>
-      </c>
-      <c r="E22" t="n">
-        <v>60</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2014000677</v>
-      </c>
-      <c r="B23" t="n">
-        <v>32</v>
-      </c>
-      <c r="C23" t="n">
-        <v>114</v>
-      </c>
-      <c r="D23" t="n">
-        <v>4.675</v>
-      </c>
-      <c r="E23" t="n">
-        <v>23.99999999824409</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2015002119</v>
-      </c>
-      <c r="B24" t="n">
-        <v>27</v>
-      </c>
-      <c r="C24" t="n">
-        <v>110</v>
-      </c>
-      <c r="D24" t="n">
-        <v>42.29725999566239</v>
-      </c>
-      <c r="E24" t="n">
-        <v>60</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2016006268</v>
-      </c>
-      <c r="B25" t="n">
-        <v>28</v>
-      </c>
-      <c r="C25" t="n">
-        <v>143</v>
-      </c>
-      <c r="D25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="E25" t="n">
-        <v>39.99999484277685</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="7" t="n"/>
@@ -6665,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>14.02239393561416</v>
+        <v>7.493459311914026</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6674,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>14.61790543314903</v>
+        <v>6.69350040743063</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6683,7 +6097,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>12.91196496393156</v>
+        <v>6.69350040743063</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6692,7 +6106,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>12.7211160834819</v>
+        <v>6.69350040743063</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6701,7 +6115,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>13.17079186566248</v>
+        <v>6.0400467618125</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6710,7 +6124,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>13.23141093365627</v>
+        <v>6.0400467618125</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6719,7 +6133,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>13.73757223590615</v>
+        <v>6.0400467618125</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6728,7 +6142,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>14.10947127760683</v>
+        <v>4.677083921237026</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6737,7 +6151,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>12.86889123407261</v>
+        <v>4.677083921237026</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6746,7 +6160,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>13.25650761368802</v>
+        <v>4.677083921237026</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6755,7 +6169,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>13.98182599312154</v>
+        <v>4.309196390059991</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6764,7 +6178,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>13.38608840858104</v>
+        <v>4.309196390059991</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6773,7 +6187,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>13.34897616721052</v>
+        <v>4.309196390059991</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6782,7 +6196,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>12.53778616349243</v>
+        <v>5.60974444992353</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6791,7 +6205,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>14.38067575256507</v>
+        <v>5.60974444992353</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6800,7 +6214,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>12.80717981781117</v>
+        <v>5.60974444992353</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6809,7 +6223,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>15.40159914033108</v>
+        <v>6.765093758966588</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6818,7 +6232,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>13.92079278505251</v>
+        <v>6.765093758966588</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6827,7 +6241,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>12.85509420053776</v>
+        <v>6.765093758966588</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6836,7 +6250,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>14.31508041168286</v>
+        <v>4.342114257734417</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6845,7 +6259,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>14.19476990025722</v>
+        <v>4.342114257734417</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6854,7 +6268,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>13.38311500704231</v>
+        <v>4.342114257734417</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6863,7 +6277,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>12.28869490428164</v>
+        <v>2.245101880722483</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6872,7 +6286,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>10.81924256170982</v>
+        <v>2.245101880722483</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6881,7 +6295,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>11.80972419371816</v>
+        <v>2.245101880722483</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6890,7 +6304,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>10.82316568398362</v>
+        <v>1.486785152409333</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6899,7 +6313,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>11.48323328536136</v>
+        <v>1.486785152409333</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6908,7 +6322,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>10.10806679137698</v>
+        <v>1.486785152409333</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6917,7 +6331,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>9.368197124492337</v>
+        <v>2.154388201905413</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6926,7 +6340,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>9.122961949386088</v>
+        <v>2.154388201905413</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6935,7 +6349,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>7.924734633787546</v>
+        <v>2.154388201905413</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6944,7 +6358,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>6.899506051241517</v>
+        <v>1.061017942353727</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6953,7 +6367,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>7.731954790922667</v>
+        <v>1.061017942353727</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6962,7 +6376,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>7.319058911596025</v>
+        <v>1.061017942353727</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6971,7 +6385,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>8.936733088712256</v>
+        <v>1.060969612894327</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6980,7 +6394,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>8.03388007735694</v>
+        <v>1.060969612894327</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6989,7 +6403,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>7.43307598978868</v>
+        <v>1.060969612894327</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6998,7 +6412,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>8.554117793523925</v>
+        <v>2.412588087140753</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7007,7 +6421,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>8.83531501382455</v>
+        <v>2.412588087140753</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7016,7 +6430,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>8.476281292234683</v>
+        <v>2.412588087140753</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7025,7 +6439,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>7.977818371381764</v>
+        <v>2.468520817090788</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7034,7 +6448,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>8.678248307917944</v>
+        <v>2.468520817090788</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7043,7 +6457,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>9.141563212851537</v>
+        <v>2.468520817090788</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7052,7 +6466,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>9.217105409753234</v>
+        <v>5.173694658557872</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7061,7 +6475,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>9.862484008763058</v>
+        <v>5.173694658557872</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7070,7 +6484,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>8.724712397384501</v>
+        <v>5.173694658557872</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7079,7 +6493,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>10.50317033621049</v>
+        <v>4.142156770007151</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7088,7 +6502,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>10.82021316006572</v>
+        <v>4.142156770007151</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7097,7 +6511,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>11.12083042924923</v>
+        <v>4.142156770007151</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7106,7 +6520,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>11.258027357442</v>
+        <v>4.533488180447595</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7115,7 +6529,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>12.32850752765568</v>
+        <v>4.533488180447595</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7124,7 +6538,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>12.35241318113825</v>
+        <v>4.533488180447595</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7133,7 +6547,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>11.53028370682432</v>
+        <v>3.046385945470287</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7142,7 +6556,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>12.01557985373955</v>
+        <v>3.046385945470287</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7151,7 +6565,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>11.81690393923422</v>
+        <v>3.046385945470287</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7160,7 +6574,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>11.06827728916169</v>
+        <v>5.096470278011537</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7169,7 +6583,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>12.43936469685623</v>
+        <v>5.096470278011537</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7178,7 +6592,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>12.32727866085628</v>
+        <v>5.096470278011537</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7187,7 +6601,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>13.59977336364367</v>
+        <v>6.418011132075993</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7196,7 +6610,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>13.03851576268574</v>
+        <v>6.418011132075993</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7205,7 +6619,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>13.23562610939532</v>
+        <v>6.418011132075993</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7214,7 +6628,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>14.93695500777006</v>
+        <v>6.380036913197999</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7223,7 +6637,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>15.20540086593097</v>
+        <v>6.380036913197999</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7232,7 +6646,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>13.80864122145453</v>
+        <v>6.380036913197999</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7241,7 +6655,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>16.6293122308033</v>
+        <v>7.888063398855711</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7250,7 +6664,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>16.81288548597661</v>
+        <v>7.888063398855711</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7259,7 +6673,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>14.93170498888389</v>
+        <v>7.888063398855711</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7268,7 +6682,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>16.94114440831971</v>
+        <v>8.545132380186102</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7277,7 +6691,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>14.95212102873389</v>
+        <v>8.545132380186102</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7286,7 +6700,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>15.00872194953415</v>
+        <v>8.545132380186102</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7295,7 +6709,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>17.10691723716098</v>
+        <v>9.395637986853718</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7304,7 +6718,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>17.95647140877105</v>
+        <v>9.395637986853718</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7313,7 +6727,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>17.81155207208394</v>
+        <v>9.395637986853718</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7322,7 +6736,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>19.02531029841299</v>
+        <v>9.337493344782363</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7331,7 +6745,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>19.18078750666544</v>
+        <v>9.337493344782363</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7340,7 +6754,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>19.40370307681911</v>
+        <v>9.337493344782363</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7349,7 +6763,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>20.49885306100406</v>
+        <v>10.39058627820361</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7358,7 +6772,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>19.93967853366565</v>
+        <v>10.39058627820361</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7367,7 +6781,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>20.09255406885317</v>
+        <v>10.39058627820361</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7376,7 +6790,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>21.13006942561127</v>
+        <v>11.82674415264298</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7385,7 +6799,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>20.72039079116544</v>
+        <v>11.82674415264298</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7394,7 +6808,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>20.71023305156516</v>
+        <v>11.82674415264298</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7403,7 +6817,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>22.4147529544729</v>
+        <v>12.4408243923828</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7412,7 +6826,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>20.39031286622802</v>
+        <v>12.4408243923828</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7421,7 +6835,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>20.21783231641943</v>
+        <v>12.4408243923828</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7430,7 +6844,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>21.38317092145995</v>
+        <v>12.80517844591751</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7439,7 +6853,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>20.89888110701871</v>
+        <v>12.80517844591751</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7448,7 +6862,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>21.18951155032213</v>
+        <v>12.80517844591751</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7457,7 +6871,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>21.02368052428379</v>
+        <v>12.49917832214913</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7466,7 +6880,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>18.14117101259535</v>
+        <v>12.49917832214913</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7475,7 +6889,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>19.17847239680491</v>
+        <v>12.49917832214913</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7484,7 +6898,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>21.16441132268382</v>
+        <v>13.15015460272757</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7493,7 +6907,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>22.14686401999121</v>
+        <v>13.15015460272757</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7502,7 +6916,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>20.81985761785084</v>
+        <v>13.15015460272757</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7511,7 +6925,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>21.76396402705532</v>
+        <v>13.75388528070297</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7520,7 +6934,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>22.41163041610476</v>
+        <v>13.75388528070297</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7529,7 +6943,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>21.51515884331679</v>
+        <v>13.75388528070297</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7538,7 +6952,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>20.50063927876799</v>
+        <v>13.338069819153</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7547,7 +6961,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>20.96791948847777</v>
+        <v>13.338069819153</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7556,7 +6970,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>21.03568751226446</v>
+        <v>13.338069819153</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7565,7 +6979,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>20.91244365150671</v>
+        <v>12.38124010224055</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7574,7 +6988,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>21.74995768185321</v>
+        <v>12.38124010224055</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7583,7 +6997,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>21.57381169025122</v>
+        <v>12.38124010224055</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7592,7 +7006,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>21.77077099581394</v>
+        <v>11.57371646695147</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7601,7 +7015,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>21.57391609341709</v>
+        <v>11.57371646695147</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7610,7 +7024,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>21.45821603812885</v>
+        <v>11.57371646695147</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7619,7 +7033,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>18.89073318360581</v>
+        <v>10.1022978440271</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7628,7 +7042,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>17.74971720048079</v>
+        <v>10.1022978440271</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7637,7 +7051,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>16.8370348702668</v>
+        <v>10.1022978440271</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7646,7 +7060,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>15.46302925837165</v>
+        <v>6.923451377740109</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7655,7 +7069,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>14.75890796782107</v>
+        <v>6.923451377740109</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7664,7 +7078,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>15.47983600729607</v>
+        <v>6.923451377740109</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7673,7 +7087,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>15.96412373931648</v>
+        <v>5.391811521206177</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7682,7 +7096,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>15.95827190676713</v>
+        <v>5.391811521206177</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7691,7 +7105,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>16.01493320545651</v>
+        <v>5.391811521206177</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7700,7 +7114,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>16.27071474601576</v>
+        <v>6.364732573288748</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7709,7 +7123,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>16.30387976285459</v>
+        <v>6.364732573288748</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7718,7 +7132,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>16.25760130812664</v>
+        <v>6.364732573288748</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7727,7 +7141,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>15.46611657269398</v>
+        <v>6.020078247040114</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7736,7 +7150,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>15.51028574206606</v>
+        <v>6.020078247040114</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7745,7 +7159,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>15.28174371529595</v>
+        <v>6.020078247040114</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7754,7 +7168,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>14.05610288701674</v>
+        <v>5.487177817669527</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7763,7 +7177,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>13.61423504418255</v>
+        <v>5.487177817669527</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7772,7 +7186,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>14.6701437828623</v>
+        <v>5.487177817669527</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7781,7 +7195,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>14.51647907153847</v>
+        <v>6.252296632036245</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7790,7 +7204,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>14.31326729178379</v>
+        <v>6.252296632036245</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7799,7 +7213,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>15.68515875422608</v>
+        <v>6.252296632036245</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7808,7 +7222,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>13.248859152241</v>
+        <v>7.603965581627404</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7817,7 +7231,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>14.30372327950271</v>
+        <v>7.603965581627404</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7826,7 +7240,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>15.19188875738979</v>
+        <v>7.603965581627404</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7835,7 +7249,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>13.71081059204559</v>
+        <v>7.354266749103219</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7844,7 +7258,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>13.09127264859441</v>
+        <v>7.354266749103219</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7853,7 +7267,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>13.64333893908364</v>
+        <v>7.354266749103219</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7862,7 +7276,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>13.7082918414817</v>
+        <v>7.904856767588013</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7871,7 +7285,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>13.98138707508724</v>
+        <v>7.904856767588013</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7880,7 +7294,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>13.4101412509816</v>
+        <v>7.904856767588013</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7889,7 +7303,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>12.54662040552702</v>
+        <v>7.686552422456339</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7898,7 +7312,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>12.96155891618673</v>
+        <v>7.686552422456339</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7907,7 +7321,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>13.25919974123626</v>
+        <v>7.686552422456339</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7916,7 +7330,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>14.16767860291836</v>
+        <v>7.487026157374954</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7925,7 +7339,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>13.87208328404773</v>
+        <v>7.487026157374954</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7934,7 +7348,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>12.88868520229592</v>
+        <v>7.487026157374954</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7943,7 +7357,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>13.77443265094424</v>
+        <v>7.493459311914026</v>
       </c>
     </row>
     <row r="145">
@@ -7951,7 +7365,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>14.76257250025429</v>
+        <v>7.493459311914026</v>
       </c>
     </row>
     <row r="146">
@@ -7998,7 +7412,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-38.66103156395496</v>
+        <v>-22.96984259467554</v>
       </c>
     </row>
     <row r="3">
@@ -8006,7 +7420,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-38.43605387197604</v>
+        <v>-23.15493436498491</v>
       </c>
     </row>
     <row r="4">
@@ -8014,7 +7428,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-38.58294921408108</v>
+        <v>-23.15493436498491</v>
       </c>
     </row>
     <row r="5">
@@ -8022,7 +7436,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-38.72669202885839</v>
+        <v>-23.15493436498491</v>
       </c>
     </row>
     <row r="6">
@@ -8030,7 +7444,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-38.91773009884893</v>
+        <v>-22.89031957362501</v>
       </c>
     </row>
     <row r="7">
@@ -8038,7 +7452,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-38.9740088719336</v>
+        <v>-22.89031957362501</v>
       </c>
     </row>
     <row r="8">
@@ -8046,7 +7460,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-38.92762579334769</v>
+        <v>-22.89031957362501</v>
       </c>
     </row>
     <row r="9">
@@ -8054,7 +7468,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-39.03092604169093</v>
+        <v>-23.25790901261288</v>
       </c>
     </row>
     <row r="10">
@@ -8062,7 +7476,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-39.2985177583917</v>
+        <v>-23.25790901261288</v>
       </c>
     </row>
     <row r="11">
@@ -8070,7 +7484,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-39.21463141198379</v>
+        <v>-23.25790901261288</v>
       </c>
     </row>
     <row r="12">
@@ -8078,7 +7492,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-40.0004916226985</v>
+        <v>-23.24673614939432</v>
       </c>
     </row>
     <row r="13">
@@ -8086,7 +7500,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-39.02052816657606</v>
+        <v>-23.24673614939432</v>
       </c>
     </row>
     <row r="14">
@@ -8094,7 +7508,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-39.50505236565562</v>
+        <v>-23.24673614939432</v>
       </c>
     </row>
     <row r="15">
@@ -8102,7 +7516,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-38.92126345578508</v>
+        <v>-23.46167478866931</v>
       </c>
     </row>
     <row r="16">
@@ -8110,7 +7524,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-39.33186464184196</v>
+        <v>-23.46167478866931</v>
       </c>
     </row>
     <row r="17">
@@ -8118,7 +7532,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-39.2272912521835</v>
+        <v>-23.46167478866931</v>
       </c>
     </row>
     <row r="18">
@@ -8126,7 +7540,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-39.42716067420668</v>
+        <v>-23.87694250165555</v>
       </c>
     </row>
     <row r="19">
@@ -8134,7 +7548,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-39.99878727469436</v>
+        <v>-23.87694250165555</v>
       </c>
     </row>
     <row r="20">
@@ -8142,7 +7556,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-40.62171085733414</v>
+        <v>-23.87694250165555</v>
       </c>
     </row>
     <row r="21">
@@ -8150,7 +7564,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-40.1095704482245</v>
+        <v>-23.95723163979559</v>
       </c>
     </row>
     <row r="22">
@@ -8158,7 +7572,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-40.11784279431818</v>
+        <v>-23.95723163979559</v>
       </c>
     </row>
     <row r="23">
@@ -8166,7 +7580,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-40.26428534629569</v>
+        <v>-23.95723163979559</v>
       </c>
     </row>
     <row r="24">
@@ -8174,7 +7588,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-40.58135828535984</v>
+        <v>-25.01442426054245</v>
       </c>
     </row>
     <row r="25">
@@ -8182,7 +7596,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-40.86897462597608</v>
+        <v>-25.01442426054245</v>
       </c>
     </row>
     <row r="26">
@@ -8190,7 +7604,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-40.56093640231885</v>
+        <v>-25.01442426054245</v>
       </c>
     </row>
     <row r="27">
@@ -8198,7 +7612,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-41.67603748266739</v>
+        <v>-25.54108380995906</v>
       </c>
     </row>
     <row r="28">
@@ -8206,7 +7620,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-42.05068293900445</v>
+        <v>-25.54108380995906</v>
       </c>
     </row>
     <row r="29">
@@ -8214,7 +7628,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-41.69294012723473</v>
+        <v>-25.54108380995906</v>
       </c>
     </row>
     <row r="30">
@@ -8222,7 +7636,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-43.45815464652105</v>
+        <v>-26.18596298715677</v>
       </c>
     </row>
     <row r="31">
@@ -8230,7 +7644,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-43.50301090920232</v>
+        <v>-26.18596298715677</v>
       </c>
     </row>
     <row r="32">
@@ -8238,7 +7652,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-44.12215057591527</v>
+        <v>-26.18596298715677</v>
       </c>
     </row>
     <row r="33">
@@ -8246,7 +7660,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-44.47738527672978</v>
+        <v>-27.22997536738039</v>
       </c>
     </row>
     <row r="34">
@@ -8254,7 +7668,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-44.08222698438004</v>
+        <v>-27.22997536738039</v>
       </c>
     </row>
     <row r="35">
@@ -8262,7 +7676,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-45.64493675347141</v>
+        <v>-27.22997536738039</v>
       </c>
     </row>
     <row r="36">
@@ -8270,7 +7684,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-44.61575248840255</v>
+        <v>-27.32807402099215</v>
       </c>
     </row>
     <row r="37">
@@ -8278,7 +7692,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-44.78741615681943</v>
+        <v>-27.32807402099215</v>
       </c>
     </row>
     <row r="38">
@@ -8286,7 +7700,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-44.96450740052619</v>
+        <v>-27.32807402099215</v>
       </c>
     </row>
     <row r="39">
@@ -8294,7 +7708,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-44.34573148941389</v>
+        <v>-27.21860641442739</v>
       </c>
     </row>
     <row r="40">
@@ -8302,7 +7716,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-44.94568133765898</v>
+        <v>-27.21860641442739</v>
       </c>
     </row>
     <row r="41">
@@ -8310,7 +7724,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-45.6678970705612</v>
+        <v>-27.21860641442739</v>
       </c>
     </row>
     <row r="42">
@@ -8318,7 +7732,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-45.14908322330793</v>
+        <v>-26.97796975651446</v>
       </c>
     </row>
     <row r="43">
@@ -8326,7 +7740,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-45.10141043398096</v>
+        <v>-26.97796975651446</v>
       </c>
     </row>
     <row r="44">
@@ -8334,7 +7748,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-44.57786752797289</v>
+        <v>-26.97796975651446</v>
       </c>
     </row>
     <row r="45">
@@ -8342,7 +7756,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-44.38453195048059</v>
+        <v>-26.93890059109487</v>
       </c>
     </row>
     <row r="46">
@@ -8350,7 +7764,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-44.60705367734354</v>
+        <v>-26.93890059109487</v>
       </c>
     </row>
     <row r="47">
@@ -8358,7 +7772,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-44.51154089555751</v>
+        <v>-26.93890059109487</v>
       </c>
     </row>
     <row r="48">
@@ -8366,7 +7780,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-44.26664774505743</v>
+        <v>-26.63780302016268</v>
       </c>
     </row>
     <row r="49">
@@ -8374,7 +7788,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-43.69241622267125</v>
+        <v>-26.63780302016268</v>
       </c>
     </row>
     <row r="50">
@@ -8382,7 +7796,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-43.18644163496995</v>
+        <v>-26.63780302016268</v>
       </c>
     </row>
     <row r="51">
@@ -8390,7 +7804,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-43.3325356080552</v>
+        <v>-26.75254649401572</v>
       </c>
     </row>
     <row r="52">
@@ -8398,7 +7812,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-43.55336628870576</v>
+        <v>-26.75254649401572</v>
       </c>
     </row>
     <row r="53">
@@ -8406,7 +7820,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-43.64544504511973</v>
+        <v>-26.75254649401572</v>
       </c>
     </row>
     <row r="54">
@@ -8414,7 +7828,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-43.04687603175059</v>
+        <v>-26.51247854366754</v>
       </c>
     </row>
     <row r="55">
@@ -8422,7 +7836,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-43.39751963967337</v>
+        <v>-26.51247854366754</v>
       </c>
     </row>
     <row r="56">
@@ -8430,7 +7844,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-42.79945540093846</v>
+        <v>-26.51247854366754</v>
       </c>
     </row>
     <row r="57">
@@ -8438,7 +7852,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-42.71683477806265</v>
+        <v>-26.53463337217923</v>
       </c>
     </row>
     <row r="58">
@@ -8446,7 +7860,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-42.68539964883618</v>
+        <v>-26.53463337217923</v>
       </c>
     </row>
     <row r="59">
@@ -8454,7 +7868,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-42.68825001461585</v>
+        <v>-26.53463337217923</v>
       </c>
     </row>
     <row r="60">
@@ -8462,7 +7876,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-42.02489767561373</v>
+        <v>-26.08503740194399</v>
       </c>
     </row>
     <row r="61">
@@ -8470,7 +7884,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-41.72933137703864</v>
+        <v>-26.08503740194399</v>
       </c>
     </row>
     <row r="62">
@@ -8478,7 +7892,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-41.97437140891358</v>
+        <v>-26.08503740194399</v>
       </c>
     </row>
     <row r="63">
@@ -8486,7 +7900,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-41.9249228296631</v>
+        <v>-25.61329948504131</v>
       </c>
     </row>
     <row r="64">
@@ -8494,7 +7908,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-41.01855666652686</v>
+        <v>-25.61329948504131</v>
       </c>
     </row>
     <row r="65">
@@ -8502,7 +7916,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-40.54467061635148</v>
+        <v>-25.61329948504131</v>
       </c>
     </row>
     <row r="66">
@@ -8510,7 +7924,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-40.41649382408863</v>
+        <v>-24.46738323355262</v>
       </c>
     </row>
     <row r="67">
@@ -8518,7 +7932,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-40.20513732208327</v>
+        <v>-24.46738323355262</v>
       </c>
     </row>
     <row r="68">
@@ -8526,7 +7940,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-40.13748102436509</v>
+        <v>-24.46738323355262</v>
       </c>
     </row>
     <row r="69">
@@ -8534,7 +7948,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-38.98639482369673</v>
+        <v>-23.52046631466475</v>
       </c>
     </row>
     <row r="70">
@@ -8542,7 +7956,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-38.81065716945048</v>
+        <v>-23.52046631466475</v>
       </c>
     </row>
     <row r="71">
@@ -8550,7 +7964,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-39.26243170989459</v>
+        <v>-23.52046631466475</v>
       </c>
     </row>
     <row r="72">
@@ -8558,7 +7972,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-37.75481834837423</v>
+        <v>-22.86890149018965</v>
       </c>
     </row>
     <row r="73">
@@ -8566,7 +7980,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-38.03246950443246</v>
+        <v>-22.86890149018965</v>
       </c>
     </row>
     <row r="74">
@@ -8574,7 +7988,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-38.31133710490429</v>
+        <v>-22.86890149018965</v>
       </c>
     </row>
     <row r="75">
@@ -8582,7 +7996,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-37.52273923021868</v>
+        <v>-22.75079351832509</v>
       </c>
     </row>
     <row r="76">
@@ -8590,7 +8004,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-37.45266922768708</v>
+        <v>-22.75079351832509</v>
       </c>
     </row>
     <row r="77">
@@ -8598,7 +8012,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-37.33465845410967</v>
+        <v>-22.75079351832509</v>
       </c>
     </row>
     <row r="78">
@@ -8606,7 +8020,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-36.6294715366587</v>
+        <v>-22.04983847432252</v>
       </c>
     </row>
     <row r="79">
@@ -8614,7 +8028,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-36.47422216198608</v>
+        <v>-22.04983847432252</v>
       </c>
     </row>
     <row r="80">
@@ -8622,7 +8036,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-36.12827475987695</v>
+        <v>-22.04983847432252</v>
       </c>
     </row>
     <row r="81">
@@ -8630,7 +8044,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-36.03452200250035</v>
+        <v>-21.6940050253273</v>
       </c>
     </row>
     <row r="82">
@@ -8638,7 +8052,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-36.2041498961541</v>
+        <v>-21.6940050253273</v>
       </c>
     </row>
     <row r="83">
@@ -8646,7 +8060,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-36.26714612201172</v>
+        <v>-21.6940050253273</v>
       </c>
     </row>
     <row r="84">
@@ -8654,7 +8068,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-36.23185652230855</v>
+        <v>-21.66570188560509</v>
       </c>
     </row>
     <row r="85">
@@ -8662,7 +8076,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-36.6590148730791</v>
+        <v>-21.66570188560509</v>
       </c>
     </row>
     <row r="86">
@@ -8670,7 +8084,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-36.77199069353632</v>
+        <v>-21.66570188560509</v>
       </c>
     </row>
     <row r="87">
@@ -8678,7 +8092,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-36.21486882270149</v>
+        <v>-21.58068994039178</v>
       </c>
     </row>
     <row r="88">
@@ -8686,7 +8100,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-35.8383821580255</v>
+        <v>-21.58068994039178</v>
       </c>
     </row>
     <row r="89">
@@ -8694,7 +8108,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-35.99189139059911</v>
+        <v>-21.58068994039178</v>
       </c>
     </row>
     <row r="90">
@@ -8702,7 +8116,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-36.90182477586847</v>
+        <v>-21.52335818626243</v>
       </c>
     </row>
     <row r="91">
@@ -8710,7 +8124,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-39.1942933083288</v>
+        <v>-21.52335818626243</v>
       </c>
     </row>
     <row r="92">
@@ -8718,7 +8132,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-38.48469100347</v>
+        <v>-21.52335818626243</v>
       </c>
     </row>
     <row r="93">
@@ -8726,7 +8140,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-35.63707471146351</v>
+        <v>-21.52341953221627</v>
       </c>
     </row>
     <row r="94">
@@ -8734,7 +8148,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-35.33428010236023</v>
+        <v>-21.52341953221627</v>
       </c>
     </row>
     <row r="95">
@@ -8742,7 +8156,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-35.54405000337388</v>
+        <v>-21.52341953221627</v>
       </c>
     </row>
     <row r="96">
@@ -8750,7 +8164,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-35.33970722512714</v>
+        <v>-21.44283800382842</v>
       </c>
     </row>
     <row r="97">
@@ -8758,7 +8172,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-35.37270351700793</v>
+        <v>-21.44283800382842</v>
       </c>
     </row>
     <row r="98">
@@ -8766,7 +8180,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-35.62084494856057</v>
+        <v>-21.44283800382842</v>
       </c>
     </row>
     <row r="99">
@@ -8774,7 +8188,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-35.49201383111068</v>
+        <v>-21.41307616531012</v>
       </c>
     </row>
     <row r="100">
@@ -8782,7 +8196,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-35.46550803302915</v>
+        <v>-21.41307616531012</v>
       </c>
     </row>
     <row r="101">
@@ -8790,7 +8204,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-35.2320807755484</v>
+        <v>-21.41307616531012</v>
       </c>
     </row>
     <row r="102">
@@ -8798,7 +8212,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-35.93931573899953</v>
+        <v>-21.55574351335861</v>
       </c>
     </row>
     <row r="103">
@@ -8806,7 +8220,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-35.57138779860816</v>
+        <v>-21.55574351335861</v>
       </c>
     </row>
     <row r="104">
@@ -8814,7 +8228,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-35.33386759858379</v>
+        <v>-21.55574351335861</v>
       </c>
     </row>
     <row r="105">
@@ -8822,7 +8236,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-35.76655095419824</v>
+        <v>-22.01757083040817</v>
       </c>
     </row>
     <row r="106">
@@ -8830,7 +8244,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-35.32912316989368</v>
+        <v>-22.01757083040817</v>
       </c>
     </row>
     <row r="107">
@@ -8838,7 +8252,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-35.59617956434154</v>
+        <v>-22.01757083040817</v>
       </c>
     </row>
     <row r="108">
@@ -8846,7 +8260,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-36.46809492214887</v>
+        <v>-22.29832496823927</v>
       </c>
     </row>
     <row r="109">
@@ -8854,7 +8268,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-36.64248472367773</v>
+        <v>-22.29832496823927</v>
       </c>
     </row>
     <row r="110">
@@ -8862,7 +8276,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-36.71537562784857</v>
+        <v>-22.29832496823927</v>
       </c>
     </row>
     <row r="111">
@@ -8870,7 +8284,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-37.55714698133664</v>
+        <v>-22.88855605932123</v>
       </c>
     </row>
     <row r="112">
@@ -8878,7 +8292,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-37.45624549167119</v>
+        <v>-22.88855605932123</v>
       </c>
     </row>
     <row r="113">
@@ -8886,7 +8300,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-38.01161876346303</v>
+        <v>-22.88855605932123</v>
       </c>
     </row>
     <row r="114">
@@ -8894,7 +8308,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-39.31035041517329</v>
+        <v>-23.86004853850665</v>
       </c>
     </row>
     <row r="115">
@@ -8902,7 +8316,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-38.36140934303085</v>
+        <v>-23.86004853850665</v>
       </c>
     </row>
     <row r="116">
@@ -8910,7 +8324,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-38.86635151722654</v>
+        <v>-23.86004853850665</v>
       </c>
     </row>
     <row r="117">
@@ -8918,7 +8332,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-39.2129781624898</v>
+        <v>-24.95563385804189</v>
       </c>
     </row>
     <row r="118">
@@ -8926,7 +8340,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-38.75182615252639</v>
+        <v>-24.95563385804189</v>
       </c>
     </row>
     <row r="119">
@@ -8934,7 +8348,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-38.95561645191513</v>
+        <v>-24.95563385804189</v>
       </c>
     </row>
     <row r="120">
@@ -8942,7 +8356,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-40.06463297279434</v>
+        <v>-25.0130123966084</v>
       </c>
     </row>
     <row r="121">
@@ -8950,7 +8364,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-39.98527481532247</v>
+        <v>-25.0130123966084</v>
       </c>
     </row>
     <row r="122">
@@ -8958,7 +8372,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-39.44636213592282</v>
+        <v>-25.0130123966084</v>
       </c>
     </row>
     <row r="123">
@@ -8966,7 +8380,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-40.36340657286115</v>
+        <v>-24.65549012004921</v>
       </c>
     </row>
     <row r="124">
@@ -8974,7 +8388,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-40.05265128516812</v>
+        <v>-24.65549012004921</v>
       </c>
     </row>
     <row r="125">
@@ -8982,7 +8396,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-39.36389305923063</v>
+        <v>-24.65549012004921</v>
       </c>
     </row>
     <row r="126">
@@ -8990,7 +8404,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-39.47499439810915</v>
+        <v>-23.98874807195011</v>
       </c>
     </row>
     <row r="127">
@@ -8998,7 +8412,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-39.59746814916262</v>
+        <v>-23.98874807195011</v>
       </c>
     </row>
     <row r="128">
@@ -9006,7 +8420,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-39.33509508793964</v>
+        <v>-23.98874807195011</v>
       </c>
     </row>
     <row r="129">
@@ -9014,7 +8428,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-39.03687693251565</v>
+        <v>-23.30458751591604</v>
       </c>
     </row>
     <row r="130">
@@ -9022,7 +8436,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-39.35981982037151</v>
+        <v>-23.30458751591604</v>
       </c>
     </row>
     <row r="131">
@@ -9030,7 +8444,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-39.04012807378157</v>
+        <v>-23.30458751591604</v>
       </c>
     </row>
     <row r="132">
@@ -9038,7 +8452,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-39.60686277655305</v>
+        <v>-23.39903098035064</v>
       </c>
     </row>
     <row r="133">
@@ -9046,7 +8460,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-39.07383922249082</v>
+        <v>-23.39903098035064</v>
       </c>
     </row>
     <row r="134">
@@ -9054,7 +8468,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-39.98036973667045</v>
+        <v>-23.39903098035064</v>
       </c>
     </row>
     <row r="135">
@@ -9062,7 +8476,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-39.92558590746706</v>
+        <v>-23.39827906893807</v>
       </c>
     </row>
     <row r="136">
@@ -9070,7 +8484,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-38.64962530854032</v>
+        <v>-23.39827906893807</v>
       </c>
     </row>
     <row r="137">
@@ -9078,7 +8492,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-39.70658747313302</v>
+        <v>-23.39827906893807</v>
       </c>
     </row>
     <row r="138">
@@ -9086,7 +8500,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-39.74122519599176</v>
+        <v>-23.19947889378212</v>
       </c>
     </row>
     <row r="139">
@@ -9094,7 +8508,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-39.2788315096432</v>
+        <v>-23.19947889378212</v>
       </c>
     </row>
     <row r="140">
@@ -9102,7 +8516,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-39.02336790594049</v>
+        <v>-23.19947889378212</v>
       </c>
     </row>
     <row r="141">
@@ -9110,7 +8524,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-38.98613291681144</v>
+        <v>-23.23435158990876</v>
       </c>
     </row>
     <row r="142">
@@ -9118,7 +8532,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-39.21734301934073</v>
+        <v>-23.23435158990876</v>
       </c>
     </row>
     <row r="143">
@@ -9126,7 +8540,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-38.96641025972622</v>
+        <v>-23.23435158990876</v>
       </c>
     </row>
     <row r="144">
@@ -9134,7 +8548,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-38.63530003024698</v>
+        <v>-22.96984259467554</v>
       </c>
     </row>
     <row r="145">
@@ -9142,7 +8556,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-38.20706977179428</v>
+        <v>-22.96984259467554</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1724,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012005308</v>
+        <v>2016001897</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2016000970</v>
+        <v>2012001358</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013000898</v>
+        <v>2012010558</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013006367</v>
+        <v>2015001987</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012009561</v>
+        <v>2012005493</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014006186</v>
+        <v>2013006323</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2026,160 +2094,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2012000520</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>24</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2015007694</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>30</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2015009278</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>40</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2016004733</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>24</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2197,7 +2113,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2229,132 +2145,132 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012005308</v>
+        <v>2016001897</v>
       </c>
       <c r="B2" t="n">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C2" t="n">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>22.6191274605412</v>
+        <v>7.868356314467358</v>
       </c>
       <c r="E2" t="n">
-        <v>39.82929208736402</v>
+        <v>29.99999999446737</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2016000970</v>
+        <v>2012001358</v>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D3" t="n">
-        <v>27.23193519446736</v>
+        <v>16.72256451824407</v>
       </c>
       <c r="E3" t="n">
-        <v>30</v>
+        <v>23.45733333157742</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2013000898</v>
+        <v>2012010558</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="D4" t="n">
-        <v>22.90564879824407</v>
+        <v>31.79236546054121</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013006367</v>
+        <v>2015001987</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="D5" t="n">
-        <v>29.44638703446735</v>
+        <v>53.7815102356624</v>
       </c>
       <c r="E5" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2013006367</v>
+        <v>2012005493</v>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>121</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
-        <v>29.44638704</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E6" t="n">
-        <v>30</v>
+        <v>39.70755121532749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2012009561</v>
+        <v>2012005493</v>
       </c>
       <c r="B7" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>17.46473052720787</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E7" t="n">
-        <v>39.99992664723267</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014006186</v>
+        <v>2012005493</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C8" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>55.18807339566239</v>
+        <v>36.9905342</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012000520</v>
+        <v>2013006323</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C9" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D9" t="n">
         <v>4.675</v>
@@ -2364,72 +2280,16 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2015007694</v>
-      </c>
-      <c r="B10" t="n">
-        <v>30</v>
-      </c>
-      <c r="C10" t="n">
-        <v>116</v>
-      </c>
-      <c r="D10" t="n">
-        <v>7.412913094467356</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2015009278</v>
-      </c>
-      <c r="B11" t="n">
-        <v>21</v>
-      </c>
-      <c r="C11" t="n">
-        <v>123</v>
-      </c>
-      <c r="D11" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E11" t="n">
-        <v>40</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2015009278</v>
-      </c>
-      <c r="B12" t="n">
-        <v>126</v>
-      </c>
-      <c r="C12" t="n">
-        <v>143</v>
-      </c>
-      <c r="D12" t="n">
-        <v>38.90564879999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>40</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2016004733</v>
-      </c>
-      <c r="B13" t="n">
-        <v>17</v>
-      </c>
-      <c r="C13" t="n">
-        <v>105</v>
-      </c>
-      <c r="D13" t="n">
-        <v>19.40372495824407</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="7" t="n"/>
@@ -2480,7 +2340,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2498,8 +2358,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3260,7 +3120,7 @@
         </is>
       </c>
       <c r="C45" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D45" s="4" t="n"/>
       <c r="E45" s="4" t="n"/>
@@ -3277,7 +3137,7 @@
         </is>
       </c>
       <c r="C46" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D46" s="4" t="n"/>
       <c r="E46" s="4" t="n"/>
@@ -3294,7 +3154,7 @@
         </is>
       </c>
       <c r="C47" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="4" t="n"/>
@@ -3311,7 +3171,7 @@
         </is>
       </c>
       <c r="C48" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D48" s="4" t="n"/>
       <c r="E48" s="4" t="n"/>
@@ -3328,7 +3188,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -3345,7 +3205,7 @@
         </is>
       </c>
       <c r="C50" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D50" s="4" t="n"/>
       <c r="E50" s="4" t="n"/>
@@ -3362,7 +3222,7 @@
         </is>
       </c>
       <c r="C51" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D51" s="4" t="n"/>
       <c r="E51" s="4" t="n"/>
@@ -3379,7 +3239,7 @@
         </is>
       </c>
       <c r="C52" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="4" t="n"/>
@@ -3396,7 +3256,7 @@
         </is>
       </c>
       <c r="C53" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D53" s="4" t="n"/>
       <c r="E53" s="4" t="n"/>
@@ -4688,7 +4548,7 @@
         </is>
       </c>
       <c r="C129" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D129" s="4" t="n"/>
       <c r="E129" s="4" t="n"/>
@@ -4705,7 +4565,7 @@
         </is>
       </c>
       <c r="C130" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D130" s="4" t="n"/>
       <c r="E130" s="4" t="n"/>
@@ -4722,7 +4582,7 @@
         </is>
       </c>
       <c r="C131" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D131" s="4" t="n"/>
       <c r="E131" s="4" t="n"/>
@@ -4739,7 +4599,7 @@
         </is>
       </c>
       <c r="C132" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D132" s="4" t="n"/>
       <c r="E132" s="4" t="n"/>
@@ -4756,7 +4616,7 @@
         </is>
       </c>
       <c r="C133" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D133" s="4" t="n"/>
       <c r="E133" s="4" t="n"/>
@@ -4773,7 +4633,7 @@
         </is>
       </c>
       <c r="C134" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D134" s="4" t="n"/>
       <c r="E134" s="4" t="n"/>
@@ -5400,7 +5260,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5475,7 +5335,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5561,7 +5421,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5672,7 +5532,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5718,7 +5578,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6037,7 +5897,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -6055,10 +5915,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6079,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>7.493459311914026</v>
+        <v>2.531893379981703</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6088,7 +5948,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>6.69350040743063</v>
+        <v>2.735841883434928</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6097,7 +5957,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>6.69350040743063</v>
+        <v>2.735841883434928</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6106,7 +5966,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>6.69350040743063</v>
+        <v>2.735841883434928</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6115,7 +5975,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>6.0400467618125</v>
+        <v>3.137038118085333</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6124,7 +5984,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>6.0400467618125</v>
+        <v>3.137038118085333</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6133,7 +5993,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>6.0400467618125</v>
+        <v>3.137038118085333</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6142,7 +6002,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>4.677083921237026</v>
+        <v>5.259166869483945</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6151,7 +6011,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>4.677083921237026</v>
+        <v>5.259166869483945</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6160,7 +6020,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.677083921237026</v>
+        <v>5.259166869483945</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6169,7 +6029,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>4.309196390059991</v>
+        <v>4.400845494060166</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6178,7 +6038,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>4.309196390059991</v>
+        <v>4.400845494060166</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6187,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.309196390059991</v>
+        <v>4.400845494060166</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6196,7 +6056,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>5.60974444992353</v>
+        <v>3.855940085174673</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6205,7 +6065,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.60974444992353</v>
+        <v>3.855940085174673</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6214,7 +6074,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>5.60974444992353</v>
+        <v>3.855940085174673</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6223,7 +6083,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>6.765093758966588</v>
+        <v>5.090357276104122</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6232,7 +6092,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>6.765093758966588</v>
+        <v>5.090357276104122</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6241,7 +6101,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>6.765093758966588</v>
+        <v>5.090357276104122</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6250,7 +6110,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.342114257734417</v>
+        <v>4.528170484285572</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6259,7 +6119,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.342114257734417</v>
+        <v>4.528170484285572</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6268,7 +6128,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.342114257734417</v>
+        <v>4.528170484285572</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6277,7 +6137,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.245101880722483</v>
+        <v>2.682209484992524</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6286,7 +6146,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>2.245101880722483</v>
+        <v>2.682209484992524</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6295,7 +6155,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>2.245101880722483</v>
+        <v>2.682209484992524</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6304,7 +6164,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>1.486785152409333</v>
+        <v>2.69983878311941</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6313,7 +6173,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>1.486785152409333</v>
+        <v>2.69983878311941</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6322,7 +6182,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>1.486785152409333</v>
+        <v>2.69983878311941</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6331,7 +6191,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.154388201905413</v>
+        <v>2.267667377929505</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6340,7 +6200,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.154388201905413</v>
+        <v>2.267667377929505</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6349,7 +6209,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>2.154388201905413</v>
+        <v>2.267667377929505</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6358,7 +6218,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.061017942353727</v>
+        <v>1.464996531979421</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6367,7 +6227,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.061017942353727</v>
+        <v>1.464996531979421</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6376,7 +6236,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.061017942353727</v>
+        <v>1.464996531979421</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6385,7 +6245,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.060969612894327</v>
+        <v>0.8401642832344827</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6394,7 +6254,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>1.060969612894327</v>
+        <v>0.8401642832344827</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6403,7 +6263,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>1.060969612894327</v>
+        <v>0.8401642832344827</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6412,7 +6272,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>2.412588087140753</v>
+        <v>1.308394455300045</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6421,7 +6281,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>2.412588087140753</v>
+        <v>1.308394455300045</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6430,7 +6290,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>2.412588087140753</v>
+        <v>1.308394455300045</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6439,7 +6299,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.468520817090788</v>
+        <v>0.6858131786410611</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6448,7 +6308,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>2.468520817090788</v>
+        <v>0.6858131786410611</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6457,7 +6317,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.468520817090788</v>
+        <v>0.6858131786410611</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6466,7 +6326,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.173694658557872</v>
+        <v>0</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6475,7 +6335,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>5.173694658557872</v>
+        <v>0</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6484,7 +6344,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>5.173694658557872</v>
+        <v>0</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6493,7 +6353,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.142156770007151</v>
+        <v>0</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6502,7 +6362,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.142156770007151</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6511,7 +6371,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.142156770007151</v>
+        <v>0</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6520,7 +6380,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.533488180447595</v>
+        <v>0</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6529,7 +6389,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>4.533488180447595</v>
+        <v>0</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6538,7 +6398,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>4.533488180447595</v>
+        <v>0</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6547,7 +6407,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.046385945470287</v>
+        <v>0.4049445692970925</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6556,7 +6416,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>3.046385945470287</v>
+        <v>0.4049445692970925</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6565,7 +6425,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>3.046385945470287</v>
+        <v>0.4049445692970925</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6574,7 +6434,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>5.096470278011537</v>
+        <v>1.118481104564687</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6583,7 +6443,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.096470278011537</v>
+        <v>1.118481104564687</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6592,7 +6452,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>5.096470278011537</v>
+        <v>1.118481104564687</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6601,7 +6461,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.418011132075993</v>
+        <v>1.509486252715203</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6610,7 +6470,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>6.418011132075993</v>
+        <v>1.509486252715203</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6619,7 +6479,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>6.418011132075993</v>
+        <v>1.509486252715203</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6628,7 +6488,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.380036913197999</v>
+        <v>2.029777044364983</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6637,7 +6497,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.380036913197999</v>
+        <v>2.029777044364983</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6646,7 +6506,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.380036913197999</v>
+        <v>2.029777044364983</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6655,7 +6515,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>7.888063398855711</v>
+        <v>4.898443219885186</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6664,7 +6524,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>7.888063398855711</v>
+        <v>4.898443219885186</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6673,7 +6533,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>7.888063398855711</v>
+        <v>4.898443219885186</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6682,7 +6542,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>8.545132380186102</v>
+        <v>6.074105022443555</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6691,7 +6551,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>8.545132380186102</v>
+        <v>6.074105022443555</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6700,7 +6560,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>8.545132380186102</v>
+        <v>6.074105022443555</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6709,7 +6569,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>9.395637986853718</v>
+        <v>7.823388594621978</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6718,7 +6578,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>9.395637986853718</v>
+        <v>7.823388594621978</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6727,7 +6587,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>9.395637986853718</v>
+        <v>7.823388594621978</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6736,7 +6596,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>9.337493344782363</v>
+        <v>8.793687933073222</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6745,7 +6605,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>9.337493344782363</v>
+        <v>8.793687933073222</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6754,7 +6614,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>9.337493344782363</v>
+        <v>8.793687933073222</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6763,7 +6623,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>10.39058627820361</v>
+        <v>7.58845220888171</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6772,7 +6632,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>10.39058627820361</v>
+        <v>7.58845220888171</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6781,7 +6641,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>10.39058627820361</v>
+        <v>7.58845220888171</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6790,7 +6650,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>11.82674415264298</v>
+        <v>7.980569113348666</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6799,7 +6659,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>11.82674415264298</v>
+        <v>7.980569113348666</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6808,7 +6668,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>11.82674415264298</v>
+        <v>7.980569113348666</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6817,7 +6677,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>12.4408243923828</v>
+        <v>8.534943358198609</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6826,7 +6686,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>12.4408243923828</v>
+        <v>8.534943358198609</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6835,7 +6695,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.4408243923828</v>
+        <v>8.534943358198609</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6844,7 +6704,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>12.80517844591751</v>
+        <v>9.40815073248161</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6853,7 +6713,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>12.80517844591751</v>
+        <v>9.40815073248161</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6862,7 +6722,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>12.80517844591751</v>
+        <v>9.40815073248161</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6871,7 +6731,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>12.49917832214913</v>
+        <v>11.56395849082043</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6880,7 +6740,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>12.49917832214913</v>
+        <v>11.56395849082043</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6889,7 +6749,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>12.49917832214913</v>
+        <v>11.56395849082043</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6898,7 +6758,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>13.15015460272757</v>
+        <v>11.70282681602778</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6907,7 +6767,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>13.15015460272757</v>
+        <v>11.70282681602778</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6916,7 +6776,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>13.15015460272757</v>
+        <v>11.70282681602778</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6925,7 +6785,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>13.75388528070297</v>
+        <v>11.55501769053563</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6934,7 +6794,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>13.75388528070297</v>
+        <v>11.55501769053563</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6943,7 +6803,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>13.75388528070297</v>
+        <v>11.55501769053563</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6952,7 +6812,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>13.338069819153</v>
+        <v>10.54067986638401</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6961,7 +6821,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>13.338069819153</v>
+        <v>10.54067986638401</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6970,7 +6830,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>13.338069819153</v>
+        <v>10.54067986638401</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6979,7 +6839,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>12.38124010224055</v>
+        <v>9.626708957492697</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6988,7 +6848,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>12.38124010224055</v>
+        <v>9.626708957492697</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6997,7 +6857,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>12.38124010224055</v>
+        <v>9.626708957492697</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7006,7 +6866,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>11.57371646695147</v>
+        <v>9.101483960566178</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7015,7 +6875,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>11.57371646695147</v>
+        <v>9.101483960566178</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7024,7 +6884,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>11.57371646695147</v>
+        <v>9.101483960566178</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7033,7 +6893,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>10.1022978440271</v>
+        <v>8.119370481620878</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7042,7 +6902,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>10.1022978440271</v>
+        <v>8.119370481620878</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7051,7 +6911,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>10.1022978440271</v>
+        <v>8.119370481620878</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7060,7 +6920,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>6.923451377740109</v>
+        <v>5.632096305829077</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7069,7 +6929,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>6.923451377740109</v>
+        <v>5.632096305829077</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7078,7 +6938,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>6.923451377740109</v>
+        <v>5.632096305829077</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7087,7 +6947,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>5.391811521206177</v>
+        <v>5.623819268319705</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7096,7 +6956,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.391811521206177</v>
+        <v>5.623819268319705</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7105,7 +6965,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>5.391811521206177</v>
+        <v>5.623819268319705</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7114,7 +6974,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>6.364732573288748</v>
+        <v>3.566120082326408</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7123,7 +6983,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>6.364732573288748</v>
+        <v>3.566120082326408</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7132,7 +6992,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>6.364732573288748</v>
+        <v>3.566120082326408</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7141,7 +7001,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>6.020078247040114</v>
+        <v>1.174525468753023</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7150,7 +7010,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>6.020078247040114</v>
+        <v>1.174525468753023</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7159,7 +7019,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>6.020078247040114</v>
+        <v>1.174525468753023</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7168,7 +7028,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.487177817669527</v>
+        <v>0.9072088206738094</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7177,7 +7037,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>5.487177817669527</v>
+        <v>0.9072088206738094</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7186,7 +7046,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>5.487177817669527</v>
+        <v>0.9072088206738094</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7195,7 +7055,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>6.252296632036245</v>
+        <v>0.7244528326925296</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7204,7 +7064,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>6.252296632036245</v>
+        <v>0.7244528326925296</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7213,7 +7073,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>6.252296632036245</v>
+        <v>0.7244528326925296</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7222,7 +7082,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>7.603965581627404</v>
+        <v>0</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7231,7 +7091,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>7.603965581627404</v>
+        <v>0</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7240,7 +7100,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>7.603965581627404</v>
+        <v>0</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7249,7 +7109,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>7.354266749103219</v>
+        <v>0</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7258,7 +7118,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>7.354266749103219</v>
+        <v>0</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7267,7 +7127,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>7.354266749103219</v>
+        <v>0</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7276,7 +7136,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>7.904856767588013</v>
+        <v>2.269343034996617</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7285,7 +7145,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>7.904856767588013</v>
+        <v>2.269343034996617</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7294,7 +7154,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>7.904856767588013</v>
+        <v>2.269343034996617</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7303,7 +7163,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>7.686552422456339</v>
+        <v>3.583624783004961</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7312,7 +7172,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>7.686552422456339</v>
+        <v>3.583624783004961</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7321,7 +7181,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>7.686552422456339</v>
+        <v>3.583624783004961</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7330,7 +7190,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>7.487026157374954</v>
+        <v>3.697774702986</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7339,7 +7199,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>7.487026157374954</v>
+        <v>3.697774702986</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7348,7 +7208,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>7.487026157374954</v>
+        <v>3.697774702986</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7357,7 +7217,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>7.493459311914026</v>
+        <v>2.531893379981703</v>
       </c>
     </row>
     <row r="145">
@@ -7365,14 +7225,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>7.493459311914026</v>
+        <v>2.531893379981703</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7390,8 +7250,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7412,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-22.96984259467554</v>
+        <v>-15.26220669407227</v>
       </c>
     </row>
     <row r="3">
@@ -7420,7 +7280,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-23.15493436498491</v>
+        <v>-15.26073412276259</v>
       </c>
     </row>
     <row r="4">
@@ -7428,7 +7288,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-23.15493436498491</v>
+        <v>-15.26073412276259</v>
       </c>
     </row>
     <row r="5">
@@ -7436,7 +7296,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-23.15493436498491</v>
+        <v>-15.26073412276259</v>
       </c>
     </row>
     <row r="6">
@@ -7444,7 +7304,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-22.89031957362501</v>
+        <v>-15.60815425489654</v>
       </c>
     </row>
     <row r="7">
@@ -7452,7 +7312,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-22.89031957362501</v>
+        <v>-15.60815425489654</v>
       </c>
     </row>
     <row r="8">
@@ -7460,7 +7320,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-22.89031957362501</v>
+        <v>-15.60815425489654</v>
       </c>
     </row>
     <row r="9">
@@ -7468,7 +7328,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-23.25790901261288</v>
+        <v>-15.35589522611397</v>
       </c>
     </row>
     <row r="10">
@@ -7476,7 +7336,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-23.25790901261288</v>
+        <v>-15.35589522611397</v>
       </c>
     </row>
     <row r="11">
@@ -7484,7 +7344,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-23.25790901261288</v>
+        <v>-15.35589522611397</v>
       </c>
     </row>
     <row r="12">
@@ -7492,7 +7352,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-23.24673614939432</v>
+        <v>-15.52723630758355</v>
       </c>
     </row>
     <row r="13">
@@ -7500,7 +7360,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-23.24673614939432</v>
+        <v>-15.52723630758355</v>
       </c>
     </row>
     <row r="14">
@@ -7508,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-23.24673614939432</v>
+        <v>-15.52723630758355</v>
       </c>
     </row>
     <row r="15">
@@ -7516,7 +7376,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-23.46167478866931</v>
+        <v>-15.52086312174049</v>
       </c>
     </row>
     <row r="16">
@@ -7524,7 +7384,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-23.46167478866931</v>
+        <v>-15.52086312174049</v>
       </c>
     </row>
     <row r="17">
@@ -7532,7 +7392,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-23.46167478866931</v>
+        <v>-15.52086312174049</v>
       </c>
     </row>
     <row r="18">
@@ -7540,7 +7400,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-23.87694250165555</v>
+        <v>-15.10238638788124</v>
       </c>
     </row>
     <row r="19">
@@ -7548,7 +7408,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-23.87694250165555</v>
+        <v>-15.10238638788124</v>
       </c>
     </row>
     <row r="20">
@@ -7556,7 +7416,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-23.87694250165555</v>
+        <v>-15.10238638788124</v>
       </c>
     </row>
     <row r="21">
@@ -7564,7 +7424,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-23.95723163979559</v>
+        <v>-15.05167635692359</v>
       </c>
     </row>
     <row r="22">
@@ -7572,7 +7432,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-23.95723163979559</v>
+        <v>-15.05167635692359</v>
       </c>
     </row>
     <row r="23">
@@ -7580,7 +7440,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-23.95723163979559</v>
+        <v>-15.05167635692359</v>
       </c>
     </row>
     <row r="24">
@@ -7588,7 +7448,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-25.01442426054245</v>
+        <v>-15.44802662007161</v>
       </c>
     </row>
     <row r="25">
@@ -7596,7 +7456,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-25.01442426054245</v>
+        <v>-15.44802662007161</v>
       </c>
     </row>
     <row r="26">
@@ -7604,7 +7464,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-25.01442426054245</v>
+        <v>-15.44802662007161</v>
       </c>
     </row>
     <row r="27">
@@ -7612,7 +7472,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-25.54108380995906</v>
+        <v>-15.80062103407054</v>
       </c>
     </row>
     <row r="28">
@@ -7620,7 +7480,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-25.54108380995906</v>
+        <v>-15.80062103407054</v>
       </c>
     </row>
     <row r="29">
@@ -7628,7 +7488,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-25.54108380995906</v>
+        <v>-15.80062103407054</v>
       </c>
     </row>
     <row r="30">
@@ -7636,7 +7496,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-26.18596298715677</v>
+        <v>-15.96427423605944</v>
       </c>
     </row>
     <row r="31">
@@ -7644,7 +7504,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-26.18596298715677</v>
+        <v>-15.96427423605944</v>
       </c>
     </row>
     <row r="32">
@@ -7652,7 +7512,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-26.18596298715677</v>
+        <v>-15.96427423605944</v>
       </c>
     </row>
     <row r="33">
@@ -7660,7 +7520,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-27.22997536738039</v>
+        <v>-16.81967286445795</v>
       </c>
     </row>
     <row r="34">
@@ -7668,7 +7528,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-27.22997536738039</v>
+        <v>-16.81967286445795</v>
       </c>
     </row>
     <row r="35">
@@ -7676,7 +7536,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-27.22997536738039</v>
+        <v>-16.81967286445795</v>
       </c>
     </row>
     <row r="36">
@@ -7684,7 +7544,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-27.32807402099215</v>
+        <v>-17.0920453112235</v>
       </c>
     </row>
     <row r="37">
@@ -7692,7 +7552,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-27.32807402099215</v>
+        <v>-17.0920453112235</v>
       </c>
     </row>
     <row r="38">
@@ -7700,7 +7560,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-27.32807402099215</v>
+        <v>-17.0920453112235</v>
       </c>
     </row>
     <row r="39">
@@ -7708,7 +7568,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-27.21860641442739</v>
+        <v>-17.57070748281406</v>
       </c>
     </row>
     <row r="40">
@@ -7716,7 +7576,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-27.21860641442739</v>
+        <v>-17.57070748281406</v>
       </c>
     </row>
     <row r="41">
@@ -7724,7 +7584,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-27.21860641442739</v>
+        <v>-17.57070748281406</v>
       </c>
     </row>
     <row r="42">
@@ -7732,7 +7592,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-26.97796975651446</v>
+        <v>-17.19445014034515</v>
       </c>
     </row>
     <row r="43">
@@ -7740,7 +7600,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-26.97796975651446</v>
+        <v>-17.19445014034515</v>
       </c>
     </row>
     <row r="44">
@@ -7748,7 +7608,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-26.97796975651446</v>
+        <v>-17.19445014034515</v>
       </c>
     </row>
     <row r="45">
@@ -7756,7 +7616,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-26.93890059109487</v>
+        <v>-18.52567996983208</v>
       </c>
     </row>
     <row r="46">
@@ -7764,7 +7624,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-26.93890059109487</v>
+        <v>-18.52567996983208</v>
       </c>
     </row>
     <row r="47">
@@ -7772,7 +7632,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-26.93890059109487</v>
+        <v>-18.52567996983208</v>
       </c>
     </row>
     <row r="48">
@@ -7780,7 +7640,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-26.63780302016268</v>
+        <v>-19.29706829485622</v>
       </c>
     </row>
     <row r="49">
@@ -7788,7 +7648,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-26.63780302016268</v>
+        <v>-19.29706829485622</v>
       </c>
     </row>
     <row r="50">
@@ -7796,7 +7656,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-26.63780302016268</v>
+        <v>-19.29706829485622</v>
       </c>
     </row>
     <row r="51">
@@ -7804,7 +7664,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-26.75254649401572</v>
+        <v>-19.07826977483192</v>
       </c>
     </row>
     <row r="52">
@@ -7812,7 +7672,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-26.75254649401572</v>
+        <v>-19.07826977483192</v>
       </c>
     </row>
     <row r="53">
@@ -7820,7 +7680,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-26.75254649401572</v>
+        <v>-19.07826977483192</v>
       </c>
     </row>
     <row r="54">
@@ -7828,7 +7688,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-26.51247854366754</v>
+        <v>-18.89313233406742</v>
       </c>
     </row>
     <row r="55">
@@ -7836,7 +7696,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-26.51247854366754</v>
+        <v>-18.89313233406742</v>
       </c>
     </row>
     <row r="56">
@@ -7844,7 +7704,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-26.51247854366754</v>
+        <v>-18.89313233406742</v>
       </c>
     </row>
     <row r="57">
@@ -7852,7 +7712,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-26.53463337217923</v>
+        <v>-18.79053523604257</v>
       </c>
     </row>
     <row r="58">
@@ -7860,7 +7720,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-26.53463337217923</v>
+        <v>-18.79053523604257</v>
       </c>
     </row>
     <row r="59">
@@ -7868,7 +7728,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-26.53463337217923</v>
+        <v>-18.79053523604257</v>
       </c>
     </row>
     <row r="60">
@@ -7876,7 +7736,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-26.08503740194399</v>
+        <v>-18.47455392746651</v>
       </c>
     </row>
     <row r="61">
@@ -7884,7 +7744,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-26.08503740194399</v>
+        <v>-18.47455392746651</v>
       </c>
     </row>
     <row r="62">
@@ -7892,7 +7752,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-26.08503740194399</v>
+        <v>-18.47455392746651</v>
       </c>
     </row>
     <row r="63">
@@ -7900,7 +7760,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-25.61329948504131</v>
+        <v>-15.98935117563978</v>
       </c>
     </row>
     <row r="64">
@@ -7908,7 +7768,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-25.61329948504131</v>
+        <v>-15.98935117563978</v>
       </c>
     </row>
     <row r="65">
@@ -7916,7 +7776,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-25.61329948504131</v>
+        <v>-15.98935117563978</v>
       </c>
     </row>
     <row r="66">
@@ -7924,7 +7784,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-24.46738323355262</v>
+        <v>-15.66286462792696</v>
       </c>
     </row>
     <row r="67">
@@ -7932,7 +7792,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-24.46738323355262</v>
+        <v>-15.66286462792696</v>
       </c>
     </row>
     <row r="68">
@@ -7940,7 +7800,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-24.46738323355262</v>
+        <v>-15.66286462792696</v>
       </c>
     </row>
     <row r="69">
@@ -7948,7 +7808,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-23.52046631466475</v>
+        <v>-15.27804045713127</v>
       </c>
     </row>
     <row r="70">
@@ -7956,7 +7816,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-23.52046631466475</v>
+        <v>-15.27804045713127</v>
       </c>
     </row>
     <row r="71">
@@ -7964,7 +7824,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-23.52046631466475</v>
+        <v>-15.27804045713127</v>
       </c>
     </row>
     <row r="72">
@@ -7972,7 +7832,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-22.86890149018965</v>
+        <v>-14.82087546304553</v>
       </c>
     </row>
     <row r="73">
@@ -7980,7 +7840,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-22.86890149018965</v>
+        <v>-14.82087546304553</v>
       </c>
     </row>
     <row r="74">
@@ -7988,7 +7848,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-22.86890149018965</v>
+        <v>-14.82087546304553</v>
       </c>
     </row>
     <row r="75">
@@ -7996,7 +7856,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-22.75079351832509</v>
+        <v>-14.6232468818109</v>
       </c>
     </row>
     <row r="76">
@@ -8004,7 +7864,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-22.75079351832509</v>
+        <v>-14.6232468818109</v>
       </c>
     </row>
     <row r="77">
@@ -8012,7 +7872,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-22.75079351832509</v>
+        <v>-14.6232468818109</v>
       </c>
     </row>
     <row r="78">
@@ -8020,7 +7880,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-22.04983847432252</v>
+        <v>-14.39006302704846</v>
       </c>
     </row>
     <row r="79">
@@ -8028,7 +7888,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-22.04983847432252</v>
+        <v>-14.39006302704846</v>
       </c>
     </row>
     <row r="80">
@@ -8036,7 +7896,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-22.04983847432252</v>
+        <v>-14.39006302704846</v>
       </c>
     </row>
     <row r="81">
@@ -8044,7 +7904,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-21.6940050253273</v>
+        <v>-14.22918220560708</v>
       </c>
     </row>
     <row r="82">
@@ -8052,7 +7912,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-21.6940050253273</v>
+        <v>-14.22918220560708</v>
       </c>
     </row>
     <row r="83">
@@ -8060,7 +7920,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-21.6940050253273</v>
+        <v>-14.22918220560708</v>
       </c>
     </row>
     <row r="84">
@@ -8068,7 +7928,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-21.66570188560509</v>
+        <v>-13.9751106104341</v>
       </c>
     </row>
     <row r="85">
@@ -8076,7 +7936,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-21.66570188560509</v>
+        <v>-13.9751106104341</v>
       </c>
     </row>
     <row r="86">
@@ -8084,7 +7944,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-21.66570188560509</v>
+        <v>-13.9751106104341</v>
       </c>
     </row>
     <row r="87">
@@ -8092,7 +7952,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-21.58068994039178</v>
+        <v>-13.94012617732752</v>
       </c>
     </row>
     <row r="88">
@@ -8100,7 +7960,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-21.58068994039178</v>
+        <v>-13.94012617732752</v>
       </c>
     </row>
     <row r="89">
@@ -8108,7 +7968,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-21.58068994039178</v>
+        <v>-13.94012617732752</v>
       </c>
     </row>
     <row r="90">
@@ -8116,7 +7976,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-21.52335818626243</v>
+        <v>-13.76599851966128</v>
       </c>
     </row>
     <row r="91">
@@ -8124,7 +7984,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-21.52335818626243</v>
+        <v>-13.76599851966128</v>
       </c>
     </row>
     <row r="92">
@@ -8132,7 +7992,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-21.52335818626243</v>
+        <v>-13.76599851966128</v>
       </c>
     </row>
     <row r="93">
@@ -8140,7 +8000,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-21.52341953221627</v>
+        <v>-13.68653224981792</v>
       </c>
     </row>
     <row r="94">
@@ -8148,7 +8008,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-21.52341953221627</v>
+        <v>-13.68653224981792</v>
       </c>
     </row>
     <row r="95">
@@ -8156,7 +8016,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-21.52341953221627</v>
+        <v>-13.68653224981792</v>
       </c>
     </row>
     <row r="96">
@@ -8164,7 +8024,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-21.44283800382842</v>
+        <v>-13.68522748182942</v>
       </c>
     </row>
     <row r="97">
@@ -8172,7 +8032,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-21.44283800382842</v>
+        <v>-13.68522748182942</v>
       </c>
     </row>
     <row r="98">
@@ -8180,7 +8040,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-21.44283800382842</v>
+        <v>-13.68522748182942</v>
       </c>
     </row>
     <row r="99">
@@ -8188,7 +8048,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-21.41307616531012</v>
+        <v>-13.90608280920914</v>
       </c>
     </row>
     <row r="100">
@@ -8196,7 +8056,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-21.41307616531012</v>
+        <v>-13.90608280920914</v>
       </c>
     </row>
     <row r="101">
@@ -8204,7 +8064,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-21.41307616531012</v>
+        <v>-13.90608280920914</v>
       </c>
     </row>
     <row r="102">
@@ -8212,7 +8072,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-21.55574351335861</v>
+        <v>-13.84883916296168</v>
       </c>
     </row>
     <row r="103">
@@ -8220,7 +8080,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-21.55574351335861</v>
+        <v>-13.84883916296168</v>
       </c>
     </row>
     <row r="104">
@@ -8228,7 +8088,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-21.55574351335861</v>
+        <v>-13.84883916296168</v>
       </c>
     </row>
     <row r="105">
@@ -8236,7 +8096,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-22.01757083040817</v>
+        <v>-13.80229979208204</v>
       </c>
     </row>
     <row r="106">
@@ -8244,7 +8104,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-22.01757083040817</v>
+        <v>-13.80229979208204</v>
       </c>
     </row>
     <row r="107">
@@ -8252,7 +8112,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-22.01757083040817</v>
+        <v>-13.80229979208204</v>
       </c>
     </row>
     <row r="108">
@@ -8260,7 +8120,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-22.29832496823927</v>
+        <v>-14.01061454778863</v>
       </c>
     </row>
     <row r="109">
@@ -8268,7 +8128,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-22.29832496823927</v>
+        <v>-14.01061454778863</v>
       </c>
     </row>
     <row r="110">
@@ -8276,7 +8136,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-22.29832496823927</v>
+        <v>-14.01061454778863</v>
       </c>
     </row>
     <row r="111">
@@ -8284,7 +8144,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-22.88855605932123</v>
+        <v>-14.4730734082848</v>
       </c>
     </row>
     <row r="112">
@@ -8292,7 +8152,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-22.88855605932123</v>
+        <v>-14.4730734082848</v>
       </c>
     </row>
     <row r="113">
@@ -8300,7 +8160,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-22.88855605932123</v>
+        <v>-14.4730734082848</v>
       </c>
     </row>
     <row r="114">
@@ -8308,7 +8168,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-23.86004853850665</v>
+        <v>-14.66685022422537</v>
       </c>
     </row>
     <row r="115">
@@ -8316,7 +8176,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-23.86004853850665</v>
+        <v>-14.66685022422537</v>
       </c>
     </row>
     <row r="116">
@@ -8324,7 +8184,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-23.86004853850665</v>
+        <v>-14.66685022422537</v>
       </c>
     </row>
     <row r="117">
@@ -8332,7 +8192,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-24.95563385804189</v>
+        <v>-14.94987659053901</v>
       </c>
     </row>
     <row r="118">
@@ -8340,7 +8200,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-24.95563385804189</v>
+        <v>-14.94987659053901</v>
       </c>
     </row>
     <row r="119">
@@ -8348,7 +8208,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-24.95563385804189</v>
+        <v>-14.94987659053901</v>
       </c>
     </row>
     <row r="120">
@@ -8356,7 +8216,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-25.0130123966084</v>
+        <v>-17.48115404914436</v>
       </c>
     </row>
     <row r="121">
@@ -8364,7 +8224,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-25.0130123966084</v>
+        <v>-17.48115404914436</v>
       </c>
     </row>
     <row r="122">
@@ -8372,7 +8232,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-25.0130123966084</v>
+        <v>-17.48115404914436</v>
       </c>
     </row>
     <row r="123">
@@ -8380,7 +8240,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-24.65549012004921</v>
+        <v>-17.79664434129283</v>
       </c>
     </row>
     <row r="124">
@@ -8388,7 +8248,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-24.65549012004921</v>
+        <v>-17.79664434129283</v>
       </c>
     </row>
     <row r="125">
@@ -8396,7 +8256,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-24.65549012004921</v>
+        <v>-17.79664434129283</v>
       </c>
     </row>
     <row r="126">
@@ -8404,7 +8264,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-23.98874807195011</v>
+        <v>-16.55785678744901</v>
       </c>
     </row>
     <row r="127">
@@ -8412,7 +8272,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-23.98874807195011</v>
+        <v>-16.55785678744901</v>
       </c>
     </row>
     <row r="128">
@@ -8420,7 +8280,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-23.98874807195011</v>
+        <v>-16.55785678744901</v>
       </c>
     </row>
     <row r="129">
@@ -8428,7 +8288,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-23.30458751591604</v>
+        <v>-16.68740623111795</v>
       </c>
     </row>
     <row r="130">
@@ -8436,7 +8296,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-23.30458751591604</v>
+        <v>-16.68740623111795</v>
       </c>
     </row>
     <row r="131">
@@ -8444,7 +8304,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-23.30458751591604</v>
+        <v>-16.68740623111795</v>
       </c>
     </row>
     <row r="132">
@@ -8452,7 +8312,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-23.39903098035064</v>
+        <v>-16.42640814345574</v>
       </c>
     </row>
     <row r="133">
@@ -8460,7 +8320,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-23.39903098035064</v>
+        <v>-16.42640814345574</v>
       </c>
     </row>
     <row r="134">
@@ -8468,7 +8328,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-23.39903098035064</v>
+        <v>-16.42640814345574</v>
       </c>
     </row>
     <row r="135">
@@ -8476,7 +8336,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-23.39827906893807</v>
+        <v>-15.80127216117777</v>
       </c>
     </row>
     <row r="136">
@@ -8484,7 +8344,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-23.39827906893807</v>
+        <v>-15.80127216117777</v>
       </c>
     </row>
     <row r="137">
@@ -8492,7 +8352,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-23.39827906893807</v>
+        <v>-15.80127216117777</v>
       </c>
     </row>
     <row r="138">
@@ -8500,7 +8360,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-23.19947889378212</v>
+        <v>-15.83826315773485</v>
       </c>
     </row>
     <row r="139">
@@ -8508,7 +8368,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-23.19947889378212</v>
+        <v>-15.83826315773485</v>
       </c>
     </row>
     <row r="140">
@@ -8516,7 +8376,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-23.19947889378212</v>
+        <v>-15.83826315773485</v>
       </c>
     </row>
     <row r="141">
@@ -8524,7 +8384,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-23.23435158990876</v>
+        <v>-15.40434368641768</v>
       </c>
     </row>
     <row r="142">
@@ -8532,7 +8392,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-23.23435158990876</v>
+        <v>-15.40434368641768</v>
       </c>
     </row>
     <row r="143">
@@ -8540,7 +8400,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-23.23435158990876</v>
+        <v>-15.40434368641768</v>
       </c>
     </row>
     <row r="144">
@@ -8548,7 +8408,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-22.96984259467554</v>
+        <v>-15.26220669407227</v>
       </c>
     </row>
     <row r="145">
@@ -8556,14 +8416,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-22.96984259467554</v>
+        <v>-15.26220669407227</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8594,6 +8454,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013005433</v>
+        <v>2012003395</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,44 +1833,6 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2014000218</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>60</v>
-      </c>
-      <c r="G3" t="n">
-        <v>250</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1925,54 +1887,26 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013005433</v>
+        <v>2012003395</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C2" t="n">
-        <v>42</v>
+        <v>118</v>
       </c>
       <c r="D2" t="n">
-        <v>39.4528244</v>
+        <v>51.11644319566241</v>
       </c>
       <c r="E2" t="n">
-        <v>39.4528244</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="n">
-        <v>2013005433</v>
-      </c>
-      <c r="B3" t="n">
-        <v>58</v>
-      </c>
-      <c r="C3" t="n">
-        <v>132</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.8112976</v>
-      </c>
-      <c r="E3" t="n">
-        <v>38</v>
-      </c>
+      <c r="A3" s="7" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="7" t="n">
-        <v>2014000218</v>
-      </c>
-      <c r="B4" t="n">
-        <v>33</v>
-      </c>
-      <c r="C4" t="n">
-        <v>118</v>
-      </c>
-      <c r="D4" t="n">
-        <v>40.88104079566241</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56.99999999587929</v>
-      </c>
+      <c r="A4" s="7" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n"/>
@@ -5649,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3.912858839668329</v>
+        <v>3.260715699723608</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5658,7 +5592,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.5558123084969336</v>
+        <v>0.4631769237474447</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5667,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.7799208392267526</v>
+        <v>0.6499340326889606</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5676,7 +5610,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>0</v>
+        <v>-0.4840399609830461</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5685,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2.609905332370844</v>
+        <v>2.174921110309036</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5694,7 +5628,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>3.610269152011318</v>
+        <v>3.008557626676099</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5703,7 +5637,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1.97962813599554</v>
+        <v>1.649690113329617</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5712,7 +5646,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>6.549184739037839</v>
+        <v>5.4576539491982</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5721,7 +5655,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>6.213408453254623</v>
+        <v>5.177840377712187</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5730,7 +5664,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>4.427594565689841</v>
+        <v>3.689662138074867</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5739,7 +5673,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>4.645549520048804</v>
+        <v>3.871291266707336</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5748,7 +5682,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>6.403847003224915</v>
+        <v>5.336539169354096</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5757,7 +5691,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.192150044379291</v>
+        <v>3.493458370316076</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5766,7 +5700,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.351523098125915</v>
+        <v>3.626269248438262</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5775,7 +5709,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>6.170331013808877</v>
+        <v>5.141942511507398</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -5784,7 +5718,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4.750571281731232</v>
+        <v>3.958809401442693</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -5793,7 +5727,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>1.115515364364786</v>
+        <v>0.9295961369706554</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -5802,7 +5736,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.97237270373815</v>
+        <v>0.8103105864484583</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -5811,7 +5745,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.6223521351102936</v>
+        <v>0.518626779258578</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -5820,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>3.093351878119369</v>
+        <v>2.577793231766141</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -5829,7 +5763,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.587781511588924</v>
+        <v>3.823151259657437</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -5838,7 +5772,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.424847518468629</v>
+        <v>2.020706265390524</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -5847,7 +5781,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>0</v>
+        <v>-0.3031668752140342</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -5856,7 +5790,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.954205595593574</v>
+        <v>1.628504662994645</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -5865,7 +5799,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.986932999909808</v>
+        <v>1.65577749992484</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -5874,7 +5808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>4.089836631562217</v>
+        <v>3.408197192968514</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -5883,7 +5817,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>3.244827686879804</v>
+        <v>2.704023072399837</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -5892,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>3.37410820958282</v>
+        <v>2.811756841319017</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -5901,7 +5835,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>2.317654853238051</v>
+        <v>1.931379044365042</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -5910,7 +5844,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.854865229754574</v>
+        <v>2.379054358128812</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -5919,7 +5853,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.978016341026885</v>
+        <v>1.648346950855737</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -5928,7 +5862,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.5911041338983239</v>
+        <v>0.4925867782486033</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -5937,7 +5871,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>2.354438279155916</v>
+        <v>1.962031899296597</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -5946,7 +5880,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>3.083173856322846</v>
+        <v>2.569311546935705</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -5955,7 +5889,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.392709486727266</v>
+        <v>1.993924572272721</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -5964,7 +5898,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>4.056615489590518</v>
+        <v>3.380512907992098</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -5973,7 +5907,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.445798399724235</v>
+        <v>2.038165333103529</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -5982,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.485279530699059</v>
+        <v>1.237732942249216</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -5991,7 +5925,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.708705148569133</v>
+        <v>1.423920957140944</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6000,7 +5934,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.060215902737095</v>
+        <v>0.8835132522809128</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6009,7 +5943,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.850499160665607</v>
+        <v>2.375415967221339</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6018,7 +5952,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.960443160632993</v>
+        <v>1.633702633860828</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6027,7 +5961,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.405223447683613</v>
+        <v>2.004352873069677</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6036,7 +5970,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.93390904743432</v>
+        <v>3.2782575395286</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6045,7 +5979,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.857347336473896</v>
+        <v>3.214456113728247</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6054,7 +5988,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>4.16154953920459</v>
+        <v>3.467957949337158</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6063,7 +5997,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>4.300837456124433</v>
+        <v>3.584031213437028</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6072,7 +6006,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>5.216760214272317</v>
+        <v>4.347300178560264</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6081,7 +6015,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>5.463314921817113</v>
+        <v>4.552762434847594</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6090,7 +6024,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.808995061358052</v>
+        <v>4.007495884465044</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6099,7 +6033,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>6.08898915393579</v>
+        <v>5.074157628279825</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6108,7 +6042,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>6.168765814047045</v>
+        <v>5.140638178372538</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6117,7 +6051,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>3.355124083883442</v>
+        <v>2.795936736569535</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6126,7 +6060,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>5.264559152966319</v>
+        <v>4.387132627471932</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6135,7 +6069,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>6.021818547508889</v>
+        <v>5.018182122924074</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6144,7 +6078,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.59818792804356</v>
+        <v>3.831823273369634</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6153,7 +6087,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>5.132716948460689</v>
+        <v>4.277264123717241</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6162,7 +6096,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>5.943214867780426</v>
+        <v>4.952679056483689</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6171,7 +6105,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>6.911202212129776</v>
+        <v>5.759335176774814</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6180,7 +6114,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>7.012811446474458</v>
+        <v>5.844009538728716</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6189,7 +6123,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>6.447311830941172</v>
+        <v>5.372759859117643</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6198,7 +6132,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>6.516125874652358</v>
+        <v>5.430104895543632</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6207,7 +6141,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>6.466832214197329</v>
+        <v>5.389026845164441</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6216,7 +6150,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>6.269920666186963</v>
+        <v>5.224933888489137</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6225,7 +6159,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>7.575782849875404</v>
+        <v>6.313152374896171</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6234,7 +6168,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>7.683375702305966</v>
+        <v>6.402813085254972</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6243,7 +6177,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>7.891903474627169</v>
+        <v>6.576586228855974</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6252,7 +6186,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>8.830292685455609</v>
+        <v>7.358577237879675</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6261,7 +6195,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>6.374555302317877</v>
+        <v>5.312129418598231</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6270,7 +6204,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>5.595896667250808</v>
+        <v>4.663247222709007</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6279,7 +6213,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>8.052940364573763</v>
+        <v>6.710783637144803</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6288,7 +6222,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>10.01392151231114</v>
+        <v>8.344934593592619</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6297,7 +6231,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>8.663214548764037</v>
+        <v>7.219345457303365</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6306,7 +6240,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>9.880594541937116</v>
+        <v>8.233828784947598</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6315,7 +6249,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>9.230963096838352</v>
+        <v>7.692469247365293</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6324,7 +6258,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>8.951626718290779</v>
+        <v>7.459688931908983</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6333,7 +6267,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>9.443504048319506</v>
+        <v>7.869586706932921</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6342,7 +6276,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>10.50058012932851</v>
+        <v>8.750483441107093</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6351,7 +6285,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>10.16742338587088</v>
+        <v>8.472852821559066</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6360,7 +6294,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>11.53846323858166</v>
+        <v>9.615386032151386</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6369,7 +6303,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>10.44434069629607</v>
+        <v>8.703617246913392</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6378,7 +6312,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>10.67923040017359</v>
+        <v>8.899358666811324</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6387,7 +6321,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>10.40831533399813</v>
+        <v>8.673596111665107</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6396,7 +6330,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>10.4644165587027</v>
+        <v>8.720347132252252</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6405,7 +6339,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>10.02818471018564</v>
+        <v>8.356820591821366</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6414,7 +6348,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>10.82543191771633</v>
+        <v>9.021193264763607</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6423,7 +6357,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>9.052699328544762</v>
+        <v>7.543916107120634</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6432,7 +6366,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>10.74502870308999</v>
+        <v>8.954190585908329</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6441,7 +6375,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>11.17475748672208</v>
+        <v>9.31229790560173</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6450,7 +6384,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>8.184210442674548</v>
+        <v>6.820175368895457</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6459,7 +6393,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>9.324824482002635</v>
+        <v>7.770687068335529</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6468,7 +6402,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>10.36359435315364</v>
+        <v>8.63632862762803</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6477,7 +6411,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>8.863953599297135</v>
+        <v>7.386627999414279</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6486,7 +6420,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>7.126451388813469</v>
+        <v>5.938709490677891</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6495,7 +6429,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>11.02501576090166</v>
+        <v>9.187513134084718</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6504,7 +6438,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>9.531645616890634</v>
+        <v>7.943038014075529</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6513,7 +6447,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>9.232042752726615</v>
+        <v>7.693368960605513</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6522,7 +6456,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>10.70189336052929</v>
+        <v>8.918244467107744</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6531,7 +6465,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>11.25340307253646</v>
+        <v>9.377835893780381</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6540,7 +6474,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>9.97413420538626</v>
+        <v>8.311778504488551</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6549,7 +6483,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>10.37219562655685</v>
+        <v>8.643496355464041</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6558,7 +6492,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>7.301795828167976</v>
+        <v>6.084829856806647</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6567,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>8.790585033539701</v>
+        <v>7.32548752794975</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6576,7 +6510,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>10.23230915883112</v>
+        <v>8.52692429902593</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6585,7 +6519,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>9.695592076237995</v>
+        <v>8.079660063531662</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6594,7 +6528,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>9.665173959947788</v>
+        <v>8.054311633289824</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6603,7 +6537,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>10.54812807114444</v>
+        <v>8.790106725953702</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6612,7 +6546,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>7.968883608807668</v>
+        <v>6.640736340673057</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6621,7 +6555,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>7.648135951245281</v>
+        <v>6.373446626037734</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6630,7 +6564,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>5.870267707642863</v>
+        <v>4.891889756369053</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6639,7 +6573,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>5.863027931897618</v>
+        <v>4.885856609914682</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6648,7 +6582,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>5.314879186747834</v>
+        <v>4.429065988956528</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6657,7 +6591,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>8.086601925569244</v>
+        <v>6.738834937974371</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6666,7 +6600,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>7.188805970468755</v>
+        <v>5.990671642057296</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6675,7 +6609,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>6.601802583860152</v>
+        <v>5.501502153216793</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6684,7 +6618,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>6.794691182416481</v>
+        <v>5.662242652013735</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6693,7 +6627,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9.066292129329629</v>
+        <v>7.555243441108024</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6702,7 +6636,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>5.612674882166417</v>
+        <v>4.677229068472014</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6711,7 +6645,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>7.147028051160688</v>
+        <v>5.955856709300574</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6720,7 +6654,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>8.063533597064877</v>
+        <v>6.719611330887398</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6729,7 +6663,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>6.742637438773574</v>
+        <v>5.618864532311312</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6738,7 +6672,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.293383084048773</v>
+        <v>4.411152570040644</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6747,7 +6681,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>6.20384393675571</v>
+        <v>5.169869947296426</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6756,7 +6690,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>5.947366339501758</v>
+        <v>4.956138616251465</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6765,7 +6699,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>6.362133303052484</v>
+        <v>5.301777752543736</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6774,7 +6708,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>5.547731442610712</v>
+        <v>4.623109535508927</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -6783,7 +6717,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>5.247772017976035</v>
+        <v>4.373143348313363</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -6792,7 +6726,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>4.910070635605019</v>
+        <v>4.09172552967085</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -6801,7 +6735,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>5.136203402780516</v>
+        <v>4.280169502317096</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -6810,7 +6744,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>3.188512002840063</v>
+        <v>2.657093335700053</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -6819,7 +6753,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>4.892534546338741</v>
+        <v>4.077112121948951</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -6828,7 +6762,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>4.304511409990857</v>
+        <v>3.587092841659048</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -6837,7 +6771,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>3.527925370061185</v>
+        <v>2.93993780838432</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -6846,7 +6780,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>6.859346415589209</v>
+        <v>5.716122012991008</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -6855,7 +6789,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>4.567175181165644</v>
+        <v>3.805979317638037</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -6864,7 +6798,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>5.54628321406264</v>
+        <v>4.621902678385534</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -6873,7 +6807,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>5.986091917757698</v>
+        <v>4.988409931464749</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -6882,7 +6816,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6.842643337186164</v>
+        <v>5.70220278098847</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -6891,7 +6825,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>5.295043743162656</v>
+        <v>4.412536452635547</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -6900,7 +6834,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>3.151929855613284</v>
+        <v>2.62660821301107</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -6909,7 +6843,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>4.15478734591027</v>
+        <v>3.462322788258559</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -6918,7 +6852,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>3.418869654188255</v>
+        <v>2.849058045156879</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -6927,7 +6861,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>4.408250884465594</v>
+        <v>3.673542403721328</v>
       </c>
     </row>
     <row r="145">
@@ -6935,7 +6869,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>4.960670340543333</v>
+        <v>4.133891950452778</v>
       </c>
     </row>
     <row r="146">
@@ -6982,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-15.81510105631622</v>
+        <v>-13.17925088026351</v>
       </c>
     </row>
     <row r="3">
@@ -6990,7 +6924,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-15.37635298569624</v>
+        <v>-12.8136274880802</v>
       </c>
     </row>
     <row r="4">
@@ -6998,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-15.37275106025429</v>
+        <v>-12.81062588354524</v>
       </c>
     </row>
     <row r="5">
@@ -7006,7 +6940,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-15.40191798292835</v>
+        <v>-12.8349316524403</v>
       </c>
     </row>
     <row r="6">
@@ -7014,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-15.59895683224464</v>
+        <v>-12.9991306935372</v>
       </c>
     </row>
     <row r="7">
@@ -7022,7 +6956,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-15.62506440159809</v>
+        <v>-13.02088700133174</v>
       </c>
     </row>
     <row r="8">
@@ -7030,7 +6964,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-15.8231835089667</v>
+        <v>-13.18598625747225</v>
       </c>
     </row>
     <row r="9">
@@ -7038,7 +6972,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-15.97919695771267</v>
+        <v>-13.31599746476056</v>
       </c>
     </row>
     <row r="10">
@@ -7046,7 +6980,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-15.88813457485368</v>
+        <v>-13.2401121457114</v>
       </c>
     </row>
     <row r="11">
@@ -7054,7 +6988,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-15.83867334666749</v>
+        <v>-13.19889445555624</v>
       </c>
     </row>
     <row r="12">
@@ -7062,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-15.99200164151558</v>
+        <v>-13.32666803459632</v>
       </c>
     </row>
     <row r="13">
@@ -7070,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-16.00509034910279</v>
+        <v>-13.33757529091899</v>
       </c>
     </row>
     <row r="14">
@@ -7078,7 +7012,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-15.7089692080799</v>
+        <v>-13.09080767339991</v>
       </c>
     </row>
     <row r="15">
@@ -7086,7 +7020,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-15.98446259890644</v>
+        <v>-13.3203854990887</v>
       </c>
     </row>
     <row r="16">
@@ -7094,7 +7028,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-15.50443928311508</v>
+        <v>-12.92036606926257</v>
       </c>
     </row>
     <row r="17">
@@ -7102,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-16.00865711895845</v>
+        <v>-13.34054759913204</v>
       </c>
     </row>
     <row r="18">
@@ -7110,7 +7044,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-16.02340023484841</v>
+        <v>-13.35283352904034</v>
       </c>
     </row>
     <row r="19">
@@ -7118,7 +7052,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-16.18896408759095</v>
+        <v>-13.49080340632579</v>
       </c>
     </row>
     <row r="20">
@@ -7126,7 +7060,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-15.78657434194806</v>
+        <v>-13.15547861829005</v>
       </c>
     </row>
     <row r="21">
@@ -7134,7 +7068,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-16.11556998377028</v>
+        <v>-13.4296416531419</v>
       </c>
     </row>
     <row r="22">
@@ -7142,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-15.83808009327372</v>
+        <v>-13.1984000777281</v>
       </c>
     </row>
     <row r="23">
@@ -7150,7 +7084,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-15.70786803155423</v>
+        <v>-13.0898900262952</v>
       </c>
     </row>
     <row r="24">
@@ -7158,7 +7092,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-16.26889381571634</v>
+        <v>-13.55741151309695</v>
       </c>
     </row>
     <row r="25">
@@ -7166,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-16.59508150694879</v>
+        <v>-13.829234589124</v>
       </c>
     </row>
     <row r="26">
@@ -7174,7 +7108,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-16.00716173825746</v>
+        <v>-13.33930144854788</v>
       </c>
     </row>
     <row r="27">
@@ -7182,7 +7116,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-17.01325551909332</v>
+        <v>-14.17771293257777</v>
       </c>
     </row>
     <row r="28">
@@ -7190,7 +7124,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-16.54553820113755</v>
+        <v>-13.78794850094796</v>
       </c>
     </row>
     <row r="29">
@@ -7198,7 +7132,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-16.66576350496822</v>
+        <v>-13.88813625414018</v>
       </c>
     </row>
     <row r="30">
@@ -7206,7 +7140,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-16.5639253142261</v>
+        <v>-13.80327109518842</v>
       </c>
     </row>
     <row r="31">
@@ -7214,7 +7148,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-17.75074330203735</v>
+        <v>-14.79228608503112</v>
       </c>
     </row>
     <row r="32">
@@ -7222,7 +7156,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-17.86151097892397</v>
+        <v>-14.88459248243665</v>
       </c>
     </row>
     <row r="33">
@@ -7230,7 +7164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-17.26945972740273</v>
+        <v>-14.39121643950228</v>
       </c>
     </row>
     <row r="34">
@@ -7238,7 +7172,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-17.5799499669682</v>
+        <v>-14.64995830580683</v>
       </c>
     </row>
     <row r="35">
@@ -7246,7 +7180,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-18.19480778761637</v>
+        <v>-15.16233982301364</v>
       </c>
     </row>
     <row r="36">
@@ -7254,7 +7188,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-18.11676382030574</v>
+        <v>-15.09730318358811</v>
       </c>
     </row>
     <row r="37">
@@ -7262,7 +7196,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-17.65407060925145</v>
+        <v>-14.71172550770954</v>
       </c>
     </row>
     <row r="38">
@@ -7270,7 +7204,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-18.11815400686397</v>
+        <v>-15.09846167238665</v>
       </c>
     </row>
     <row r="39">
@@ -7278,7 +7212,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-18.19254953445421</v>
+        <v>-15.16045794537851</v>
       </c>
     </row>
     <row r="40">
@@ -7286,7 +7220,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-18.47460340946307</v>
+        <v>-15.39550284121923</v>
       </c>
     </row>
     <row r="41">
@@ -7294,7 +7228,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-17.79581545121341</v>
+        <v>-14.82984620934451</v>
       </c>
     </row>
     <row r="42">
@@ -7302,7 +7236,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-17.75487459878498</v>
+        <v>-14.79572883232081</v>
       </c>
     </row>
     <row r="43">
@@ -7310,7 +7244,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-18.2304024537103</v>
+        <v>-15.19200204475859</v>
       </c>
     </row>
     <row r="44">
@@ -7318,7 +7252,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-17.86019368074335</v>
+        <v>-14.88349473395279</v>
       </c>
     </row>
     <row r="45">
@@ -7326,7 +7260,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-18.14625361160177</v>
+        <v>-15.12187800966814</v>
       </c>
     </row>
     <row r="46">
@@ -7334,7 +7268,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-18.10315481152063</v>
+        <v>-15.08596234293386</v>
       </c>
     </row>
     <row r="47">
@@ -7342,7 +7276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-18.44048338018916</v>
+        <v>-15.36706948349097</v>
       </c>
     </row>
     <row r="48">
@@ -7350,7 +7284,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-18.09140011441932</v>
+        <v>-15.0761667620161</v>
       </c>
     </row>
     <row r="49">
@@ -7358,7 +7292,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-17.7250345888507</v>
+        <v>-14.77086215737559</v>
       </c>
     </row>
     <row r="50">
@@ -7366,7 +7300,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-17.30080357165225</v>
+        <v>-14.41733630971021</v>
       </c>
     </row>
     <row r="51">
@@ -7374,7 +7308,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-17.24671303874965</v>
+        <v>-14.37226086562471</v>
       </c>
     </row>
     <row r="52">
@@ -7382,7 +7316,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-17.63649287842447</v>
+        <v>-14.69707739868706</v>
       </c>
     </row>
     <row r="53">
@@ -7390,7 +7324,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-17.25381851670926</v>
+        <v>-14.37818209725772</v>
       </c>
     </row>
     <row r="54">
@@ -7398,7 +7332,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-17.44892025181827</v>
+        <v>-14.54076687651523</v>
       </c>
     </row>
     <row r="55">
@@ -7406,7 +7340,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-17.681671613629</v>
+        <v>-14.73472634469083</v>
       </c>
     </row>
     <row r="56">
@@ -7414,7 +7348,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-17.21863333072062</v>
+        <v>-14.34886110893385</v>
       </c>
     </row>
     <row r="57">
@@ -7422,7 +7356,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-17.75112578753156</v>
+        <v>-14.79260482294297</v>
       </c>
     </row>
     <row r="58">
@@ -7430,7 +7364,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-17.51443291148128</v>
+        <v>-14.59536075956773</v>
       </c>
     </row>
     <row r="59">
@@ -7438,7 +7372,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-17.09461951620753</v>
+        <v>-14.24551626350627</v>
       </c>
     </row>
     <row r="60">
@@ -7446,7 +7380,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-17.26726555034476</v>
+        <v>-14.38938795862063</v>
       </c>
     </row>
     <row r="61">
@@ -7454,7 +7388,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-16.92545915017917</v>
+        <v>-14.10454929181597</v>
       </c>
     </row>
     <row r="62">
@@ -7462,7 +7396,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-17.11283753786953</v>
+        <v>-14.26069794822461</v>
       </c>
     </row>
     <row r="63">
@@ -7470,7 +7404,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-16.85433377096165</v>
+        <v>-14.04527814246804</v>
       </c>
     </row>
     <row r="64">
@@ -7478,7 +7412,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-16.64966597817063</v>
+        <v>-13.87472164847552</v>
       </c>
     </row>
     <row r="65">
@@ -7486,7 +7420,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-16.63772659182274</v>
+        <v>-13.86477215985229</v>
       </c>
     </row>
     <row r="66">
@@ -7494,7 +7428,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-16.10029382434064</v>
+        <v>-13.41691152028387</v>
       </c>
     </row>
     <row r="67">
@@ -7502,7 +7436,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-16.49851825884921</v>
+        <v>-13.74876521570768</v>
       </c>
     </row>
     <row r="68">
@@ -7510,7 +7444,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-16.47747158276037</v>
+        <v>-13.73122631896697</v>
       </c>
     </row>
     <row r="69">
@@ -7518,7 +7452,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-15.7666943353083</v>
+        <v>-13.13891194609025</v>
       </c>
     </row>
     <row r="70">
@@ -7526,7 +7460,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-15.94260936020106</v>
+        <v>-13.28550780016755</v>
       </c>
     </row>
     <row r="71">
@@ -7534,7 +7468,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-15.90987117612796</v>
+        <v>-13.25822598010664</v>
       </c>
     </row>
     <row r="72">
@@ -7542,7 +7476,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-15.39350348021159</v>
+        <v>-12.82791956684299</v>
       </c>
     </row>
     <row r="73">
@@ -7550,7 +7484,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-15.37983972457829</v>
+        <v>-12.81653310381524</v>
       </c>
     </row>
     <row r="74">
@@ -7558,7 +7492,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-15.27077990275392</v>
+        <v>-12.7256499189616</v>
       </c>
     </row>
     <row r="75">
@@ -7566,7 +7500,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-15.12616024144808</v>
+        <v>-12.60513353454006</v>
       </c>
     </row>
     <row r="76">
@@ -7574,7 +7508,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-15.12651441330987</v>
+        <v>-12.60542867775823</v>
       </c>
     </row>
     <row r="77">
@@ -7582,7 +7516,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-15.32771199105153</v>
+        <v>-12.77309332587628</v>
       </c>
     </row>
     <row r="78">
@@ -7590,7 +7524,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-15.12181681064864</v>
+        <v>-12.60151400887387</v>
       </c>
     </row>
     <row r="79">
@@ -7598,7 +7532,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-15.14455077087138</v>
+        <v>-12.62045897572615</v>
       </c>
     </row>
     <row r="80">
@@ -7606,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-15.07672209999536</v>
+        <v>-12.56393508332947</v>
       </c>
     </row>
     <row r="81">
@@ -7614,7 +7548,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-15.05009163286289</v>
+        <v>-12.54174302738575</v>
       </c>
     </row>
     <row r="82">
@@ -7622,7 +7556,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-15.03652865517465</v>
+        <v>-12.53044054597888</v>
       </c>
     </row>
     <row r="83">
@@ -7630,7 +7564,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-14.89273326919189</v>
+        <v>-12.41061105765991</v>
       </c>
     </row>
     <row r="84">
@@ -7638,7 +7572,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-14.86617091644174</v>
+        <v>-12.38847576370145</v>
       </c>
     </row>
     <row r="85">
@@ -7646,7 +7580,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-14.76338321573381</v>
+        <v>-12.30281934644484</v>
       </c>
     </row>
     <row r="86">
@@ -7654,7 +7588,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-14.98338850356065</v>
+        <v>-12.48615708630054</v>
       </c>
     </row>
     <row r="87">
@@ -7662,7 +7596,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-14.84883044429049</v>
+        <v>-12.37402537024207</v>
       </c>
     </row>
     <row r="88">
@@ -7670,7 +7604,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-14.80733953299433</v>
+        <v>-12.33944961082861</v>
       </c>
     </row>
     <row r="89">
@@ -7678,7 +7612,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-14.78654314089216</v>
+        <v>-12.3221192840768</v>
       </c>
     </row>
     <row r="90">
@@ -7686,7 +7620,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-15.09540059355887</v>
+        <v>-12.5795004946324</v>
       </c>
     </row>
     <row r="91">
@@ -7694,7 +7628,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-16.34341276065658</v>
+        <v>-13.61951063388048</v>
       </c>
     </row>
     <row r="92">
@@ -7702,7 +7636,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-15.46893613007005</v>
+        <v>-12.89078010839171</v>
       </c>
     </row>
     <row r="93">
@@ -7710,7 +7644,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-14.82221164372606</v>
+        <v>-12.35184303643838</v>
       </c>
     </row>
     <row r="94">
@@ -7718,7 +7652,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-14.59123094201372</v>
+        <v>-12.15935911834477</v>
       </c>
     </row>
     <row r="95">
@@ -7726,7 +7660,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-14.60516642435728</v>
+        <v>-12.17097202029774</v>
       </c>
     </row>
     <row r="96">
@@ -7734,7 +7668,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-14.68197507392708</v>
+        <v>-12.23497922827257</v>
       </c>
     </row>
     <row r="97">
@@ -7742,7 +7676,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-14.79530645654792</v>
+        <v>-12.32942204712326</v>
       </c>
     </row>
     <row r="98">
@@ -7750,7 +7684,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-14.78409861161015</v>
+        <v>-12.3200821763418</v>
       </c>
     </row>
     <row r="99">
@@ -7758,7 +7692,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-14.7066522161104</v>
+        <v>-12.25554351342533</v>
       </c>
     </row>
     <row r="100">
@@ -7766,7 +7700,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-14.71301645913224</v>
+        <v>-12.26084704927687</v>
       </c>
     </row>
     <row r="101">
@@ -7774,7 +7708,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-14.71473538841853</v>
+        <v>-12.26227949034878</v>
       </c>
     </row>
     <row r="102">
@@ -7782,7 +7716,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-14.78258981168694</v>
+        <v>-12.31882484307245</v>
       </c>
     </row>
     <row r="103">
@@ -7790,7 +7724,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-14.84160109318604</v>
+        <v>-12.36800091098837</v>
       </c>
     </row>
     <row r="104">
@@ -7798,7 +7732,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-14.64102925769086</v>
+        <v>-12.20085771474239</v>
       </c>
     </row>
     <row r="105">
@@ -7806,7 +7740,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-14.8540131446218</v>
+        <v>-12.37834428718483</v>
       </c>
     </row>
     <row r="106">
@@ -7814,7 +7748,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-14.7703871234172</v>
+        <v>-12.308655936181</v>
       </c>
     </row>
     <row r="107">
@@ -7822,7 +7756,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-14.79436040730568</v>
+        <v>-12.32863367275473</v>
       </c>
     </row>
     <row r="108">
@@ -7830,7 +7764,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-14.93491356627351</v>
+        <v>-12.44576130522792</v>
       </c>
     </row>
     <row r="109">
@@ -7838,7 +7772,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-14.87568128125637</v>
+        <v>-12.39640106771364</v>
       </c>
     </row>
     <row r="110">
@@ -7846,7 +7780,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-15.0609738638022</v>
+        <v>-12.5508115531685</v>
       </c>
     </row>
     <row r="111">
@@ -7854,7 +7788,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-15.06504658308978</v>
+        <v>-12.55420548590815</v>
       </c>
     </row>
     <row r="112">
@@ -7862,7 +7796,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-15.41378905241624</v>
+        <v>-12.84482421034686</v>
       </c>
     </row>
     <row r="113">
@@ -7870,7 +7804,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-15.43727293159183</v>
+        <v>-12.86439410965986</v>
       </c>
     </row>
     <row r="114">
@@ -7878,7 +7812,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-15.68107696387562</v>
+        <v>-13.06756413656301</v>
       </c>
     </row>
     <row r="115">
@@ -7886,7 +7820,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-15.24861325521934</v>
+        <v>-12.70717771268279</v>
       </c>
     </row>
     <row r="116">
@@ -7894,7 +7828,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-15.22006719164427</v>
+        <v>-12.68338932637023</v>
       </c>
     </row>
     <row r="117">
@@ -7902,7 +7836,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-15.75148915697754</v>
+        <v>-13.12624096414795</v>
       </c>
     </row>
     <row r="118">
@@ -7910,7 +7844,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-15.5224568339433</v>
+        <v>-12.93538069495275</v>
       </c>
     </row>
     <row r="119">
@@ -7918,7 +7852,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-15.48835806735108</v>
+        <v>-12.9069650561259</v>
       </c>
     </row>
     <row r="120">
@@ -7926,7 +7860,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-16.35400229802842</v>
+        <v>-13.62833524835701</v>
       </c>
     </row>
     <row r="121">
@@ -7934,7 +7868,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-16.22138891984404</v>
+        <v>-13.51782409987004</v>
       </c>
     </row>
     <row r="122">
@@ -7942,7 +7876,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-15.78297909307812</v>
+        <v>-13.1524825775651</v>
       </c>
     </row>
     <row r="123">
@@ -7950,7 +7884,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-16.53272873057602</v>
+        <v>-13.77727394214668</v>
       </c>
     </row>
     <row r="124">
@@ -7958,7 +7892,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-16.39645015120246</v>
+        <v>-13.66370845933539</v>
       </c>
     </row>
     <row r="125">
@@ -7966,7 +7900,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-15.93281338252832</v>
+        <v>-13.27734448544027</v>
       </c>
     </row>
     <row r="126">
@@ -7974,7 +7908,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-15.95291480843866</v>
+        <v>-13.29409567369889</v>
       </c>
     </row>
     <row r="127">
@@ -7982,7 +7916,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-16.24364068435757</v>
+        <v>-13.53636723696464</v>
       </c>
     </row>
     <row r="128">
@@ -7990,7 +7924,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-15.8579574373202</v>
+        <v>-13.21496453110016</v>
       </c>
     </row>
     <row r="129">
@@ -7998,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-15.87561663995444</v>
+        <v>-13.22968053329537</v>
       </c>
     </row>
     <row r="130">
@@ -8006,7 +7940,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-16.03413773883658</v>
+        <v>-13.36178144903049</v>
       </c>
     </row>
     <row r="131">
@@ -8014,7 +7948,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-15.82335929401811</v>
+        <v>-13.1861327450151</v>
       </c>
     </row>
     <row r="132">
@@ -8022,7 +7956,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-15.57351772551859</v>
+        <v>-12.97793143793216</v>
       </c>
     </row>
     <row r="133">
@@ -8030,7 +7964,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-15.97904140771817</v>
+        <v>-13.31586783976514</v>
       </c>
     </row>
     <row r="134">
@@ -8038,7 +7972,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-15.68818626357359</v>
+        <v>-13.07348855297799</v>
       </c>
     </row>
     <row r="135">
@@ -8046,7 +7980,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-15.6588368617241</v>
+        <v>-13.04903071810342</v>
       </c>
     </row>
     <row r="136">
@@ -8054,7 +7988,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-15.65959214091384</v>
+        <v>-13.0496601174282</v>
       </c>
     </row>
     <row r="137">
@@ -8062,7 +7996,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-16.24542278479616</v>
+        <v>-13.53785232066347</v>
       </c>
     </row>
     <row r="138">
@@ -8070,7 +8004,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-16.0604209077645</v>
+        <v>-13.38368408980375</v>
       </c>
     </row>
     <row r="139">
@@ -8078,7 +8012,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-15.47402037650855</v>
+        <v>-12.89501698042379</v>
       </c>
     </row>
     <row r="140">
@@ -8086,7 +8020,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-15.95024236195045</v>
+        <v>-13.29186863495871</v>
       </c>
     </row>
     <row r="141">
@@ -8094,7 +8028,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-15.38059383327673</v>
+        <v>-12.81716152773061</v>
       </c>
     </row>
     <row r="142">
@@ -8102,7 +8036,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-15.36963341134178</v>
+        <v>-12.80802784278481</v>
       </c>
     </row>
     <row r="143">
@@ -8110,7 +8044,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-15.82898824627516</v>
+        <v>-13.19082353856263</v>
       </c>
     </row>
     <row r="144">
@@ -8118,7 +8052,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-15.55850394864205</v>
+        <v>-12.96541995720171</v>
       </c>
     </row>
     <row r="145">
@@ -8126,7 +8060,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-15.6006502762451</v>
+        <v>-13.00054189687092</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012003395</v>
+        <v>2015005306</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1833,6 +1833,234 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2014001856</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>250</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2015007403</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>30</v>
+      </c>
+      <c r="G4" t="n">
+        <v>250</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2014008689</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>24</v>
+      </c>
+      <c r="G5" t="n">
+        <v>250</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2015005425</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>250</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2012004800</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>250</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2016004791</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>24</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>150</v>
       </c>
     </row>
@@ -1887,50 +2115,190 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012003395</v>
+        <v>2015005306</v>
       </c>
       <c r="B2" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>67.89315454327789</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="n">
+        <v>2014001856</v>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>110</v>
+      </c>
+      <c r="D3" t="n">
+        <v>69.5926176</v>
+      </c>
+      <c r="E3" t="n">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="n">
+        <v>2015007403</v>
+      </c>
+      <c r="B4" t="n">
+        <v>36</v>
+      </c>
+      <c r="C4" t="n">
+        <v>128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.83799823446737</v>
+      </c>
+      <c r="E4" t="n">
+        <v>28.49999999474398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="n">
+        <v>2015007403</v>
+      </c>
+      <c r="B5" t="n">
+        <v>142</v>
+      </c>
+      <c r="C5" t="n">
+        <v>143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.95512871446735</v>
+      </c>
+      <c r="E5" t="n">
+        <v>26.95512871446735</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="n">
+        <v>2014008689</v>
+      </c>
+      <c r="B6" t="n">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23.4528244</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.4528244</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="n">
+        <v>2014008689</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48</v>
+      </c>
+      <c r="C7" t="n">
+        <v>124</v>
+      </c>
+      <c r="D7" t="n">
+        <v>23.56225952</v>
+      </c>
+      <c r="E7" t="n">
+        <v>23.56225952</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="n">
+        <v>2014008689</v>
+      </c>
+      <c r="B8" t="n">
+        <v>125</v>
+      </c>
+      <c r="C8" t="n">
+        <v>143</v>
+      </c>
+      <c r="D8" t="n">
+        <v>23.39810684</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23.39810684</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="n">
+        <v>2015005425</v>
+      </c>
+      <c r="B9" t="n">
+        <v>30</v>
+      </c>
+      <c r="C9" t="n">
+        <v>114</v>
+      </c>
+      <c r="D9" t="n">
+        <v>73.45503358327787</v>
+      </c>
+      <c r="E9" t="n">
+        <v>73.45503358327787</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2012004800</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="n">
+        <v>123</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.36510078327787</v>
+      </c>
+      <c r="E10" t="n">
+        <v>71.25</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>2016004791</v>
+      </c>
+      <c r="B11" t="n">
+        <v>33</v>
+      </c>
+      <c r="C11" t="n">
+        <v>40</v>
+      </c>
+      <c r="D11" t="n">
+        <v>21.81129759824406</v>
+      </c>
+      <c r="E11" t="n">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>2016004791</v>
+      </c>
+      <c r="B12" t="n">
+        <v>53</v>
+      </c>
+      <c r="C12" t="n">
         <v>118</v>
       </c>
-      <c r="D2" t="n">
-        <v>51.11644319566241</v>
-      </c>
-      <c r="E2" t="n">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="n"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="n"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="n"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="n"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="n"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="n"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
+      <c r="D12" t="n">
+        <v>21.264122</v>
+      </c>
+      <c r="E12" t="n">
+        <v>22.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="n"/>
@@ -5610,7 +5978,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.4840399609830461</v>
+        <v>-0.5363323667402173</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5781,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-0.3031668752140342</v>
+        <v>-0.3359189753064092</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2015005306</v>
+        <v>2013008370</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014001856</v>
+        <v>2014003729</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015007403</v>
+        <v>2014005851</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014008689</v>
+        <v>2013008066</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015005425</v>
+        <v>2015001284</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012004800</v>
+        <v>2016005553</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>75</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2016004791</v>
+        <v>2016001117</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>7.4</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G8" t="n">
         <v>250</v>
@@ -2061,6 +2061,538 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2014000491</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2014000845</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>24</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012009046</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>75</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2013005804</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2014002726</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F13" t="n">
+        <v>75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>250</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2012003702</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F14" t="n">
+        <v>24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>250</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2015000290</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75</v>
+      </c>
+      <c r="G15" t="n">
+        <v>250</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2012004277</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F16" t="n">
+        <v>40</v>
+      </c>
+      <c r="G16" t="n">
+        <v>250</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2012007671</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30</v>
+      </c>
+      <c r="G17" t="n">
+        <v>250</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2016006806</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F18" t="n">
+        <v>30</v>
+      </c>
+      <c r="G18" t="n">
+        <v>250</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2016005825</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F19" t="n">
+        <v>75</v>
+      </c>
+      <c r="G19" t="n">
+        <v>250</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2015008956</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F20" t="n">
+        <v>30</v>
+      </c>
+      <c r="G20" t="n">
+        <v>250</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2012000527</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F21" t="n">
+        <v>75</v>
+      </c>
+      <c r="G21" t="n">
+        <v>250</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2013002625</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F22" t="n">
+        <v>30</v>
+      </c>
+      <c r="G22" t="n">
+        <v>250</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2075,7 +2607,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2115,241 +2647,547 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2015005306</v>
+        <v>2013008370</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D2" t="n">
-        <v>67.89315454327789</v>
+        <v>16.53105305824406</v>
       </c>
       <c r="E2" t="n">
-        <v>71.25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014001856</v>
+        <v>2014003729</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D3" t="n">
-        <v>69.5926176</v>
+        <v>50.0864655956624</v>
       </c>
       <c r="E3" t="n">
-        <v>71.25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2015007403</v>
+        <v>2014005851</v>
       </c>
       <c r="B4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>12.83799823446737</v>
+        <v>37.5377098</v>
       </c>
       <c r="E4" t="n">
-        <v>28.49999999474398</v>
+        <v>38.87638725247504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2015007403</v>
+        <v>2014005851</v>
       </c>
       <c r="B5" t="n">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="D5" t="n">
-        <v>26.95512871446735</v>
+        <v>39.72641220000001</v>
       </c>
       <c r="E5" t="n">
-        <v>26.95512871446735</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014008689</v>
+        <v>2014005851</v>
       </c>
       <c r="B6" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="D6" t="n">
-        <v>23.4528244</v>
+        <v>38.90564879999999</v>
       </c>
       <c r="E6" t="n">
-        <v>23.4528244</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2014008689</v>
+        <v>2013008066</v>
       </c>
       <c r="B7" t="n">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="D7" t="n">
-        <v>23.56225952</v>
+        <v>18.92774079446736</v>
       </c>
       <c r="E7" t="n">
-        <v>23.56225952</v>
+        <v>28.89264972791037</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2014008689</v>
+        <v>2013008066</v>
       </c>
       <c r="B8" t="n">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D8" t="n">
-        <v>23.39810684</v>
+        <v>25.08185695446734</v>
       </c>
       <c r="E8" t="n">
-        <v>23.39810684</v>
+        <v>29.65849797896795</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015005425</v>
+        <v>2015001284</v>
       </c>
       <c r="B9" t="n">
         <v>30</v>
       </c>
       <c r="C9" t="n">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D9" t="n">
-        <v>73.45503358327787</v>
+        <v>67.27516798327788</v>
       </c>
       <c r="E9" t="n">
-        <v>73.45503358327787</v>
+        <v>71.54144552935513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2012004800</v>
+        <v>2015001284</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C10" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D10" t="n">
-        <v>70.36510078327787</v>
+        <v>73.45503360000002</v>
       </c>
       <c r="E10" t="n">
-        <v>71.25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>2016004791</v>
+        <v>2016005553</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" t="n">
-        <v>21.81129759824406</v>
+        <v>23.78112975824407</v>
       </c>
       <c r="E11" t="n">
-        <v>22.8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>2016004791</v>
+        <v>2016005553</v>
       </c>
       <c r="B12" t="n">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
+        <v>122</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23.94528244</v>
+      </c>
+      <c r="E12" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>2016005553</v>
+      </c>
+      <c r="B13" t="n">
+        <v>126</v>
+      </c>
+      <c r="C13" t="n">
+        <v>143</v>
+      </c>
+      <c r="D13" t="n">
+        <v>22.85093124</v>
+      </c>
+      <c r="E13" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>2016001117</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48</v>
+      </c>
+      <c r="C14" t="n">
+        <v>105</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.775</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="n">
+        <v>2014000491</v>
+      </c>
+      <c r="B15" t="n">
+        <v>36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>108</v>
+      </c>
+      <c r="D15" t="n">
+        <v>43.71347919566242</v>
+      </c>
+      <c r="E15" t="n">
+        <v>59.44481648365824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="n">
+        <v>2014000845</v>
+      </c>
+      <c r="B16" t="n">
+        <v>34</v>
+      </c>
+      <c r="C16" t="n">
+        <v>121</v>
+      </c>
+      <c r="D16" t="n">
+        <v>21.53770979824405</v>
+      </c>
+      <c r="E16" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="n">
+        <v>2012009046</v>
+      </c>
+      <c r="B17" t="n">
+        <v>21</v>
+      </c>
+      <c r="C17" t="n">
+        <v>24</v>
+      </c>
+      <c r="D17" t="n">
+        <v>67.3878217832779</v>
+      </c>
+      <c r="E17" t="n">
+        <v>69.17744351164443</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="n">
+        <v>2012009046</v>
+      </c>
+      <c r="B18" t="n">
+        <v>44</v>
+      </c>
+      <c r="C18" t="n">
+        <v>116</v>
+      </c>
+      <c r="D18" t="n">
+        <v>69.90161088000001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="n">
+        <v>2013005804</v>
+      </c>
+      <c r="B19" t="n">
+        <v>54</v>
+      </c>
+      <c r="C19" t="n">
+        <v>116</v>
+      </c>
+      <c r="D19" t="n">
+        <v>74.22751678327785</v>
+      </c>
+      <c r="E19" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="n">
+        <v>2014002726</v>
+      </c>
+      <c r="B20" t="n">
+        <v>42</v>
+      </c>
+      <c r="C20" t="n">
+        <v>114</v>
+      </c>
+      <c r="D20" t="n">
+        <v>62.14137338327789</v>
+      </c>
+      <c r="E20" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="n">
+        <v>2012003702</v>
+      </c>
+      <c r="B21" t="n">
+        <v>28</v>
+      </c>
+      <c r="C21" t="n">
+        <v>114</v>
+      </c>
+      <c r="D21" t="n">
+        <v>20.4433586</v>
+      </c>
+      <c r="E21" t="n">
+        <v>23.75170548696362</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="n">
+        <v>2015000290</v>
+      </c>
+      <c r="B22" t="n">
+        <v>18</v>
+      </c>
+      <c r="C22" t="n">
+        <v>28</v>
+      </c>
+      <c r="D22" t="n">
+        <v>68.82013438327786</v>
+      </c>
+      <c r="E22" t="n">
+        <v>73.11453308375398</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="n">
+        <v>2015000290</v>
+      </c>
+      <c r="B23" t="n">
+        <v>30</v>
+      </c>
+      <c r="C23" t="n">
+        <v>143</v>
+      </c>
+      <c r="D23" t="n">
+        <v>74.22751679999998</v>
+      </c>
+      <c r="E23" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="n">
+        <v>2012004277</v>
+      </c>
+      <c r="B24" t="n">
+        <v>39</v>
+      </c>
+      <c r="C24" t="n">
+        <v>108</v>
+      </c>
+      <c r="D24" t="n">
+        <v>18.1129754605412</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39.99613083930581</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="n">
+        <v>2012007671</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>16</v>
+      </c>
+      <c r="D25" t="n">
+        <v>26.40151576</v>
+      </c>
+      <c r="E25" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="n">
+        <v>2012007671</v>
+      </c>
+      <c r="B26" t="n">
+        <v>50</v>
+      </c>
+      <c r="C26" t="n">
+        <v>120</v>
+      </c>
+      <c r="D26" t="n">
+        <v>9.712659959999998</v>
+      </c>
+      <c r="E26" t="n">
+        <v>29.45733332780071</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="n">
+        <v>2012007671</v>
+      </c>
+      <c r="B27" t="n">
+        <v>126</v>
+      </c>
+      <c r="C27" t="n">
+        <v>143</v>
+      </c>
+      <c r="D27" t="n">
+        <v>25.01748335446738</v>
+      </c>
+      <c r="E27" t="n">
+        <v>29.43492551873389</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="n">
+        <v>2016006806</v>
+      </c>
+      <c r="B28" t="n">
+        <v>32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>117</v>
+      </c>
+      <c r="D28" t="n">
+        <v>21.08425639446736</v>
+      </c>
+      <c r="E28" t="n">
+        <v>29.45733332780071</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="n">
+        <v>2016005825</v>
+      </c>
+      <c r="B29" t="n">
+        <v>35</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" t="n">
+        <v>67.47633548327788</v>
+      </c>
+      <c r="E29" t="n">
+        <v>70.26442918067649</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2016005825</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" t="n">
+        <v>116</v>
+      </c>
+      <c r="D30" t="n">
+        <v>73.57090608</v>
+      </c>
+      <c r="E30" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2015008956</v>
+      </c>
+      <c r="B31" t="n">
+        <v>48</v>
+      </c>
+      <c r="C31" t="n">
+        <v>128</v>
+      </c>
+      <c r="D31" t="n">
+        <v>26.67832223446737</v>
+      </c>
+      <c r="E31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2012000527</v>
+      </c>
+      <c r="B32" t="n">
+        <v>28</v>
+      </c>
+      <c r="C32" t="n">
         <v>118</v>
       </c>
-      <c r="D12" t="n">
-        <v>21.264122</v>
-      </c>
-      <c r="E12" t="n">
-        <v>22.8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="n"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="n"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="n"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="n"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="n"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="n"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="n"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="n"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="n"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="n"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="n"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="n"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="n"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="n"/>
+      <c r="D32" t="n">
+        <v>71.91006718327789</v>
+      </c>
+      <c r="E32" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2013002625</v>
+      </c>
+      <c r="B33" t="n">
+        <v>40</v>
+      </c>
+      <c r="C33" t="n">
+        <v>114</v>
+      </c>
+      <c r="D33" t="n">
+        <v>24.46387039446736</v>
+      </c>
+      <c r="E33" t="n">
+        <v>29.53715469194886</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2452,7 +3290,7 @@
         </is>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D5" s="4" t="n"/>
       <c r="E5" s="4" t="n"/>
@@ -2775,7 +3613,7 @@
         </is>
       </c>
       <c r="C24" s="4" t="n">
-        <v>0.228</v>
+        <v>0.05300000000000001</v>
       </c>
       <c r="D24" s="4" t="n"/>
       <c r="E24" s="4" t="n"/>
@@ -5951,7 +6789,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>3.260715699723608</v>
+        <v>19.28589169688795</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5960,7 +6798,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.4631769237474447</v>
+        <v>19.21660824530409</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5969,7 +6807,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>0.6499340326889606</v>
+        <v>19.43076582256508</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5978,7 +6816,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-0.5363323667402173</v>
+        <v>19.08921356456598</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5987,7 +6825,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2.174921110309036</v>
+        <v>18.37648790608572</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5996,7 +6834,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>3.008557626676099</v>
+        <v>19.4746800581922</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6005,7 +6843,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>1.649690113329617</v>
+        <v>19.00165340115761</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6014,7 +6852,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>5.4576539491982</v>
+        <v>19.9070797114076</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6023,7 +6861,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>5.177840377712187</v>
+        <v>19.51692746949069</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6032,7 +6870,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>3.689662138074867</v>
+        <v>18.0733302243031</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6041,7 +6879,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>3.871291266707336</v>
+        <v>19.5895322332922</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6050,7 +6888,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>5.336539169354096</v>
+        <v>19.14906752684468</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6059,7 +6897,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>3.493458370316076</v>
+        <v>20.02981494786492</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6068,7 +6906,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>3.626269248438262</v>
+        <v>19.65645715282218</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6077,7 +6915,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>5.141942511507398</v>
+        <v>19.19568797810935</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6086,7 +6924,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>3.958809401442693</v>
+        <v>18.91265371873327</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6095,7 +6933,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>0.9295961369706554</v>
+        <v>20.14672661345087</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6104,7 +6942,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>0.8103105864484583</v>
+        <v>19.72902448058992</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6113,7 +6951,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>0.518626779258578</v>
+        <v>17.35994128109965</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6122,7 +6960,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>2.577793231766141</v>
+        <v>19.50712284483446</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6131,7 +6969,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>3.823151259657437</v>
+        <v>19.9367443365863</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6140,7 +6978,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>2.020706265390524</v>
+        <v>19.46447658183311</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6149,7 +6987,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-0.3359189753064092</v>
+        <v>17.31893723109282</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6158,7 +6996,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>1.628504662994645</v>
+        <v>16.67193334795832</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6167,7 +7005,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>1.65577749992484</v>
+        <v>15.27715015640743</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6176,7 +7014,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>3.408197192968514</v>
+        <v>16.98368685289913</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6185,7 +7023,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>2.704023072399837</v>
+        <v>16.94507760495745</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6194,7 +7032,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>2.811756841319017</v>
+        <v>16.10410231617828</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6203,7 +7041,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>1.931379044365042</v>
+        <v>15.91129791142439</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6212,7 +7050,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>2.379054358128812</v>
+        <v>14.96477858844007</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6221,7 +7059,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>1.648346950855737</v>
+        <v>14.92673129463418</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6230,7 +7068,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>0.4925867782486033</v>
+        <v>11.50987304395939</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6239,7 +7077,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.962031899296597</v>
+        <v>14.32637312122474</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6248,7 +7086,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>2.569311546935705</v>
+        <v>13.59087796277797</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6257,7 +7095,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>1.993924572272721</v>
+        <v>12.89284006712944</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6266,7 +7104,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>3.380512907992098</v>
+        <v>14.91915583851259</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6275,7 +7113,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.038165333103529</v>
+        <v>14.10600556098403</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6284,7 +7122,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.237732942249216</v>
+        <v>12.54823464760961</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6293,7 +7131,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.423920957140944</v>
+        <v>15.5369831012558</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6302,7 +7140,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>0.8835132522809128</v>
+        <v>14.377508127165</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6311,7 +7149,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>2.375415967221339</v>
+        <v>14.32754089969032</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6320,7 +7158,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>1.633702633860828</v>
+        <v>14.68723883606416</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6329,7 +7167,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>2.004352873069677</v>
+        <v>14.42527761729458</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6338,7 +7176,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.2782575395286</v>
+        <v>15.95224703890363</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6347,7 +7185,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.214456113728247</v>
+        <v>16.62309636694504</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6356,7 +7194,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.467957949337158</v>
+        <v>15.29039094222358</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6365,7 +7203,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.584031213437028</v>
+        <v>16.81544185575905</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6374,7 +7212,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>4.347300178560264</v>
+        <v>16.96825514267295</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6383,7 +7221,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>4.552762434847594</v>
+        <v>17.77708581917937</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6392,7 +7230,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>4.007495884465044</v>
+        <v>17.48972267947581</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6401,7 +7239,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>5.074157628279825</v>
+        <v>19.0999833826384</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6410,7 +7248,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>5.140638178372538</v>
+        <v>19.43205706680445</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6419,7 +7257,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.795936736569535</v>
+        <v>18.23515563032116</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6428,7 +7266,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>4.387132627471932</v>
+        <v>18.13425914533002</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6437,7 +7275,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>5.018182122924074</v>
+        <v>18.9151105865419</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6446,7 +7284,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>3.831823273369634</v>
+        <v>17.4772708536922</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6455,7 +7293,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.277264123717241</v>
+        <v>19.61629183667281</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6464,7 +7302,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.952679056483689</v>
+        <v>18.40432839679186</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6473,7 +7311,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>5.759335176774814</v>
+        <v>20.01147935761073</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6482,7 +7320,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>5.844009538728716</v>
+        <v>20.03287370471966</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6491,7 +7329,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>5.372759859117643</v>
+        <v>19.86015395270882</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6500,7 +7338,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>5.430104895543632</v>
+        <v>19.99465378348415</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6509,7 +7347,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>5.389026845164441</v>
+        <v>21.55237161670773</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6518,7 +7356,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>5.224933888489137</v>
+        <v>20.31617875503385</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6527,7 +7365,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>6.313152374896171</v>
+        <v>23.61476546083307</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6536,7 +7374,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>6.402813085254972</v>
+        <v>22.58477415516478</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6545,7 +7383,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>6.576586228855974</v>
+        <v>21.79534479559506</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6554,7 +7392,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>7.358577237879675</v>
+        <v>23.38401687646968</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6563,7 +7401,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>5.312129418598231</v>
+        <v>20.78323728011532</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6572,7 +7410,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>4.663247222709007</v>
+        <v>20.71408348374779</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6581,7 +7419,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>6.710783637144803</v>
+        <v>23.08331825063413</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6590,7 +7428,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>8.344934593592619</v>
+        <v>25.15879266081339</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6599,7 +7437,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>7.219345457303365</v>
+        <v>24.59293437250753</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6608,7 +7446,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>8.233828784947598</v>
+        <v>25.284950838274</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6617,7 +7455,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>7.692469247365293</v>
+        <v>26.06289120146956</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6626,7 +7464,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>7.459688931908983</v>
+        <v>26.17484849482181</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6635,7 +7473,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>7.869586706932921</v>
+        <v>26.16105915096847</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6644,7 +7482,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>8.750483441107093</v>
+        <v>26.40867247379825</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6653,7 +7491,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>8.472852821559066</v>
+        <v>25.72821507665249</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6662,7 +7500,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>9.615386032151386</v>
+        <v>28.02563901858557</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6671,7 +7509,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>8.703617246913392</v>
+        <v>26.9360691298302</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6680,7 +7518,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>8.899358666811324</v>
+        <v>27.0559362971711</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6689,7 +7527,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>8.673596111665107</v>
+        <v>27.5815631070587</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6698,7 +7536,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>8.720347132252252</v>
+        <v>27.43930029085229</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6707,7 +7545,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>8.356820591821366</v>
+        <v>27.02098718326853</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6716,7 +7554,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>9.021193264763607</v>
+        <v>28.22938714586351</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6725,7 +7563,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>7.543916107120634</v>
+        <v>27.72454282413877</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6734,7 +7572,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>8.954190585908329</v>
+        <v>27.95197663199328</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6743,7 +7581,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>9.31229790560173</v>
+        <v>27.7814909473939</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6752,7 +7590,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>6.820175368895457</v>
+        <v>25.32643503783458</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6761,7 +7599,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>7.770687068335529</v>
+        <v>25.89255089326477</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6770,7 +7608,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>8.63632862762803</v>
+        <v>27.34942241115897</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6779,7 +7617,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>7.386627999414279</v>
+        <v>27.50250325688924</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6788,7 +7626,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>5.938709490677891</v>
+        <v>27.46102140956521</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6797,7 +7635,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>9.187513134084718</v>
+        <v>27.53723060047172</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6806,7 +7644,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>7.943038014075529</v>
+        <v>28.83627802943454</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6815,7 +7653,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>7.693368960605513</v>
+        <v>28.38356893159715</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6824,7 +7662,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>8.918244467107744</v>
+        <v>27.46124326270193</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6833,7 +7671,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>9.377835893780381</v>
+        <v>27.5182743790401</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6842,7 +7680,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>8.311778504488551</v>
+        <v>27.7292211780637</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6851,7 +7689,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>8.643496355464041</v>
+        <v>27.05117401035101</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6860,7 +7698,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>6.084829856806647</v>
+        <v>27.45705537435496</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6869,7 +7707,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>7.32548752794975</v>
+        <v>27.05401503198181</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6878,7 +7716,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>8.52692429902593</v>
+        <v>27.32498538803397</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6887,7 +7725,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>8.079660063531662</v>
+        <v>27.76647226454406</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6896,7 +7734,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>8.054311633289824</v>
+        <v>27.28940443075662</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6905,7 +7743,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>8.790106725953702</v>
+        <v>26.16213808554557</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6914,7 +7752,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>6.640736340673057</v>
+        <v>24.10627496502557</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6923,7 +7761,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>6.373446626037734</v>
+        <v>22.42414455471426</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6932,7 +7770,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>4.891889756369053</v>
+        <v>20.31496277177336</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6941,7 +7779,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>4.885856609914682</v>
+        <v>19.85528517698506</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6950,7 +7788,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>4.429065988956528</v>
+        <v>21.41973688040457</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6959,7 +7797,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>6.738834937974371</v>
+        <v>22.51260463673695</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6968,7 +7806,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>5.990671642057296</v>
+        <v>23.09682600628618</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6977,7 +7815,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>5.501502153216793</v>
+        <v>20.33861521252429</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6986,7 +7824,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>5.662242652013735</v>
+        <v>21.84189889402323</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6995,7 +7833,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>7.555243441108024</v>
+        <v>23.53319817475468</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7004,7 +7842,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>4.677229068472014</v>
+        <v>22.5448213206352</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7013,7 +7851,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>5.955856709300574</v>
+        <v>21.75422285474073</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7022,7 +7860,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>6.719611330887398</v>
+        <v>22.10360246248639</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7031,7 +7869,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>5.618864532311312</v>
+        <v>22.31786168995471</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7040,7 +7878,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>4.411152570040644</v>
+        <v>19.13857908980616</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7049,7 +7887,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>5.169869947296426</v>
+        <v>19.78186523282993</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7058,7 +7896,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>4.956138616251465</v>
+        <v>20.54631828967476</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7067,7 +7905,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>5.301777752543736</v>
+        <v>20.33894270843285</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7076,7 +7914,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>4.623109535508927</v>
+        <v>19.16514480883616</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7085,7 +7923,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>4.373143348313363</v>
+        <v>20.77898838881086</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7094,7 +7932,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>4.09172552967085</v>
+        <v>18.9004722941151</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7103,7 +7941,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>4.280169502317096</v>
+        <v>19.39627878746782</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7112,7 +7950,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>2.657093335700053</v>
+        <v>19.492433122632</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7121,7 +7959,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>4.077112121948951</v>
+        <v>19.55979669129108</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7130,7 +7968,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>3.587092841659048</v>
+        <v>18.22525607280478</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7139,7 +7977,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>2.93993780838432</v>
+        <v>19.3436716416987</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7148,7 +7986,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>5.716122012991008</v>
+        <v>20.34468834887808</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7157,7 +7995,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>3.805979317638037</v>
+        <v>20.82302346489389</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7166,7 +8004,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>4.621902678385534</v>
+        <v>19.76157328539233</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7175,7 +8013,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>4.988409931464749</v>
+        <v>19.33019938907239</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7184,7 +8022,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>5.70220278098847</v>
+        <v>19.71649718362523</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7193,7 +8031,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>4.412536452635547</v>
+        <v>19.92668234088443</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7202,7 +8040,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>2.62660821301107</v>
+        <v>17.33337720429612</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7211,7 +8049,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>3.462322788258559</v>
+        <v>17.35257143018351</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7220,7 +8058,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>2.849058045156879</v>
+        <v>18.09926708278544</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7229,7 +8067,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>3.673542403721328</v>
+        <v>18.7918219575959</v>
       </c>
     </row>
     <row r="145">
@@ -7237,7 +8075,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>4.133891950452778</v>
+        <v>21.34652942280167</v>
       </c>
     </row>
     <row r="146">
@@ -7284,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-13.17925088026351</v>
+        <v>-32.2374444243495</v>
       </c>
     </row>
     <row r="3">
@@ -7292,7 +8130,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-12.8136274880802</v>
+        <v>-31.39253535817548</v>
       </c>
     </row>
     <row r="4">
@@ -7300,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-12.81062588354524</v>
+        <v>-31.28736511826697</v>
       </c>
     </row>
     <row r="5">
@@ -7308,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-12.8349316524403</v>
+        <v>-32.05951317484729</v>
       </c>
     </row>
     <row r="6">
@@ -7316,7 +8154,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-12.9991306935372</v>
+        <v>-32.41389674393174</v>
       </c>
     </row>
     <row r="7">
@@ -7324,7 +8162,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-13.02088700133174</v>
+        <v>-32.09829766383166</v>
       </c>
     </row>
     <row r="8">
@@ -7332,7 +8170,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-13.18598625747225</v>
+        <v>-32.57769338019089</v>
       </c>
     </row>
     <row r="9">
@@ -7340,7 +8178,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-13.31599746476056</v>
+        <v>-32.57222795480009</v>
       </c>
     </row>
     <row r="10">
@@ -7348,7 +8186,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-13.2401121457114</v>
+        <v>-32.41164397580992</v>
       </c>
     </row>
     <row r="11">
@@ -7356,7 +8194,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-13.19889445555624</v>
+        <v>-32.43682801454418</v>
       </c>
     </row>
     <row r="12">
@@ -7364,7 +8202,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-13.32666803459632</v>
+        <v>-32.93848178072167</v>
       </c>
     </row>
     <row r="13">
@@ -7372,7 +8210,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-13.33757529091899</v>
+        <v>-32.58788320143984</v>
       </c>
     </row>
     <row r="14">
@@ -7380,7 +8218,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-13.09080767339991</v>
+        <v>-32.80794728895873</v>
       </c>
     </row>
     <row r="15">
@@ -7388,7 +8226,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-13.3203854990887</v>
+        <v>-32.36549959221957</v>
       </c>
     </row>
     <row r="16">
@@ -7396,7 +8234,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-12.92036606926257</v>
+        <v>-32.73459314205115</v>
       </c>
     </row>
     <row r="17">
@@ -7404,7 +8242,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-13.34054759913204</v>
+        <v>-32.56841921276644</v>
       </c>
     </row>
     <row r="18">
@@ -7412,7 +8250,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-13.35283352904034</v>
+        <v>-32.54014251062867</v>
       </c>
     </row>
     <row r="19">
@@ -7420,7 +8258,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-13.49080340632579</v>
+        <v>-32.70867604553101</v>
       </c>
     </row>
     <row r="20">
@@ -7428,7 +8266,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-13.15547861829005</v>
+        <v>-32.65280532934834</v>
       </c>
     </row>
     <row r="21">
@@ -7436,7 +8274,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-13.4296416531419</v>
+        <v>-33.06357446976506</v>
       </c>
     </row>
     <row r="22">
@@ -7444,7 +8282,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-13.1984000777281</v>
+        <v>-32.19443638340976</v>
       </c>
     </row>
     <row r="23">
@@ -7452,7 +8290,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-13.0898900262952</v>
+        <v>-32.6274071473029</v>
       </c>
     </row>
     <row r="24">
@@ -7460,7 +8298,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-13.55741151309695</v>
+        <v>-33.21687019749187</v>
       </c>
     </row>
     <row r="25">
@@ -7468,7 +8306,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-13.829234589124</v>
+        <v>-33.394620891452</v>
       </c>
     </row>
     <row r="26">
@@ -7476,7 +8314,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-13.33930144854788</v>
+        <v>-33.12823264804462</v>
       </c>
     </row>
     <row r="27">
@@ -7484,7 +8322,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-14.17771293257777</v>
+        <v>-34.50699550999851</v>
       </c>
     </row>
     <row r="28">
@@ -7492,7 +8330,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-13.78794850094796</v>
+        <v>-34.72331220765435</v>
       </c>
     </row>
     <row r="29">
@@ -7500,7 +8338,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-13.88813625414018</v>
+        <v>-34.38856653439395</v>
       </c>
     </row>
     <row r="30">
@@ -7508,7 +8346,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-13.80327109518842</v>
+        <v>-35.05492924148822</v>
       </c>
     </row>
     <row r="31">
@@ -7516,7 +8354,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-14.79228608503112</v>
+        <v>-35.59952808478383</v>
       </c>
     </row>
     <row r="32">
@@ -7524,7 +8362,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-14.88459248243665</v>
+        <v>-35.91092428341403</v>
       </c>
     </row>
     <row r="33">
@@ -7532,7 +8370,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-14.39121643950228</v>
+        <v>-35.51583065190987</v>
       </c>
     </row>
     <row r="34">
@@ -7540,7 +8378,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-14.64995830580683</v>
+        <v>-35.98015025442017</v>
       </c>
     </row>
     <row r="35">
@@ -7548,7 +8386,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-15.16233982301364</v>
+        <v>-36.67573234783374</v>
       </c>
     </row>
     <row r="36">
@@ -7556,7 +8394,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-15.09730318358811</v>
+        <v>-36.55356750567043</v>
       </c>
     </row>
     <row r="37">
@@ -7564,7 +8402,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-14.71172550770954</v>
+        <v>-35.70022371676271</v>
       </c>
     </row>
     <row r="38">
@@ -7572,7 +8410,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-15.09846167238665</v>
+        <v>-36.4400015267824</v>
       </c>
     </row>
     <row r="39">
@@ -7580,7 +8418,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-15.16045794537851</v>
+        <v>-36.11953785752543</v>
       </c>
     </row>
     <row r="40">
@@ -7588,7 +8426,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-15.39550284121923</v>
+        <v>-36.75567231724992</v>
       </c>
     </row>
     <row r="41">
@@ -7596,7 +8434,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-14.82984620934451</v>
+        <v>-36.2930130816823</v>
       </c>
     </row>
     <row r="42">
@@ -7604,7 +8442,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-14.79572883232081</v>
+        <v>-36.66202000516034</v>
       </c>
     </row>
     <row r="43">
@@ -7612,7 +8450,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-15.19200204475859</v>
+        <v>-36.61789330198499</v>
       </c>
     </row>
     <row r="44">
@@ -7620,7 +8458,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-14.88349473395279</v>
+        <v>-35.77518457299182</v>
       </c>
     </row>
     <row r="45">
@@ -7628,7 +8466,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-15.12187800966814</v>
+        <v>-36.12172707991517</v>
       </c>
     </row>
     <row r="46">
@@ -7636,7 +8474,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-15.08596234293386</v>
+        <v>-36.14497165659641</v>
       </c>
     </row>
     <row r="47">
@@ -7644,7 +8482,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-15.36706948349097</v>
+        <v>-36.34166033773999</v>
       </c>
     </row>
     <row r="48">
@@ -7652,7 +8490,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-15.0761667620161</v>
+        <v>-35.84838124311079</v>
       </c>
     </row>
     <row r="49">
@@ -7660,7 +8498,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-14.77086215737559</v>
+        <v>-35.76987646874225</v>
       </c>
     </row>
     <row r="50">
@@ -7668,7 +8506,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-14.41733630971021</v>
+        <v>-35.48247476177958</v>
       </c>
     </row>
     <row r="51">
@@ -7676,7 +8514,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-14.37226086562471</v>
+        <v>-35.13526554493846</v>
       </c>
     </row>
     <row r="52">
@@ -7684,7 +8522,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-14.69707739868706</v>
+        <v>-35.63287763373236</v>
       </c>
     </row>
     <row r="53">
@@ -7692,7 +8530,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-14.37818209725772</v>
+        <v>-34.64522265305142</v>
       </c>
     </row>
     <row r="54">
@@ -7700,7 +8538,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-14.54076687651523</v>
+        <v>-35.27946287537286</v>
       </c>
     </row>
     <row r="55">
@@ -7708,7 +8546,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-14.73472634469083</v>
+        <v>-35.57210520989779</v>
       </c>
     </row>
     <row r="56">
@@ -7716,7 +8554,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-14.34886110893385</v>
+        <v>-34.71775115067371</v>
       </c>
     </row>
     <row r="57">
@@ -7724,7 +8562,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-14.79260482294297</v>
+        <v>-35.16468549238649</v>
       </c>
     </row>
     <row r="58">
@@ -7732,7 +8570,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-14.59536075956773</v>
+        <v>-34.95270707215172</v>
       </c>
     </row>
     <row r="59">
@@ -7740,7 +8578,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-14.24551626350627</v>
+        <v>-34.98969573765049</v>
       </c>
     </row>
     <row r="60">
@@ -7748,7 +8586,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-14.38938795862063</v>
+        <v>-34.72886236250741</v>
       </c>
     </row>
     <row r="61">
@@ -7756,7 +8594,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-14.10454929181597</v>
+        <v>-34.34927455084004</v>
       </c>
     </row>
     <row r="62">
@@ -7764,7 +8602,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-14.26069794822461</v>
+        <v>-34.61881372683596</v>
       </c>
     </row>
     <row r="63">
@@ -7772,7 +8610,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-14.04527814246804</v>
+        <v>-34.36945339486814</v>
       </c>
     </row>
     <row r="64">
@@ -7780,7 +8618,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-13.87472164847552</v>
+        <v>-33.57408561188652</v>
       </c>
     </row>
     <row r="65">
@@ -7788,7 +8626,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-13.86477215985229</v>
+        <v>-33.3227379792118</v>
       </c>
     </row>
     <row r="66">
@@ -7796,7 +8634,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-13.41691152028387</v>
+        <v>-33.30495200727464</v>
       </c>
     </row>
     <row r="67">
@@ -7804,7 +8642,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-13.74876521570768</v>
+        <v>-33.27930252116081</v>
       </c>
     </row>
     <row r="68">
@@ -7812,7 +8650,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-13.73122631896697</v>
+        <v>-33.37284569918743</v>
       </c>
     </row>
     <row r="69">
@@ -7820,7 +8658,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-13.13891194609025</v>
+        <v>-32.34454089523937</v>
       </c>
     </row>
     <row r="70">
@@ -7828,7 +8666,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-13.28550780016755</v>
+        <v>-32.40064128536162</v>
       </c>
     </row>
     <row r="71">
@@ -7836,7 +8674,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-13.25822598010664</v>
+        <v>-32.35140689410917</v>
       </c>
     </row>
     <row r="72">
@@ -7844,7 +8682,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-12.82791956684299</v>
+        <v>-31.82798648829972</v>
       </c>
     </row>
     <row r="73">
@@ -7852,7 +8690,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-12.81653310381524</v>
+        <v>-31.70791316611031</v>
       </c>
     </row>
     <row r="74">
@@ -7860,7 +8698,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-12.7256499189616</v>
+        <v>-31.66714331092442</v>
       </c>
     </row>
     <row r="75">
@@ -7868,7 +8706,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-12.60513353454006</v>
+        <v>-31.49921377971721</v>
       </c>
     </row>
     <row r="76">
@@ -7876,7 +8714,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-12.60542867775823</v>
+        <v>-31.53668410238282</v>
       </c>
     </row>
     <row r="77">
@@ -7884,7 +8722,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-12.77309332587628</v>
+        <v>-31.32047343908818</v>
       </c>
     </row>
     <row r="78">
@@ -7892,7 +8730,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-12.60151400887387</v>
+        <v>-31.09713171661296</v>
       </c>
     </row>
     <row r="79">
@@ -7900,7 +8738,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-12.62045897572615</v>
+        <v>-30.90937082735282</v>
       </c>
     </row>
     <row r="80">
@@ -7908,7 +8746,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-12.56393508332947</v>
+        <v>-30.82215426049973</v>
       </c>
     </row>
     <row r="81">
@@ -7916,7 +8754,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-12.54174302738575</v>
+        <v>-30.77820773830501</v>
       </c>
     </row>
     <row r="82">
@@ -7924,7 +8762,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-12.53044054597888</v>
+        <v>-30.83842214581552</v>
       </c>
     </row>
     <row r="83">
@@ -7932,7 +8770,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-12.41061105765991</v>
+        <v>-30.78852353326002</v>
       </c>
     </row>
     <row r="84">
@@ -7940,7 +8778,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-12.38847576370145</v>
+        <v>-30.56022585520671</v>
       </c>
     </row>
     <row r="85">
@@ -7948,7 +8786,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-12.30281934644484</v>
+        <v>-30.86312957866396</v>
       </c>
     </row>
     <row r="86">
@@ -7956,7 +8794,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-12.48615708630054</v>
+        <v>-30.99245552951346</v>
       </c>
     </row>
     <row r="87">
@@ -7964,7 +8802,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-12.37402537024207</v>
+        <v>-30.55068607087896</v>
       </c>
     </row>
     <row r="88">
@@ -7972,7 +8810,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-12.33944961082861</v>
+        <v>-30.38348291949061</v>
       </c>
     </row>
     <row r="89">
@@ -7980,7 +8818,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-12.3221192840768</v>
+        <v>-30.5011620771702</v>
       </c>
     </row>
     <row r="90">
@@ -7988,7 +8826,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-12.5795004946324</v>
+        <v>-31.33223402076088</v>
       </c>
     </row>
     <row r="91">
@@ -7996,7 +8834,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-13.61951063388048</v>
+        <v>-32.87606900573687</v>
       </c>
     </row>
     <row r="92">
@@ -8004,7 +8842,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-12.89078010839171</v>
+        <v>-32.01041068380596</v>
       </c>
     </row>
     <row r="93">
@@ -8012,7 +8850,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-12.35184303643838</v>
+        <v>-30.42696485408919</v>
       </c>
     </row>
     <row r="94">
@@ -8020,7 +8858,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-12.15935911834477</v>
+        <v>-30.19697584153224</v>
       </c>
     </row>
     <row r="95">
@@ -8028,7 +8866,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-12.17097202029774</v>
+        <v>-30.23837150301408</v>
       </c>
     </row>
     <row r="96">
@@ -8036,7 +8874,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-12.23497922827257</v>
+        <v>-30.27264693500136</v>
       </c>
     </row>
     <row r="97">
@@ -8044,7 +8882,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-12.32942204712326</v>
+        <v>-30.28660027163596</v>
       </c>
     </row>
     <row r="98">
@@ -8052,7 +8890,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-12.3200821763418</v>
+        <v>-30.29239501870427</v>
       </c>
     </row>
     <row r="99">
@@ -8060,7 +8898,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-12.25554351342533</v>
+        <v>-30.19411854624884</v>
       </c>
     </row>
     <row r="100">
@@ -8068,7 +8906,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-12.26084704927687</v>
+        <v>-30.20267955424631</v>
       </c>
     </row>
     <row r="101">
@@ -8076,7 +8914,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-12.26227949034878</v>
+        <v>-30.16585300891801</v>
       </c>
     </row>
     <row r="102">
@@ -8084,7 +8922,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-12.31882484307245</v>
+        <v>-30.337878743803</v>
       </c>
     </row>
     <row r="103">
@@ -8092,7 +8930,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-12.36800091098837</v>
+        <v>-30.36985485079296</v>
       </c>
     </row>
     <row r="104">
@@ -8100,7 +8938,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-12.20085771474239</v>
+        <v>-30.16366244533583</v>
       </c>
     </row>
     <row r="105">
@@ -8108,7 +8946,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-12.37834428718483</v>
+        <v>-30.41672988975786</v>
       </c>
     </row>
     <row r="106">
@@ -8116,7 +8954,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-12.308655936181</v>
+        <v>-30.23975621419544</v>
       </c>
     </row>
     <row r="107">
@@ -8124,7 +8962,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-12.32863367275473</v>
+        <v>-30.28083714853303</v>
       </c>
     </row>
     <row r="108">
@@ -8132,7 +8970,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-12.44576130522792</v>
+        <v>-30.90262100292116</v>
       </c>
     </row>
     <row r="109">
@@ -8140,7 +8978,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-12.39640106771364</v>
+        <v>-30.83383536679692</v>
       </c>
     </row>
     <row r="110">
@@ -8148,7 +8986,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-12.5508115531685</v>
+        <v>-31.03232542724663</v>
       </c>
     </row>
     <row r="111">
@@ -8156,7 +8994,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-12.55420548590815</v>
+        <v>-31.35472171210141</v>
       </c>
     </row>
     <row r="112">
@@ -8164,7 +9002,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-12.84482421034686</v>
+        <v>-31.61205419826798</v>
       </c>
     </row>
     <row r="113">
@@ -8172,7 +9010,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-12.86439410965986</v>
+        <v>-31.58429214350617</v>
       </c>
     </row>
     <row r="114">
@@ -8180,7 +9018,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-13.06756413656301</v>
+        <v>-32.01470821717935</v>
       </c>
     </row>
     <row r="115">
@@ -8188,7 +9026,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-12.70717771268279</v>
+        <v>-31.91214002320149</v>
       </c>
     </row>
     <row r="116">
@@ -8196,7 +9034,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-12.68338932637023</v>
+        <v>-31.84437953799724</v>
       </c>
     </row>
     <row r="117">
@@ -8204,7 +9042,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-13.12624096414795</v>
+        <v>-32.64905660976758</v>
       </c>
     </row>
     <row r="118">
@@ -8212,7 +9050,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-12.93538069495275</v>
+        <v>-31.83904060172747</v>
       </c>
     </row>
     <row r="119">
@@ -8220,7 +9058,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-12.9069650561259</v>
+        <v>-32.34335397100683</v>
       </c>
     </row>
     <row r="120">
@@ -8228,7 +9066,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-13.62833524835701</v>
+        <v>-33.23251909342368</v>
       </c>
     </row>
     <row r="121">
@@ -8236,7 +9074,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-13.51782409987004</v>
+        <v>-33.07576979770919</v>
       </c>
     </row>
     <row r="122">
@@ -8244,7 +9082,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-13.1524825775651</v>
+        <v>-32.79505131403554</v>
       </c>
     </row>
     <row r="123">
@@ -8252,7 +9090,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-13.77727394214668</v>
+        <v>-33.33263575398053</v>
       </c>
     </row>
     <row r="124">
@@ -8260,7 +9098,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-13.66370845933539</v>
+        <v>-33.31100401207466</v>
       </c>
     </row>
     <row r="125">
@@ -8268,7 +9106,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-13.27734448544027</v>
+        <v>-32.65145299481039</v>
       </c>
     </row>
     <row r="126">
@@ -8276,7 +9114,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-13.29409567369889</v>
+        <v>-32.81981508464585</v>
       </c>
     </row>
     <row r="127">
@@ -8284,7 +9122,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-13.53636723696464</v>
+        <v>-33.14207520474748</v>
       </c>
     </row>
     <row r="128">
@@ -8292,7 +9130,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-13.21496453110016</v>
+        <v>-32.51175677835702</v>
       </c>
     </row>
     <row r="129">
@@ -8300,7 +9138,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-13.22968053329537</v>
+        <v>-32.31438679706602</v>
       </c>
     </row>
     <row r="130">
@@ -8308,7 +9146,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-13.36178144903049</v>
+        <v>-32.96204901862949</v>
       </c>
     </row>
     <row r="131">
@@ -8316,7 +9154,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-13.1861327450151</v>
+        <v>-32.68579928386066</v>
       </c>
     </row>
     <row r="132">
@@ -8324,7 +9162,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-12.97793143793216</v>
+        <v>-32.38469842527432</v>
       </c>
     </row>
     <row r="133">
@@ -8332,7 +9170,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-13.31586783976514</v>
+        <v>-32.36799179994709</v>
       </c>
     </row>
     <row r="134">
@@ -8340,7 +9178,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-13.07348855297799</v>
+        <v>-32.18633713641466</v>
       </c>
     </row>
     <row r="135">
@@ -8348,7 +9186,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-13.04903071810342</v>
+        <v>-32.20600376022289</v>
       </c>
     </row>
     <row r="136">
@@ -8356,7 +9194,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-13.0496601174282</v>
+        <v>-32.05881043389905</v>
       </c>
     </row>
     <row r="137">
@@ -8364,7 +9202,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-13.53785232066347</v>
+        <v>-32.87553701542081</v>
       </c>
     </row>
     <row r="138">
@@ -8372,7 +9210,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-13.38368408980375</v>
+        <v>-32.38602041730802</v>
       </c>
     </row>
     <row r="139">
@@ -8380,7 +9218,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-12.89501698042379</v>
+        <v>-32.45755328585201</v>
       </c>
     </row>
     <row r="140">
@@ -8388,7 +9226,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-13.29186863495871</v>
+        <v>-32.64276473470174</v>
       </c>
     </row>
     <row r="141">
@@ -8396,7 +9234,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-12.81716152773061</v>
+        <v>-31.98603675183247</v>
       </c>
     </row>
     <row r="142">
@@ -8404,7 +9242,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-12.80802784278481</v>
+        <v>-32.491517889002</v>
       </c>
     </row>
     <row r="143">
@@ -8412,7 +9250,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-13.19082353856263</v>
+        <v>-32.43150482053278</v>
       </c>
     </row>
     <row r="144">
@@ -8420,7 +9258,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-12.96541995720171</v>
+        <v>-32.24314397123456</v>
       </c>
     </row>
     <row r="145">
@@ -8428,7 +9266,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-13.00054189687092</v>
+        <v>-31.97101373157351</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1724,7 +1724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2013008370</v>
+        <v>2012005293</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2014003729</v>
+        <v>2013008505</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014005851</v>
+        <v>2015000561</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2013008066</v>
+        <v>2015003940</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2015001284</v>
+        <v>2012009121</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2016005553</v>
+        <v>2012000721</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2023,576 +2023,6 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>2016001117</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
-      </c>
-      <c r="G8" t="n">
-        <v>250</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>2014000491</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>60</v>
-      </c>
-      <c r="G9" t="n">
-        <v>250</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>2014000845</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F10" t="n">
-        <v>24</v>
-      </c>
-      <c r="G10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>2012009046</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F11" t="n">
-        <v>75</v>
-      </c>
-      <c r="G11" t="n">
-        <v>250</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>2013005804</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>75</v>
-      </c>
-      <c r="G12" t="n">
-        <v>250</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2014002726</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F13" t="n">
-        <v>75</v>
-      </c>
-      <c r="G13" t="n">
-        <v>250</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>2012003702</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>2015000290</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F15" t="n">
-        <v>75</v>
-      </c>
-      <c r="G15" t="n">
-        <v>250</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>2012004277</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F16" t="n">
-        <v>40</v>
-      </c>
-      <c r="G16" t="n">
-        <v>250</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2012007671</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F17" t="n">
-        <v>30</v>
-      </c>
-      <c r="G17" t="n">
-        <v>250</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2016006806</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>30</v>
-      </c>
-      <c r="G18" t="n">
-        <v>250</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2016005825</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F19" t="n">
-        <v>75</v>
-      </c>
-      <c r="G19" t="n">
-        <v>250</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2015008956</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F20" t="n">
-        <v>30</v>
-      </c>
-      <c r="G20" t="n">
-        <v>250</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2012000527</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F21" t="n">
-        <v>75</v>
-      </c>
-      <c r="G21" t="n">
-        <v>250</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2013002625</v>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F22" t="n">
-        <v>30</v>
-      </c>
-      <c r="G22" t="n">
-        <v>250</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
         <v>150</v>
       </c>
     </row>
@@ -2607,7 +2037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="A2:E29"/>
@@ -2647,547 +2077,213 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2013008370</v>
+        <v>2012005293</v>
       </c>
       <c r="B2" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="D2" t="n">
-        <v>16.53105305824406</v>
+        <v>20.16977079824406</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23.76913020764295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2014003729</v>
+        <v>2012005293</v>
       </c>
       <c r="B3" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C3" t="n">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="D3" t="n">
-        <v>50.0864655956624</v>
+        <v>22.3584732</v>
       </c>
       <c r="E3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2014005851</v>
+        <v>2012005293</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="D4" t="n">
-        <v>37.5377098</v>
+        <v>22.3584732</v>
       </c>
       <c r="E4" t="n">
-        <v>38.87638725247504</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2014005851</v>
+        <v>2013008505</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D5" t="n">
-        <v>39.72641220000001</v>
+        <v>40.44651899566239</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>59.78293332899572</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014005851</v>
+        <v>2015000561</v>
       </c>
       <c r="B6" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C6" t="n">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="D6" t="n">
-        <v>38.90564879999999</v>
+        <v>27.2319352</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>28.29552073553284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2013008066</v>
+        <v>2015000561</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C7" t="n">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="D7" t="n">
-        <v>18.92774079446736</v>
+        <v>29.44638704</v>
       </c>
       <c r="E7" t="n">
-        <v>28.89264972791037</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2013008066</v>
+        <v>2015003940</v>
       </c>
       <c r="B8" t="n">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="D8" t="n">
-        <v>25.08185695446734</v>
+        <v>4.675</v>
       </c>
       <c r="E8" t="n">
-        <v>29.65849797896795</v>
+        <v>23.78293333157742</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2015001284</v>
+        <v>2012009121</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="D9" t="n">
-        <v>67.27516798327788</v>
+        <v>58.51940719566238</v>
       </c>
       <c r="E9" t="n">
-        <v>71.54144552935513</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>2015001284</v>
+        <v>2012000721</v>
       </c>
       <c r="B10" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10" t="n">
-        <v>73.45503360000002</v>
+        <v>27.78554815446735</v>
       </c>
       <c r="E10" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="n">
-        <v>2016005553</v>
-      </c>
-      <c r="B11" t="n">
-        <v>26</v>
-      </c>
-      <c r="C11" t="n">
-        <v>36</v>
-      </c>
-      <c r="D11" t="n">
-        <v>23.78112975824407</v>
-      </c>
-      <c r="E11" t="n">
-        <v>24</v>
-      </c>
+      <c r="A11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="n">
-        <v>2016005553</v>
-      </c>
-      <c r="B12" t="n">
-        <v>38</v>
-      </c>
-      <c r="C12" t="n">
-        <v>122</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23.94528244</v>
-      </c>
-      <c r="E12" t="n">
-        <v>24</v>
-      </c>
+      <c r="A12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="n">
-        <v>2016005553</v>
-      </c>
-      <c r="B13" t="n">
-        <v>126</v>
-      </c>
-      <c r="C13" t="n">
-        <v>143</v>
-      </c>
-      <c r="D13" t="n">
-        <v>22.85093124</v>
-      </c>
-      <c r="E13" t="n">
-        <v>24</v>
-      </c>
+      <c r="A13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="n">
-        <v>2016001117</v>
-      </c>
-      <c r="B14" t="n">
-        <v>48</v>
-      </c>
-      <c r="C14" t="n">
-        <v>105</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.775</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30</v>
-      </c>
+      <c r="A14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n">
-        <v>2014000491</v>
-      </c>
-      <c r="B15" t="n">
-        <v>36</v>
-      </c>
-      <c r="C15" t="n">
-        <v>108</v>
-      </c>
-      <c r="D15" t="n">
-        <v>43.71347919566242</v>
-      </c>
-      <c r="E15" t="n">
-        <v>59.44481648365824</v>
-      </c>
+      <c r="A15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n">
-        <v>2014000845</v>
-      </c>
-      <c r="B16" t="n">
-        <v>34</v>
-      </c>
-      <c r="C16" t="n">
-        <v>121</v>
-      </c>
-      <c r="D16" t="n">
-        <v>21.53770979824405</v>
-      </c>
-      <c r="E16" t="n">
-        <v>24</v>
-      </c>
+      <c r="A16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="7" t="n">
-        <v>2012009046</v>
-      </c>
-      <c r="B17" t="n">
-        <v>21</v>
-      </c>
-      <c r="C17" t="n">
-        <v>24</v>
-      </c>
-      <c r="D17" t="n">
-        <v>67.3878217832779</v>
-      </c>
-      <c r="E17" t="n">
-        <v>69.17744351164443</v>
-      </c>
+      <c r="A17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="7" t="n">
-        <v>2012009046</v>
-      </c>
-      <c r="B18" t="n">
-        <v>44</v>
-      </c>
-      <c r="C18" t="n">
-        <v>116</v>
-      </c>
-      <c r="D18" t="n">
-        <v>69.90161088000001</v>
-      </c>
-      <c r="E18" t="n">
-        <v>75</v>
-      </c>
+      <c r="A18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="7" t="n">
-        <v>2013005804</v>
-      </c>
-      <c r="B19" t="n">
-        <v>54</v>
-      </c>
-      <c r="C19" t="n">
-        <v>116</v>
-      </c>
-      <c r="D19" t="n">
-        <v>74.22751678327785</v>
-      </c>
-      <c r="E19" t="n">
-        <v>75</v>
-      </c>
+      <c r="A19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="7" t="n">
-        <v>2014002726</v>
-      </c>
-      <c r="B20" t="n">
-        <v>42</v>
-      </c>
-      <c r="C20" t="n">
-        <v>114</v>
-      </c>
-      <c r="D20" t="n">
-        <v>62.14137338327789</v>
-      </c>
-      <c r="E20" t="n">
-        <v>75</v>
-      </c>
+      <c r="A20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="n">
-        <v>2012003702</v>
-      </c>
-      <c r="B21" t="n">
-        <v>28</v>
-      </c>
-      <c r="C21" t="n">
-        <v>114</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.4433586</v>
-      </c>
-      <c r="E21" t="n">
-        <v>23.75170548696362</v>
-      </c>
+      <c r="A21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="n">
-        <v>2015000290</v>
-      </c>
-      <c r="B22" t="n">
-        <v>18</v>
-      </c>
-      <c r="C22" t="n">
-        <v>28</v>
-      </c>
-      <c r="D22" t="n">
-        <v>68.82013438327786</v>
-      </c>
-      <c r="E22" t="n">
-        <v>73.11453308375398</v>
-      </c>
+      <c r="A22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="7" t="n">
-        <v>2015000290</v>
-      </c>
-      <c r="B23" t="n">
-        <v>30</v>
-      </c>
-      <c r="C23" t="n">
-        <v>143</v>
-      </c>
-      <c r="D23" t="n">
-        <v>74.22751679999998</v>
-      </c>
-      <c r="E23" t="n">
-        <v>75</v>
-      </c>
+      <c r="A23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="7" t="n">
-        <v>2012004277</v>
-      </c>
-      <c r="B24" t="n">
-        <v>39</v>
-      </c>
-      <c r="C24" t="n">
-        <v>108</v>
-      </c>
-      <c r="D24" t="n">
-        <v>18.1129754605412</v>
-      </c>
-      <c r="E24" t="n">
-        <v>39.99613083930581</v>
-      </c>
+      <c r="A24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="7" t="n">
-        <v>2012007671</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2</v>
-      </c>
-      <c r="C25" t="n">
-        <v>16</v>
-      </c>
-      <c r="D25" t="n">
-        <v>26.40151576</v>
-      </c>
-      <c r="E25" t="n">
-        <v>30</v>
-      </c>
+      <c r="A25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="7" t="n">
-        <v>2012007671</v>
-      </c>
-      <c r="B26" t="n">
-        <v>50</v>
-      </c>
-      <c r="C26" t="n">
-        <v>120</v>
-      </c>
-      <c r="D26" t="n">
-        <v>9.712659959999998</v>
-      </c>
-      <c r="E26" t="n">
-        <v>29.45733332780071</v>
-      </c>
+      <c r="A26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="7" t="n">
-        <v>2012007671</v>
-      </c>
-      <c r="B27" t="n">
-        <v>126</v>
-      </c>
-      <c r="C27" t="n">
-        <v>143</v>
-      </c>
-      <c r="D27" t="n">
-        <v>25.01748335446738</v>
-      </c>
-      <c r="E27" t="n">
-        <v>29.43492551873389</v>
-      </c>
+      <c r="A27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="7" t="n">
-        <v>2016006806</v>
-      </c>
-      <c r="B28" t="n">
-        <v>32</v>
-      </c>
-      <c r="C28" t="n">
-        <v>117</v>
-      </c>
-      <c r="D28" t="n">
-        <v>21.08425639446736</v>
-      </c>
-      <c r="E28" t="n">
-        <v>29.45733332780071</v>
-      </c>
+      <c r="A28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="7" t="n">
-        <v>2016005825</v>
-      </c>
-      <c r="B29" t="n">
-        <v>35</v>
-      </c>
-      <c r="C29" t="n">
-        <v>40</v>
-      </c>
-      <c r="D29" t="n">
-        <v>67.47633548327788</v>
-      </c>
-      <c r="E29" t="n">
-        <v>70.26442918067649</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>2016005825</v>
-      </c>
-      <c r="B30" t="n">
-        <v>50</v>
-      </c>
-      <c r="C30" t="n">
-        <v>116</v>
-      </c>
-      <c r="D30" t="n">
-        <v>73.57090608</v>
-      </c>
-      <c r="E30" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2015008956</v>
-      </c>
-      <c r="B31" t="n">
-        <v>48</v>
-      </c>
-      <c r="C31" t="n">
-        <v>128</v>
-      </c>
-      <c r="D31" t="n">
-        <v>26.67832223446737</v>
-      </c>
-      <c r="E31" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2012000527</v>
-      </c>
-      <c r="B32" t="n">
-        <v>28</v>
-      </c>
-      <c r="C32" t="n">
-        <v>118</v>
-      </c>
-      <c r="D32" t="n">
-        <v>71.91006718327789</v>
-      </c>
-      <c r="E32" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2013002625</v>
-      </c>
-      <c r="B33" t="n">
-        <v>40</v>
-      </c>
-      <c r="C33" t="n">
-        <v>114</v>
-      </c>
-      <c r="D33" t="n">
-        <v>24.46387039446736</v>
-      </c>
-      <c r="E33" t="n">
-        <v>29.53715469194886</v>
-      </c>
+      <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6789,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>19.28589169688795</v>
+        <v>5.151501241713562</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -6798,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>19.21660824530409</v>
+        <v>3.047492963570325</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -6807,7 +5903,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>19.43076582256508</v>
+        <v>3.047492963570325</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -6816,7 +5912,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>19.08921356456598</v>
+        <v>3.047492963570325</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -6825,7 +5921,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>18.37648790608572</v>
+        <v>2.853295716517495</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -6834,7 +5930,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>19.4746800581922</v>
+        <v>2.853295716517495</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -6843,7 +5939,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>19.00165340115761</v>
+        <v>2.853295716517495</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -6852,7 +5948,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>19.9070797114076</v>
+        <v>2.559564349048184</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -6861,7 +5957,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>19.51692746949069</v>
+        <v>2.559564349048184</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -6870,7 +5966,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>18.0733302243031</v>
+        <v>2.559564349048184</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -6879,7 +5975,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>19.5895322332922</v>
+        <v>4.061419937540705</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -6888,7 +5984,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>19.14906752684468</v>
+        <v>4.061419937540705</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -6897,7 +5993,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>20.02981494786492</v>
+        <v>4.061419937540705</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6906,7 +6002,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>19.65645715282218</v>
+        <v>4.999009306220408</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6915,7 +6011,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>19.19568797810935</v>
+        <v>4.999009306220408</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6924,7 +6020,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>18.91265371873327</v>
+        <v>4.999009306220408</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6933,7 +6029,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>20.14672661345087</v>
+        <v>4.62484984175551</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6942,7 +6038,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>19.72902448058992</v>
+        <v>4.62484984175551</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6951,7 +6047,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>17.35994128109965</v>
+        <v>4.62484984175551</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6960,7 +6056,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>19.50712284483446</v>
+        <v>4.853730718235187</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6969,7 +6065,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>19.9367443365863</v>
+        <v>4.853730718235187</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6978,7 +6074,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>19.46447658183311</v>
+        <v>4.853730718235187</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6987,7 +6083,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>17.31893723109282</v>
+        <v>4.128045162657299</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6996,7 +6092,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>16.67193334795832</v>
+        <v>4.128045162657299</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -7005,7 +6101,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>15.27715015640743</v>
+        <v>4.128045162657299</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -7014,7 +6110,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>16.98368685289913</v>
+        <v>4.673511028963525</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -7023,7 +6119,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>16.94507760495745</v>
+        <v>4.673511028963525</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -7032,7 +6128,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>16.10410231617828</v>
+        <v>4.673511028963525</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -7041,7 +6137,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>15.91129791142439</v>
+        <v>3.037448567544214</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -7050,7 +6146,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>14.96477858844007</v>
+        <v>3.037448567544214</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -7059,7 +6155,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>14.92673129463418</v>
+        <v>3.037448567544214</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -7068,7 +6164,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>11.50987304395939</v>
+        <v>1.839198698576714</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -7077,7 +6173,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>14.32637312122474</v>
+        <v>1.839198698576714</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -7086,7 +6182,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>13.59087796277797</v>
+        <v>1.839198698576714</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -7095,7 +6191,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>12.89284006712944</v>
+        <v>2.08244702462556</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -7104,7 +6200,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>14.91915583851259</v>
+        <v>2.08244702462556</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -7113,7 +6209,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>14.10600556098403</v>
+        <v>2.08244702462556</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -7122,7 +6218,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>12.54823464760961</v>
+        <v>1.313941958546708</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -7131,7 +6227,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>15.5369831012558</v>
+        <v>1.313941958546708</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -7140,7 +6236,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>14.377508127165</v>
+        <v>1.313941958546708</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -7149,7 +6245,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>14.32754089969032</v>
+        <v>0.9186640667990814</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -7158,7 +6254,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>14.68723883606416</v>
+        <v>0.9186640667990814</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -7167,7 +6263,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>14.42527761729458</v>
+        <v>0.9186640667990814</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -7176,7 +6272,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>15.95224703890363</v>
+        <v>3.513922017462881</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -7185,7 +6281,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>16.62309636694504</v>
+        <v>3.513922017462881</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -7194,7 +6290,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>15.29039094222358</v>
+        <v>3.513922017462881</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -7203,7 +6299,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>16.81544185575905</v>
+        <v>3.405095534219484</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -7212,7 +6308,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>16.96825514267295</v>
+        <v>3.405095534219484</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -7221,7 +6317,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>17.77708581917937</v>
+        <v>3.405095534219484</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -7230,7 +6326,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>17.48972267947581</v>
+        <v>2.838864791368331</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -7239,7 +6335,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>19.0999833826384</v>
+        <v>2.838864791368331</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -7248,7 +6344,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>19.43205706680445</v>
+        <v>2.838864791368331</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -7257,7 +6353,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>18.23515563032116</v>
+        <v>2.558774634571376</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -7266,7 +6362,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>18.13425914533002</v>
+        <v>2.558774634571376</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -7275,7 +6371,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>18.9151105865419</v>
+        <v>2.558774634571376</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -7284,7 +6380,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>17.4772708536922</v>
+        <v>4.008865303432193</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -7293,7 +6389,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>19.61629183667281</v>
+        <v>4.008865303432193</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -7302,7 +6398,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>18.40432839679186</v>
+        <v>4.008865303432193</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -7311,7 +6407,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>20.01147935761073</v>
+        <v>2.156301323951346</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -7320,7 +6416,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>20.03287370471966</v>
+        <v>2.156301323951346</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -7329,7 +6425,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>19.86015395270882</v>
+        <v>2.156301323951346</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -7338,7 +6434,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>19.99465378348415</v>
+        <v>2.950221325472667</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -7347,7 +6443,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>21.55237161670773</v>
+        <v>2.950221325472667</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -7356,7 +6452,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>20.31617875503385</v>
+        <v>2.950221325472667</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -7365,7 +6461,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>23.61476546083307</v>
+        <v>3.088514667859898</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -7374,7 +6470,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>22.58477415516478</v>
+        <v>3.088514667859898</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -7383,7 +6479,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>21.79534479559506</v>
+        <v>3.088514667859898</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -7392,7 +6488,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>23.38401687646968</v>
+        <v>5.374246199149382</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -7401,7 +6497,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>20.78323728011532</v>
+        <v>5.374246199149382</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -7410,7 +6506,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>20.71408348374779</v>
+        <v>5.374246199149382</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -7419,7 +6515,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>23.08331825063413</v>
+        <v>9.283464212838084</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -7428,7 +6524,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>25.15879266081339</v>
+        <v>9.283464212838084</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -7437,7 +6533,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>24.59293437250753</v>
+        <v>9.283464212838084</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -7446,7 +6542,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>25.284950838274</v>
+        <v>8.966664572205618</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -7455,7 +6551,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>26.06289120146956</v>
+        <v>8.966664572205618</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -7464,7 +6560,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>26.17484849482181</v>
+        <v>8.966664572205618</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -7473,7 +6569,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>26.16105915096847</v>
+        <v>9.443108458262344</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -7482,7 +6578,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>26.40867247379825</v>
+        <v>9.443108458262344</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -7491,7 +6587,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>25.72821507665249</v>
+        <v>9.443108458262344</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -7500,7 +6596,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>28.02563901858557</v>
+        <v>11.63813739421668</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -7509,7 +6605,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>26.9360691298302</v>
+        <v>11.63813739421668</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -7518,7 +6614,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>27.0559362971711</v>
+        <v>11.63813739421668</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -7527,7 +6623,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>27.5815631070587</v>
+        <v>12.48993686073298</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -7536,7 +6632,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>27.43930029085229</v>
+        <v>12.48993686073298</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -7545,7 +6641,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>27.02098718326853</v>
+        <v>12.48993686073298</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -7554,7 +6650,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>28.22938714586351</v>
+        <v>12.73681430221276</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -7563,7 +6659,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>27.72454282413877</v>
+        <v>12.73681430221276</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -7572,7 +6668,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>27.95197663199328</v>
+        <v>12.73681430221276</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -7581,7 +6677,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>27.7814909473939</v>
+        <v>13.13105254465607</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -7590,7 +6686,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>25.32643503783458</v>
+        <v>13.13105254465607</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -7599,7 +6695,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>25.89255089326477</v>
+        <v>13.13105254465607</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -7608,7 +6704,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>27.34942241115897</v>
+        <v>13.05251782732373</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -7617,7 +6713,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>27.50250325688924</v>
+        <v>13.05251782732373</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -7626,7 +6722,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>27.46102140956521</v>
+        <v>13.05251782732373</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -7635,7 +6731,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>27.53723060047172</v>
+        <v>13.03092513036916</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -7644,7 +6740,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>28.83627802943454</v>
+        <v>13.03092513036916</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -7653,7 +6749,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>28.38356893159715</v>
+        <v>13.03092513036916</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -7662,7 +6758,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>27.46124326270193</v>
+        <v>13.23440301395734</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -7671,7 +6767,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>27.5182743790401</v>
+        <v>13.23440301395734</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -7680,7 +6776,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>27.7292211780637</v>
+        <v>13.23440301395734</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -7689,7 +6785,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>27.05117401035101</v>
+        <v>12.92357945783035</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -7698,7 +6794,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>27.45705537435496</v>
+        <v>12.92357945783035</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -7707,7 +6803,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>27.05401503198181</v>
+        <v>12.92357945783035</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -7716,7 +6812,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>27.32498538803397</v>
+        <v>11.92731527033965</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -7725,7 +6821,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>27.76647226454406</v>
+        <v>11.92731527033965</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -7734,7 +6830,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>27.28940443075662</v>
+        <v>11.92731527033965</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -7743,7 +6839,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>26.16213808554557</v>
+        <v>11.63021609645961</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -7752,7 +6848,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>24.10627496502557</v>
+        <v>11.63021609645961</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -7761,7 +6857,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>22.42414455471426</v>
+        <v>11.63021609645961</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -7770,7 +6866,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>20.31496277177336</v>
+        <v>11.04872363801479</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -7779,7 +6875,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>19.85528517698506</v>
+        <v>11.04872363801479</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -7788,7 +6884,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>21.41973688040457</v>
+        <v>11.04872363801479</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -7797,7 +6893,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>22.51260463673695</v>
+        <v>8.631910927132045</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -7806,7 +6902,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>23.09682600628618</v>
+        <v>8.631910927132045</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -7815,7 +6911,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>20.33861521252429</v>
+        <v>8.631910927132045</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -7824,7 +6920,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>21.84189889402323</v>
+        <v>9.136617327193333</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -7833,7 +6929,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>23.53319817475468</v>
+        <v>9.136617327193333</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -7842,7 +6938,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>22.5448213206352</v>
+        <v>9.136617327193333</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -7851,7 +6947,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>21.75422285474073</v>
+        <v>7.320287985664727</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -7860,7 +6956,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>22.10360246248639</v>
+        <v>7.320287985664727</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -7869,7 +6965,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>22.31786168995471</v>
+        <v>7.320287985664727</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -7878,7 +6974,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>19.13857908980616</v>
+        <v>5.970373906422551</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -7887,7 +6983,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>19.78186523282993</v>
+        <v>5.970373906422551</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -7896,7 +6992,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>20.54631828967476</v>
+        <v>5.970373906422551</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7905,7 +7001,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>20.33894270843285</v>
+        <v>6.087076828752429</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7914,7 +7010,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>19.16514480883616</v>
+        <v>6.087076828752429</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7923,7 +7019,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>20.77898838881086</v>
+        <v>6.087076828752429</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7932,7 +7028,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>18.9004722941151</v>
+        <v>6.029157067999828</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7941,7 +7037,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>19.39627878746782</v>
+        <v>6.029157067999828</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7950,7 +7046,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>19.492433122632</v>
+        <v>6.029157067999828</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7959,7 +7055,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>19.55979669129108</v>
+        <v>6.594952949484791</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7968,7 +7064,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>18.22525607280478</v>
+        <v>6.594952949484791</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7977,7 +7073,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>19.3436716416987</v>
+        <v>6.594952949484791</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7986,7 +7082,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>20.34468834887808</v>
+        <v>6.801862932429183</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7995,7 +7091,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>20.82302346489389</v>
+        <v>6.801862932429183</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -8004,7 +7100,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>19.76157328539233</v>
+        <v>6.801862932429183</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -8013,7 +7109,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>19.33019938907239</v>
+        <v>6.330197236003539</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -8022,7 +7118,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>19.71649718362523</v>
+        <v>6.330197236003539</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -8031,7 +7127,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>19.92668234088443</v>
+        <v>6.330197236003539</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -8040,7 +7136,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>17.33337720429612</v>
+        <v>6.208644599763542</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -8049,7 +7145,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>17.35257143018351</v>
+        <v>6.208644599763542</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -8058,7 +7154,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>18.09926708278544</v>
+        <v>6.208644599763542</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -8067,7 +7163,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>18.7918219575959</v>
+        <v>5.151501241713562</v>
       </c>
     </row>
     <row r="145">
@@ -8075,7 +7171,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>21.34652942280167</v>
+        <v>5.151501241713562</v>
       </c>
     </row>
     <row r="146">
@@ -8122,7 +7218,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-32.2374444243495</v>
+        <v>-15.9177171344746</v>
       </c>
     </row>
     <row r="3">
@@ -8130,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-31.39253535817548</v>
+        <v>-15.9582000244847</v>
       </c>
     </row>
     <row r="4">
@@ -8138,7 +7234,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-31.28736511826697</v>
+        <v>-15.9582000244847</v>
       </c>
     </row>
     <row r="5">
@@ -8146,7 +7242,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-32.05951317484729</v>
+        <v>-15.9582000244847</v>
       </c>
     </row>
     <row r="6">
@@ -8154,7 +7250,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-32.41389674393174</v>
+        <v>-15.82207634802023</v>
       </c>
     </row>
     <row r="7">
@@ -8162,7 +7258,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-32.09829766383166</v>
+        <v>-15.82207634802023</v>
       </c>
     </row>
     <row r="8">
@@ -8170,7 +7266,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-32.57769338019089</v>
+        <v>-15.82207634802023</v>
       </c>
     </row>
     <row r="9">
@@ -8178,7 +7274,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-32.57222795480009</v>
+        <v>-15.43904044236417</v>
       </c>
     </row>
     <row r="10">
@@ -8186,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-32.41164397580992</v>
+        <v>-15.43904044236417</v>
       </c>
     </row>
     <row r="11">
@@ -8194,7 +7290,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-32.43682801454418</v>
+        <v>-15.43904044236417</v>
       </c>
     </row>
     <row r="12">
@@ -8202,7 +7298,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-32.93848178072167</v>
+        <v>-15.58294506250196</v>
       </c>
     </row>
     <row r="13">
@@ -8210,7 +7306,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-32.58788320143984</v>
+        <v>-15.58294506250196</v>
       </c>
     </row>
     <row r="14">
@@ -8218,7 +7314,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-32.80794728895873</v>
+        <v>-15.58294506250196</v>
       </c>
     </row>
     <row r="15">
@@ -8226,7 +7322,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-32.36549959221957</v>
+        <v>-15.53580116203323</v>
       </c>
     </row>
     <row r="16">
@@ -8234,7 +7330,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-32.73459314205115</v>
+        <v>-15.53580116203323</v>
       </c>
     </row>
     <row r="17">
@@ -8242,7 +7338,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-32.56841921276644</v>
+        <v>-15.53580116203323</v>
       </c>
     </row>
     <row r="18">
@@ -8250,7 +7346,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-32.54014251062867</v>
+        <v>-15.58204238231498</v>
       </c>
     </row>
     <row r="19">
@@ -8258,7 +7354,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-32.70867604553101</v>
+        <v>-15.58204238231498</v>
       </c>
     </row>
     <row r="20">
@@ -8266,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-32.65280532934834</v>
+        <v>-15.58204238231498</v>
       </c>
     </row>
     <row r="21">
@@ -8274,7 +7370,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-33.06357446976506</v>
+        <v>-15.91527177466462</v>
       </c>
     </row>
     <row r="22">
@@ -8282,7 +7378,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-32.19443638340976</v>
+        <v>-15.91527177466462</v>
       </c>
     </row>
     <row r="23">
@@ -8290,7 +7386,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-32.6274071473029</v>
+        <v>-15.91527177466462</v>
       </c>
     </row>
     <row r="24">
@@ -8298,7 +7394,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-33.21687019749187</v>
+        <v>-15.94592061155023</v>
       </c>
     </row>
     <row r="25">
@@ -8306,7 +7402,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-33.394620891452</v>
+        <v>-15.94592061155023</v>
       </c>
     </row>
     <row r="26">
@@ -8314,7 +7410,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-33.12823264804462</v>
+        <v>-15.94592061155023</v>
       </c>
     </row>
     <row r="27">
@@ -8322,7 +7418,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-34.50699550999851</v>
+        <v>-15.8808970817113</v>
       </c>
     </row>
     <row r="28">
@@ -8330,7 +7426,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-34.72331220765435</v>
+        <v>-15.8808970817113</v>
       </c>
     </row>
     <row r="29">
@@ -8338,7 +7434,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-34.38856653439395</v>
+        <v>-15.8808970817113</v>
       </c>
     </row>
     <row r="30">
@@ -8346,7 +7442,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-35.05492924148822</v>
+        <v>-16.88164213438907</v>
       </c>
     </row>
     <row r="31">
@@ -8354,7 +7450,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-35.59952808478383</v>
+        <v>-16.88164213438907</v>
       </c>
     </row>
     <row r="32">
@@ -8362,7 +7458,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-35.91092428341403</v>
+        <v>-16.88164213438907</v>
       </c>
     </row>
     <row r="33">
@@ -8370,7 +7466,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-35.51583065190987</v>
+        <v>-17.01249180585642</v>
       </c>
     </row>
     <row r="34">
@@ -8378,7 +7474,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-35.98015025442017</v>
+        <v>-17.01249180585642</v>
       </c>
     </row>
     <row r="35">
@@ -8386,7 +7482,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-36.67573234783374</v>
+        <v>-17.01249180585642</v>
       </c>
     </row>
     <row r="36">
@@ -8394,7 +7490,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-36.55356750567043</v>
+        <v>-17.11293400170742</v>
       </c>
     </row>
     <row r="37">
@@ -8402,7 +7498,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-35.70022371676271</v>
+        <v>-17.11293400170742</v>
       </c>
     </row>
     <row r="38">
@@ -8410,7 +7506,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-36.4400015267824</v>
+        <v>-17.11293400170742</v>
       </c>
     </row>
     <row r="39">
@@ -8418,7 +7514,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-36.11953785752543</v>
+        <v>-17.28605249303905</v>
       </c>
     </row>
     <row r="40">
@@ -8426,7 +7522,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-36.75567231724992</v>
+        <v>-17.28605249303905</v>
       </c>
     </row>
     <row r="41">
@@ -8434,7 +7530,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-36.2930130816823</v>
+        <v>-17.28605249303905</v>
       </c>
     </row>
     <row r="42">
@@ -8442,7 +7538,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-36.66202000516034</v>
+        <v>-17.31953737992774</v>
       </c>
     </row>
     <row r="43">
@@ -8450,7 +7546,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-36.61789330198499</v>
+        <v>-17.31953737992774</v>
       </c>
     </row>
     <row r="44">
@@ -8458,7 +7554,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-35.77518457299182</v>
+        <v>-17.31953737992774</v>
       </c>
     </row>
     <row r="45">
@@ -8466,7 +7562,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-36.12172707991517</v>
+        <v>-16.8326858694462</v>
       </c>
     </row>
     <row r="46">
@@ -8474,7 +7570,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-36.14497165659641</v>
+        <v>-16.8326858694462</v>
       </c>
     </row>
     <row r="47">
@@ -8482,7 +7578,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-36.34166033773999</v>
+        <v>-16.8326858694462</v>
       </c>
     </row>
     <row r="48">
@@ -8490,7 +7586,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-35.84838124311079</v>
+        <v>-17.04731045525663</v>
       </c>
     </row>
     <row r="49">
@@ -8498,7 +7594,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-35.76987646874225</v>
+        <v>-17.04731045525663</v>
       </c>
     </row>
     <row r="50">
@@ -8506,7 +7602,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-35.48247476177958</v>
+        <v>-17.04731045525663</v>
       </c>
     </row>
     <row r="51">
@@ -8514,7 +7610,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-35.13526554493846</v>
+        <v>-17.08336946329124</v>
       </c>
     </row>
     <row r="52">
@@ -8522,7 +7618,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-35.63287763373236</v>
+        <v>-17.08336946329124</v>
       </c>
     </row>
     <row r="53">
@@ -8530,7 +7626,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-34.64522265305142</v>
+        <v>-17.08336946329124</v>
       </c>
     </row>
     <row r="54">
@@ -8538,7 +7634,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-35.27946287537286</v>
+        <v>-17.06769805710002</v>
       </c>
     </row>
     <row r="55">
@@ -8546,7 +7642,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-35.57210520989779</v>
+        <v>-17.06769805710002</v>
       </c>
     </row>
     <row r="56">
@@ -8554,7 +7650,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-34.71775115067371</v>
+        <v>-17.06769805710002</v>
       </c>
     </row>
     <row r="57">
@@ -8562,7 +7658,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-35.16468549238649</v>
+        <v>-16.99878077401493</v>
       </c>
     </row>
     <row r="58">
@@ -8570,7 +7666,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-34.95270707215172</v>
+        <v>-16.99878077401493</v>
       </c>
     </row>
     <row r="59">
@@ -8578,7 +7674,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-34.98969573765049</v>
+        <v>-16.99878077401493</v>
       </c>
     </row>
     <row r="60">
@@ -8586,7 +7682,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-34.72886236250741</v>
+        <v>-16.94630646821101</v>
       </c>
     </row>
     <row r="61">
@@ -8594,7 +7690,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-34.34927455084004</v>
+        <v>-16.94630646821101</v>
       </c>
     </row>
     <row r="62">
@@ -8602,7 +7698,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-34.61881372683596</v>
+        <v>-16.94630646821101</v>
       </c>
     </row>
     <row r="63">
@@ -8610,7 +7706,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-34.36945339486814</v>
+        <v>-16.77166016230013</v>
       </c>
     </row>
     <row r="64">
@@ -8618,7 +7714,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-33.57408561188652</v>
+        <v>-16.77166016230013</v>
       </c>
     </row>
     <row r="65">
@@ -8626,7 +7722,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-33.3227379792118</v>
+        <v>-16.77166016230013</v>
       </c>
     </row>
     <row r="66">
@@ -8634,7 +7730,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-33.30495200727464</v>
+        <v>-16.16917254095298</v>
       </c>
     </row>
     <row r="67">
@@ -8642,7 +7738,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-33.27930252116081</v>
+        <v>-16.16917254095298</v>
       </c>
     </row>
     <row r="68">
@@ -8650,7 +7746,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-33.37284569918743</v>
+        <v>-16.16917254095298</v>
       </c>
     </row>
     <row r="69">
@@ -8658,7 +7754,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-32.34454089523937</v>
+        <v>-15.5372939477628</v>
       </c>
     </row>
     <row r="70">
@@ -8666,7 +7762,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-32.40064128536162</v>
+        <v>-15.5372939477628</v>
       </c>
     </row>
     <row r="71">
@@ -8674,7 +7770,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-32.35140689410917</v>
+        <v>-15.5372939477628</v>
       </c>
     </row>
     <row r="72">
@@ -8682,7 +7778,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-31.82798648829972</v>
+        <v>-14.80159151654607</v>
       </c>
     </row>
     <row r="73">
@@ -8690,7 +7786,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-31.70791316611031</v>
+        <v>-14.80159151654607</v>
       </c>
     </row>
     <row r="74">
@@ -8698,7 +7794,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-31.66714331092442</v>
+        <v>-14.80159151654607</v>
       </c>
     </row>
     <row r="75">
@@ -8706,7 +7802,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-31.49921377971721</v>
+        <v>-14.54176038020253</v>
       </c>
     </row>
     <row r="76">
@@ -8714,7 +7810,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-31.53668410238282</v>
+        <v>-14.54176038020253</v>
       </c>
     </row>
     <row r="77">
@@ -8722,7 +7818,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-31.32047343908818</v>
+        <v>-14.54176038020253</v>
       </c>
     </row>
     <row r="78">
@@ -8730,7 +7826,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-31.09713171661296</v>
+        <v>-14.34696480678003</v>
       </c>
     </row>
     <row r="79">
@@ -8738,7 +7834,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-30.90937082735282</v>
+        <v>-14.34696480678003</v>
       </c>
     </row>
     <row r="80">
@@ -8746,7 +7842,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-30.82215426049973</v>
+        <v>-14.34696480678003</v>
       </c>
     </row>
     <row r="81">
@@ -8754,7 +7850,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-30.77820773830501</v>
+        <v>-14.2445948509429</v>
       </c>
     </row>
     <row r="82">
@@ -8762,7 +7858,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-30.83842214581552</v>
+        <v>-14.2445948509429</v>
       </c>
     </row>
     <row r="83">
@@ -8770,7 +7866,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-30.78852353326002</v>
+        <v>-14.2445948509429</v>
       </c>
     </row>
     <row r="84">
@@ -8778,7 +7874,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-30.56022585520671</v>
+        <v>-14.0888743778939</v>
       </c>
     </row>
     <row r="85">
@@ -8786,7 +7882,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-30.86312957866396</v>
+        <v>-14.0888743778939</v>
       </c>
     </row>
     <row r="86">
@@ -8794,7 +7890,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-30.99245552951346</v>
+        <v>-14.0888743778939</v>
       </c>
     </row>
     <row r="87">
@@ -8802,7 +7898,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-30.55068607087896</v>
+        <v>-14.03358946746154</v>
       </c>
     </row>
     <row r="88">
@@ -8810,7 +7906,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-30.38348291949061</v>
+        <v>-14.03358946746154</v>
       </c>
     </row>
     <row r="89">
@@ -8818,7 +7914,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-30.5011620771702</v>
+        <v>-14.03358946746154</v>
       </c>
     </row>
     <row r="90">
@@ -8826,7 +7922,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-31.33223402076088</v>
+        <v>-14.0603728534409</v>
       </c>
     </row>
     <row r="91">
@@ -8834,7 +7930,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-32.87606900573687</v>
+        <v>-14.0603728534409</v>
       </c>
     </row>
     <row r="92">
@@ -8842,7 +7938,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-32.01041068380596</v>
+        <v>-14.0603728534409</v>
       </c>
     </row>
     <row r="93">
@@ -8850,7 +7946,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-30.42696485408919</v>
+        <v>-14.06140908992841</v>
       </c>
     </row>
     <row r="94">
@@ -8858,7 +7954,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-30.19697584153224</v>
+        <v>-14.06140908992841</v>
       </c>
     </row>
     <row r="95">
@@ -8866,7 +7962,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-30.23837150301408</v>
+        <v>-14.06140908992841</v>
       </c>
     </row>
     <row r="96">
@@ -8874,7 +7970,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-30.27264693500136</v>
+        <v>-14.10798505685417</v>
       </c>
     </row>
     <row r="97">
@@ -8882,7 +7978,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-30.28660027163596</v>
+        <v>-14.10798505685417</v>
       </c>
     </row>
     <row r="98">
@@ -8890,7 +7986,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-30.29239501870427</v>
+        <v>-14.10798505685417</v>
       </c>
     </row>
     <row r="99">
@@ -8898,7 +7994,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-30.19411854624884</v>
+        <v>-13.9925891994119</v>
       </c>
     </row>
     <row r="100">
@@ -8906,7 +8002,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-30.20267955424631</v>
+        <v>-13.9925891994119</v>
       </c>
     </row>
     <row r="101">
@@ -8914,7 +8010,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-30.16585300891801</v>
+        <v>-13.9925891994119</v>
       </c>
     </row>
     <row r="102">
@@ -8922,7 +8018,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-30.337878743803</v>
+        <v>-13.99593089198319</v>
       </c>
     </row>
     <row r="103">
@@ -8930,7 +8026,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-30.36985485079296</v>
+        <v>-13.99593089198319</v>
       </c>
     </row>
     <row r="104">
@@ -8938,7 +8034,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-30.16366244533583</v>
+        <v>-13.99593089198319</v>
       </c>
     </row>
     <row r="105">
@@ -8946,7 +8042,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-30.41672988975786</v>
+        <v>-14.0617229784288</v>
       </c>
     </row>
     <row r="106">
@@ -8954,7 +8050,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-30.23975621419544</v>
+        <v>-14.0617229784288</v>
       </c>
     </row>
     <row r="107">
@@ -8962,7 +8058,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-30.28083714853303</v>
+        <v>-14.0617229784288</v>
       </c>
     </row>
     <row r="108">
@@ -8970,7 +8066,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-30.90262100292116</v>
+        <v>-14.3525107191379</v>
       </c>
     </row>
     <row r="109">
@@ -8978,7 +8074,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-30.83383536679692</v>
+        <v>-14.3525107191379</v>
       </c>
     </row>
     <row r="110">
@@ -8986,7 +8082,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-31.03232542724663</v>
+        <v>-14.3525107191379</v>
       </c>
     </row>
     <row r="111">
@@ -8994,7 +8090,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-31.35472171210141</v>
+        <v>-15.15593547399292</v>
       </c>
     </row>
     <row r="112">
@@ -9002,7 +8098,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-31.61205419826798</v>
+        <v>-15.15593547399292</v>
       </c>
     </row>
     <row r="113">
@@ -9010,7 +8106,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-31.58429214350617</v>
+        <v>-15.15593547399292</v>
       </c>
     </row>
     <row r="114">
@@ -9018,7 +8114,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-32.01470821717935</v>
+        <v>-14.85004294276347</v>
       </c>
     </row>
     <row r="115">
@@ -9026,7 +8122,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-31.91214002320149</v>
+        <v>-14.85004294276347</v>
       </c>
     </row>
     <row r="116">
@@ -9034,7 +8130,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-31.84437953799724</v>
+        <v>-14.85004294276347</v>
       </c>
     </row>
     <row r="117">
@@ -9042,7 +8138,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-32.64905660976758</v>
+        <v>-15.01573010832204</v>
       </c>
     </row>
     <row r="118">
@@ -9050,7 +8146,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-31.83904060172747</v>
+        <v>-15.01573010832204</v>
       </c>
     </row>
     <row r="119">
@@ -9058,7 +8154,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-32.34335397100683</v>
+        <v>-15.01573010832204</v>
       </c>
     </row>
     <row r="120">
@@ -9066,7 +8162,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-33.23251909342368</v>
+        <v>-15.60612201181956</v>
       </c>
     </row>
     <row r="121">
@@ -9074,7 +8170,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-33.07576979770919</v>
+        <v>-15.60612201181956</v>
       </c>
     </row>
     <row r="122">
@@ -9082,7 +8178,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-32.79505131403554</v>
+        <v>-15.60612201181956</v>
       </c>
     </row>
     <row r="123">
@@ -9090,7 +8186,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-33.33263575398053</v>
+        <v>-16.4280289496056</v>
       </c>
     </row>
     <row r="124">
@@ -9098,7 +8194,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-33.31100401207466</v>
+        <v>-16.4280289496056</v>
       </c>
     </row>
     <row r="125">
@@ -9106,7 +8202,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-32.65145299481039</v>
+        <v>-16.4280289496056</v>
       </c>
     </row>
     <row r="126">
@@ -9114,7 +8210,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-32.81981508464585</v>
+        <v>-16.12394431869171</v>
       </c>
     </row>
     <row r="127">
@@ -9122,7 +8218,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-33.14207520474748</v>
+        <v>-16.12394431869171</v>
       </c>
     </row>
     <row r="128">
@@ -9130,7 +8226,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-32.51175677835702</v>
+        <v>-16.12394431869171</v>
       </c>
     </row>
     <row r="129">
@@ -9138,7 +8234,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-32.31438679706602</v>
+        <v>-16.07772368094925</v>
       </c>
     </row>
     <row r="130">
@@ -9146,7 +8242,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-32.96204901862949</v>
+        <v>-16.07772368094925</v>
       </c>
     </row>
     <row r="131">
@@ -9154,7 +8250,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-32.68579928386066</v>
+        <v>-16.07772368094925</v>
       </c>
     </row>
     <row r="132">
@@ -9162,7 +8258,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-32.38469842527432</v>
+        <v>-15.81105383938954</v>
       </c>
     </row>
     <row r="133">
@@ -9170,7 +8266,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-32.36799179994709</v>
+        <v>-15.81105383938954</v>
       </c>
     </row>
     <row r="134">
@@ -9178,7 +8274,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-32.18633713641466</v>
+        <v>-15.81105383938954</v>
       </c>
     </row>
     <row r="135">
@@ -9186,7 +8282,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-32.20600376022289</v>
+        <v>-15.98700443835481</v>
       </c>
     </row>
     <row r="136">
@@ -9194,7 +8290,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-32.05881043389905</v>
+        <v>-15.98700443835481</v>
       </c>
     </row>
     <row r="137">
@@ -9202,7 +8298,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-32.87553701542081</v>
+        <v>-15.98700443835481</v>
       </c>
     </row>
     <row r="138">
@@ -9210,7 +8306,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-32.38602041730802</v>
+        <v>-15.81288595214576</v>
       </c>
     </row>
     <row r="139">
@@ -9218,7 +8314,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-32.45755328585201</v>
+        <v>-15.81288595214576</v>
       </c>
     </row>
     <row r="140">
@@ -9226,7 +8322,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-32.64276473470174</v>
+        <v>-15.81288595214576</v>
       </c>
     </row>
     <row r="141">
@@ -9234,7 +8330,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-31.98603675183247</v>
+        <v>-15.83464082976985</v>
       </c>
     </row>
     <row r="142">
@@ -9242,7 +8338,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-32.491517889002</v>
+        <v>-15.83464082976985</v>
       </c>
     </row>
     <row r="143">
@@ -9250,7 +8346,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-32.43150482053278</v>
+        <v>-15.83464082976985</v>
       </c>
     </row>
     <row r="144">
@@ -9258,7 +8354,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-32.24314397123456</v>
+        <v>-15.9177171344746</v>
       </c>
     </row>
     <row r="145">
@@ -9266,7 +8362,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-31.97101373157351</v>
+        <v>-15.9177171344746</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1800,7 +1800,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012005293</v>
+        <v>2012004327</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1815,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013008505</v>
+        <v>2013007220</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2015000561</v>
+        <v>2014008753</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1891,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2015003940</v>
+        <v>2016005477</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1929,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012009121</v>
+        <v>2012007026</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>7.4</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
         <v>250</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2012000721</v>
+        <v>2014005336</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2005,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2077,50 +2077,50 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012005293</v>
+        <v>2012004327</v>
       </c>
       <c r="B2" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="D2" t="n">
-        <v>20.16977079824406</v>
+        <v>27.50874168</v>
       </c>
       <c r="E2" t="n">
-        <v>23.76913020764295</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2012005293</v>
+        <v>2013007220</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D3" t="n">
-        <v>22.3584732</v>
+        <v>10.75835047824406</v>
       </c>
       <c r="E3" t="n">
-        <v>24</v>
+        <v>17.27035047824406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2012005293</v>
+        <v>2013007220</v>
       </c>
       <c r="B4" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D4" t="n">
-        <v>22.3584732</v>
+        <v>12.34126114491073</v>
       </c>
       <c r="E4" t="n">
         <v>24</v>
@@ -2128,105 +2128,91 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2013008505</v>
+        <v>2014008753</v>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="D5" t="n">
-        <v>40.44651899566239</v>
+        <v>39.4528244</v>
       </c>
       <c r="E5" t="n">
-        <v>59.78293332899572</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2015000561</v>
+        <v>2014008753</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C6" t="n">
-        <v>32</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>27.2319352</v>
+        <v>39.4528244</v>
       </c>
       <c r="E6" t="n">
-        <v>28.29552073553284</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2015000561</v>
+        <v>2016005477</v>
       </c>
       <c r="B7" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>29.44638704</v>
+        <v>47.2540271956624</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>59.99999999566239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2015003940</v>
+        <v>2012007026</v>
       </c>
       <c r="B8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="D8" t="n">
-        <v>4.675</v>
+        <v>9.636640498244061</v>
       </c>
       <c r="E8" t="n">
-        <v>23.78293333157742</v>
+        <v>23.99999999824409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2012009121</v>
+        <v>2014005336</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="D9" t="n">
-        <v>58.51940719566238</v>
+        <v>21.81129759824406</v>
       </c>
       <c r="E9" t="n">
-        <v>60</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="n">
-        <v>2012000721</v>
-      </c>
-      <c r="B10" t="n">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>114</v>
-      </c>
-      <c r="D10" t="n">
-        <v>27.78554815446735</v>
-      </c>
-      <c r="E10" t="n">
-        <v>30</v>
-      </c>
+      <c r="A10" s="7" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="7" t="n"/>
@@ -5885,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5.151501241713562</v>
+        <v>5.786354093927379</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5894,7 +5880,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>3.047492963570325</v>
+        <v>2.900365517711343</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5903,7 +5889,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3.047492963570325</v>
+        <v>3.093033855756289</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5912,7 +5898,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3.047492963570325</v>
+        <v>1.923215531384797</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5921,7 +5907,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>2.853295716517495</v>
+        <v>4.666274155145549</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5930,7 +5916,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>2.853295716517495</v>
+        <v>5.526230496282221</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5939,7 +5925,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>2.853295716517495</v>
+        <v>4.124386343989228</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5948,7 +5934,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>2.559564349048184</v>
+        <v>8.052741756645498</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5957,7 +5943,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>2.559564349048184</v>
+        <v>7.764010090436663</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5966,7 +5952,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>2.559564349048184</v>
+        <v>6.228845174392631</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5975,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>4.061419937540705</v>
+        <v>6.416207004731727</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5984,7 +5970,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>4.061419937540705</v>
+        <v>7.927760939286567</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5993,7 +5979,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>4.061419937540705</v>
+        <v>6.026439869258201</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -6002,7 +5988,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>4.999009306220408</v>
+        <v>6.163456875568744</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -6011,7 +5997,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>4.999009306220408</v>
+        <v>7.727028038027658</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6020,7 +6006,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>4.999009306220408</v>
+        <v>6.50650969943552</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6029,7 +6015,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>4.62484984175551</v>
+        <v>3.381573104202456</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6038,7 +6024,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>4.62484984175551</v>
+        <v>3.25851272660492</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6047,7 +6033,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>4.62484984175551</v>
+        <v>2.957590596515741</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6056,7 +6042,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>4.853730718235187</v>
+        <v>5.081841075371138</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6065,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>4.853730718235187</v>
+        <v>6.366572023939423</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6074,7 +6060,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.853730718235187</v>
+        <v>4.507140656041917</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6083,7 +6069,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>4.128045162657299</v>
+        <v>2.109782287860261</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6092,7 +6078,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.128045162657299</v>
+        <v>4.102568295396999</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6101,7 +6087,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4.128045162657299</v>
+        <v>4.130704276489654</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6110,7 +6096,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>4.673511028963525</v>
+        <v>5.938457104374542</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6119,7 +6105,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>4.673511028963525</v>
+        <v>5.212040166268127</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6128,7 +6114,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>4.673511028963525</v>
+        <v>5.323181084857102</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6137,7 +6123,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>3.037448567544214</v>
+        <v>4.41498782556035</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6146,7 +6132,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>3.037448567544214</v>
+        <v>4.876802560386529</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6155,7 +6141,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>3.037448567544214</v>
+        <v>4.12078294880128</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6164,7 +6150,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>1.839198698576714</v>
+        <v>2.930716322331867</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6173,7 +6159,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>1.839198698576714</v>
+        <v>4.446587393195015</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6182,7 +6168,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>1.839198698576714</v>
+        <v>5.073069622790475</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6191,7 +6177,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>2.08244702462556</v>
+        <v>4.479506183807204</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6200,7 +6186,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>2.08244702462556</v>
+        <v>5.909906529078569</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6209,7 +6195,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>2.08244702462556</v>
+        <v>4.525135613223645</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6218,7 +6204,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>1.313941958546708</v>
+        <v>3.699377768885614</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6227,7 +6213,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>1.313941958546708</v>
+        <v>3.891454349898344</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6236,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>1.313941958546708</v>
+        <v>3.333964055461312</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6245,7 +6231,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>0.9186640667990814</v>
+        <v>4.873031284803929</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6254,7 +6240,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>0.9186640667990814</v>
+        <v>4.10792566778834</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6263,7 +6249,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>0.9186640667990814</v>
+        <v>4.490271544646281</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6272,7 +6258,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>3.513922017462881</v>
+        <v>5.804424140336582</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6281,7 +6267,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>3.513922017462881</v>
+        <v>5.738626909219213</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6290,7 +6276,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>3.513922017462881</v>
+        <v>6.000129955798885</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6299,7 +6285,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>3.405095534219484</v>
+        <v>6.119891293422202</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6308,7 +6294,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>3.405095534219484</v>
+        <v>6.907264134443899</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6317,7 +6303,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>3.405095534219484</v>
+        <v>7.119225965046111</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6326,7 +6312,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>2.838864791368331</v>
+        <v>6.556705528900784</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6335,7 +6321,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>2.838864791368331</v>
+        <v>7.657108372130025</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6344,7 +6330,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>2.838864791368331</v>
+        <v>7.725634517352286</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6353,7 +6339,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>2.558774634571376</v>
+        <v>5.306878682980648</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6362,7 +6348,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>2.558774634571376</v>
+        <v>6.94835023102125</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6371,7 +6357,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>2.558774634571376</v>
+        <v>7.599353173893381</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6380,7 +6366,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>4.008865303432193</v>
+        <v>6.375476541235866</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6389,7 +6375,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>4.008865303432193</v>
+        <v>6.835022688404986</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6398,7 +6384,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>4.008865303432193</v>
+        <v>7.531769191099685</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6407,7 +6393,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>2.156301323951346</v>
+        <v>8.363911757968065</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6416,7 +6402,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>2.156301323951346</v>
+        <v>8.451232981484248</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6425,7 +6411,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>2.156301323951346</v>
+        <v>7.965115180396318</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6434,7 +6420,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>2.950221325472667</v>
+        <v>8.024245502214404</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6443,7 +6429,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>2.950221325472667</v>
+        <v>7.981867048446276</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6452,7 +6438,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>2.950221325472667</v>
+        <v>7.812593876704205</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6461,7 +6447,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>3.088514667859898</v>
+        <v>8.935197436380413</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6470,7 +6456,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>3.088514667859898</v>
+        <v>9.027689188187862</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6479,7 +6465,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>3.088514667859898</v>
+        <v>9.206955372043895</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6488,7 +6474,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>5.374246199149382</v>
+        <v>10.01364164349927</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6497,7 +6483,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>5.374246199149382</v>
+        <v>7.902554852302423</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6506,7 +6492,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>5.374246199149382</v>
+        <v>7.233160411578542</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6515,7 +6501,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>9.283464212838084</v>
+        <v>9.345400926935801</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6524,7 +6510,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>9.283464212838084</v>
+        <v>11.03116610420161</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6533,7 +6519,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>9.283464212838084</v>
+        <v>9.870024391347334</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6542,7 +6528,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>8.966664572205618</v>
+        <v>10.91655686338575</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6551,7 +6537,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>8.966664572205618</v>
+        <v>10.35809287132216</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6560,7 +6546,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>8.966664572205618</v>
+        <v>10.11796998930862</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6569,7 +6555,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>9.443108458262344</v>
+        <v>10.5408102144151</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6578,7 +6564,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>9.443108458262344</v>
+        <v>11.44953756623997</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6587,7 +6573,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>9.443108458262344</v>
+        <v>11.16312642799244</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6596,7 +6582,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>11.63813739421668</v>
+        <v>12.34175399700006</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6605,7 +6591,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>11.63813739421668</v>
+        <v>11.40118347867823</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6614,7 +6600,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>11.63813739421668</v>
+        <v>11.60311050786692</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6623,7 +6609,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>12.48993686073298</v>
+        <v>11.3702149428353</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6632,7 +6618,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>12.48993686073298</v>
+        <v>11.41844693409976</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6641,7 +6627,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>12.48993686073298</v>
+        <v>11.04343261971209</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6650,7 +6636,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>12.73681430221276</v>
+        <v>11.72879176158402</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6659,7 +6645,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>12.73681430221276</v>
+        <v>10.20483584013411</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6668,7 +6654,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>12.73681430221276</v>
+        <v>11.65967627119736</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6677,7 +6663,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>13.13105254465607</v>
+        <v>12.02910333733661</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6686,7 +6672,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>13.13105254465607</v>
+        <v>9.458242261756713</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6695,7 +6681,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>13.13105254465607</v>
+        <v>10.43878274016567</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6704,7 +6690,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>13.05251782732373</v>
+        <v>11.33176150591426</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6713,7 +6699,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>13.05251782732373</v>
+        <v>10.04258961909611</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6722,7 +6708,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>13.05251782732373</v>
+        <v>8.548923669700756</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6731,7 +6717,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>13.03092513036916</v>
+        <v>11.90036318216025</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6740,7 +6726,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>13.03092513036916</v>
+        <v>10.61656785224064</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6749,7 +6735,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>13.03092513036916</v>
+        <v>10.35901563669304</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6758,7 +6744,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>13.23440301395734</v>
+        <v>11.6225889409663</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6767,7 +6753,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>13.23440301395734</v>
+        <v>12.0966944218368</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6776,7 +6762,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>13.23440301395734</v>
+        <v>10.99696573074226</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6785,7 +6771,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>12.92357945783035</v>
+        <v>11.33917129670114</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6794,7 +6780,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>12.92357945783035</v>
+        <v>8.699671407042819</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6803,7 +6789,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>12.92357945783035</v>
+        <v>9.979534370845531</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6812,7 +6798,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>11.92731527033965</v>
+        <v>11.21891604613543</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6821,7 +6807,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>11.92731527033965</v>
+        <v>10.75752472094148</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6830,7 +6816,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>11.92731527033965</v>
+        <v>10.7313730625495</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6839,7 +6825,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>11.63021609645961</v>
+        <v>11.49040725305676</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6848,7 +6834,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>11.63021609645961</v>
+        <v>9.273133954225907</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6857,7 +6843,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>11.63021609645961</v>
+        <v>8.997399578765917</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6866,7 +6852,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>11.04872363801479</v>
+        <v>7.469055767527228</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6875,7 +6861,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>11.04872363801479</v>
+        <v>7.462821550311847</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6884,7 +6870,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>11.04872363801479</v>
+        <v>6.991596531406908</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6893,7 +6879,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>8.631910927132045</v>
+        <v>9.374331546015254</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6902,7 +6888,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>8.631910927132045</v>
+        <v>8.602535818883414</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6911,7 +6897,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>8.631910927132045</v>
+        <v>8.097908505443527</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6920,7 +6906,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>9.136617327193333</v>
+        <v>8.263747348095544</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6929,7 +6915,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>9.136617327193333</v>
+        <v>10.21654795986706</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6938,7 +6924,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>9.136617327193333</v>
+        <v>7.247622521111966</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6947,7 +6933,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>7.320287985664727</v>
+        <v>8.566636363975519</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6956,7 +6942,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>7.320287985664727</v>
+        <v>9.354540515388166</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6965,7 +6951,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>7.320287985664727</v>
+        <v>8.218988644819282</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6974,7 +6960,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>5.970373906422551</v>
+        <v>6.973157148879469</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6983,7 +6969,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>5.970373906422551</v>
+        <v>7.755853511827205</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6992,7 +6978,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>5.970373906422551</v>
+        <v>7.535366877838696</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -7001,7 +6987,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>6.087076828752429</v>
+        <v>7.891895537735888</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -7010,7 +6996,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>6.087076828752429</v>
+        <v>7.19175805088361</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7019,7 +7005,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>6.087076828752429</v>
+        <v>6.933907637059408</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7028,7 +7014,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>6.029157067999828</v>
+        <v>6.643607402520644</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7037,7 +7023,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>6.029157067999828</v>
+        <v>6.837991529904049</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7046,7 +7032,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>6.029157067999828</v>
+        <v>5.163606526007567</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7055,7 +7041,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>6.594952949484791</v>
+        <v>6.628541980135969</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7064,7 +7050,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>6.594952949484791</v>
+        <v>6.123052230598569</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7073,7 +7059,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>6.594952949484791</v>
+        <v>5.455441422364284</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7082,7 +7068,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>6.801862932429183</v>
+        <v>8.3193246126253</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7091,7 +7077,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>6.801862932429183</v>
+        <v>6.348836216497467</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7100,7 +7086,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>6.801862932429183</v>
+        <v>7.190509282786185</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7109,7 +7095,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>6.330197236003539</v>
+        <v>7.568626965710094</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7118,7 +7104,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>6.330197236003539</v>
+        <v>8.304978852139547</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7127,7 +7113,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>6.330197236003539</v>
+        <v>6.974561577611723</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7136,7 +7122,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>6.208644599763542</v>
+        <v>5.1322230881497</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7145,7 +7131,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>6.208644599763542</v>
+        <v>5.994354698072919</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7154,7 +7140,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>6.208644599763542</v>
+        <v>5.36169822383757</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7163,7 +7149,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>5.151501241713562</v>
+        <v>6.212217433706306</v>
       </c>
     </row>
     <row r="145">
@@ -7171,7 +7157,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>5.151501241713562</v>
+        <v>6.687120148014749</v>
       </c>
     </row>
     <row r="146">
@@ -7218,7 +7204,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-15.9177171344746</v>
+        <v>-14.90977151399892</v>
       </c>
     </row>
     <row r="3">
@@ -7226,7 +7212,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-15.9582000244847</v>
+        <v>-14.54415017191871</v>
       </c>
     </row>
     <row r="4">
@@ -7234,7 +7220,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-15.9582000244847</v>
+        <v>-14.54114428669877</v>
       </c>
     </row>
     <row r="5">
@@ -7242,7 +7228,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-15.9582000244847</v>
+        <v>-14.56545400528928</v>
       </c>
     </row>
     <row r="6">
@@ -7250,7 +7236,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-15.82207634802023</v>
+        <v>-14.7296517894084</v>
       </c>
     </row>
     <row r="7">
@@ -7258,7 +7244,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-15.82207634802023</v>
+        <v>-14.75140899711758</v>
       </c>
     </row>
     <row r="8">
@@ -7266,7 +7252,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-15.82207634802023</v>
+        <v>-14.91650900336793</v>
       </c>
     </row>
     <row r="9">
@@ -7274,7 +7260,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-15.43904044236417</v>
+        <v>-15.04651941673279</v>
       </c>
     </row>
     <row r="10">
@@ -7282,7 +7268,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-15.43904044236417</v>
+        <v>-14.97063319754972</v>
       </c>
     </row>
     <row r="11">
@@ -7290,7 +7276,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-15.43904044236417</v>
+        <v>-14.92941342666966</v>
       </c>
     </row>
     <row r="12">
@@ -7298,7 +7284,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-15.58294506250196</v>
+        <v>-15.05718814996364</v>
       </c>
     </row>
     <row r="13">
@@ -7306,7 +7292,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-15.58294506250196</v>
+        <v>-15.06809517349027</v>
       </c>
     </row>
     <row r="14">
@@ -7314,7 +7300,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-15.58294506250196</v>
+        <v>-14.82132778860851</v>
       </c>
     </row>
     <row r="15">
@@ -7322,7 +7308,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-15.53580116203323</v>
+        <v>-15.05090767518619</v>
       </c>
     </row>
     <row r="16">
@@ -7330,7 +7316,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-15.53580116203323</v>
+        <v>-14.6508874335281</v>
       </c>
     </row>
     <row r="17">
@@ -7338,7 +7324,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-15.53580116203323</v>
+        <v>-15.0710683263256</v>
       </c>
     </row>
     <row r="18">
@@ -7346,7 +7332,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-15.58204238231498</v>
+        <v>-15.08335374461577</v>
       </c>
     </row>
     <row r="19">
@@ -7354,7 +7340,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-15.58204238231498</v>
+        <v>-15.2213209317784</v>
       </c>
     </row>
     <row r="20">
@@ -7362,7 +7348,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-15.58204238231498</v>
+        <v>-14.88599984314887</v>
       </c>
     </row>
     <row r="21">
@@ -7370,7 +7356,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-15.91527177466462</v>
+        <v>-15.16016210929497</v>
       </c>
     </row>
     <row r="22">
@@ -7378,7 +7364,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-15.91527177466462</v>
+        <v>-14.92891935207667</v>
       </c>
     </row>
     <row r="23">
@@ -7386,7 +7372,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-15.91527177466462</v>
+        <v>-14.82041244828207</v>
       </c>
     </row>
     <row r="24">
@@ -7394,7 +7380,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-15.94592061155023</v>
+        <v>-15.28793110281624</v>
       </c>
     </row>
     <row r="25">
@@ -7402,7 +7388,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-15.94592061155023</v>
+        <v>-15.55975715110575</v>
       </c>
     </row>
     <row r="26">
@@ -7410,7 +7396,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-15.94592061155023</v>
+        <v>-15.06982342886698</v>
       </c>
     </row>
     <row r="27">
@@ -7418,7 +7404,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-15.8808970817113</v>
+        <v>-15.90822957664627</v>
       </c>
     </row>
     <row r="28">
@@ -7426,7 +7412,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-15.8808970817113</v>
+        <v>-15.51846556682273</v>
       </c>
     </row>
     <row r="29">
@@ -7434,7 +7420,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-15.8808970817113</v>
+        <v>-15.61865376497308</v>
       </c>
     </row>
     <row r="30">
@@ -7442,7 +7428,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-16.88164213438907</v>
+        <v>-15.53378558307638</v>
       </c>
     </row>
     <row r="31">
@@ -7450,7 +7436,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-16.88164213438907</v>
+        <v>-16.52280422306753</v>
       </c>
     </row>
     <row r="32">
@@ -7458,7 +7444,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-16.88164213438907</v>
+        <v>-16.6151082100417</v>
       </c>
     </row>
     <row r="33">
@@ -7466,7 +7452,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-17.01249180585642</v>
+        <v>-16.12173171495369</v>
       </c>
     </row>
     <row r="34">
@@ -7474,7 +7460,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-17.01249180585642</v>
+        <v>-16.38046748617252</v>
       </c>
     </row>
     <row r="35">
@@ -7482,7 +7468,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-17.01249180585642</v>
+        <v>-16.89285760976928</v>
       </c>
     </row>
     <row r="36">
@@ -7490,7 +7476,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-17.11293400170742</v>
+        <v>-16.82781821820714</v>
       </c>
     </row>
     <row r="37">
@@ -7498,7 +7484,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-17.11293400170742</v>
+        <v>-16.44224453245315</v>
       </c>
     </row>
     <row r="38">
@@ -7506,7 +7492,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-17.11293400170742</v>
+        <v>-16.82897628320305</v>
       </c>
     </row>
     <row r="39">
@@ -7514,7 +7500,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-17.28605249303905</v>
+        <v>-16.890966210554</v>
       </c>
     </row>
     <row r="40">
@@ -7522,7 +7508,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-17.28605249303905</v>
+        <v>-17.12600690090718</v>
       </c>
     </row>
     <row r="41">
@@ -7530,7 +7516,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-17.28605249303905</v>
+        <v>-16.56036621967553</v>
       </c>
     </row>
     <row r="42">
@@ -7538,7 +7524,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-17.31953737992774</v>
+        <v>-16.52624686417868</v>
       </c>
     </row>
     <row r="43">
@@ -7546,7 +7532,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-17.31953737992774</v>
+        <v>-16.9225253130793</v>
       </c>
     </row>
     <row r="44">
@@ -7554,7 +7540,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-17.31953737992774</v>
+        <v>-16.61400673148285</v>
       </c>
     </row>
     <row r="45">
@@ -7562,7 +7548,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-16.8326858694462</v>
+        <v>-16.85239382073375</v>
       </c>
     </row>
     <row r="46">
@@ -7570,7 +7556,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-16.8326858694462</v>
+        <v>-16.81649301359658</v>
       </c>
     </row>
     <row r="47">
@@ -7578,7 +7564,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-16.8326858694462</v>
+        <v>-17.09758727175491</v>
       </c>
     </row>
     <row r="48">
@@ -7586,7 +7572,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-17.04731045525663</v>
+        <v>-16.80668162822849</v>
       </c>
     </row>
     <row r="49">
@@ -7594,7 +7580,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-17.04731045525663</v>
+        <v>-16.50137987605301</v>
       </c>
     </row>
     <row r="50">
@@ -7602,7 +7588,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-17.04731045525663</v>
+        <v>-16.14785019745949</v>
       </c>
     </row>
     <row r="51">
@@ -7610,7 +7596,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-17.08336946329124</v>
+        <v>-16.10277814573064</v>
       </c>
     </row>
     <row r="52">
@@ -7618,7 +7604,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-17.08336946329124</v>
+        <v>-16.42759671238587</v>
       </c>
     </row>
     <row r="53">
@@ -7626,7 +7612,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-17.08336946329124</v>
+        <v>-16.10870452873955</v>
       </c>
     </row>
     <row r="54">
@@ -7634,7 +7620,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-17.06769805710002</v>
+        <v>-16.27128845642233</v>
       </c>
     </row>
     <row r="55">
@@ -7642,7 +7628,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-17.06769805710002</v>
+        <v>-16.46524723342441</v>
       </c>
     </row>
     <row r="56">
@@ -7650,7 +7636,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-17.06769805710002</v>
+        <v>-16.07938120826825</v>
       </c>
     </row>
     <row r="57">
@@ -7658,7 +7644,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-16.99878077401493</v>
+        <v>-16.5231248181253</v>
       </c>
     </row>
     <row r="58">
@@ -7666,7 +7652,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-16.99878077401493</v>
+        <v>-16.32587984832758</v>
       </c>
     </row>
     <row r="59">
@@ -7674,7 +7660,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-16.99878077401493</v>
+        <v>-15.97603416632592</v>
       </c>
     </row>
     <row r="60">
@@ -7682,7 +7668,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-16.94630646821101</v>
+        <v>-16.11991027674091</v>
       </c>
     </row>
     <row r="61">
@@ -7690,7 +7676,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-16.94630646821101</v>
+        <v>-15.83498151323529</v>
       </c>
     </row>
     <row r="62">
@@ -7698,7 +7684,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-16.94630646821101</v>
+        <v>-15.99121768578601</v>
       </c>
     </row>
     <row r="63">
@@ -7706,7 +7692,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-16.77166016230013</v>
+        <v>-15.77580044091468</v>
       </c>
     </row>
     <row r="64">
@@ -7714,7 +7700,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-16.77166016230013</v>
+        <v>-15.60524242450145</v>
       </c>
     </row>
     <row r="65">
@@ -7722,7 +7708,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-16.77166016230013</v>
+        <v>-15.59529486966887</v>
       </c>
     </row>
     <row r="66">
@@ -7730,7 +7716,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-16.16917254095298</v>
+        <v>-15.14743352619582</v>
       </c>
     </row>
     <row r="67">
@@ -7738,7 +7724,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-16.16917254095298</v>
+        <v>-15.47928745846615</v>
       </c>
     </row>
     <row r="68">
@@ -7746,7 +7732,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-16.16917254095298</v>
+        <v>-15.46174996150646</v>
       </c>
     </row>
     <row r="69">
@@ -7754,7 +7740,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-15.5372939477628</v>
+        <v>-14.86943521326461</v>
       </c>
     </row>
     <row r="70">
@@ -7762,7 +7748,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-15.5372939477628</v>
+        <v>-15.01603088381936</v>
       </c>
     </row>
     <row r="71">
@@ -7770,7 +7756,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-15.5372939477628</v>
+        <v>-14.98874714100976</v>
       </c>
     </row>
     <row r="72">
@@ -7778,7 +7764,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-14.80159151654607</v>
+        <v>-14.55844217166328</v>
       </c>
     </row>
     <row r="73">
@@ -7786,7 +7772,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-14.80159151654607</v>
+        <v>-14.54705587885523</v>
       </c>
     </row>
     <row r="74">
@@ -7794,7 +7780,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-14.80159151654607</v>
+        <v>-14.45617277230448</v>
       </c>
     </row>
     <row r="75">
@@ -7802,7 +7788,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-14.54176038020253</v>
+        <v>-14.33565631264898</v>
       </c>
     </row>
     <row r="76">
@@ -7810,7 +7796,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-14.54176038020253</v>
+        <v>-14.33595147416048</v>
       </c>
     </row>
     <row r="77">
@@ -7818,7 +7804,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-14.54176038020253</v>
+        <v>-14.5036168387172</v>
       </c>
     </row>
     <row r="78">
@@ -7826,7 +7812,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-14.34696480678003</v>
+        <v>-14.33203766878982</v>
       </c>
     </row>
     <row r="79">
@@ -7834,7 +7820,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-14.34696480678003</v>
+        <v>-14.35098189360727</v>
       </c>
     </row>
     <row r="80">
@@ -7842,7 +7828,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-14.34696480678003</v>
+        <v>-14.29445815358885</v>
       </c>
     </row>
     <row r="81">
@@ -7850,7 +7836,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-14.2445948509429</v>
+        <v>-14.2722668252019</v>
       </c>
     </row>
     <row r="82">
@@ -7858,7 +7844,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-14.2445948509429</v>
+        <v>-14.26096413829595</v>
       </c>
     </row>
     <row r="83">
@@ -7866,7 +7852,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-14.2445948509429</v>
+        <v>-14.14113453808947</v>
       </c>
     </row>
     <row r="84">
@@ -7874,7 +7860,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-14.0888743778939</v>
+        <v>-14.11899961957353</v>
       </c>
     </row>
     <row r="85">
@@ -7882,7 +7868,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-14.0888743778939</v>
+        <v>-14.03334257744343</v>
       </c>
     </row>
     <row r="86">
@@ -7890,7 +7876,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-14.0888743778939</v>
+        <v>-14.21668097112732</v>
       </c>
     </row>
     <row r="87">
@@ -7898,7 +7884,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-14.03358946746154</v>
+        <v>-14.10454883614341</v>
       </c>
     </row>
     <row r="88">
@@ -7906,7 +7892,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-14.03358946746154</v>
+        <v>-14.06997299854353</v>
       </c>
     </row>
     <row r="89">
@@ -7914,7 +7900,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-14.03358946746154</v>
+        <v>-14.05264251192744</v>
       </c>
     </row>
     <row r="90">
@@ -7922,7 +7908,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-14.0603728534409</v>
+        <v>-14.31002364860419</v>
       </c>
     </row>
     <row r="91">
@@ -7930,7 +7916,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-14.0603728534409</v>
+        <v>-15.35003530882833</v>
       </c>
     </row>
     <row r="92">
@@ -7938,7 +7924,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-14.0603728534409</v>
+        <v>-14.62130379906518</v>
       </c>
     </row>
     <row r="93">
@@ -7946,7 +7932,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-14.06140908992841</v>
+        <v>-14.08236658801829</v>
       </c>
     </row>
     <row r="94">
@@ -7954,7 +7940,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-14.06140908992841</v>
+        <v>-13.88988236151099</v>
       </c>
     </row>
     <row r="95">
@@ -7962,7 +7948,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-14.06140908992841</v>
+        <v>-13.9014953110639</v>
       </c>
     </row>
     <row r="96">
@@ -7970,7 +7956,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-14.10798505685417</v>
+        <v>-13.96550234000896</v>
       </c>
     </row>
     <row r="97">
@@ -7978,7 +7964,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-14.10798505685417</v>
+        <v>-14.0599450286916</v>
       </c>
     </row>
     <row r="98">
@@ -7986,7 +7972,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-14.10798505685417</v>
+        <v>-14.05060467383023</v>
       </c>
     </row>
     <row r="99">
@@ -7994,7 +7980,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-13.9925891994119</v>
+        <v>-13.98606621166202</v>
       </c>
     </row>
     <row r="100">
@@ -8002,7 +7988,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-13.9925891994119</v>
+        <v>-13.99136988467756</v>
       </c>
     </row>
     <row r="101">
@@ -8010,7 +7996,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-13.9925891994119</v>
+        <v>-13.99280264198262</v>
       </c>
     </row>
     <row r="102">
@@ -8018,7 +8004,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-13.99593089198319</v>
+        <v>-14.04934770413961</v>
       </c>
     </row>
     <row r="103">
@@ -8026,7 +8012,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-13.99593089198319</v>
+        <v>-14.09852367973042</v>
       </c>
     </row>
     <row r="104">
@@ -8034,7 +8020,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-13.99593089198319</v>
+        <v>-13.93138083109153</v>
       </c>
     </row>
     <row r="105">
@@ -8042,7 +8028,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-14.0617229784288</v>
+        <v>-14.10886741051496</v>
       </c>
     </row>
     <row r="106">
@@ -8050,7 +8036,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-14.0617229784288</v>
+        <v>-14.03917916142978</v>
       </c>
     </row>
     <row r="107">
@@ -8058,7 +8044,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-14.0617229784288</v>
+        <v>-14.05915675601725</v>
       </c>
     </row>
     <row r="108">
@@ -8066,7 +8052,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-14.3525107191379</v>
+        <v>-14.17628436379798</v>
       </c>
     </row>
     <row r="109">
@@ -8074,7 +8060,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-14.3525107191379</v>
+        <v>-14.12692416665346</v>
       </c>
     </row>
     <row r="110">
@@ -8082,7 +8068,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-14.3525107191379</v>
+        <v>-14.28126907351781</v>
       </c>
     </row>
     <row r="111">
@@ -8090,7 +8076,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-15.15593547399292</v>
+        <v>-14.28472786162676</v>
       </c>
     </row>
     <row r="112">
@@ -8098,7 +8084,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-15.15593547399292</v>
+        <v>-14.57534727809472</v>
       </c>
     </row>
     <row r="113">
@@ -8106,7 +8092,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-15.15593547399292</v>
+        <v>-14.59491763562055</v>
       </c>
     </row>
     <row r="114">
@@ -8114,7 +8100,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-14.85004294276347</v>
+        <v>-14.79808654078255</v>
       </c>
     </row>
     <row r="115">
@@ -8122,7 +8108,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-14.85004294276347</v>
+        <v>-14.43770039839499</v>
       </c>
     </row>
     <row r="116">
@@ -8130,7 +8116,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-14.85004294276347</v>
+        <v>-14.41391174950172</v>
       </c>
     </row>
     <row r="117">
@@ -8138,7 +8124,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-15.01573010832204</v>
+        <v>-14.85676247464413</v>
       </c>
     </row>
     <row r="118">
@@ -8146,7 +8132,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-15.01573010832204</v>
+        <v>-14.66590250175511</v>
       </c>
     </row>
     <row r="119">
@@ -8154,7 +8140,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-15.01573010832204</v>
+        <v>-14.63748800318738</v>
       </c>
     </row>
     <row r="120">
@@ -8162,7 +8148,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-15.60612201181956</v>
+        <v>-15.35885457145086</v>
       </c>
     </row>
     <row r="121">
@@ -8170,7 +8156,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-15.60612201181956</v>
+        <v>-15.24834562294977</v>
       </c>
     </row>
     <row r="122">
@@ -8178,7 +8164,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-15.60612201181956</v>
+        <v>-14.88300374017147</v>
       </c>
     </row>
     <row r="123">
@@ -8186,7 +8172,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-16.4280289496056</v>
+        <v>-15.50779555156488</v>
       </c>
     </row>
     <row r="124">
@@ -8194,7 +8180,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-16.4280289496056</v>
+        <v>-15.39422681456549</v>
       </c>
     </row>
     <row r="125">
@@ -8202,7 +8188,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-16.4280289496056</v>
+        <v>-15.00786528450921</v>
       </c>
     </row>
     <row r="126">
@@ -8210,7 +8196,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-16.12394431869171</v>
+        <v>-15.02461684707031</v>
       </c>
     </row>
     <row r="127">
@@ -8218,7 +8204,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-16.12394431869171</v>
+        <v>-15.2668848654778</v>
       </c>
     </row>
     <row r="128">
@@ -8226,7 +8212,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-16.12394431869171</v>
+        <v>-14.94548501325241</v>
       </c>
     </row>
     <row r="129">
@@ -8234,7 +8220,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-16.07772368094925</v>
+        <v>-14.96019911844317</v>
       </c>
     </row>
     <row r="130">
@@ -8242,7 +8228,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-16.07772368094925</v>
+        <v>-15.09229979826874</v>
       </c>
     </row>
     <row r="131">
@@ -8250,7 +8236,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-16.07772368094925</v>
+        <v>-14.91665061365247</v>
       </c>
     </row>
     <row r="132">
@@ -8258,7 +8244,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-15.81105383938954</v>
+        <v>-14.70845263462436</v>
       </c>
     </row>
     <row r="133">
@@ -8266,7 +8252,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-15.81105383938954</v>
+        <v>-15.04638950965773</v>
       </c>
     </row>
     <row r="134">
@@ -8274,7 +8260,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-15.81105383938954</v>
+        <v>-14.80400819678776</v>
       </c>
     </row>
     <row r="135">
@@ -8282,7 +8268,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-15.98700443835481</v>
+        <v>-14.77955193539614</v>
       </c>
     </row>
     <row r="136">
@@ -8290,7 +8276,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-15.98700443835481</v>
+        <v>-14.7801814271314</v>
       </c>
     </row>
     <row r="137">
@@ -8298,7 +8284,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-15.98700443835481</v>
+        <v>-15.26837326317793</v>
       </c>
     </row>
     <row r="138">
@@ -8306,7 +8292,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-15.81288595214576</v>
+        <v>-15.11420593171945</v>
       </c>
     </row>
     <row r="139">
@@ -8314,7 +8300,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-15.81288595214576</v>
+        <v>-14.62553612126278</v>
       </c>
     </row>
     <row r="140">
@@ -8322,7 +8308,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-15.81288595214576</v>
+        <v>-15.02238993830766</v>
       </c>
     </row>
     <row r="141">
@@ -8330,7 +8316,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-15.83464082976985</v>
+        <v>-14.54768284194862</v>
       </c>
     </row>
     <row r="142">
@@ -8338,7 +8324,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-15.83464082976985</v>
+        <v>-14.53854956919841</v>
       </c>
     </row>
     <row r="143">
@@ -8346,7 +8332,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-15.83464082976985</v>
+        <v>-14.92134506554814</v>
       </c>
     </row>
     <row r="144">
@@ -8354,7 +8340,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-15.9177171344746</v>
+        <v>-14.69594011594496</v>
       </c>
     </row>
     <row r="145">
@@ -8362,7 +8348,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-15.9177171344746</v>
+        <v>-14.73106260026286</v>
       </c>
     </row>
     <row r="146">

--- a/testcases/timeseries/EVDay01_mix1.xlsx
+++ b/testcases/timeseries/EVDay01_mix1.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-19320" yWindow="2610" windowWidth="19440" windowHeight="15000" tabRatio="691" firstSheet="5" activeTab="12" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="12" autoFilterDateGrouping="1" firstSheet="5" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="691" visibility="visible" windowHeight="15000" windowWidth="19440" xWindow="-19320" yWindow="2610"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bus" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="demand" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="branch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="transformer" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="shunt" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="generator" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genseries" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="genmin" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVs" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="bus" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="demand" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="branch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="transformer" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="shunt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="generator" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="genseries" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="genmin" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="baseMVA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="timeseries" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="EVs" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="EVsTravelDiary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="timeseriesGen" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -28,8 +28,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt formatCode="0.0" numFmtId="164"/>
+    <numFmt formatCode="0.000" numFmtId="165"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -125,33 +125,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -531,7 +599,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1714,7 +1782,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -1724,7 +1792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L29" sqref="A2:L29"/>
@@ -1732,7 +1800,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="12.85546875" customWidth="1" min="5" max="5"/>
+    <col customWidth="1" max="5" min="5" width="12.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1800,7 +1868,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2012004327</v>
+        <v>2012002490</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1815,7 +1883,7 @@
         <v>7.4</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G2" t="n">
         <v>250</v>
@@ -1838,7 +1906,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2013007220</v>
+        <v>2016007523</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -1853,7 +1921,7 @@
         <v>7.4</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G3" t="n">
         <v>250</v>
@@ -1876,7 +1944,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2014008753</v>
+        <v>2014007649</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -1891,7 +1959,7 @@
         <v>7.4</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>250</v>
@@ -1914,7 +1982,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2016005477</v>
+        <v>2012009765</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -1929,7 +1997,7 @@
         <v>7.4</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G5" t="n">
         <v>250</v>
@@ -1952,7 +2020,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2012007026</v>
+        <v>2016003679</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -1990,7 +2058,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2014005336</v>
+        <v>2015006576</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2005,7 +2073,7 @@
         <v>7.4</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="G7" t="n">
         <v>250</v>
@@ -2026,8 +2094,198 @@
         <v>150</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2012001376</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F8" t="n">
+        <v>30</v>
+      </c>
+      <c r="G8" t="n">
+        <v>250</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2013006681</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>40</v>
+      </c>
+      <c r="G9" t="n">
+        <v>250</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2014000631</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>60</v>
+      </c>
+      <c r="G10" t="n">
+        <v>250</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2012001256</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40</v>
+      </c>
+      <c r="G11" t="n">
+        <v>250</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2014004815</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" t="n">
+        <v>250</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2045,7 +2303,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="15.85546875" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2077,160 +2335,258 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>2012004327</v>
+        <v>2012002490</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D2" t="n">
-        <v>27.50874168</v>
+        <v>56.3789849956624</v>
       </c>
       <c r="E2" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>2013007220</v>
+        <v>2016007523</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D3" t="n">
-        <v>10.75835047824406</v>
+        <v>5.5</v>
       </c>
       <c r="E3" t="n">
-        <v>17.27035047824406</v>
+        <v>59.99999999566239</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>2013007220</v>
+        <v>2014007649</v>
       </c>
       <c r="B4" t="n">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D4" t="n">
-        <v>12.34126114491073</v>
+        <v>71.91006718327787</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>2014008753</v>
+        <v>2012009765</v>
       </c>
       <c r="B5" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>39.4528244</v>
+        <v>17.17838821446735</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>19.34905488113401</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>2014008753</v>
+        <v>2012009765</v>
       </c>
       <c r="B6" t="n">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>106</v>
       </c>
       <c r="D6" t="n">
-        <v>39.4528244</v>
+        <v>18.33143868113401</v>
       </c>
       <c r="E6" t="n">
-        <v>40</v>
+        <v>29.67439999446738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>2016005477</v>
+        <v>2016003679</v>
       </c>
       <c r="B7" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C7" t="n">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="D7" t="n">
-        <v>47.2540271956624</v>
+        <v>22.632061</v>
       </c>
       <c r="E7" t="n">
-        <v>59.99999999566239</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>2012007026</v>
+        <v>2016003679</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="C8" t="n">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D8" t="n">
-        <v>9.636640498244061</v>
+        <v>22.0848854</v>
       </c>
       <c r="E8" t="n">
-        <v>23.99999999824409</v>
+        <v>23.6528562081273</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>2014005336</v>
+        <v>2016003679</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>142</v>
       </c>
       <c r="C9" t="n">
+        <v>143</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22.3584732</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22.81842136656968</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="n">
+        <v>2015006576</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30</v>
+      </c>
+      <c r="C10" t="n">
+        <v>115</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64.38801202327788</v>
+      </c>
+      <c r="E10" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="n">
+        <v>2012001376</v>
+      </c>
+      <c r="B11" t="n">
+        <v>38</v>
+      </c>
+      <c r="C11" t="n">
+        <v>117</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.73368353046735</v>
+      </c>
+      <c r="E11" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="n">
+        <v>2013006681</v>
+      </c>
+      <c r="B12" t="n">
+        <v>39</v>
+      </c>
+      <c r="C12" t="n">
+        <v>105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>32.75796946054121</v>
+      </c>
+      <c r="E12" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="n">
+        <v>2014000631</v>
+      </c>
+      <c r="B13" t="n">
+        <v>34</v>
+      </c>
+      <c r="C13" t="n">
+        <v>116</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45.19407199566239</v>
+      </c>
+      <c r="E13" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="n">
+        <v>2012001256</v>
+      </c>
+      <c r="B14" t="n">
+        <v>33</v>
+      </c>
+      <c r="C14" t="n">
         <v>114</v>
       </c>
-      <c r="D9" t="n">
-        <v>21.81129759824406</v>
-      </c>
-      <c r="E9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="n"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="n"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="n"/>
+      <c r="D14" t="n">
+        <v>38.08488486054121</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="n"/>
+      <c r="A15" s="7" t="n">
+        <v>2014004815</v>
+      </c>
+      <c r="B15" t="n">
+        <v>34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36</v>
+      </c>
+      <c r="D15" t="n">
+        <v>8.952670998244061</v>
+      </c>
+      <c r="E15" t="n">
+        <v>11.12333766491073</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="7" t="n"/>
+      <c r="A16" s="7" t="n">
+        <v>2014004815</v>
+      </c>
+      <c r="B16" t="n">
+        <v>44</v>
+      </c>
+      <c r="C16" t="n">
+        <v>110</v>
+      </c>
+      <c r="D16" t="n">
+        <v>8.60813347824406</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23.78293333157741</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="n"/>
@@ -2272,7 +2628,7 @@
       <c r="A29" s="7" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2290,8 +2646,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="11.7109375" customWidth="1" min="2" max="2"/>
-    <col width="17.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col customWidth="1" max="2" min="2" width="11.7109375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="17.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2848,7 +3204,7 @@
         </is>
       </c>
       <c r="C33" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D33" s="4" t="n"/>
       <c r="E33" s="4" t="n"/>
@@ -2865,7 +3221,7 @@
         </is>
       </c>
       <c r="C34" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D34" s="4" t="n"/>
       <c r="E34" s="4" t="n"/>
@@ -2882,7 +3238,7 @@
         </is>
       </c>
       <c r="C35" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D35" s="4" t="n"/>
       <c r="E35" s="4" t="n"/>
@@ -2933,7 +3289,7 @@
         </is>
       </c>
       <c r="C38" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D38" s="4" t="n"/>
       <c r="E38" s="4" t="n"/>
@@ -2950,7 +3306,7 @@
         </is>
       </c>
       <c r="C39" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D39" s="4" t="n"/>
       <c r="E39" s="4" t="n"/>
@@ -2967,7 +3323,7 @@
         </is>
       </c>
       <c r="C40" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D40" s="4" t="n"/>
       <c r="E40" s="4" t="n"/>
@@ -2984,7 +3340,7 @@
         </is>
       </c>
       <c r="C41" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D41" s="4" t="n"/>
       <c r="E41" s="4" t="n"/>
@@ -3001,7 +3357,7 @@
         </is>
       </c>
       <c r="C42" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D42" s="4" t="n"/>
       <c r="E42" s="4" t="n"/>
@@ -3018,7 +3374,7 @@
         </is>
       </c>
       <c r="C43" s="4" t="n">
-        <v>0.136</v>
+        <v>0.311</v>
       </c>
       <c r="D43" s="4" t="n"/>
       <c r="E43" s="4" t="n"/>
@@ -3035,7 +3391,7 @@
         </is>
       </c>
       <c r="C44" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D44" s="4" t="n"/>
       <c r="E44" s="4" t="n"/>
@@ -3120,7 +3476,7 @@
         </is>
       </c>
       <c r="C49" s="4" t="n">
-        <v>0.05300000000000001</v>
+        <v>0.228</v>
       </c>
       <c r="D49" s="4" t="n"/>
       <c r="E49" s="4" t="n"/>
@@ -5192,7 +5548,7 @@
       <c r="D289" s="4" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5267,7 +5623,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5353,7 +5709,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5464,7 +5820,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5510,7 +5866,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5829,7 +6185,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -5847,10 +6203,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="15.85546875" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="15.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.85546875"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5871,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>5.786354093927379</v>
+        <v>8.813740055595803</v>
       </c>
       <c r="G2" s="6" t="n"/>
     </row>
@@ -5880,7 +6236,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>2.900365517711343</v>
+        <v>6.099993854469088</v>
       </c>
       <c r="G3" s="6" t="n"/>
     </row>
@@ -5889,7 +6245,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>3.093033855756289</v>
+        <v>6.30185220723415</v>
       </c>
       <c r="G4" s="6" t="n"/>
     </row>
@@ -5898,7 +6254,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>1.923215531384797</v>
+        <v>8.04079871099831</v>
       </c>
       <c r="G5" s="6" t="n"/>
     </row>
@@ -5907,7 +6263,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>4.666274155145549</v>
+        <v>9.955902376740882</v>
       </c>
       <c r="G6" s="6" t="n"/>
     </row>
@@ -5916,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>5.526230496282221</v>
+        <v>9.251968480831723</v>
       </c>
       <c r="G7" s="6" t="n"/>
     </row>
@@ -5925,7 +6281,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>4.124386343989228</v>
+        <v>7.157124226355537</v>
       </c>
       <c r="G8" s="6" t="n"/>
     </row>
@@ -5934,7 +6290,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>8.052741756645498</v>
+        <v>7.868320550354154</v>
       </c>
       <c r="G9" s="6" t="n"/>
     </row>
@@ -5943,7 +6299,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>7.764010090436663</v>
+        <v>7.120345132723752</v>
       </c>
       <c r="G10" s="6" t="n"/>
     </row>
@@ -5952,7 +6308,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>6.228845174392631</v>
+        <v>7.403569388468277</v>
       </c>
       <c r="G11" s="6" t="n"/>
     </row>
@@ -5961,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>6.416207004731727</v>
+        <v>6.216707838456178</v>
       </c>
       <c r="G12" s="6" t="n"/>
     </row>
@@ -5970,7 +6326,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>7.927760939286567</v>
+        <v>7.527094286997471</v>
       </c>
       <c r="G13" s="6" t="n"/>
     </row>
@@ -5979,7 +6335,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>6.026439869258201</v>
+        <v>7.6947714669035</v>
       </c>
       <c r="G14" s="6" t="n"/>
     </row>
@@ -5988,7 +6344,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>6.163456875568744</v>
+        <v>6.405863772994286</v>
       </c>
       <c r="G15" s="6" t="n"/>
     </row>
@@ -5997,7 +6353,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>7.727028038027658</v>
+        <v>6.758668218736352</v>
       </c>
       <c r="G16" s="6" t="n"/>
     </row>
@@ -6006,7 +6362,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>6.50650969943552</v>
+        <v>6.540580246525195</v>
       </c>
       <c r="G17" s="6" t="n"/>
     </row>
@@ -6015,7 +6371,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>3.381573104202456</v>
+        <v>5.165984432085427</v>
       </c>
       <c r="G18" s="6" t="n"/>
     </row>
@@ -6024,7 +6380,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>3.25851272660492</v>
+        <v>4.661883779158959</v>
       </c>
       <c r="G19" s="6" t="n"/>
     </row>
@@ -6033,7 +6389,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>2.957590596515741</v>
+        <v>2.820339581175814</v>
       </c>
       <c r="G20" s="6" t="n"/>
     </row>
@@ -6042,7 +6398,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>5.081841075371138</v>
+        <v>4.739907240345183</v>
       </c>
       <c r="G21" s="6" t="n"/>
     </row>
@@ -6051,7 +6407,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>6.366572023939423</v>
+        <v>3.633385038418857</v>
       </c>
       <c r="G22" s="6" t="n"/>
     </row>
@@ -6060,7 +6416,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>4.507140656041917</v>
+        <v>3.044230107962762</v>
       </c>
       <c r="G23" s="6" t="n"/>
     </row>
@@ -6069,7 +6425,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>2.109782287860261</v>
+        <v>5.565733619797681</v>
       </c>
       <c r="G24" s="6" t="n"/>
     </row>
@@ -6078,7 +6434,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>4.102568295396999</v>
+        <v>2.327319836896884</v>
       </c>
       <c r="G25" s="6" t="n"/>
     </row>
@@ -6087,7 +6443,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>4.130704276489654</v>
+        <v>5.323089775808514</v>
       </c>
       <c r="G26" s="6" t="n"/>
     </row>
@@ -6096,7 +6452,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>5.938457104374542</v>
+        <v>2.564921271641603</v>
       </c>
       <c r="G27" s="6" t="n"/>
     </row>
@@ -6105,7 +6461,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>5.212040166268127</v>
+        <v>3.95517266883222</v>
       </c>
       <c r="G28" s="6" t="n"/>
     </row>
@@ -6114,7 +6470,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>5.323181084857102</v>
+        <v>3.496217340044617</v>
       </c>
       <c r="G29" s="6" t="n"/>
     </row>
@@ -6123,7 +6479,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>4.41498782556035</v>
+        <v>1.328384000208944</v>
       </c>
       <c r="G30" s="6" t="n"/>
     </row>
@@ -6132,7 +6488,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>4.876802560386529</v>
+        <v>0.1501943441403885</v>
       </c>
       <c r="G31" s="6" t="n"/>
     </row>
@@ -6141,7 +6497,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>4.12078294880128</v>
+        <v>0.8699628098912447</v>
       </c>
       <c r="G32" s="6" t="n"/>
     </row>
@@ -6150,7 +6506,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>2.930716322331867</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6" t="n"/>
     </row>
@@ -6159,7 +6515,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>4.446587393195015</v>
+        <v>0</v>
       </c>
       <c r="G34" s="6" t="n"/>
     </row>
@@ -6168,7 +6524,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>5.073069622790475</v>
+        <v>0</v>
       </c>
       <c r="G35" s="6" t="n"/>
     </row>
@@ -6177,7 +6533,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>4.479506183807204</v>
+        <v>0.9771068329949851</v>
       </c>
       <c r="G36" s="6" t="n"/>
     </row>
@@ -6186,7 +6542,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>5.909906529078569</v>
+        <v>0.6837625449961746</v>
       </c>
       <c r="G37" s="6" t="n"/>
     </row>
@@ -6195,7 +6551,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>4.525135613223645</v>
+        <v>0</v>
       </c>
       <c r="G38" s="6" t="n"/>
     </row>
@@ -6204,7 +6560,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>3.699377768885614</v>
+        <v>0</v>
       </c>
       <c r="G39" s="6" t="n"/>
     </row>
@@ -6213,7 +6569,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>3.891454349898344</v>
+        <v>0</v>
       </c>
       <c r="G40" s="6" t="n"/>
     </row>
@@ -6222,7 +6578,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>3.333964055461312</v>
+        <v>0</v>
       </c>
       <c r="G41" s="6" t="n"/>
     </row>
@@ -6231,7 +6587,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>4.873031284803929</v>
+        <v>0</v>
       </c>
       <c r="G42" s="6" t="n"/>
     </row>
@@ -6240,7 +6596,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>4.10792566778834</v>
+        <v>0</v>
       </c>
       <c r="G43" s="6" t="n"/>
     </row>
@@ -6249,7 +6605,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>4.490271544646281</v>
+        <v>0</v>
       </c>
       <c r="G44" s="6" t="n"/>
     </row>
@@ -6258,7 +6614,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>5.804424140336582</v>
+        <v>0.6369233481961545</v>
       </c>
       <c r="G45" s="6" t="n"/>
     </row>
@@ -6267,7 +6623,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>5.738626909219213</v>
+        <v>1.823964027618173</v>
       </c>
       <c r="G46" s="6" t="n"/>
     </row>
@@ -6276,7 +6632,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>6.000129955798885</v>
+        <v>1.832606413188604</v>
       </c>
       <c r="G47" s="6" t="n"/>
     </row>
@@ -6285,7 +6641,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>6.119891293422202</v>
+        <v>0.1955947809153128</v>
       </c>
       <c r="G48" s="6" t="n"/>
     </row>
@@ -6294,7 +6650,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>6.907264134443899</v>
+        <v>0</v>
       </c>
       <c r="G49" s="6" t="n"/>
     </row>
@@ -6303,7 +6659,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>7.119225965046111</v>
+        <v>0.4710994564727345</v>
       </c>
       <c r="G50" s="6" t="n"/>
     </row>
@@ -6312,7 +6668,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>6.556705528900784</v>
+        <v>1.694443403310431</v>
       </c>
       <c r="G51" s="6" t="n"/>
     </row>
@@ -6321,7 +6677,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>7.657108372130025</v>
+        <v>3.507622895421802</v>
       </c>
       <c r="G52" s="6" t="n"/>
     </row>
@@ -6330,7 +6686,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>7.725634517352286</v>
+        <v>3.560165227770045</v>
       </c>
       <c r="G53" s="6" t="n"/>
     </row>
@@ -6339,7 +6695,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>5.306878682980648</v>
+        <v>4.150848410753679</v>
       </c>
       <c r="G54" s="6" t="n"/>
     </row>
@@ -6348,7 +6704,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>6.94835023102125</v>
+        <v>3.754453998718155</v>
       </c>
       <c r="G55" s="6" t="n"/>
     </row>
@@ -6357,7 +6713,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>7.599353173893381</v>
+        <v>4.234939412873271</v>
       </c>
       <c r="G56" s="6" t="n"/>
     </row>
@@ -6366,7 +6722,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>6.375476541235866</v>
+        <v>6.005050318348988</v>
       </c>
       <c r="G57" s="6" t="n"/>
     </row>
@@ -6375,7 +6731,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>6.835022688404986</v>
+        <v>5.782764908460689</v>
       </c>
       <c r="G58" s="6" t="n"/>
     </row>
@@ -6384,7 +6740,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>7.531769191099685</v>
+        <v>5.409417723513885</v>
       </c>
       <c r="G59" s="6" t="n"/>
     </row>
@@ -6393,7 +6749,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>8.363911757968065</v>
+        <v>6.80716549429127</v>
       </c>
       <c r="G60" s="6" t="n"/>
     </row>
@@ -6402,7 +6758,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>8.451232981484248</v>
+        <v>6.500767510668065</v>
       </c>
       <c r="G61" s="6" t="n"/>
     </row>
@@ -6411,7 +6767,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>7.965115180396318</v>
+        <v>7.128285873322724</v>
       </c>
       <c r="G62" s="6" t="n"/>
     </row>
@@ -6420,7 +6776,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>8.024245502214404</v>
+        <v>7.874326852590638</v>
       </c>
       <c r="G63" s="6" t="n"/>
     </row>
@@ -6429,7 +6785,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>7.981867048446276</v>
+        <v>8.479450567146319</v>
       </c>
       <c r="G64" s="6" t="n"/>
     </row>
@@ -6438,7 +6794,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>7.812593876704205</v>
+        <v>7.999434570149742</v>
       </c>
       <c r="G65" s="6" t="n"/>
     </row>
@@ -6447,7 +6803,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>8.935197436380413</v>
+        <v>9.825730329597659</v>
       </c>
       <c r="G66" s="6" t="n"/>
     </row>
@@ -6456,7 +6812,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>9.027689188187862</v>
+        <v>8.268061241772807</v>
       </c>
       <c r="G67" s="6" t="n"/>
     </row>
@@ -6465,7 +6821,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>9.206955372043895</v>
+        <v>10.79494268153892</v>
       </c>
       <c r="G68" s="6" t="n"/>
     </row>
@@ -6474,7 +6830,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>10.01364164349927</v>
+        <v>11.67629530656785</v>
       </c>
       <c r="G69" s="6" t="n"/>
     </row>
@@ -6483,7 +6839,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>7.902554852302423</v>
+        <v>11.50837091845278</v>
       </c>
       <c r="G70" s="6" t="n"/>
     </row>
@@ -6492,7 +6848,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>7.233160411578542</v>
+        <v>12.13414957897528</v>
       </c>
       <c r="G71" s="6" t="n"/>
     </row>
@@ -6501,7 +6857,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>9.345400926935801</v>
+        <v>5.580862971153365</v>
       </c>
       <c r="G72" s="6" t="n"/>
     </row>
@@ -6510,7 +6866,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>11.03116610420161</v>
+        <v>5.072386988865548</v>
       </c>
       <c r="G73" s="6" t="n"/>
     </row>
@@ -6519,7 +6875,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>9.870024391347334</v>
+        <v>5.608533984625106</v>
       </c>
       <c r="G74" s="6" t="n"/>
     </row>
@@ -6528,7 +6884,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>10.91655686338575</v>
+        <v>0.9379439854508402</v>
       </c>
       <c r="G75" s="6" t="n"/>
     </row>
@@ -6537,7 +6893,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>10.35809287132216</v>
+        <v>2.039593321996428</v>
       </c>
       <c r="G76" s="6" t="n"/>
     </row>
@@ -6546,7 +6902,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>10.11796998930862</v>
+        <v>4.207131428269181</v>
       </c>
       <c r="G77" s="6" t="n"/>
     </row>
@@ -6555,7 +6911,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>10.5408102144151</v>
+        <v>4.501562786992368</v>
       </c>
       <c r="G78" s="6" t="n"/>
     </row>
@@ -6564,7 +6920,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>11.44953756623997</v>
+        <v>4.542129483198522</v>
       </c>
       <c r="G79" s="6" t="n"/>
     </row>
@@ -6573,7 +6929,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>11.16312642799244</v>
+        <v>4.279921635858301</v>
       </c>
       <c r="G80" s="6" t="n"/>
     </row>
@@ -6582,7 +6938,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>12.34175399700006</v>
+        <v>9.597108596581505</v>
       </c>
       <c r="G81" s="6" t="n"/>
     </row>
@@ -6591,7 +6947,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>11.40118347867823</v>
+        <v>8.510343849568361</v>
       </c>
       <c r="G82" s="6" t="n"/>
     </row>
@@ -6600,7 +6956,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>11.60311050786692</v>
+        <v>8.092212934756429</v>
       </c>
       <c r="G83" s="6" t="n"/>
     </row>
@@ -6609,7 +6965,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>11.3702149428353</v>
+        <v>9.998777464391297</v>
       </c>
       <c r="G84" s="6" t="n"/>
     </row>
@@ -6618,7 +6974,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>11.41844693409976</v>
+        <v>11.16387168892461</v>
       </c>
       <c r="G85" s="6" t="n"/>
     </row>
@@ -6627,7 +6983,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>11.04343261971209</v>
+        <v>11.82308113520427</v>
       </c>
       <c r="G86" s="6" t="n"/>
     </row>
@@ -6636,7 +6992,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>11.72879176158402</v>
+        <v>11.02187593558576</v>
       </c>
       <c r="G87" s="6" t="n"/>
     </row>
@@ -6645,7 +7001,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>10.20483584013411</v>
+        <v>10.96839572385394</v>
       </c>
       <c r="G88" s="6" t="n"/>
     </row>
@@ -6654,7 +7010,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>11.65967627119736</v>
+        <v>11.5933306517271</v>
       </c>
       <c r="G89" s="6" t="n"/>
     </row>
@@ -6663,7 +7019,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>12.02910333733661</v>
+        <v>9.421800991381057</v>
       </c>
       <c r="G90" s="6" t="n"/>
     </row>
@@ -6672,7 +7028,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>9.458242261756713</v>
+        <v>9.316752946746877</v>
       </c>
       <c r="G91" s="6" t="n"/>
     </row>
@@ -6681,7 +7037,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>10.43878274016567</v>
+        <v>10.66780185897982</v>
       </c>
       <c r="G92" s="6" t="n"/>
     </row>
@@ -6690,7 +7046,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>11.33176150591426</v>
+        <v>11.1050556691902</v>
       </c>
       <c r="G93" s="6" t="n"/>
     </row>
@@ -6699,7 +7055,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>10.04258961909611</v>
+        <v>10.73728898274265</v>
       </c>
       <c r="G94" s="6" t="n"/>
     </row>
@@ -6708,7 +7064,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>8.548923669700756</v>
+        <v>9.786383291655103</v>
       </c>
       <c r="G95" s="6" t="n"/>
     </row>
@@ -6717,7 +7073,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>11.90036318216025</v>
+        <v>9.549299687669114</v>
       </c>
       <c r="G96" s="6" t="n"/>
     </row>
@@ -6726,7 +7082,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>10.61656785224064</v>
+        <v>10.85413517167145</v>
       </c>
       <c r="G97" s="6" t="n"/>
     </row>
@@ -6735,7 +7091,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>10.35901563669304</v>
+        <v>10.8594006335512</v>
       </c>
       <c r="G98" s="6" t="n"/>
     </row>
@@ -6744,7 +7100,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>11.6225889409663</v>
+        <v>11.60946165977579</v>
       </c>
       <c r="G99" s="6" t="n"/>
     </row>
@@ -6753,7 +7109,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>12.0966944218368</v>
+        <v>11.83879747582496</v>
       </c>
       <c r="G100" s="6" t="n"/>
     </row>
@@ -6762,7 +7118,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>10.99696573074226</v>
+        <v>12.67276858173382</v>
       </c>
       <c r="G101" s="6" t="n"/>
     </row>
@@ -6771,7 +7127,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>11.33917129670114</v>
+        <v>13.76423846162013</v>
       </c>
       <c r="G102" s="6" t="n"/>
     </row>
@@ -6780,7 +7136,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>8.699671407042819</v>
+        <v>13.44269914775357</v>
       </c>
       <c r="G103" s="6" t="n"/>
     </row>
@@ -6789,7 +7145,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>9.979534370845531</v>
+        <v>12.78417808611257</v>
       </c>
       <c r="G104" s="6" t="n"/>
     </row>
@@ -6798,7 +7154,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>11.21891604613543</v>
+        <v>13.77742410012915</v>
       </c>
       <c r="G105" s="6" t="n"/>
     </row>
@@ -6807,7 +7163,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>10.75752472094148</v>
+        <v>14.36736202818338</v>
       </c>
       <c r="G106" s="6" t="n"/>
     </row>
@@ -6816,7 +7172,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>10.7313730625495</v>
+        <v>12.21368396441905</v>
       </c>
       <c r="G107" s="6" t="n"/>
     </row>
@@ -6825,7 +7181,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>11.49040725305676</v>
+        <v>11.98601522764635</v>
       </c>
       <c r="G108" s="6" t="n"/>
     </row>
@@ -6834,7 +7190,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>9.273133954225907</v>
+        <v>13.36995134051673</v>
       </c>
       <c r="G109" s="6" t="n"/>
     </row>
@@ -6843,7 +7199,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>8.997399578765917</v>
+        <v>12.32649312998356</v>
       </c>
       <c r="G110" s="6" t="n"/>
     </row>
@@ -6852,7 +7208,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>7.469055767527228</v>
+        <v>11.04298291287131</v>
       </c>
       <c r="G111" s="6" t="n"/>
     </row>
@@ -6861,7 +7217,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>7.462821550311847</v>
+        <v>11.08398973415918</v>
       </c>
       <c r="G112" s="6" t="n"/>
     </row>
@@ -6870,7 +7226,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>6.991596531406908</v>
+        <v>10.5362223828421</v>
       </c>
       <c r="G113" s="6" t="n"/>
     </row>
@@ -6879,7 +7235,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>9.374331546015254</v>
+        <v>11.2518118029792</v>
       </c>
       <c r="G114" s="6" t="n"/>
     </row>
@@ -6888,7 +7244,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>8.602535818883414</v>
+        <v>11.06021974002018</v>
       </c>
       <c r="G115" s="6" t="n"/>
     </row>
@@ -6897,7 +7253,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>8.097908505443527</v>
+        <v>10.47500794754817</v>
       </c>
       <c r="G116" s="6" t="n"/>
     </row>
@@ -6906,7 +7262,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>8.263747348095544</v>
+        <v>10.82916174406564</v>
       </c>
       <c r="G117" s="6" t="n"/>
     </row>
@@ -6915,7 +7271,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>10.21654795986706</v>
+        <v>10.25807689811339</v>
       </c>
       <c r="G118" s="6" t="n"/>
     </row>
@@ -6924,7 +7280,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>7.247622521111966</v>
+        <v>10.42858102221395</v>
       </c>
       <c r="G119" s="6" t="n"/>
     </row>
@@ -6933,7 +7289,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>8.566636363975519</v>
+        <v>8.1400525412609</v>
       </c>
       <c r="G120" s="6" t="n"/>
     </row>
@@ -6942,7 +7298,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>9.354540515388166</v>
+        <v>9.451159698782778</v>
       </c>
       <c r="G121" s="6" t="n"/>
     </row>
@@ -6951,7 +7307,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>8.218988644819282</v>
+        <v>8.755089398494484</v>
       </c>
       <c r="G122" s="6" t="n"/>
     </row>
@@ -6960,7 +7316,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>6.973157148879469</v>
+        <v>7.627868862270407</v>
       </c>
       <c r="G123" s="6" t="n"/>
     </row>
@@ -6969,7 +7325,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>7.755853511827205</v>
+        <v>8.378056957363667</v>
       </c>
       <c r="G124" s="6" t="n"/>
     </row>
@@ -6978,7 +7334,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>7.535366877838696</v>
+        <v>7.453573563472035</v>
       </c>
       <c r="G125" s="6" t="n"/>
     </row>
@@ -6987,7 +7343,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>7.891895537735888</v>
+        <v>8.333237685725141</v>
       </c>
       <c r="G126" s="6" t="n"/>
     </row>
@@ -6996,7 +7352,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>7.19175805088361</v>
+        <v>7.111309445166286</v>
       </c>
       <c r="G127" s="6" t="n"/>
     </row>
@@ -7005,7 +7361,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>6.933907637059408</v>
+        <v>6.933507045932404</v>
       </c>
       <c r="G128" s="6" t="n"/>
     </row>
@@ -7014,7 +7370,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>6.643607402520644</v>
+        <v>8.075848841006328</v>
       </c>
       <c r="G129" s="6" t="n"/>
     </row>
@@ -7023,7 +7379,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>6.837991529904049</v>
+        <v>9.8659462109418</v>
       </c>
       <c r="G130" s="6" t="n"/>
     </row>
@@ -7032,7 +7388,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>5.163606526007567</v>
+        <v>8.988474780132185</v>
       </c>
       <c r="G131" s="6" t="n"/>
     </row>
@@ -7041,7 +7397,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>6.628541980135969</v>
+        <v>8.139313605080154</v>
       </c>
       <c r="G132" s="6" t="n"/>
     </row>
@@ -7050,7 +7406,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>6.123052230598569</v>
+        <v>6.930911455938004</v>
       </c>
       <c r="G133" s="6" t="n"/>
     </row>
@@ -7059,7 +7415,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>5.455441422364284</v>
+        <v>6.39335360914075</v>
       </c>
       <c r="G134" s="6" t="n"/>
     </row>
@@ -7068,7 +7424,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>8.3193246126253</v>
+        <v>8.500606226413767</v>
       </c>
       <c r="G135" s="6" t="n"/>
     </row>
@@ -7077,7 +7433,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>6.348836216497467</v>
+        <v>8.707796660688462</v>
       </c>
       <c r="G136" s="6" t="n"/>
     </row>
@@ -7086,7 +7442,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>7.190509282786185</v>
+        <v>9.475557119077605</v>
       </c>
       <c r="G137" s="6" t="n"/>
     </row>
@@ -7095,7 +7451,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>7.568626965710094</v>
+        <v>7.747052589609969</v>
       </c>
       <c r="G138" s="6" t="n"/>
     </row>
@@ -7104,7 +7460,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>8.304978852139547</v>
+        <v>8.193729613152254</v>
       </c>
       <c r="G139" s="6" t="n"/>
     </row>
@@ -7113,7 +7469,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>6.974561577611723</v>
+        <v>7.633438705260118</v>
       </c>
       <c r="G140" s="6" t="n"/>
     </row>
@@ -7122,7 +7478,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>5.1322230881497</v>
+        <v>7.087857397939725</v>
       </c>
       <c r="G141" s="6" t="n"/>
     </row>
@@ -7131,7 +7487,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>5.994354698072919</v>
+        <v>5.922344942103316</v>
       </c>
       <c r="G142" s="6" t="n"/>
     </row>
@@ -7140,7 +7496,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>5.36169822383757</v>
+        <v>7.635631731995545</v>
       </c>
       <c r="G143" s="6" t="n"/>
     </row>
@@ -7149,7 +7505,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>6.212217433706306</v>
+        <v>7.384779248505259</v>
       </c>
     </row>
     <row r="145">
@@ -7157,14 +7513,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>6.687120148014749</v>
+        <v>8.463345369509387</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -7182,8 +7538,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col width="18.28515625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="8.42578125" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" width="18.28515625"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="8.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7204,7 +7560,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="n">
-        <v>-14.90977151399892</v>
+        <v>-27.89646211121343</v>
       </c>
     </row>
     <row r="3">
@@ -7212,7 +7568,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="n">
-        <v>-14.54415017191871</v>
+        <v>-27.79353519132643</v>
       </c>
     </row>
     <row r="4">
@@ -7220,7 +7576,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="n">
-        <v>-14.54114428669877</v>
+        <v>-27.48343860170555</v>
       </c>
     </row>
     <row r="5">
@@ -7228,7 +7584,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="n">
-        <v>-14.56545400528928</v>
+        <v>-27.54486275279165</v>
       </c>
     </row>
     <row r="6">
@@ -7236,7 +7592,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="n">
-        <v>-14.7296517894084</v>
+        <v>-27.60464913052404</v>
       </c>
     </row>
     <row r="7">
@@ -7244,7 +7600,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="n">
-        <v>-14.75140899711758</v>
+        <v>-27.39908112518094</v>
       </c>
     </row>
     <row r="8">
@@ -7252,7 +7608,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="n">
-        <v>-14.91650900336793</v>
+        <v>-27.4196108651887</v>
       </c>
     </row>
     <row r="9">
@@ -7260,7 +7616,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="n">
-        <v>-15.04651941673279</v>
+        <v>-26.83555974109505</v>
       </c>
     </row>
     <row r="10">
@@ -7268,7 +7624,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="n">
-        <v>-14.97063319754972</v>
+        <v>-27.01190917478261</v>
       </c>
     </row>
     <row r="11">
@@ -7276,7 +7632,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="n">
-        <v>-14.92941342666966</v>
+        <v>-27.16812704912592</v>
       </c>
     </row>
     <row r="12">
@@ -7284,7 +7640,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>-15.05718814996364</v>
+        <v>-27.40371977068362</v>
       </c>
     </row>
     <row r="13">
@@ -7292,7 +7648,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>-15.06809517349027</v>
+        <v>-27.23146972697121</v>
       </c>
     </row>
     <row r="14">
@@ -7300,7 +7656,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="n">
-        <v>-14.82132778860851</v>
+        <v>-27.24514729972677</v>
       </c>
     </row>
     <row r="15">
@@ -7308,7 +7664,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="n">
-        <v>-15.05090767518619</v>
+        <v>-27.54696908481164</v>
       </c>
     </row>
     <row r="16">
@@ -7316,7 +7672,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="n">
-        <v>-14.6508874335281</v>
+        <v>-27.54868679893421</v>
       </c>
     </row>
     <row r="17">
@@ -7324,7 +7680,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="n">
-        <v>-15.0710683263256</v>
+        <v>-27.63868756425522</v>
       </c>
     </row>
     <row r="18">
@@ -7332,7 +7688,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="n">
-        <v>-15.08335374461577</v>
+        <v>-29.07160286173695</v>
       </c>
     </row>
     <row r="19">
@@ -7340,7 +7696,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="n">
-        <v>-15.2213209317784</v>
+        <v>-29.74992523964615</v>
       </c>
     </row>
     <row r="20">
@@ -7348,7 +7704,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="n">
-        <v>-14.88599984314887</v>
+        <v>-29.63838506844142</v>
       </c>
     </row>
     <row r="21">
@@ -7356,7 +7712,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="n">
-        <v>-15.16016210929497</v>
+        <v>-28.17159589707978</v>
       </c>
     </row>
     <row r="22">
@@ -7364,7 +7720,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="n">
-        <v>-14.92891935207667</v>
+        <v>-29.74045977323652</v>
       </c>
     </row>
     <row r="23">
@@ -7372,7 +7728,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="n">
-        <v>-14.82041244828207</v>
+        <v>-29.28880492248448</v>
       </c>
     </row>
     <row r="24">
@@ -7380,7 +7736,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="n">
-        <v>-15.28793110281624</v>
+        <v>-29.40928814774797</v>
       </c>
     </row>
     <row r="25">
@@ -7388,7 +7744,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="n">
-        <v>-15.55975715110575</v>
+        <v>-29.03368454364684</v>
       </c>
     </row>
     <row r="26">
@@ -7396,7 +7752,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="n">
-        <v>-15.06982342886698</v>
+        <v>-28.97960023642377</v>
       </c>
     </row>
     <row r="27">
@@ -7404,7 +7760,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="n">
-        <v>-15.90822957664627</v>
+        <v>-30.03028728024282</v>
       </c>
     </row>
     <row r="28">
@@ -7412,7 +7768,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="n">
-        <v>-15.51846556682273</v>
+        <v>-29.92695771415409</v>
       </c>
     </row>
     <row r="29">
@@ -7420,7 +7776,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="n">
-        <v>-15.61865376497308</v>
+        <v>-29.20910551146829</v>
       </c>
     </row>
     <row r="30">
@@ -7428,7 +7784,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="n">
-        <v>-15.53378558307638</v>
+        <v>-30.50126076303437</v>
       </c>
     </row>
     <row r="31">
@@ -7436,7 +7792,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="n">
-        <v>-16.52280422306753</v>
+        <v>-31.07016926205902</v>
       </c>
     </row>
     <row r="32">
@@ -7444,7 +7800,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="n">
-        <v>-16.6151082100417</v>
+        <v>-30.85213310904088</v>
       </c>
     </row>
     <row r="33">
@@ -7452,7 +7808,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="n">
-        <v>-16.12173171495369</v>
+        <v>-31.28973040298087</v>
       </c>
     </row>
     <row r="34">
@@ -7460,7 +7816,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="n">
-        <v>-16.38046748617252</v>
+        <v>-30.89071322539496</v>
       </c>
     </row>
     <row r="35">
@@ -7468,7 +7824,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="n">
-        <v>-16.89285760976928</v>
+        <v>-31.39466358455626</v>
       </c>
     </row>
     <row r="36">
@@ -7476,7 +7832,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="n">
-        <v>-16.82781821820714</v>
+        <v>-32.9250004136503</v>
       </c>
     </row>
     <row r="37">
@@ -7484,7 +7840,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="n">
-        <v>-16.44224453245315</v>
+        <v>-31.84148213893613</v>
       </c>
     </row>
     <row r="38">
@@ -7492,7 +7848,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="n">
-        <v>-16.82897628320305</v>
+        <v>-31.8618989801171</v>
       </c>
     </row>
     <row r="39">
@@ -7500,7 +7856,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="n">
-        <v>-16.890966210554</v>
+        <v>-33.634472832367</v>
       </c>
     </row>
     <row r="40">
@@ -7508,7 +7864,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="n">
-        <v>-17.12600690090718</v>
+        <v>-33.21332348173203</v>
       </c>
     </row>
     <row r="41">
@@ -7516,7 +7872,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="n">
-        <v>-16.56036621967553</v>
+        <v>-33.23397061684044</v>
       </c>
     </row>
     <row r="42">
@@ -7524,7 +7880,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="3" t="n">
-        <v>-16.52624686417868</v>
+        <v>-33.15356898047953</v>
       </c>
     </row>
     <row r="43">
@@ -7532,7 +7888,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="3" t="n">
-        <v>-16.9225253130793</v>
+        <v>-33.58550506177658</v>
       </c>
     </row>
     <row r="44">
@@ -7540,7 +7896,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="3" t="n">
-        <v>-16.61400673148285</v>
+        <v>-32.92474771836968</v>
       </c>
     </row>
     <row r="45">
@@ -7548,7 +7904,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="3" t="n">
-        <v>-16.85239382073375</v>
+        <v>-32.3598619592417</v>
       </c>
     </row>
     <row r="46">
@@ -7556,7 +7912,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="3" t="n">
-        <v>-16.81649301359658</v>
+        <v>-32.48155576958998</v>
       </c>
     </row>
     <row r="47">
@@ -7564,7 +7920,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="3" t="n">
-        <v>-17.09758727175491</v>
+        <v>-31.83644501294929</v>
       </c>
     </row>
     <row r="48">
@@ -7572,7 +7928,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="3" t="n">
-        <v>-16.80668162822849</v>
+        <v>-31.67064650917095</v>
       </c>
     </row>
     <row r="49">
@@ -7580,7 +7936,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="3" t="n">
-        <v>-16.50137987605301</v>
+        <v>-31.87679522676954</v>
       </c>
     </row>
     <row r="50">
@@ -7588,7 +7944,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="3" t="n">
-        <v>-16.14785019745949</v>
+        <v>-32.00884675484453</v>
       </c>
     </row>
     <row r="51">
@@ -7596,7 +7952,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="3" t="n">
-        <v>-16.10277814573064</v>
+        <v>-31.46629880067965</v>
       </c>
     </row>
     <row r="52">
@@ -7604,7 +7960,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="3" t="n">
-        <v>-16.42759671238587</v>
+        <v>-31.60279074137545</v>
       </c>
     </row>
     <row r="53">
@@ -7612,7 +7968,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="3" t="n">
-        <v>-16.10870452873955</v>
+        <v>-31.37123533761301</v>
       </c>
     </row>
     <row r="54">
@@ -7620,7 +7976,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="3" t="n">
-        <v>-16.27128845642233</v>
+        <v>-30.84320840585518</v>
       </c>
     </row>
     <row r="55">
@@ -7628,7 +7984,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="3" t="n">
-        <v>-16.46524723342441</v>
+        <v>-30.14311800417402</v>
       </c>
     </row>
     <row r="56">
@@ -7636,7 +7992,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="3" t="n">
-        <v>-16.07938120826825</v>
+        <v>-30.19758231469134</v>
       </c>
     </row>
     <row r="57">
@@ -7644,7 +8000,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="3" t="n">
-        <v>-16.5231248181253</v>
+        <v>-30.92257863215878</v>
       </c>
     </row>
     <row r="58">
@@ -7652,7 +8008,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="3" t="n">
-        <v>-16.32587984832758</v>
+        <v>-30.63440074652301</v>
       </c>
     </row>
     <row r="59">
@@ -7660,7 +8016,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="3" t="n">
-        <v>-15.97603416632592</v>
+        <v>-30.36023553290547</v>
       </c>
     </row>
     <row r="60">
@@ -7668,7 +8024,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="3" t="n">
-        <v>-16.11991027674091</v>
+        <v>-29.95737748821801</v>
       </c>
     </row>
     <row r="61">
@@ -7676,7 +8032,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="3" t="n">
-        <v>-15.83498151323529</v>
+        <v>-29.8315009545739</v>
       </c>
     </row>
     <row r="62">
@@ -7684,7 +8040,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="3" t="n">
-        <v>-15.99121768578601</v>
+        <v>-29.61434921900602</v>
       </c>
     </row>
     <row r="63">
@@ -7692,7 +8048,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="3" t="n">
-        <v>-15.77580044091468</v>
+        <v>-28.82703898645006</v>
       </c>
     </row>
     <row r="64">
@@ -7700,7 +8056,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="3" t="n">
-        <v>-15.60524242450145</v>
+        <v>-29.11988730243232</v>
       </c>
     </row>
     <row r="65">
@@ -7708,7 +8064,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="3" t="n">
-        <v>-15.59529486966887</v>
+        <v>-28.92366979043845</v>
       </c>
     </row>
     <row r="66">
@@ -7716,7 +8072,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="3" t="n">
-        <v>-15.14743352619582</v>
+        <v>-28.81492930580257</v>
       </c>
     </row>
     <row r="67">
@@ -7724,7 +8080,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="3" t="n">
-        <v>-15.47928745846615</v>
+        <v>-28.20822368682473</v>
       </c>
     </row>
     <row r="68">
@@ -7732,7 +8088,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="3" t="n">
-        <v>-15.46174996150646</v>
+        <v>-28.45167772981512</v>
       </c>
     </row>
     <row r="69">
@@ -7740,7 +8096,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="3" t="n">
-        <v>-14.86943521326461</v>
+        <v>-27.54129951773882</v>
       </c>
     </row>
     <row r="70">
@@ -7748,7 +8104,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="3" t="n">
-        <v>-15.01603088381936</v>
+        <v>-27.07181764941332</v>
       </c>
     </row>
     <row r="71">
@@ -7756,7 +8112,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="3" t="n">
-        <v>-14.98874714100976</v>
+        <v>-27.43523142242201</v>
       </c>
     </row>
     <row r="72">
@@ -7764,7 +8120,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="3" t="n">
-        <v>-14.55844217166328</v>
+        <v>-30.54710611921132</v>
       </c>
     </row>
     <row r="73">
@@ -7772,7 +8128,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="3" t="n">
-        <v>-14.54705587885523</v>
+        <v>-30.46054282227631</v>
       </c>
     </row>
     <row r="74">
@@ -7780,7 +8136,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="3" t="n">
-        <v>-14.45617277230448</v>
+        <v>-30.3010230707583</v>
       </c>
     </row>
     <row r="75">
@@ -7788,7 +8144,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="3" t="n">
-        <v>-14.33565631264898</v>
+        <v>-31.35512389408931</v>
       </c>
     </row>
     <row r="76">
@@ -7796,7 +8152,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="3" t="n">
-        <v>-14.33595147416048</v>
+        <v>-31.07580914911101</v>
       </c>
     </row>
     <row r="77">
@@ -7804,7 +8160,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="3" t="n">
-        <v>-14.5036168387172</v>
+        <v>-31.34523653078514</v>
       </c>
     </row>
     <row r="78">
@@ -7812,7 +8168,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="3" t="n">
-        <v>-14.33203766878982</v>
+        <v>-31.56355228608967</v>
       </c>
     </row>
     <row r="79">
@@ -7820,7 +8176,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="3" t="n">
-        <v>-14.35098189360727</v>
+        <v>-31.463483733635</v>
       </c>
     </row>
     <row r="80">
@@ -7828,7 +8184,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="3" t="n">
-        <v>-14.29445815358885</v>
+        <v>-31.45698786985168</v>
       </c>
     </row>
     <row r="81">
@@ -7836,7 +8192,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="3" t="n">
-        <v>-14.2722668252019</v>
+        <v>-27.40339742853999</v>
       </c>
     </row>
     <row r="82">
@@ -7844,7 +8200,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="3" t="n">
-        <v>-14.26096413829595</v>
+        <v>-27.59368846856802</v>
       </c>
     </row>
     <row r="83">
@@ -7852,7 +8208,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="3" t="n">
-        <v>-14.14113453808947</v>
+        <v>-27.42466983098977</v>
       </c>
     </row>
     <row r="84">
@@ -7860,7 +8216,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="3" t="n">
-        <v>-14.11899961957353</v>
+        <v>-26.61719165304663</v>
       </c>
     </row>
     <row r="85">
@@ -7868,7 +8224,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="3" t="n">
-        <v>-14.03334257744343</v>
+        <v>-26.79764163688658</v>
       </c>
     </row>
     <row r="86">
@@ -7876,7 +8232,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="3" t="n">
-        <v>-14.21668097112732</v>
+        <v>-26.79609853729041</v>
       </c>
     </row>
     <row r="87">
@@ -7884,7 +8240,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="3" t="n">
-        <v>-14.10454883614341</v>
+        <v>-26.66370343844217</v>
       </c>
     </row>
     <row r="88">
@@ -7892,7 +8248,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="3" t="n">
-        <v>-14.06997299854353</v>
+        <v>-25.47363588127147</v>
       </c>
     </row>
     <row r="89">
@@ -7900,7 +8256,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="3" t="n">
-        <v>-14.05264251192744</v>
+        <v>-26.37709968881915</v>
       </c>
     </row>
     <row r="90">
@@ -7908,7 +8264,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="n">
-        <v>-14.31002364860419</v>
+        <v>-25.44683154147589</v>
       </c>
     </row>
     <row r="91">
@@ -7916,7 +8272,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="n">
-        <v>-15.35003530882833</v>
+        <v>-25.98737993886479</v>
       </c>
     </row>
     <row r="92">
@@ -7924,7 +8280,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="n">
-        <v>-14.62130379906518</v>
+        <v>-26.31448575473419</v>
       </c>
     </row>
     <row r="93">
@@ -7932,7 +8288,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="3" t="n">
-        <v>-14.08236658801829</v>
+        <v>-25.89470888036728</v>
       </c>
     </row>
     <row r="94">
@@ -7940,7 +8296,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="n">
-        <v>-13.88988236151099</v>
+        <v>-26.45358294733958</v>
       </c>
     </row>
     <row r="95">
@@ -7948,7 +8304,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="n">
-        <v>-13.9014953110639</v>
+        <v>-26.17277348127293</v>
       </c>
     </row>
     <row r="96">
@@ -7956,7 +8312,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="n">
-        <v>-13.96550234000896</v>
+        <v>-25.67194641733968</v>
       </c>
     </row>
     <row r="97">
@@ -7964,7 +8320,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="n">
-        <v>-14.0599450286916</v>
+        <v>-25.77941793785716</v>
       </c>
     </row>
     <row r="98">
@@ -7972,7 +8328,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="n">
-        <v>-14.05060467383023</v>
+        <v>-26.47518553769847</v>
       </c>
     </row>
     <row r="99">
@@ -7980,7 +8336,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="n">
-        <v>-13.98606621166202</v>
+        <v>-24.7648408225994</v>
       </c>
     </row>
     <row r="100">
@@ -7988,7 +8344,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="n">
-        <v>-13.99136988467756</v>
+        <v>-24.51529466147385</v>
       </c>
     </row>
     <row r="101">
@@ -7996,7 +8352,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="n">
-        <v>-13.99280264198262</v>
+        <v>-24.91889719831956</v>
       </c>
     </row>
     <row r="102">
@@ -8004,7 +8360,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="n">
-        <v>-14.04934770413961</v>
+        <v>-24.94041354065502</v>
       </c>
     </row>
     <row r="103">
@@ -8012,7 +8368,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="n">
-        <v>-14.09852367973042</v>
+        <v>-25.7845996661249</v>
       </c>
     </row>
     <row r="104">
@@ -8020,7 +8376,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="n">
-        <v>-13.93138083109153</v>
+        <v>-25.42136538004819</v>
       </c>
     </row>
     <row r="105">
@@ -8028,7 +8384,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="n">
-        <v>-14.10886741051496</v>
+        <v>-25.33416692327562</v>
       </c>
     </row>
     <row r="106">
@@ -8036,7 +8392,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="n">
-        <v>-14.03917916142978</v>
+        <v>-25.49532227321872</v>
       </c>
     </row>
     <row r="107">
@@ -8044,7 +8400,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="n">
-        <v>-14.05915675601725</v>
+        <v>-24.98071692407947</v>
       </c>
     </row>
     <row r="108">
@@ -8052,7 +8408,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="n">
-        <v>-14.17628436379798</v>
+        <v>-25.15172511214652</v>
       </c>
     </row>
     <row r="109">
@@ -8060,7 +8416,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="n">
-        <v>-14.12692416665346</v>
+        <v>-25.2100096938803</v>
       </c>
     </row>
     <row r="110">
@@ -8068,7 +8424,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="n">
-        <v>-14.28126907351781</v>
+        <v>-25.14010356137804</v>
       </c>
     </row>
     <row r="111">
@@ -8076,7 +8432,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="3" t="n">
-        <v>-14.28472786162676</v>
+        <v>-25.72711687157199</v>
       </c>
     </row>
     <row r="112">
@@ -8084,7 +8440,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="3" t="n">
-        <v>-14.57534727809472</v>
+        <v>-26.4092519632342</v>
       </c>
     </row>
     <row r="113">
@@ -8092,7 +8448,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="3" t="n">
-        <v>-14.59491763562055</v>
+        <v>-25.60049496247373</v>
       </c>
     </row>
     <row r="114">
@@ -8100,7 +8456,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="3" t="n">
-        <v>-14.79808654078255</v>
+        <v>-26.60937364704757</v>
       </c>
     </row>
     <row r="115">
@@ -8108,7 +8464,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="3" t="n">
-        <v>-14.43770039839499</v>
+        <v>-26.66491845718012</v>
       </c>
     </row>
     <row r="116">
@@ -8116,7 +8472,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="3" t="n">
-        <v>-14.41391174950172</v>
+        <v>-26.74516977234871</v>
       </c>
     </row>
     <row r="117">
@@ -8124,7 +8480,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="3" t="n">
-        <v>-14.85676247464413</v>
+        <v>-26.56115159599926</v>
       </c>
     </row>
     <row r="118">
@@ -8132,7 +8488,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="3" t="n">
-        <v>-14.66590250175511</v>
+        <v>-26.45592245136687</v>
       </c>
     </row>
     <row r="119">
@@ -8140,7 +8496,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="3" t="n">
-        <v>-14.63748800318738</v>
+        <v>-26.36553594246237</v>
       </c>
     </row>
     <row r="120">
@@ -8148,7 +8504,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="3" t="n">
-        <v>-15.35885457145086</v>
+        <v>-27.30885133572827</v>
       </c>
     </row>
     <row r="121">
@@ -8156,7 +8512,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="3" t="n">
-        <v>-15.24834562294977</v>
+        <v>-27.46252335523895</v>
       </c>
     </row>
     <row r="122">
@@ -8164,7 +8520,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="3" t="n">
-        <v>-14.88300374017147</v>
+        <v>-27.74486775328839</v>
       </c>
     </row>
     <row r="123">
@@ -8172,7 +8528,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="3" t="n">
-        <v>-15.50779555156488</v>
+        <v>-27.74775884876685</v>
       </c>
     </row>
     <row r="124">
@@ -8180,7 +8536,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="3" t="n">
-        <v>-15.39422681456549</v>
+        <v>-27.7580244055921</v>
       </c>
     </row>
     <row r="125">
@@ -8188,7 +8544,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="3" t="n">
-        <v>-15.00786528450921</v>
+        <v>-27.85752383212414</v>
       </c>
     </row>
     <row r="126">
@@ -8196,7 +8552,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="3" t="n">
-        <v>-15.02461684707031</v>
+        <v>-28.20234505483714</v>
       </c>
     </row>
     <row r="127">
@@ -8204,7 +8560,7 @@
         <v>125</v>
       </c>
       <c r="B127" s="3" t="n">
-        <v>-15.2668848654778</v>
+        <v>-27.89012414367866</v>
       </c>
     </row>
     <row r="128">
@@ -8212,7 +8568,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="3" t="n">
-        <v>-14.94548501325241</v>
+        <v>-27.73012408273372</v>
       </c>
     </row>
     <row r="129">
@@ -8220,7 +8576,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="3" t="n">
-        <v>-14.96019911844317</v>
+        <v>-28.21250607366409</v>
       </c>
     </row>
     <row r="130">
@@ -8228,7 +8584,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="3" t="n">
-        <v>-15.09229979826874</v>
+        <v>-28.04169309566133</v>
       </c>
     </row>
     <row r="131">
@@ -8236,7 +8592,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="3" t="n">
-        <v>-14.91665061365247</v>
+        <v>-28.03050379962899</v>
       </c>
     </row>
     <row r="132">
@@ -8244,7 +8600,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="3" t="n">
-        <v>-14.70845263462436</v>
+        <v>-27.80641138583103</v>
       </c>
     </row>
     <row r="133">
@@ -8252,7 +8608,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="3" t="n">
-        <v>-15.04638950965773</v>
+        <v>-27.48635051290409</v>
       </c>
     </row>
     <row r="134">
@@ -8260,7 +8616,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="3" t="n">
-        <v>-14.80400819678776</v>
+        <v>-28.20484531666725</v>
       </c>
     </row>
     <row r="135">
@@ -8268,7 +8624,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="3" t="n">
-        <v>-14.77955193539614</v>
+        <v>-28.00818798123677</v>
       </c>
     </row>
     <row r="136">
@@ -8276,7 +8632,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="3" t="n">
-        <v>-14.7801814271314</v>
+        <v>-28.20604831935052</v>
       </c>
     </row>
     <row r="137">
@@ -8284,7 +8640,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="3" t="n">
-        <v>-15.26837326317793</v>
+        <v>-27.81247484584569</v>
       </c>
     </row>
     <row r="138">
@@ -8292,7 +8648,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="3" t="n">
-        <v>-15.11420593171945</v>
+        <v>-27.98786026118864</v>
       </c>
     </row>
     <row r="139">
@@ -8300,7 +8656,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="3" t="n">
-        <v>-14.62553612126278</v>
+        <v>-27.9363193978333</v>
       </c>
     </row>
     <row r="140">
@@ -8308,7 +8664,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="3" t="n">
-        <v>-15.02238993830766</v>
+        <v>-28.10017090027342</v>
       </c>
     </row>
     <row r="141">
@@ -8316,7 +8672,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="3" t="n">
-        <v>-14.54768284194862</v>
+        <v>-28.63803756198344</v>
       </c>
     </row>
     <row r="142">
@@ -8324,7 +8680,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="3" t="n">
-        <v>-14.53854956919841</v>
+        <v>-28.26848410860942</v>
       </c>
     </row>
     <row r="143">
@@ -8332,7 +8688,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="3" t="n">
-        <v>-14.92134506554814</v>
+        <v>-28.1882576830054</v>
       </c>
     </row>
     <row r="144">
@@ -8340,7 +8696,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="3" t="n">
-        <v>-14.69594011594496</v>
+        <v>-27.61900511158033</v>
       </c>
     </row>
     <row r="145">
@@ -8348,14 +8704,14 @@
         <v>143</v>
       </c>
       <c r="B145" s="3" t="n">
-        <v>-14.73106260026286</v>
+        <v>-27.94963919137951</v>
       </c>
     </row>
     <row r="146">
       <c r="B146" s="3" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -8386,6 +8742,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>